--- a/220329 HTK UV LED Controller Project sheet.xlsx
+++ b/220329 HTK UV LED Controller Project sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f734f300cb83d8b/HTK DAIAN/MORITEX/UV LED CONTROLLER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f734f300cb83d8b/HTK DAIAN/MORITEX/UV LED CONTROLLER/HTK LED UV Project Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC679E1B-D3F3-4EE3-8381-454DCECC3A4C}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67488277-E78F-4E1B-BDDD-71A41B2A14DD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="323">
   <si>
     <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
   </si>
@@ -1110,6 +1110,9 @@
   <si>
     <t>A. FUNCTION DESIGN</t>
   </si>
+  <si>
+    <t>Thiếu BOM</t>
+  </si>
 </sst>
 </file>
 
@@ -1119,7 +1122,7 @@
     <numFmt numFmtId="164" formatCode="0.00_ "/>
     <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -1419,6 +1422,12 @@
       <b/>
       <sz val="18"/>
       <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1846,7 +1855,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2217,89 +2226,23 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2310,6 +2253,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2317,6 +2278,21 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2376,41 +2352,78 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -3644,10 +3657,10 @@
   <dimension ref="A1:GV112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AA28" sqref="AA28"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
@@ -3702,45 +3715,45 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="5"/>
-      <c r="V1" s="128" t="s">
+      <c r="V1" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="129"/>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="129"/>
-      <c r="Z1" s="129"/>
-      <c r="AA1" s="129"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
       <c r="AB1" s="52">
         <v>1</v>
       </c>
       <c r="AD1" s="51"/>
-      <c r="AE1" s="124" t="s">
+      <c r="AE1" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="125"/>
-      <c r="AG1" s="125"/>
-      <c r="AH1" s="125"/>
-      <c r="AI1" s="126"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="173"/>
+      <c r="AH1" s="173"/>
+      <c r="AI1" s="174"/>
       <c r="AJ1" s="54"/>
-      <c r="AK1" s="124" t="s">
+      <c r="AK1" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="127"/>
-      <c r="AM1" s="127"/>
-      <c r="AN1" s="126"/>
+      <c r="AL1" s="175"/>
+      <c r="AM1" s="175"/>
+      <c r="AN1" s="174"/>
       <c r="AO1" s="55"/>
-      <c r="AP1" s="128" t="s">
+      <c r="AP1" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="129"/>
-      <c r="AR1" s="129"/>
-      <c r="AS1" s="130"/>
+      <c r="AQ1" s="177"/>
+      <c r="AR1" s="177"/>
+      <c r="AS1" s="178"/>
       <c r="AT1" s="56"/>
-      <c r="AU1" s="128" t="s">
+      <c r="AU1" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" s="129"/>
-      <c r="AW1" s="129"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="177"/>
     </row>
     <row r="2" spans="1:204" ht="53.25" customHeight="1">
       <c r="A2" s="36" t="s">
@@ -3757,7 +3770,7 @@
       </c>
       <c r="I2" s="40">
         <f ca="1">TODAY()</f>
-        <v>44653</v>
+        <v>44655</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4188,47 +4201,47 @@
       <c r="GV5" s="76"/>
     </row>
     <row r="6" spans="1:204" s="6" customFormat="1" ht="44.25" customHeight="1">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="133" t="s">
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="137" t="s">
+      <c r="G6" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="131" t="s">
+      <c r="H6" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="131" t="s">
+      <c r="I6" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="139" t="s">
+      <c r="J6" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="131" t="s">
+      <c r="K6" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="131" t="s">
+      <c r="L6" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="131" t="s">
+      <c r="M6" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="131" t="s">
+      <c r="N6" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="131" t="s">
+      <c r="O6" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="135" t="s">
+      <c r="P6" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="135" t="s">
+      <c r="Q6" s="183"/>
+      <c r="R6" s="183" t="s">
         <v>25</v>
       </c>
       <c r="S6" s="93"/>
@@ -4425,23 +4438,23 @@
       <c r="GV6" s="103"/>
     </row>
     <row r="7" spans="1:204" ht="15.75" customHeight="1">
-      <c r="B7" s="144"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="136"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
       <c r="S7" s="28">
         <v>1</v>
       </c>
@@ -5520,12 +5533,12 @@
       <c r="A9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="147" t="s">
+      <c r="B9" s="145" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
       <c r="F9" s="59"/>
       <c r="G9" s="60" t="s">
         <v>30</v>
@@ -5733,12 +5746,12 @@
       <c r="GV9" s="13"/>
     </row>
     <row r="10" spans="1:204" ht="30" customHeight="1">
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="151"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="134"/>
       <c r="F10" s="23" t="s">
         <v>31</v>
       </c>
@@ -5954,12 +5967,12 @@
       <c r="GV10" s="13"/>
     </row>
     <row r="11" spans="1:204" ht="30" customHeight="1">
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="154"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
       <c r="F11" s="23"/>
       <c r="G11" s="26" t="s">
         <v>73</v>
@@ -6165,18 +6178,22 @@
       <c r="GV11" s="13"/>
     </row>
     <row r="12" spans="1:204" ht="36.75" customHeight="1">
-      <c r="B12" s="155"/>
-      <c r="C12" s="152" t="s">
+      <c r="B12" s="139"/>
+      <c r="C12" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="153"/>
-      <c r="E12" s="154"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="26"/>
+      <c r="G12" s="189" t="s">
+        <v>322</v>
+      </c>
       <c r="H12" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="41"/>
+      <c r="I12" s="190">
+        <v>44657</v>
+      </c>
       <c r="J12" s="14">
         <v>1</v>
       </c>
@@ -6377,13 +6394,13 @@
       <c r="GU12" s="13"/>
       <c r="GV12" s="13"/>
     </row>
-    <row r="13" spans="1:204" ht="37.5" customHeight="1">
-      <c r="B13" s="156"/>
-      <c r="C13" s="152" t="s">
+    <row r="13" spans="1:204" ht="37.5" hidden="1" customHeight="1">
+      <c r="B13" s="140"/>
+      <c r="C13" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="E13" s="154"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="23"/>
       <c r="G13" s="26"/>
       <c r="H13" s="14" t="s">
@@ -6594,19 +6611,21 @@
       <c r="GU13" s="105"/>
       <c r="GV13" s="105"/>
     </row>
-    <row r="14" spans="1:204" ht="26.25">
-      <c r="B14" s="156"/>
-      <c r="C14" s="152" t="s">
+    <row r="14" spans="1:204" ht="26.25" hidden="1">
+      <c r="B14" s="140"/>
+      <c r="C14" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="153"/>
-      <c r="E14" s="154"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="132"/>
       <c r="F14" s="23"/>
       <c r="G14" s="26"/>
       <c r="H14" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="41"/>
+      <c r="I14" s="41" t="s">
+        <v>150</v>
+      </c>
       <c r="J14" s="14">
         <v>5</v>
       </c>
@@ -6808,18 +6827,20 @@
       <c r="GV14" s="13"/>
     </row>
     <row r="15" spans="1:204" ht="26.25">
-      <c r="B15" s="156"/>
-      <c r="C15" s="152" t="s">
+      <c r="B15" s="140"/>
+      <c r="C15" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="153"/>
-      <c r="E15" s="154"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
       <c r="F15" s="23"/>
       <c r="G15" s="26"/>
       <c r="H15" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="41"/>
+      <c r="I15" s="190">
+        <v>44656</v>
+      </c>
       <c r="J15" s="14">
         <v>6</v>
       </c>
@@ -7021,18 +7042,20 @@
       <c r="GV15" s="13"/>
     </row>
     <row r="16" spans="1:204" ht="26.25">
-      <c r="B16" s="156"/>
-      <c r="C16" s="152" t="s">
+      <c r="B16" s="140"/>
+      <c r="C16" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="153"/>
-      <c r="E16" s="154"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="132"/>
       <c r="F16" s="23"/>
       <c r="G16" s="26"/>
       <c r="H16" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="41"/>
+      <c r="I16" s="41">
+        <v>44656</v>
+      </c>
       <c r="J16" s="14">
         <v>6</v>
       </c>
@@ -7234,18 +7257,20 @@
       <c r="GV16" s="13"/>
     </row>
     <row r="17" spans="2:204" ht="34.5" customHeight="1">
-      <c r="B17" s="157"/>
-      <c r="C17" s="152" t="s">
+      <c r="B17" s="141"/>
+      <c r="C17" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="153"/>
-      <c r="E17" s="154"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
       <c r="F17" s="23"/>
       <c r="G17" s="26"/>
       <c r="H17" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="41"/>
+      <c r="I17" s="41">
+        <v>44656</v>
+      </c>
       <c r="J17" s="14">
         <v>7</v>
       </c>
@@ -7447,12 +7472,12 @@
       <c r="GV17" s="13"/>
     </row>
     <row r="18" spans="2:204" ht="26.25">
-      <c r="B18" s="152" t="s">
+      <c r="B18" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="154"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
       <c r="F18" s="23"/>
       <c r="G18" s="26" t="s">
         <v>74</v>
@@ -7658,19 +7683,21 @@
       <c r="GV18" s="13"/>
     </row>
     <row r="19" spans="2:204" ht="39" customHeight="1">
-      <c r="B19" s="155"/>
-      <c r="C19" s="152" t="s">
+      <c r="B19" s="139"/>
+      <c r="C19" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="153"/>
-      <c r="E19" s="154"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="26"/>
+      <c r="G19" s="189" t="s">
+        <v>322</v>
+      </c>
       <c r="H19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="41" t="s">
-        <v>150</v>
+      <c r="I19" s="190">
+        <v>44657</v>
       </c>
       <c r="J19" s="14">
         <v>1</v>
@@ -7873,12 +7900,12 @@
       <c r="GV19" s="13"/>
     </row>
     <row r="20" spans="2:204" ht="34.5" customHeight="1">
-      <c r="B20" s="156"/>
-      <c r="C20" s="152" t="s">
+      <c r="B20" s="140"/>
+      <c r="C20" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="153"/>
-      <c r="E20" s="154"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132"/>
       <c r="F20" s="23"/>
       <c r="G20" s="26"/>
       <c r="H20" s="14" t="s">
@@ -8088,12 +8115,12 @@
       <c r="GV20" s="13"/>
     </row>
     <row r="21" spans="2:204" ht="34.5" customHeight="1">
-      <c r="B21" s="156"/>
-      <c r="C21" s="152" t="s">
+      <c r="B21" s="140"/>
+      <c r="C21" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="153"/>
-      <c r="E21" s="154"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
       <c r="F21" s="23"/>
       <c r="G21" s="26"/>
       <c r="H21" s="14" t="s">
@@ -8301,12 +8328,12 @@
       <c r="GV21" s="13"/>
     </row>
     <row r="22" spans="2:204" ht="37.5" customHeight="1">
-      <c r="B22" s="157"/>
-      <c r="C22" s="152" t="s">
+      <c r="B22" s="141"/>
+      <c r="C22" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="153"/>
-      <c r="E22" s="154"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
       <c r="F22" s="23"/>
       <c r="G22" s="26"/>
       <c r="H22" s="14" t="s">
@@ -8514,12 +8541,12 @@
       <c r="GV22" s="13"/>
     </row>
     <row r="23" spans="2:204" ht="26.25">
-      <c r="B23" s="152" t="s">
+      <c r="B23" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="154"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="23"/>
       <c r="G23" s="26" t="s">
         <v>75</v>
@@ -8725,18 +8752,22 @@
       <c r="GV23" s="13"/>
     </row>
     <row r="24" spans="2:204" ht="26.25">
-      <c r="B24" s="155"/>
-      <c r="C24" s="152" t="s">
+      <c r="B24" s="139"/>
+      <c r="C24" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="153"/>
-      <c r="E24" s="154"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="132"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="189" t="s">
+        <v>322</v>
+      </c>
       <c r="H24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="41"/>
+      <c r="I24" s="190">
+        <v>44657</v>
+      </c>
       <c r="J24" s="14">
         <v>1</v>
       </c>
@@ -8938,12 +8969,12 @@
       <c r="GV24" s="13"/>
     </row>
     <row r="25" spans="2:204" ht="36.75" customHeight="1">
-      <c r="B25" s="156"/>
-      <c r="C25" s="152" t="s">
+      <c r="B25" s="140"/>
+      <c r="C25" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="153"/>
-      <c r="E25" s="154"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="132"/>
       <c r="F25" s="23"/>
       <c r="G25" s="26"/>
       <c r="H25" s="14" t="s">
@@ -9151,12 +9182,12 @@
       <c r="GV25" s="13"/>
     </row>
     <row r="26" spans="2:204" ht="26.25">
-      <c r="B26" s="156"/>
-      <c r="C26" s="152" t="s">
+      <c r="B26" s="140"/>
+      <c r="C26" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="153"/>
-      <c r="E26" s="154"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="132"/>
       <c r="F26" s="23"/>
       <c r="G26" s="26"/>
       <c r="H26" s="14" t="s">
@@ -9364,12 +9395,12 @@
       <c r="GV26" s="13"/>
     </row>
     <row r="27" spans="2:204" ht="26.25">
-      <c r="B27" s="156"/>
-      <c r="C27" s="152" t="s">
+      <c r="B27" s="140"/>
+      <c r="C27" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="153"/>
-      <c r="E27" s="154"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="132"/>
       <c r="F27" s="23"/>
       <c r="G27" s="26"/>
       <c r="H27" s="14" t="s">
@@ -9577,12 +9608,12 @@
       <c r="GV27" s="13"/>
     </row>
     <row r="28" spans="2:204" ht="26.25">
-      <c r="B28" s="157"/>
-      <c r="C28" s="152" t="s">
+      <c r="B28" s="141"/>
+      <c r="C28" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="153"/>
-      <c r="E28" s="154"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="132"/>
       <c r="F28" s="23"/>
       <c r="G28" s="26"/>
       <c r="H28" s="14" t="s">
@@ -9790,12 +9821,12 @@
       <c r="GV28" s="13"/>
     </row>
     <row r="29" spans="2:204" ht="26.25">
-      <c r="B29" s="152" t="s">
+      <c r="B29" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="154"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="132"/>
       <c r="F29" s="23"/>
       <c r="G29" s="26" t="s">
         <v>76</v>
@@ -10001,18 +10032,22 @@
       <c r="GV29" s="13"/>
     </row>
     <row r="30" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B30" s="155"/>
-      <c r="C30" s="152" t="s">
+      <c r="B30" s="139"/>
+      <c r="C30" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="153"/>
-      <c r="E30" s="154"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="132"/>
       <c r="F30" s="23"/>
-      <c r="G30" s="26"/>
+      <c r="G30" s="189" t="s">
+        <v>322</v>
+      </c>
       <c r="H30" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="41"/>
+      <c r="I30" s="190">
+        <v>44657</v>
+      </c>
       <c r="J30" s="14">
         <v>1</v>
       </c>
@@ -10214,12 +10249,12 @@
       <c r="GV30" s="13"/>
     </row>
     <row r="31" spans="2:204" ht="36.75" customHeight="1">
-      <c r="B31" s="156"/>
-      <c r="C31" s="152" t="s">
+      <c r="B31" s="140"/>
+      <c r="C31" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="153"/>
-      <c r="E31" s="154"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="132"/>
       <c r="F31" s="23"/>
       <c r="G31" s="26"/>
       <c r="H31" s="14" t="s">
@@ -10245,7 +10280,7 @@
       <c r="V31" s="12"/>
       <c r="W31" s="13"/>
       <c r="X31" s="12"/>
-      <c r="Y31" s="186"/>
+      <c r="Y31" s="127"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
       <c r="AB31" s="11"/>
@@ -10427,12 +10462,12 @@
       <c r="GV31" s="13"/>
     </row>
     <row r="32" spans="2:204" ht="26.25">
-      <c r="B32" s="156"/>
-      <c r="C32" s="152" t="s">
+      <c r="B32" s="140"/>
+      <c r="C32" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="153"/>
-      <c r="E32" s="154"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="132"/>
       <c r="F32" s="23"/>
       <c r="G32" s="26"/>
       <c r="H32" s="14" t="s">
@@ -10456,9 +10491,9 @@
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
-      <c r="W32" s="183"/>
-      <c r="X32" s="185"/>
-      <c r="Y32" s="188"/>
+      <c r="W32" s="124"/>
+      <c r="X32" s="126"/>
+      <c r="Y32" s="129"/>
       <c r="Z32" s="90"/>
       <c r="AA32" s="13"/>
       <c r="AB32" s="11"/>
@@ -10640,12 +10675,12 @@
       <c r="GV32" s="13"/>
     </row>
     <row r="33" spans="2:204" ht="26.25">
-      <c r="B33" s="156"/>
-      <c r="C33" s="152" t="s">
+      <c r="B33" s="140"/>
+      <c r="C33" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="153"/>
-      <c r="E33" s="154"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="132"/>
       <c r="F33" s="23"/>
       <c r="G33" s="26"/>
       <c r="H33" s="14" t="s">
@@ -10670,8 +10705,8 @@
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
       <c r="W33" s="13"/>
-      <c r="X33" s="184"/>
-      <c r="Y33" s="187"/>
+      <c r="X33" s="125"/>
+      <c r="Y33" s="128"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
       <c r="AB33" s="11"/>
@@ -10853,12 +10888,12 @@
       <c r="GV33" s="13"/>
     </row>
     <row r="34" spans="2:204" ht="26.25">
-      <c r="B34" s="156"/>
-      <c r="C34" s="152" t="s">
+      <c r="B34" s="140"/>
+      <c r="C34" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="153"/>
-      <c r="E34" s="154"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="132"/>
       <c r="F34" s="23"/>
       <c r="G34" s="26" t="s">
         <v>151</v>
@@ -11068,12 +11103,12 @@
       <c r="GV34" s="13"/>
     </row>
     <row r="35" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B35" s="157"/>
-      <c r="C35" s="152" t="s">
+      <c r="B35" s="141"/>
+      <c r="C35" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="153"/>
-      <c r="E35" s="154"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="132"/>
       <c r="F35" s="23"/>
       <c r="G35" s="26"/>
       <c r="H35" s="14" t="s">
@@ -11281,12 +11316,12 @@
       <c r="GV35" s="13"/>
     </row>
     <row r="36" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B36" s="152" t="s">
+      <c r="B36" s="130" t="s">
         <v>293</v>
       </c>
-      <c r="C36" s="153"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="154"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="132"/>
       <c r="F36" s="23"/>
       <c r="G36" s="26" t="s">
         <v>294</v>
@@ -11496,12 +11531,12 @@
       <c r="GV36" s="13"/>
     </row>
     <row r="37" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B37" s="179"/>
-      <c r="C37" s="153" t="s">
+      <c r="B37" s="135"/>
+      <c r="C37" s="131" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="153"/>
-      <c r="E37" s="154"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="132"/>
       <c r="F37" s="23"/>
       <c r="G37" s="26"/>
       <c r="H37" s="14" t="s">
@@ -11709,12 +11744,12 @@
       <c r="GV37" s="13"/>
     </row>
     <row r="38" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B38" s="180"/>
-      <c r="C38" s="153" t="s">
+      <c r="B38" s="136"/>
+      <c r="C38" s="131" t="s">
         <v>296</v>
       </c>
-      <c r="D38" s="153"/>
-      <c r="E38" s="154"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="132"/>
       <c r="F38" s="23"/>
       <c r="G38" s="26"/>
       <c r="H38" s="14" t="s">
@@ -11722,7 +11757,7 @@
       </c>
       <c r="I38" s="41"/>
       <c r="J38" s="14">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="K38" s="14">
         <v>5</v>
@@ -11922,12 +11957,12 @@
       <c r="GV38" s="13"/>
     </row>
     <row r="39" spans="2:204" ht="26.25">
-      <c r="B39" s="149" t="s">
+      <c r="B39" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="151"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="134"/>
       <c r="F39" s="23" t="s">
         <v>28</v>
       </c>
@@ -12143,12 +12178,12 @@
       <c r="GV39" s="13"/>
     </row>
     <row r="40" spans="2:204" ht="26.25">
-      <c r="B40" s="152" t="s">
+      <c r="B40" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="153"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="154"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="132"/>
       <c r="F40" s="64"/>
       <c r="G40" s="26"/>
       <c r="H40" s="119" t="s">
@@ -12356,18 +12391,20 @@
       <c r="GV40" s="13"/>
     </row>
     <row r="41" spans="2:204" ht="26.25">
-      <c r="B41" s="155"/>
-      <c r="C41" s="152" t="s">
+      <c r="B41" s="139"/>
+      <c r="C41" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="153"/>
-      <c r="E41" s="154"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="132"/>
       <c r="F41" s="64"/>
       <c r="G41" s="26"/>
       <c r="H41" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I41" s="41"/>
+      <c r="I41" s="190">
+        <v>44656</v>
+      </c>
       <c r="J41" s="14">
         <v>4</v>
       </c>
@@ -12569,18 +12606,20 @@
       <c r="GV41" s="13"/>
     </row>
     <row r="42" spans="2:204" ht="26.25">
-      <c r="B42" s="156"/>
-      <c r="C42" s="152" t="s">
+      <c r="B42" s="140"/>
+      <c r="C42" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="153"/>
-      <c r="E42" s="154"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="132"/>
       <c r="F42" s="64"/>
       <c r="G42" s="26"/>
       <c r="H42" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I42" s="41"/>
+      <c r="I42" s="190">
+        <v>44656</v>
+      </c>
       <c r="J42" s="14">
         <v>5</v>
       </c>
@@ -12782,18 +12821,20 @@
       <c r="GV42" s="13"/>
     </row>
     <row r="43" spans="2:204" ht="26.25">
-      <c r="B43" s="156"/>
-      <c r="C43" s="152" t="s">
+      <c r="B43" s="140"/>
+      <c r="C43" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="153"/>
-      <c r="E43" s="154"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="132"/>
       <c r="F43" s="64"/>
       <c r="G43" s="26"/>
       <c r="H43" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I43" s="41"/>
+      <c r="I43" s="190">
+        <v>44657</v>
+      </c>
       <c r="J43" s="14">
         <v>6</v>
       </c>
@@ -12995,18 +13036,20 @@
       <c r="GV43" s="13"/>
     </row>
     <row r="44" spans="2:204" ht="30" customHeight="1">
-      <c r="B44" s="156"/>
-      <c r="C44" s="152" t="s">
+      <c r="B44" s="140"/>
+      <c r="C44" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="153"/>
-      <c r="E44" s="154"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="132"/>
       <c r="F44" s="64"/>
       <c r="G44" s="26"/>
       <c r="H44" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I44" s="41"/>
+      <c r="I44" s="190">
+        <v>44658</v>
+      </c>
       <c r="J44" s="14">
         <v>7</v>
       </c>
@@ -13208,18 +13251,20 @@
       <c r="GV44" s="13"/>
     </row>
     <row r="45" spans="2:204" ht="26.25">
-      <c r="B45" s="156"/>
-      <c r="C45" s="152" t="s">
+      <c r="B45" s="140"/>
+      <c r="C45" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="153"/>
-      <c r="E45" s="154"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="132"/>
       <c r="F45" s="64"/>
       <c r="G45" s="26"/>
       <c r="H45" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I45" s="41"/>
+      <c r="I45" s="190">
+        <v>44658</v>
+      </c>
       <c r="J45" s="14">
         <v>8</v>
       </c>
@@ -13421,18 +13466,20 @@
       <c r="GV45" s="13"/>
     </row>
     <row r="46" spans="2:204" ht="37.5" customHeight="1">
-      <c r="B46" s="157"/>
-      <c r="C46" s="152" t="s">
+      <c r="B46" s="141"/>
+      <c r="C46" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="153"/>
-      <c r="E46" s="154"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="132"/>
       <c r="F46" s="64"/>
       <c r="G46" s="26"/>
       <c r="H46" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I46" s="41"/>
+      <c r="I46" s="190">
+        <v>44659</v>
+      </c>
       <c r="J46" s="14">
         <v>9</v>
       </c>
@@ -13634,12 +13681,12 @@
       <c r="GV46" s="13"/>
     </row>
     <row r="47" spans="2:204" ht="26.25">
-      <c r="B47" s="152" t="s">
+      <c r="B47" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="153"/>
-      <c r="D47" s="153"/>
-      <c r="E47" s="154"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="132"/>
       <c r="F47" s="64"/>
       <c r="G47" s="26"/>
       <c r="H47" s="119" t="s">
@@ -13848,11 +13895,11 @@
     </row>
     <row r="48" spans="2:204" ht="39" customHeight="1">
       <c r="B48" s="65"/>
-      <c r="C48" s="152" t="s">
+      <c r="C48" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="153"/>
-      <c r="E48" s="154"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="132"/>
       <c r="F48" s="64"/>
       <c r="G48" s="26"/>
       <c r="H48" s="119" t="s">
@@ -14060,12 +14107,12 @@
       <c r="GV48" s="13"/>
     </row>
     <row r="49" spans="2:204" ht="26.25">
-      <c r="B49" s="152" t="s">
+      <c r="B49" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="153"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="154"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="131"/>
+      <c r="E49" s="132"/>
       <c r="F49" s="64"/>
       <c r="G49" s="26"/>
       <c r="H49" s="119" t="s">
@@ -14273,12 +14320,12 @@
       <c r="GV49" s="13"/>
     </row>
     <row r="50" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B50" s="179"/>
-      <c r="C50" s="152" t="s">
+      <c r="B50" s="135"/>
+      <c r="C50" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="153"/>
-      <c r="E50" s="154"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="132"/>
       <c r="F50" s="64"/>
       <c r="G50" s="26"/>
       <c r="H50" s="119" t="s">
@@ -14486,12 +14533,12 @@
       <c r="GV50" s="13"/>
     </row>
     <row r="51" spans="2:204" ht="26.25">
-      <c r="B51" s="182"/>
-      <c r="C51" s="152" t="s">
+      <c r="B51" s="138"/>
+      <c r="C51" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="153"/>
-      <c r="E51" s="154"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="132"/>
       <c r="F51" s="64"/>
       <c r="G51" s="26"/>
       <c r="H51" s="119" t="s">
@@ -14699,12 +14746,12 @@
       <c r="GV51" s="13"/>
     </row>
     <row r="52" spans="2:204" ht="26.25">
-      <c r="B52" s="182"/>
-      <c r="C52" s="152" t="s">
+      <c r="B52" s="138"/>
+      <c r="C52" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="153"/>
-      <c r="E52" s="154"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="132"/>
       <c r="F52" s="64"/>
       <c r="G52" s="26"/>
       <c r="H52" s="119" t="s">
@@ -14912,12 +14959,12 @@
       <c r="GV52" s="13"/>
     </row>
     <row r="53" spans="2:204" ht="32.25" customHeight="1">
-      <c r="B53" s="182"/>
-      <c r="C53" s="152" t="s">
+      <c r="B53" s="138"/>
+      <c r="C53" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="153"/>
-      <c r="E53" s="154"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="132"/>
       <c r="F53" s="64"/>
       <c r="G53" s="26"/>
       <c r="H53" s="119" t="s">
@@ -15125,12 +15172,12 @@
       <c r="GV53" s="13"/>
     </row>
     <row r="54" spans="2:204" ht="43.5" customHeight="1">
-      <c r="B54" s="182"/>
-      <c r="C54" s="152" t="s">
+      <c r="B54" s="138"/>
+      <c r="C54" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="153"/>
-      <c r="E54" s="154"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="132"/>
       <c r="F54" s="64"/>
       <c r="G54" s="26"/>
       <c r="H54" s="119" t="s">
@@ -15338,12 +15385,12 @@
       <c r="GV54" s="13"/>
     </row>
     <row r="55" spans="2:204" ht="43.5" customHeight="1">
-      <c r="B55" s="182"/>
-      <c r="C55" s="152" t="s">
+      <c r="B55" s="138"/>
+      <c r="C55" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="153"/>
-      <c r="E55" s="154"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="132"/>
       <c r="F55" s="64"/>
       <c r="G55" s="26"/>
       <c r="H55" s="119" t="s">
@@ -15551,12 +15598,12 @@
       <c r="GV55" s="13"/>
     </row>
     <row r="56" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B56" s="182"/>
-      <c r="C56" s="152" t="s">
+      <c r="B56" s="138"/>
+      <c r="C56" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="153"/>
-      <c r="E56" s="154"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="132"/>
       <c r="F56" s="64"/>
       <c r="G56" s="26"/>
       <c r="H56" s="119" t="s">
@@ -15764,12 +15811,12 @@
       <c r="GV56" s="13"/>
     </row>
     <row r="57" spans="2:204" ht="26.25">
-      <c r="B57" s="182"/>
-      <c r="C57" s="152" t="s">
+      <c r="B57" s="138"/>
+      <c r="C57" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="153"/>
-      <c r="E57" s="154"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="132"/>
       <c r="F57" s="64"/>
       <c r="G57" s="26"/>
       <c r="H57" s="119" t="s">
@@ -15977,12 +16024,12 @@
       <c r="GV57" s="13"/>
     </row>
     <row r="58" spans="2:204" ht="26.25">
-      <c r="B58" s="182"/>
-      <c r="C58" s="179"/>
-      <c r="D58" s="177" t="s">
+      <c r="B58" s="138"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="142" t="s">
         <v>100</v>
       </c>
-      <c r="E58" s="178"/>
+      <c r="E58" s="143"/>
       <c r="F58" s="64"/>
       <c r="G58" s="26"/>
       <c r="H58" s="119" t="s">
@@ -16190,12 +16237,12 @@
       <c r="GV58" s="13"/>
     </row>
     <row r="59" spans="2:204" ht="26.25">
-      <c r="B59" s="182"/>
-      <c r="C59" s="182"/>
-      <c r="D59" s="177" t="s">
+      <c r="B59" s="138"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="E59" s="178"/>
+      <c r="E59" s="143"/>
       <c r="F59" s="64"/>
       <c r="G59" s="26"/>
       <c r="H59" s="119" t="s">
@@ -16403,9 +16450,9 @@
       <c r="GV59" s="13"/>
     </row>
     <row r="60" spans="2:204" ht="36" customHeight="1">
-      <c r="B60" s="182"/>
-      <c r="C60" s="182"/>
-      <c r="D60" s="179"/>
+      <c r="B60" s="138"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="135"/>
       <c r="E60" s="65" t="s">
         <v>105</v>
       </c>
@@ -16616,9 +16663,9 @@
       <c r="GV60" s="13"/>
     </row>
     <row r="61" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B61" s="182"/>
-      <c r="C61" s="182"/>
-      <c r="D61" s="182"/>
+      <c r="B61" s="138"/>
+      <c r="C61" s="138"/>
+      <c r="D61" s="138"/>
       <c r="E61" s="65" t="s">
         <v>106</v>
       </c>
@@ -16829,9 +16876,9 @@
       <c r="GV61" s="13"/>
     </row>
     <row r="62" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B62" s="182"/>
-      <c r="C62" s="182"/>
-      <c r="D62" s="182"/>
+      <c r="B62" s="138"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="138"/>
       <c r="E62" s="65" t="s">
         <v>108</v>
       </c>
@@ -17042,9 +17089,9 @@
       <c r="GV62" s="13"/>
     </row>
     <row r="63" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B63" s="182"/>
-      <c r="C63" s="182"/>
-      <c r="D63" s="182"/>
+      <c r="B63" s="138"/>
+      <c r="C63" s="138"/>
+      <c r="D63" s="138"/>
       <c r="E63" s="65" t="s">
         <v>112</v>
       </c>
@@ -17255,9 +17302,9 @@
       <c r="GV63" s="13"/>
     </row>
     <row r="64" spans="2:204" ht="26.25">
-      <c r="B64" s="182"/>
-      <c r="C64" s="182"/>
-      <c r="D64" s="182"/>
+      <c r="B64" s="138"/>
+      <c r="C64" s="138"/>
+      <c r="D64" s="138"/>
       <c r="E64" s="65" t="s">
         <v>107</v>
       </c>
@@ -17468,9 +17515,9 @@
       <c r="GV64" s="13"/>
     </row>
     <row r="65" spans="1:204" ht="26.25">
-      <c r="B65" s="182"/>
-      <c r="C65" s="182"/>
-      <c r="D65" s="182"/>
+      <c r="B65" s="138"/>
+      <c r="C65" s="138"/>
+      <c r="D65" s="138"/>
       <c r="E65" s="65" t="s">
         <v>109</v>
       </c>
@@ -17681,9 +17728,9 @@
       <c r="GV65" s="13"/>
     </row>
     <row r="66" spans="1:204" ht="26.25">
-      <c r="B66" s="182"/>
-      <c r="C66" s="182"/>
-      <c r="D66" s="182"/>
+      <c r="B66" s="138"/>
+      <c r="C66" s="138"/>
+      <c r="D66" s="138"/>
       <c r="E66" s="65" t="s">
         <v>110</v>
       </c>
@@ -17894,9 +17941,9 @@
       <c r="GV66" s="13"/>
     </row>
     <row r="67" spans="1:204" ht="37.5" customHeight="1">
-      <c r="B67" s="182"/>
-      <c r="C67" s="182"/>
-      <c r="D67" s="180"/>
+      <c r="B67" s="138"/>
+      <c r="C67" s="138"/>
+      <c r="D67" s="136"/>
       <c r="E67" s="65" t="s">
         <v>111</v>
       </c>
@@ -18107,12 +18154,12 @@
       <c r="GV67" s="13"/>
     </row>
     <row r="68" spans="1:204" ht="33" customHeight="1">
-      <c r="B68" s="182"/>
-      <c r="C68" s="182"/>
-      <c r="D68" s="152" t="s">
+      <c r="B68" s="138"/>
+      <c r="C68" s="138"/>
+      <c r="D68" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="E68" s="154"/>
+      <c r="E68" s="132"/>
       <c r="F68" s="64"/>
       <c r="G68" s="26"/>
       <c r="H68" s="119" t="s">
@@ -18320,12 +18367,12 @@
       <c r="GV68" s="13"/>
     </row>
     <row r="69" spans="1:204" ht="26.25">
-      <c r="B69" s="182"/>
-      <c r="C69" s="182"/>
-      <c r="D69" s="152" t="s">
+      <c r="B69" s="138"/>
+      <c r="C69" s="138"/>
+      <c r="D69" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="E69" s="154"/>
+      <c r="E69" s="132"/>
       <c r="F69" s="64"/>
       <c r="G69" s="26"/>
       <c r="H69" s="119" t="s">
@@ -18533,12 +18580,12 @@
       <c r="GV69" s="13"/>
     </row>
     <row r="70" spans="1:204" ht="34.5" customHeight="1">
-      <c r="B70" s="180"/>
-      <c r="C70" s="180"/>
-      <c r="D70" s="152" t="s">
+      <c r="B70" s="136"/>
+      <c r="C70" s="136"/>
+      <c r="D70" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="E70" s="154"/>
+      <c r="E70" s="132"/>
       <c r="F70" s="64"/>
       <c r="G70" s="26"/>
       <c r="H70" s="119" t="s">
@@ -18746,12 +18793,12 @@
       <c r="GV70" s="13"/>
     </row>
     <row r="71" spans="1:204" ht="26.25">
-      <c r="B71" s="149" t="s">
+      <c r="B71" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="150"/>
-      <c r="D71" s="150"/>
-      <c r="E71" s="151"/>
+      <c r="C71" s="133"/>
+      <c r="D71" s="133"/>
+      <c r="E71" s="134"/>
       <c r="F71" s="23" t="s">
         <v>27</v>
       </c>
@@ -18969,10 +19016,10 @@
     <row r="72" spans="1:204" ht="45" customHeight="1">
       <c r="B72" s="97"/>
       <c r="C72" s="98"/>
-      <c r="D72" s="181" t="s">
+      <c r="D72" s="137" t="s">
         <v>312</v>
       </c>
-      <c r="E72" s="181"/>
+      <c r="E72" s="137"/>
       <c r="F72" s="114"/>
       <c r="G72" s="26"/>
       <c r="H72" s="119" t="s">
@@ -19182,10 +19229,10 @@
     <row r="73" spans="1:204" ht="47.25" customHeight="1">
       <c r="B73" s="97"/>
       <c r="C73" s="98"/>
-      <c r="D73" s="181" t="s">
+      <c r="D73" s="137" t="s">
         <v>313</v>
       </c>
-      <c r="E73" s="181"/>
+      <c r="E73" s="137"/>
       <c r="F73" s="64"/>
       <c r="G73" s="26"/>
       <c r="H73" s="119" t="s">
@@ -19395,10 +19442,10 @@
     <row r="74" spans="1:204" ht="26.25">
       <c r="B74" s="97"/>
       <c r="C74" s="98"/>
-      <c r="D74" s="181" t="s">
+      <c r="D74" s="137" t="s">
         <v>314</v>
       </c>
-      <c r="E74" s="181"/>
+      <c r="E74" s="137"/>
       <c r="F74" s="64"/>
       <c r="G74" s="26"/>
       <c r="H74" s="119" t="s">
@@ -19609,12 +19656,12 @@
       <c r="A75" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="147" t="s">
+      <c r="B75" s="145" t="s">
         <v>320</v>
       </c>
-      <c r="C75" s="148"/>
-      <c r="D75" s="148"/>
-      <c r="E75" s="148"/>
+      <c r="C75" s="146"/>
+      <c r="D75" s="146"/>
+      <c r="E75" s="146"/>
       <c r="F75" s="27"/>
       <c r="G75" s="7"/>
       <c r="H75" s="8"/>
@@ -19816,12 +19863,12 @@
       <c r="GV75" s="13"/>
     </row>
     <row r="76" spans="1:204" ht="26.25">
-      <c r="B76" s="149" t="s">
+      <c r="B76" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="150"/>
-      <c r="D76" s="150"/>
-      <c r="E76" s="151"/>
+      <c r="C76" s="133"/>
+      <c r="D76" s="133"/>
+      <c r="E76" s="134"/>
       <c r="F76" s="23" t="s">
         <v>31</v>
       </c>
@@ -20038,11 +20085,11 @@
     </row>
     <row r="77" spans="1:204" ht="44.25" customHeight="1">
       <c r="B77" s="97"/>
-      <c r="C77" s="150" t="s">
+      <c r="C77" s="133" t="s">
         <v>298</v>
       </c>
-      <c r="D77" s="150"/>
-      <c r="E77" s="151"/>
+      <c r="D77" s="133"/>
+      <c r="E77" s="134"/>
       <c r="F77" s="23"/>
       <c r="G77" s="26"/>
       <c r="H77" s="14" t="s">
@@ -20251,11 +20298,11 @@
     </row>
     <row r="78" spans="1:204" ht="60.75" customHeight="1">
       <c r="B78" s="97"/>
-      <c r="C78" s="150" t="s">
+      <c r="C78" s="133" t="s">
         <v>304</v>
       </c>
-      <c r="D78" s="150"/>
-      <c r="E78" s="151"/>
+      <c r="D78" s="133"/>
+      <c r="E78" s="134"/>
       <c r="F78" s="23"/>
       <c r="G78" s="26"/>
       <c r="H78" s="14" t="s">
@@ -20464,11 +20511,11 @@
     </row>
     <row r="79" spans="1:204" ht="26.25">
       <c r="B79" s="97"/>
-      <c r="C79" s="150" t="s">
+      <c r="C79" s="133" t="s">
         <v>283</v>
       </c>
-      <c r="D79" s="150"/>
-      <c r="E79" s="151"/>
+      <c r="D79" s="133"/>
+      <c r="E79" s="134"/>
       <c r="F79" s="23"/>
       <c r="G79" s="26"/>
       <c r="H79" s="14" t="s">
@@ -20677,11 +20724,11 @@
     </row>
     <row r="80" spans="1:204" ht="26.25">
       <c r="B80" s="97"/>
-      <c r="C80" s="150" t="s">
+      <c r="C80" s="133" t="s">
         <v>284</v>
       </c>
-      <c r="D80" s="150"/>
-      <c r="E80" s="151"/>
+      <c r="D80" s="133"/>
+      <c r="E80" s="134"/>
       <c r="F80" s="23"/>
       <c r="G80" s="26"/>
       <c r="H80" s="14" t="s">
@@ -20889,12 +20936,12 @@
       <c r="GV80" s="13"/>
     </row>
     <row r="81" spans="1:204" ht="26.25">
-      <c r="B81" s="149" t="s">
+      <c r="B81" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="C81" s="150"/>
-      <c r="D81" s="150"/>
-      <c r="E81" s="151"/>
+      <c r="C81" s="133"/>
+      <c r="D81" s="133"/>
+      <c r="E81" s="134"/>
       <c r="F81" s="23" t="s">
         <v>28</v>
       </c>
@@ -21111,11 +21158,11 @@
     </row>
     <row r="82" spans="1:204" ht="48.75" customHeight="1">
       <c r="B82" s="97"/>
-      <c r="C82" s="150" t="s">
+      <c r="C82" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="D82" s="150"/>
-      <c r="E82" s="151"/>
+      <c r="D82" s="133"/>
+      <c r="E82" s="134"/>
       <c r="F82" s="23"/>
       <c r="G82" s="26"/>
       <c r="H82" s="119" t="s">
@@ -21324,11 +21371,11 @@
     </row>
     <row r="83" spans="1:204" ht="26.25">
       <c r="B83" s="97"/>
-      <c r="C83" s="150" t="s">
+      <c r="C83" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="D83" s="150"/>
-      <c r="E83" s="151"/>
+      <c r="D83" s="133"/>
+      <c r="E83" s="134"/>
       <c r="F83" s="23"/>
       <c r="G83" s="26"/>
       <c r="H83" s="119" t="s">
@@ -21536,12 +21583,12 @@
       <c r="GV83" s="13"/>
     </row>
     <row r="84" spans="1:204" ht="26.25">
-      <c r="B84" s="149" t="s">
+      <c r="B84" s="144" t="s">
         <v>280</v>
       </c>
-      <c r="C84" s="150"/>
-      <c r="D84" s="150"/>
-      <c r="E84" s="151"/>
+      <c r="C84" s="133"/>
+      <c r="D84" s="133"/>
+      <c r="E84" s="134"/>
       <c r="F84" s="47" t="s">
         <v>39</v>
       </c>
@@ -21757,12 +21804,12 @@
       <c r="GV84" s="13"/>
     </row>
     <row r="85" spans="1:204" ht="26.25">
-      <c r="B85" s="149" t="s">
+      <c r="B85" s="144" t="s">
         <v>281</v>
       </c>
-      <c r="C85" s="150"/>
-      <c r="D85" s="150"/>
-      <c r="E85" s="151"/>
+      <c r="C85" s="133"/>
+      <c r="D85" s="133"/>
+      <c r="E85" s="134"/>
       <c r="F85" s="23" t="s">
         <v>42</v>
       </c>
@@ -21978,12 +22025,12 @@
       <c r="GV85" s="13"/>
     </row>
     <row r="86" spans="1:204" ht="26.25">
-      <c r="B86" s="168"/>
-      <c r="C86" s="169"/>
-      <c r="D86" s="166" t="s">
+      <c r="B86" s="157"/>
+      <c r="C86" s="158"/>
+      <c r="D86" s="155" t="s">
         <v>291</v>
       </c>
-      <c r="E86" s="151"/>
+      <c r="E86" s="134"/>
       <c r="F86" s="23"/>
       <c r="G86" s="26"/>
       <c r="H86" s="122" t="s">
@@ -22191,8 +22238,8 @@
       <c r="GV86" s="13"/>
     </row>
     <row r="87" spans="1:204" ht="30" customHeight="1">
-      <c r="B87" s="170"/>
-      <c r="C87" s="171"/>
+      <c r="B87" s="159"/>
+      <c r="C87" s="160"/>
       <c r="D87" s="123"/>
       <c r="E87" s="99" t="s">
         <v>292</v>
@@ -22404,12 +22451,12 @@
       <c r="GV87" s="13"/>
     </row>
     <row r="88" spans="1:204" ht="26.25">
-      <c r="B88" s="170"/>
-      <c r="C88" s="172"/>
-      <c r="D88" s="167" t="s">
+      <c r="B88" s="159"/>
+      <c r="C88" s="161"/>
+      <c r="D88" s="156" t="s">
         <v>290</v>
       </c>
-      <c r="E88" s="151"/>
+      <c r="E88" s="134"/>
       <c r="F88" s="23"/>
       <c r="G88" s="26"/>
       <c r="H88" s="14"/>
@@ -22615,9 +22662,9 @@
       <c r="GV88" s="13"/>
     </row>
     <row r="89" spans="1:204" ht="49.5" customHeight="1">
-      <c r="B89" s="170"/>
-      <c r="C89" s="171"/>
-      <c r="D89" s="175"/>
+      <c r="B89" s="159"/>
+      <c r="C89" s="160"/>
+      <c r="D89" s="164"/>
       <c r="E89" s="99" t="s">
         <v>288</v>
       </c>
@@ -22828,9 +22875,9 @@
       <c r="GV89" s="13"/>
     </row>
     <row r="90" spans="1:204" ht="28.5" customHeight="1">
-      <c r="B90" s="173"/>
-      <c r="C90" s="174"/>
-      <c r="D90" s="176"/>
+      <c r="B90" s="162"/>
+      <c r="C90" s="163"/>
+      <c r="D90" s="165"/>
       <c r="E90" s="99" t="s">
         <v>289</v>
       </c>
@@ -23041,12 +23088,12 @@
       <c r="GV90" s="13"/>
     </row>
     <row r="91" spans="1:204" ht="26.25">
-      <c r="B91" s="149" t="s">
+      <c r="B91" s="144" t="s">
         <v>282</v>
       </c>
-      <c r="C91" s="150"/>
-      <c r="D91" s="163"/>
-      <c r="E91" s="151"/>
+      <c r="C91" s="133"/>
+      <c r="D91" s="152"/>
+      <c r="E91" s="134"/>
       <c r="F91" s="23" t="s">
         <v>29</v>
       </c>
@@ -23264,10 +23311,10 @@
     <row r="92" spans="1:204" ht="47.25" customHeight="1">
       <c r="B92" s="97"/>
       <c r="C92" s="98"/>
-      <c r="D92" s="150" t="s">
+      <c r="D92" s="133" t="s">
         <v>316</v>
       </c>
-      <c r="E92" s="151"/>
+      <c r="E92" s="134"/>
       <c r="F92" s="114"/>
       <c r="G92" s="46"/>
       <c r="H92" s="115" t="s">
@@ -23477,10 +23524,10 @@
     <row r="93" spans="1:204" ht="27" customHeight="1">
       <c r="B93" s="97"/>
       <c r="C93" s="98"/>
-      <c r="D93" s="150" t="s">
+      <c r="D93" s="133" t="s">
         <v>317</v>
       </c>
-      <c r="E93" s="151"/>
+      <c r="E93" s="134"/>
       <c r="F93" s="114"/>
       <c r="G93" s="46"/>
       <c r="H93" s="115" t="s">
@@ -23691,12 +23738,12 @@
       <c r="A94" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B94" s="164" t="s">
+      <c r="B94" s="153" t="s">
         <v>319</v>
       </c>
-      <c r="C94" s="165"/>
-      <c r="D94" s="165"/>
-      <c r="E94" s="165"/>
+      <c r="C94" s="154"/>
+      <c r="D94" s="154"/>
+      <c r="E94" s="154"/>
       <c r="F94" s="27"/>
       <c r="G94" s="7"/>
       <c r="H94" s="8"/>
@@ -23902,12 +23949,12 @@
       <c r="GV94" s="13"/>
     </row>
     <row r="95" spans="1:204" ht="26.25">
-      <c r="B95" s="149" t="s">
+      <c r="B95" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="150"/>
-      <c r="D95" s="150"/>
-      <c r="E95" s="151"/>
+      <c r="C95" s="133"/>
+      <c r="D95" s="133"/>
+      <c r="E95" s="134"/>
       <c r="F95" s="23" t="s">
         <v>31</v>
       </c>
@@ -24124,11 +24171,11 @@
     </row>
     <row r="96" spans="1:204" ht="48" customHeight="1">
       <c r="B96" s="97"/>
-      <c r="C96" s="150" t="s">
+      <c r="C96" s="133" t="s">
         <v>303</v>
       </c>
-      <c r="D96" s="150"/>
-      <c r="E96" s="151"/>
+      <c r="D96" s="133"/>
+      <c r="E96" s="134"/>
       <c r="F96" s="23"/>
       <c r="G96" s="16"/>
       <c r="H96" s="119" t="s">
@@ -24337,11 +24384,11 @@
     </row>
     <row r="97" spans="2:204" ht="26.25">
       <c r="B97" s="97"/>
-      <c r="C97" s="150" t="s">
+      <c r="C97" s="133" t="s">
         <v>305</v>
       </c>
-      <c r="D97" s="150"/>
-      <c r="E97" s="151"/>
+      <c r="D97" s="133"/>
+      <c r="E97" s="134"/>
       <c r="F97" s="23"/>
       <c r="G97" s="16"/>
       <c r="H97" s="119" t="s">
@@ -24550,11 +24597,11 @@
     </row>
     <row r="98" spans="2:204" ht="26.25">
       <c r="B98" s="97"/>
-      <c r="C98" s="150" t="s">
+      <c r="C98" s="133" t="s">
         <v>306</v>
       </c>
-      <c r="D98" s="150"/>
-      <c r="E98" s="151"/>
+      <c r="D98" s="133"/>
+      <c r="E98" s="134"/>
       <c r="F98" s="23"/>
       <c r="G98" s="16"/>
       <c r="H98" s="119" t="s">
@@ -24763,11 +24810,11 @@
     </row>
     <row r="99" spans="2:204" ht="26.25">
       <c r="B99" s="97"/>
-      <c r="C99" s="150" t="s">
+      <c r="C99" s="133" t="s">
         <v>283</v>
       </c>
-      <c r="D99" s="150"/>
-      <c r="E99" s="151"/>
+      <c r="D99" s="133"/>
+      <c r="E99" s="134"/>
       <c r="F99" s="23"/>
       <c r="G99" s="16"/>
       <c r="H99" s="119" t="s">
@@ -24976,11 +25023,11 @@
     </row>
     <row r="100" spans="2:204" ht="26.25">
       <c r="B100" s="97"/>
-      <c r="C100" s="150" t="s">
+      <c r="C100" s="133" t="s">
         <v>318</v>
       </c>
-      <c r="D100" s="150"/>
-      <c r="E100" s="151"/>
+      <c r="D100" s="133"/>
+      <c r="E100" s="134"/>
       <c r="F100" s="23"/>
       <c r="G100" s="26"/>
       <c r="H100" s="14" t="s">
@@ -25188,12 +25235,12 @@
       <c r="GV100" s="13"/>
     </row>
     <row r="101" spans="2:204" ht="26.25">
-      <c r="B101" s="149" t="s">
+      <c r="B101" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="C101" s="150"/>
-      <c r="D101" s="150"/>
-      <c r="E101" s="151"/>
+      <c r="C101" s="133"/>
+      <c r="D101" s="133"/>
+      <c r="E101" s="134"/>
       <c r="F101" s="23" t="s">
         <v>28</v>
       </c>
@@ -25408,11 +25455,11 @@
     </row>
     <row r="102" spans="2:204" ht="48.75" customHeight="1">
       <c r="B102" s="97"/>
-      <c r="C102" s="150" t="s">
+      <c r="C102" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="D102" s="150"/>
-      <c r="E102" s="151"/>
+      <c r="D102" s="133"/>
+      <c r="E102" s="134"/>
       <c r="F102" s="23"/>
       <c r="G102" s="26"/>
       <c r="H102" s="119" t="s">
@@ -25621,11 +25668,11 @@
     </row>
     <row r="103" spans="2:204" ht="26.25">
       <c r="B103" s="97"/>
-      <c r="C103" s="150" t="s">
+      <c r="C103" s="133" t="s">
         <v>311</v>
       </c>
-      <c r="D103" s="150"/>
-      <c r="E103" s="151"/>
+      <c r="D103" s="133"/>
+      <c r="E103" s="134"/>
       <c r="F103" s="23"/>
       <c r="G103" s="26"/>
       <c r="H103" s="119" t="s">
@@ -25833,12 +25880,12 @@
       <c r="GV103" s="13"/>
     </row>
     <row r="104" spans="2:204" ht="26.25">
-      <c r="B104" s="149" t="s">
+      <c r="B104" s="144" t="s">
         <v>299</v>
       </c>
-      <c r="C104" s="150"/>
-      <c r="D104" s="150"/>
-      <c r="E104" s="151"/>
+      <c r="C104" s="133"/>
+      <c r="D104" s="133"/>
+      <c r="E104" s="134"/>
       <c r="F104" s="47" t="s">
         <v>39</v>
       </c>
@@ -26052,12 +26099,12 @@
       <c r="GV104" s="13"/>
     </row>
     <row r="105" spans="2:204" ht="32.25">
-      <c r="B105" s="149" t="s">
+      <c r="B105" s="144" t="s">
         <v>300</v>
       </c>
-      <c r="C105" s="150"/>
-      <c r="D105" s="150"/>
-      <c r="E105" s="151"/>
+      <c r="C105" s="133"/>
+      <c r="D105" s="133"/>
+      <c r="E105" s="134"/>
       <c r="F105" s="23" t="s">
         <v>29</v>
       </c>
@@ -26274,11 +26321,11 @@
     </row>
     <row r="106" spans="2:204" ht="26.25">
       <c r="B106" s="97"/>
-      <c r="C106" s="150" t="s">
+      <c r="C106" s="133" t="s">
         <v>307</v>
       </c>
-      <c r="D106" s="150"/>
-      <c r="E106" s="151"/>
+      <c r="D106" s="133"/>
+      <c r="E106" s="134"/>
       <c r="F106" s="23"/>
       <c r="G106" s="46"/>
       <c r="H106" s="14" t="s">
@@ -26487,11 +26534,11 @@
     </row>
     <row r="107" spans="2:204" ht="26.25">
       <c r="B107" s="97"/>
-      <c r="C107" s="150" t="s">
+      <c r="C107" s="133" t="s">
         <v>308</v>
       </c>
-      <c r="D107" s="150"/>
-      <c r="E107" s="151"/>
+      <c r="D107" s="133"/>
+      <c r="E107" s="134"/>
       <c r="F107" s="23"/>
       <c r="G107" s="46"/>
       <c r="H107" s="14" t="s">
@@ -26700,11 +26747,11 @@
     </row>
     <row r="108" spans="2:204" ht="26.25">
       <c r="B108" s="97"/>
-      <c r="C108" s="150" t="s">
+      <c r="C108" s="133" t="s">
         <v>309</v>
       </c>
-      <c r="D108" s="150"/>
-      <c r="E108" s="151"/>
+      <c r="D108" s="133"/>
+      <c r="E108" s="134"/>
       <c r="F108" s="23"/>
       <c r="G108" s="46"/>
       <c r="H108" s="14" t="s">
@@ -26913,11 +26960,11 @@
     </row>
     <row r="109" spans="2:204" ht="26.25">
       <c r="B109" s="97"/>
-      <c r="C109" s="150" t="s">
+      <c r="C109" s="133" t="s">
         <v>310</v>
       </c>
-      <c r="D109" s="150"/>
-      <c r="E109" s="151"/>
+      <c r="D109" s="133"/>
+      <c r="E109" s="134"/>
       <c r="F109" s="23"/>
       <c r="G109" s="46"/>
       <c r="H109" s="14" t="s">
@@ -27125,12 +27172,12 @@
       <c r="GV109" s="13"/>
     </row>
     <row r="110" spans="2:204" ht="26.25">
-      <c r="B110" s="158" t="s">
+      <c r="B110" s="147" t="s">
         <v>301</v>
       </c>
-      <c r="C110" s="148"/>
-      <c r="D110" s="148"/>
-      <c r="E110" s="159"/>
+      <c r="C110" s="146"/>
+      <c r="D110" s="146"/>
+      <c r="E110" s="148"/>
       <c r="F110" s="24"/>
       <c r="G110" s="17"/>
       <c r="H110" s="18" t="s">
@@ -27342,12 +27389,12 @@
       <c r="GV110" s="13"/>
     </row>
     <row r="111" spans="2:204" ht="32.25">
-      <c r="B111" s="158" t="s">
+      <c r="B111" s="147" t="s">
         <v>302</v>
       </c>
-      <c r="C111" s="148"/>
-      <c r="D111" s="148"/>
-      <c r="E111" s="159"/>
+      <c r="C111" s="146"/>
+      <c r="D111" s="146"/>
+      <c r="E111" s="148"/>
       <c r="F111" s="24"/>
       <c r="G111" s="17"/>
       <c r="H111" s="18" t="s">
@@ -27559,10 +27606,10 @@
       <c r="GV111" s="13"/>
     </row>
     <row r="112" spans="2:204" ht="30" customHeight="1">
-      <c r="B112" s="160"/>
-      <c r="C112" s="161"/>
-      <c r="D112" s="161"/>
-      <c r="E112" s="162"/>
+      <c r="B112" s="149"/>
+      <c r="C112" s="150"/>
+      <c r="D112" s="150"/>
+      <c r="E112" s="151"/>
       <c r="F112" s="25"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
@@ -27773,6 +27820,105 @@
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="123">
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="B86:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C77:E77"/>
     <mergeCell ref="C78:E78"/>
@@ -27797,105 +27943,6 @@
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="B86:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="R6:R7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="AA104:GV111 S9:GV31 S33:GV103 S32:X32 Z32:AB32 AD32:GV32">

--- a/220329 HTK UV LED Controller Project sheet.xlsx
+++ b/220329 HTK UV LED Controller Project sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f734f300cb83d8b/HTK DAIAN/MORITEX/UV LED CONTROLLER/HTK LED UV Project Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67488277-E78F-4E1B-BDDD-71A41B2A14DD}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E2BF5C8-46EA-4EBB-B49F-4E141ABB1D50}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="323">
   <si>
     <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
   </si>
@@ -1122,7 +1122,7 @@
     <numFmt numFmtId="164" formatCode="0.00_ "/>
     <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -1428,6 +1428,11 @@
     <font>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1855,7 +1860,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2244,6 +2249,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2420,10 +2432,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -3657,10 +3665,10 @@
   <dimension ref="A1:GV112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
@@ -3715,45 +3723,45 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="5"/>
-      <c r="V1" s="176" t="s">
+      <c r="V1" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="177"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="180"/>
       <c r="AB1" s="52">
         <v>1</v>
       </c>
       <c r="AD1" s="51"/>
-      <c r="AE1" s="172" t="s">
+      <c r="AE1" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="173"/>
-      <c r="AH1" s="173"/>
-      <c r="AI1" s="174"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="176"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="177"/>
       <c r="AJ1" s="54"/>
-      <c r="AK1" s="172" t="s">
+      <c r="AK1" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="175"/>
-      <c r="AM1" s="175"/>
-      <c r="AN1" s="174"/>
+      <c r="AL1" s="178"/>
+      <c r="AM1" s="178"/>
+      <c r="AN1" s="177"/>
       <c r="AO1" s="55"/>
-      <c r="AP1" s="176" t="s">
+      <c r="AP1" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="177"/>
-      <c r="AR1" s="177"/>
-      <c r="AS1" s="178"/>
+      <c r="AQ1" s="180"/>
+      <c r="AR1" s="180"/>
+      <c r="AS1" s="181"/>
       <c r="AT1" s="56"/>
-      <c r="AU1" s="176" t="s">
+      <c r="AU1" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" s="177"/>
-      <c r="AW1" s="177"/>
+      <c r="AV1" s="180"/>
+      <c r="AW1" s="180"/>
     </row>
     <row r="2" spans="1:204" ht="53.25" customHeight="1">
       <c r="A2" s="36" t="s">
@@ -4201,47 +4209,47 @@
       <c r="GV5" s="76"/>
     </row>
     <row r="6" spans="1:204" s="6" customFormat="1" ht="44.25" customHeight="1">
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="181" t="s">
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="185" t="s">
+      <c r="G6" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="179" t="s">
+      <c r="H6" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="179" t="s">
+      <c r="I6" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="187" t="s">
+      <c r="J6" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="179" t="s">
+      <c r="K6" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="179" t="s">
+      <c r="L6" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="179" t="s">
+      <c r="M6" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="179" t="s">
+      <c r="N6" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="179" t="s">
+      <c r="O6" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="183" t="s">
+      <c r="P6" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="183"/>
-      <c r="R6" s="183" t="s">
+      <c r="Q6" s="186"/>
+      <c r="R6" s="186" t="s">
         <v>25</v>
       </c>
       <c r="S6" s="93"/>
@@ -4438,23 +4446,23 @@
       <c r="GV6" s="103"/>
     </row>
     <row r="7" spans="1:204" ht="15.75" customHeight="1">
-      <c r="B7" s="169"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="184"/>
-      <c r="Q7" s="184"/>
-      <c r="R7" s="184"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="187"/>
+      <c r="Q7" s="187"/>
+      <c r="R7" s="187"/>
       <c r="S7" s="28">
         <v>1</v>
       </c>
@@ -5533,12 +5541,12 @@
       <c r="A9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="148" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
       <c r="F9" s="59"/>
       <c r="G9" s="60" t="s">
         <v>30</v>
@@ -5746,12 +5754,12 @@
       <c r="GV9" s="13"/>
     </row>
     <row r="10" spans="1:204" ht="30" customHeight="1">
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="134"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
       <c r="F10" s="23" t="s">
         <v>31</v>
       </c>
@@ -5967,12 +5975,12 @@
       <c r="GV10" s="13"/>
     </row>
     <row r="11" spans="1:204" ht="30" customHeight="1">
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="135"/>
       <c r="F11" s="23"/>
       <c r="G11" s="26" t="s">
         <v>73</v>
@@ -6178,20 +6186,20 @@
       <c r="GV11" s="13"/>
     </row>
     <row r="12" spans="1:204" ht="36.75" customHeight="1">
-      <c r="B12" s="139"/>
-      <c r="C12" s="130" t="s">
+      <c r="B12" s="142"/>
+      <c r="C12" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="135"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="189" t="s">
+      <c r="G12" s="130" t="s">
         <v>322</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="190">
+      <c r="I12" s="131">
         <v>44657</v>
       </c>
       <c r="J12" s="14">
@@ -6395,12 +6403,12 @@
       <c r="GV12" s="13"/>
     </row>
     <row r="13" spans="1:204" ht="37.5" hidden="1" customHeight="1">
-      <c r="B13" s="140"/>
-      <c r="C13" s="130" t="s">
+      <c r="B13" s="143"/>
+      <c r="C13" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="23"/>
       <c r="G13" s="26"/>
       <c r="H13" s="14" t="s">
@@ -6612,12 +6620,12 @@
       <c r="GV13" s="105"/>
     </row>
     <row r="14" spans="1:204" ht="26.25" hidden="1">
-      <c r="B14" s="140"/>
-      <c r="C14" s="130" t="s">
+      <c r="B14" s="143"/>
+      <c r="C14" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="131"/>
-      <c r="E14" s="132"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="135"/>
       <c r="F14" s="23"/>
       <c r="G14" s="26"/>
       <c r="H14" s="14" t="s">
@@ -6827,19 +6835,19 @@
       <c r="GV14" s="13"/>
     </row>
     <row r="15" spans="1:204" ht="26.25">
-      <c r="B15" s="140"/>
-      <c r="C15" s="130" t="s">
+      <c r="B15" s="143"/>
+      <c r="C15" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="131"/>
-      <c r="E15" s="132"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="135"/>
       <c r="F15" s="23"/>
       <c r="G15" s="26"/>
       <c r="H15" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="190">
-        <v>44656</v>
+      <c r="I15" s="131">
+        <v>44657</v>
       </c>
       <c r="J15" s="14">
         <v>6</v>
@@ -7042,19 +7050,19 @@
       <c r="GV15" s="13"/>
     </row>
     <row r="16" spans="1:204" ht="26.25">
-      <c r="B16" s="140"/>
-      <c r="C16" s="130" t="s">
+      <c r="B16" s="143"/>
+      <c r="C16" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="132"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
       <c r="F16" s="23"/>
       <c r="G16" s="26"/>
       <c r="H16" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="41">
-        <v>44656</v>
+      <c r="I16" s="131">
+        <v>44657</v>
       </c>
       <c r="J16" s="14">
         <v>6</v>
@@ -7257,19 +7265,19 @@
       <c r="GV16" s="13"/>
     </row>
     <row r="17" spans="2:204" ht="34.5" customHeight="1">
-      <c r="B17" s="141"/>
-      <c r="C17" s="130" t="s">
+      <c r="B17" s="144"/>
+      <c r="C17" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="135"/>
       <c r="F17" s="23"/>
       <c r="G17" s="26"/>
       <c r="H17" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="41">
-        <v>44656</v>
+      <c r="I17" s="131">
+        <v>44657</v>
       </c>
       <c r="J17" s="14">
         <v>7</v>
@@ -7472,12 +7480,12 @@
       <c r="GV17" s="13"/>
     </row>
     <row r="18" spans="2:204" ht="26.25">
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="135"/>
       <c r="F18" s="23"/>
       <c r="G18" s="26" t="s">
         <v>74</v>
@@ -7683,20 +7691,20 @@
       <c r="GV18" s="13"/>
     </row>
     <row r="19" spans="2:204" ht="39" customHeight="1">
-      <c r="B19" s="139"/>
-      <c r="C19" s="130" t="s">
+      <c r="B19" s="142"/>
+      <c r="C19" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="135"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="189" t="s">
+      <c r="G19" s="130" t="s">
         <v>322</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="190">
+      <c r="I19" s="131">
         <v>44657</v>
       </c>
       <c r="J19" s="14">
@@ -7900,12 +7908,12 @@
       <c r="GV19" s="13"/>
     </row>
     <row r="20" spans="2:204" ht="34.5" customHeight="1">
-      <c r="B20" s="140"/>
-      <c r="C20" s="130" t="s">
+      <c r="B20" s="143"/>
+      <c r="C20" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="135"/>
       <c r="F20" s="23"/>
       <c r="G20" s="26"/>
       <c r="H20" s="14" t="s">
@@ -8115,12 +8123,12 @@
       <c r="GV20" s="13"/>
     </row>
     <row r="21" spans="2:204" ht="34.5" customHeight="1">
-      <c r="B21" s="140"/>
-      <c r="C21" s="130" t="s">
+      <c r="B21" s="143"/>
+      <c r="C21" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="135"/>
       <c r="F21" s="23"/>
       <c r="G21" s="26"/>
       <c r="H21" s="14" t="s">
@@ -8328,12 +8336,12 @@
       <c r="GV21" s="13"/>
     </row>
     <row r="22" spans="2:204" ht="37.5" customHeight="1">
-      <c r="B22" s="141"/>
-      <c r="C22" s="130" t="s">
+      <c r="B22" s="144"/>
+      <c r="C22" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="132"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135"/>
       <c r="F22" s="23"/>
       <c r="G22" s="26"/>
       <c r="H22" s="14" t="s">
@@ -8541,12 +8549,12 @@
       <c r="GV22" s="13"/>
     </row>
     <row r="23" spans="2:204" ht="26.25">
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="132"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="135"/>
       <c r="F23" s="23"/>
       <c r="G23" s="26" t="s">
         <v>75</v>
@@ -8752,20 +8760,20 @@
       <c r="GV23" s="13"/>
     </row>
     <row r="24" spans="2:204" ht="26.25">
-      <c r="B24" s="139"/>
-      <c r="C24" s="130" t="s">
+      <c r="B24" s="142"/>
+      <c r="C24" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="131"/>
-      <c r="E24" s="132"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="135"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="189" t="s">
+      <c r="G24" s="130" t="s">
         <v>322</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="190">
+      <c r="I24" s="131">
         <v>44657</v>
       </c>
       <c r="J24" s="14">
@@ -8969,12 +8977,12 @@
       <c r="GV24" s="13"/>
     </row>
     <row r="25" spans="2:204" ht="36.75" customHeight="1">
-      <c r="B25" s="140"/>
-      <c r="C25" s="130" t="s">
+      <c r="B25" s="143"/>
+      <c r="C25" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="131"/>
-      <c r="E25" s="132"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="135"/>
       <c r="F25" s="23"/>
       <c r="G25" s="26"/>
       <c r="H25" s="14" t="s">
@@ -9182,12 +9190,12 @@
       <c r="GV25" s="13"/>
     </row>
     <row r="26" spans="2:204" ht="26.25">
-      <c r="B26" s="140"/>
-      <c r="C26" s="130" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="131"/>
-      <c r="E26" s="132"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="135"/>
       <c r="F26" s="23"/>
       <c r="G26" s="26"/>
       <c r="H26" s="14" t="s">
@@ -9395,12 +9403,12 @@
       <c r="GV26" s="13"/>
     </row>
     <row r="27" spans="2:204" ht="26.25">
-      <c r="B27" s="140"/>
-      <c r="C27" s="130" t="s">
+      <c r="B27" s="143"/>
+      <c r="C27" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="131"/>
-      <c r="E27" s="132"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="135"/>
       <c r="F27" s="23"/>
       <c r="G27" s="26"/>
       <c r="H27" s="14" t="s">
@@ -9608,12 +9616,12 @@
       <c r="GV27" s="13"/>
     </row>
     <row r="28" spans="2:204" ht="26.25">
-      <c r="B28" s="141"/>
-      <c r="C28" s="130" t="s">
+      <c r="B28" s="144"/>
+      <c r="C28" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="131"/>
-      <c r="E28" s="132"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="135"/>
       <c r="F28" s="23"/>
       <c r="G28" s="26"/>
       <c r="H28" s="14" t="s">
@@ -9821,12 +9829,12 @@
       <c r="GV28" s="13"/>
     </row>
     <row r="29" spans="2:204" ht="26.25">
-      <c r="B29" s="130" t="s">
+      <c r="B29" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="132"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="135"/>
       <c r="F29" s="23"/>
       <c r="G29" s="26" t="s">
         <v>76</v>
@@ -10032,20 +10040,20 @@
       <c r="GV29" s="13"/>
     </row>
     <row r="30" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B30" s="139"/>
-      <c r="C30" s="130" t="s">
+      <c r="B30" s="142"/>
+      <c r="C30" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="131"/>
-      <c r="E30" s="132"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="135"/>
       <c r="F30" s="23"/>
-      <c r="G30" s="189" t="s">
+      <c r="G30" s="130" t="s">
         <v>322</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="190">
+      <c r="I30" s="131">
         <v>44657</v>
       </c>
       <c r="J30" s="14">
@@ -10249,12 +10257,12 @@
       <c r="GV30" s="13"/>
     </row>
     <row r="31" spans="2:204" ht="36.75" customHeight="1">
-      <c r="B31" s="140"/>
-      <c r="C31" s="130" t="s">
+      <c r="B31" s="143"/>
+      <c r="C31" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="131"/>
-      <c r="E31" s="132"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="23"/>
       <c r="G31" s="26"/>
       <c r="H31" s="14" t="s">
@@ -10462,12 +10470,12 @@
       <c r="GV31" s="13"/>
     </row>
     <row r="32" spans="2:204" ht="26.25">
-      <c r="B32" s="140"/>
-      <c r="C32" s="130" t="s">
+      <c r="B32" s="143"/>
+      <c r="C32" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="131"/>
-      <c r="E32" s="132"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="135"/>
       <c r="F32" s="23"/>
       <c r="G32" s="26"/>
       <c r="H32" s="14" t="s">
@@ -10675,12 +10683,12 @@
       <c r="GV32" s="13"/>
     </row>
     <row r="33" spans="2:204" ht="26.25">
-      <c r="B33" s="140"/>
-      <c r="C33" s="130" t="s">
+      <c r="B33" s="143"/>
+      <c r="C33" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="131"/>
-      <c r="E33" s="132"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="135"/>
       <c r="F33" s="23"/>
       <c r="G33" s="26"/>
       <c r="H33" s="14" t="s">
@@ -10888,12 +10896,12 @@
       <c r="GV33" s="13"/>
     </row>
     <row r="34" spans="2:204" ht="26.25">
-      <c r="B34" s="140"/>
-      <c r="C34" s="130" t="s">
+      <c r="B34" s="143"/>
+      <c r="C34" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="131"/>
-      <c r="E34" s="132"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="135"/>
       <c r="F34" s="23"/>
       <c r="G34" s="26" t="s">
         <v>151</v>
@@ -11103,12 +11111,12 @@
       <c r="GV34" s="13"/>
     </row>
     <row r="35" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B35" s="141"/>
-      <c r="C35" s="130" t="s">
+      <c r="B35" s="144"/>
+      <c r="C35" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="131"/>
-      <c r="E35" s="132"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="135"/>
       <c r="F35" s="23"/>
       <c r="G35" s="26"/>
       <c r="H35" s="14" t="s">
@@ -11316,12 +11324,12 @@
       <c r="GV35" s="13"/>
     </row>
     <row r="36" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B36" s="130" t="s">
+      <c r="B36" s="133" t="s">
         <v>293</v>
       </c>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="132"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="135"/>
       <c r="F36" s="23"/>
       <c r="G36" s="26" t="s">
         <v>294</v>
@@ -11531,12 +11539,12 @@
       <c r="GV36" s="13"/>
     </row>
     <row r="37" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B37" s="135"/>
-      <c r="C37" s="131" t="s">
+      <c r="B37" s="138"/>
+      <c r="C37" s="134" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="131"/>
-      <c r="E37" s="132"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="135"/>
       <c r="F37" s="23"/>
       <c r="G37" s="26"/>
       <c r="H37" s="14" t="s">
@@ -11744,12 +11752,12 @@
       <c r="GV37" s="13"/>
     </row>
     <row r="38" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B38" s="136"/>
-      <c r="C38" s="131" t="s">
+      <c r="B38" s="139"/>
+      <c r="C38" s="134" t="s">
         <v>296</v>
       </c>
-      <c r="D38" s="131"/>
-      <c r="E38" s="132"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="135"/>
       <c r="F38" s="23"/>
       <c r="G38" s="26"/>
       <c r="H38" s="14" t="s">
@@ -11957,12 +11965,12 @@
       <c r="GV38" s="13"/>
     </row>
     <row r="39" spans="2:204" ht="26.25">
-      <c r="B39" s="144" t="s">
+      <c r="B39" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="133"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="134"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="137"/>
       <c r="F39" s="23" t="s">
         <v>28</v>
       </c>
@@ -12178,12 +12186,12 @@
       <c r="GV39" s="13"/>
     </row>
     <row r="40" spans="2:204" ht="26.25">
-      <c r="B40" s="130" t="s">
+      <c r="B40" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="132"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="135"/>
       <c r="F40" s="64"/>
       <c r="G40" s="26"/>
       <c r="H40" s="119" t="s">
@@ -12390,20 +12398,20 @@
       <c r="GU40" s="13"/>
       <c r="GV40" s="13"/>
     </row>
-    <row r="41" spans="2:204" ht="26.25">
-      <c r="B41" s="139"/>
-      <c r="C41" s="130" t="s">
+    <row r="41" spans="2:204" ht="26.25" hidden="1">
+      <c r="B41" s="142"/>
+      <c r="C41" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="131"/>
-      <c r="E41" s="132"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="135"/>
       <c r="F41" s="64"/>
       <c r="G41" s="26"/>
       <c r="H41" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I41" s="190">
-        <v>44656</v>
+      <c r="I41" s="132" t="s">
+        <v>150</v>
       </c>
       <c r="J41" s="14">
         <v>4</v>
@@ -12605,20 +12613,20 @@
       <c r="GU41" s="13"/>
       <c r="GV41" s="13"/>
     </row>
-    <row r="42" spans="2:204" ht="26.25">
-      <c r="B42" s="140"/>
-      <c r="C42" s="130" t="s">
+    <row r="42" spans="2:204" ht="26.25" hidden="1">
+      <c r="B42" s="143"/>
+      <c r="C42" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="131"/>
-      <c r="E42" s="132"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="135"/>
       <c r="F42" s="64"/>
       <c r="G42" s="26"/>
       <c r="H42" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I42" s="190">
-        <v>44656</v>
+      <c r="I42" s="132" t="s">
+        <v>150</v>
       </c>
       <c r="J42" s="14">
         <v>5</v>
@@ -12821,18 +12829,18 @@
       <c r="GV42" s="13"/>
     </row>
     <row r="43" spans="2:204" ht="26.25">
-      <c r="B43" s="140"/>
-      <c r="C43" s="130" t="s">
+      <c r="B43" s="143"/>
+      <c r="C43" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="131"/>
-      <c r="E43" s="132"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="135"/>
       <c r="F43" s="64"/>
       <c r="G43" s="26"/>
       <c r="H43" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I43" s="190">
+      <c r="I43" s="131">
         <v>44657</v>
       </c>
       <c r="J43" s="14">
@@ -13036,18 +13044,18 @@
       <c r="GV43" s="13"/>
     </row>
     <row r="44" spans="2:204" ht="30" customHeight="1">
-      <c r="B44" s="140"/>
-      <c r="C44" s="130" t="s">
+      <c r="B44" s="143"/>
+      <c r="C44" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="131"/>
-      <c r="E44" s="132"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="135"/>
       <c r="F44" s="64"/>
       <c r="G44" s="26"/>
       <c r="H44" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I44" s="190">
+      <c r="I44" s="131">
         <v>44658</v>
       </c>
       <c r="J44" s="14">
@@ -13251,18 +13259,18 @@
       <c r="GV44" s="13"/>
     </row>
     <row r="45" spans="2:204" ht="26.25">
-      <c r="B45" s="140"/>
-      <c r="C45" s="130" t="s">
+      <c r="B45" s="143"/>
+      <c r="C45" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="131"/>
-      <c r="E45" s="132"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="135"/>
       <c r="F45" s="64"/>
       <c r="G45" s="26"/>
       <c r="H45" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I45" s="190">
+      <c r="I45" s="131">
         <v>44658</v>
       </c>
       <c r="J45" s="14">
@@ -13466,18 +13474,18 @@
       <c r="GV45" s="13"/>
     </row>
     <row r="46" spans="2:204" ht="37.5" customHeight="1">
-      <c r="B46" s="141"/>
-      <c r="C46" s="130" t="s">
+      <c r="B46" s="144"/>
+      <c r="C46" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="131"/>
-      <c r="E46" s="132"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="135"/>
       <c r="F46" s="64"/>
       <c r="G46" s="26"/>
       <c r="H46" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I46" s="190">
+      <c r="I46" s="131">
         <v>44659</v>
       </c>
       <c r="J46" s="14">
@@ -13681,12 +13689,12 @@
       <c r="GV46" s="13"/>
     </row>
     <row r="47" spans="2:204" ht="26.25">
-      <c r="B47" s="130" t="s">
+      <c r="B47" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="131"/>
-      <c r="D47" s="131"/>
-      <c r="E47" s="132"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="135"/>
       <c r="F47" s="64"/>
       <c r="G47" s="26"/>
       <c r="H47" s="119" t="s">
@@ -13895,11 +13903,11 @@
     </row>
     <row r="48" spans="2:204" ht="39" customHeight="1">
       <c r="B48" s="65"/>
-      <c r="C48" s="130" t="s">
+      <c r="C48" s="133" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="131"/>
-      <c r="E48" s="132"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="135"/>
       <c r="F48" s="64"/>
       <c r="G48" s="26"/>
       <c r="H48" s="119" t="s">
@@ -14107,12 +14115,12 @@
       <c r="GV48" s="13"/>
     </row>
     <row r="49" spans="2:204" ht="26.25">
-      <c r="B49" s="130" t="s">
+      <c r="B49" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="131"/>
-      <c r="D49" s="131"/>
-      <c r="E49" s="132"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="135"/>
       <c r="F49" s="64"/>
       <c r="G49" s="26"/>
       <c r="H49" s="119" t="s">
@@ -14320,12 +14328,12 @@
       <c r="GV49" s="13"/>
     </row>
     <row r="50" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B50" s="135"/>
-      <c r="C50" s="130" t="s">
+      <c r="B50" s="138"/>
+      <c r="C50" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="131"/>
-      <c r="E50" s="132"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="135"/>
       <c r="F50" s="64"/>
       <c r="G50" s="26"/>
       <c r="H50" s="119" t="s">
@@ -14533,12 +14541,12 @@
       <c r="GV50" s="13"/>
     </row>
     <row r="51" spans="2:204" ht="26.25">
-      <c r="B51" s="138"/>
-      <c r="C51" s="130" t="s">
+      <c r="B51" s="141"/>
+      <c r="C51" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="131"/>
-      <c r="E51" s="132"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="135"/>
       <c r="F51" s="64"/>
       <c r="G51" s="26"/>
       <c r="H51" s="119" t="s">
@@ -14746,12 +14754,12 @@
       <c r="GV51" s="13"/>
     </row>
     <row r="52" spans="2:204" ht="26.25">
-      <c r="B52" s="138"/>
-      <c r="C52" s="130" t="s">
+      <c r="B52" s="141"/>
+      <c r="C52" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="131"/>
-      <c r="E52" s="132"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="135"/>
       <c r="F52" s="64"/>
       <c r="G52" s="26"/>
       <c r="H52" s="119" t="s">
@@ -14959,12 +14967,12 @@
       <c r="GV52" s="13"/>
     </row>
     <row r="53" spans="2:204" ht="32.25" customHeight="1">
-      <c r="B53" s="138"/>
-      <c r="C53" s="130" t="s">
+      <c r="B53" s="141"/>
+      <c r="C53" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="131"/>
-      <c r="E53" s="132"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="135"/>
       <c r="F53" s="64"/>
       <c r="G53" s="26"/>
       <c r="H53" s="119" t="s">
@@ -15172,12 +15180,12 @@
       <c r="GV53" s="13"/>
     </row>
     <row r="54" spans="2:204" ht="43.5" customHeight="1">
-      <c r="B54" s="138"/>
-      <c r="C54" s="130" t="s">
+      <c r="B54" s="141"/>
+      <c r="C54" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="131"/>
-      <c r="E54" s="132"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="135"/>
       <c r="F54" s="64"/>
       <c r="G54" s="26"/>
       <c r="H54" s="119" t="s">
@@ -15385,12 +15393,12 @@
       <c r="GV54" s="13"/>
     </row>
     <row r="55" spans="2:204" ht="43.5" customHeight="1">
-      <c r="B55" s="138"/>
-      <c r="C55" s="130" t="s">
+      <c r="B55" s="141"/>
+      <c r="C55" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="131"/>
-      <c r="E55" s="132"/>
+      <c r="D55" s="134"/>
+      <c r="E55" s="135"/>
       <c r="F55" s="64"/>
       <c r="G55" s="26"/>
       <c r="H55" s="119" t="s">
@@ -15598,12 +15606,12 @@
       <c r="GV55" s="13"/>
     </row>
     <row r="56" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B56" s="138"/>
-      <c r="C56" s="130" t="s">
+      <c r="B56" s="141"/>
+      <c r="C56" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="131"/>
-      <c r="E56" s="132"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="135"/>
       <c r="F56" s="64"/>
       <c r="G56" s="26"/>
       <c r="H56" s="119" t="s">
@@ -15811,12 +15819,12 @@
       <c r="GV56" s="13"/>
     </row>
     <row r="57" spans="2:204" ht="26.25">
-      <c r="B57" s="138"/>
-      <c r="C57" s="130" t="s">
+      <c r="B57" s="141"/>
+      <c r="C57" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="131"/>
-      <c r="E57" s="132"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="135"/>
       <c r="F57" s="64"/>
       <c r="G57" s="26"/>
       <c r="H57" s="119" t="s">
@@ -16024,12 +16032,12 @@
       <c r="GV57" s="13"/>
     </row>
     <row r="58" spans="2:204" ht="26.25">
-      <c r="B58" s="138"/>
-      <c r="C58" s="135"/>
-      <c r="D58" s="142" t="s">
+      <c r="B58" s="141"/>
+      <c r="C58" s="138"/>
+      <c r="D58" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="E58" s="143"/>
+      <c r="E58" s="146"/>
       <c r="F58" s="64"/>
       <c r="G58" s="26"/>
       <c r="H58" s="119" t="s">
@@ -16237,12 +16245,12 @@
       <c r="GV58" s="13"/>
     </row>
     <row r="59" spans="2:204" ht="26.25">
-      <c r="B59" s="138"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="142" t="s">
+      <c r="B59" s="141"/>
+      <c r="C59" s="141"/>
+      <c r="D59" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="E59" s="143"/>
+      <c r="E59" s="146"/>
       <c r="F59" s="64"/>
       <c r="G59" s="26"/>
       <c r="H59" s="119" t="s">
@@ -16450,9 +16458,9 @@
       <c r="GV59" s="13"/>
     </row>
     <row r="60" spans="2:204" ht="36" customHeight="1">
-      <c r="B60" s="138"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="135"/>
+      <c r="B60" s="141"/>
+      <c r="C60" s="141"/>
+      <c r="D60" s="138"/>
       <c r="E60" s="65" t="s">
         <v>105</v>
       </c>
@@ -16663,9 +16671,9 @@
       <c r="GV60" s="13"/>
     </row>
     <row r="61" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="141"/>
       <c r="E61" s="65" t="s">
         <v>106</v>
       </c>
@@ -16876,9 +16884,9 @@
       <c r="GV61" s="13"/>
     </row>
     <row r="62" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B62" s="138"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="138"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="141"/>
+      <c r="D62" s="141"/>
       <c r="E62" s="65" t="s">
         <v>108</v>
       </c>
@@ -17089,9 +17097,9 @@
       <c r="GV62" s="13"/>
     </row>
     <row r="63" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B63" s="138"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="138"/>
+      <c r="B63" s="141"/>
+      <c r="C63" s="141"/>
+      <c r="D63" s="141"/>
       <c r="E63" s="65" t="s">
         <v>112</v>
       </c>
@@ -17302,9 +17310,9 @@
       <c r="GV63" s="13"/>
     </row>
     <row r="64" spans="2:204" ht="26.25">
-      <c r="B64" s="138"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="138"/>
+      <c r="B64" s="141"/>
+      <c r="C64" s="141"/>
+      <c r="D64" s="141"/>
       <c r="E64" s="65" t="s">
         <v>107</v>
       </c>
@@ -17515,9 +17523,9 @@
       <c r="GV64" s="13"/>
     </row>
     <row r="65" spans="1:204" ht="26.25">
-      <c r="B65" s="138"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="138"/>
+      <c r="B65" s="141"/>
+      <c r="C65" s="141"/>
+      <c r="D65" s="141"/>
       <c r="E65" s="65" t="s">
         <v>109</v>
       </c>
@@ -17728,9 +17736,9 @@
       <c r="GV65" s="13"/>
     </row>
     <row r="66" spans="1:204" ht="26.25">
-      <c r="B66" s="138"/>
-      <c r="C66" s="138"/>
-      <c r="D66" s="138"/>
+      <c r="B66" s="141"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="141"/>
       <c r="E66" s="65" t="s">
         <v>110</v>
       </c>
@@ -17941,9 +17949,9 @@
       <c r="GV66" s="13"/>
     </row>
     <row r="67" spans="1:204" ht="37.5" customHeight="1">
-      <c r="B67" s="138"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="136"/>
+      <c r="B67" s="141"/>
+      <c r="C67" s="141"/>
+      <c r="D67" s="139"/>
       <c r="E67" s="65" t="s">
         <v>111</v>
       </c>
@@ -18154,12 +18162,12 @@
       <c r="GV67" s="13"/>
     </row>
     <row r="68" spans="1:204" ht="33" customHeight="1">
-      <c r="B68" s="138"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="130" t="s">
+      <c r="B68" s="141"/>
+      <c r="C68" s="141"/>
+      <c r="D68" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="E68" s="132"/>
+      <c r="E68" s="135"/>
       <c r="F68" s="64"/>
       <c r="G68" s="26"/>
       <c r="H68" s="119" t="s">
@@ -18367,12 +18375,12 @@
       <c r="GV68" s="13"/>
     </row>
     <row r="69" spans="1:204" ht="26.25">
-      <c r="B69" s="138"/>
-      <c r="C69" s="138"/>
-      <c r="D69" s="130" t="s">
+      <c r="B69" s="141"/>
+      <c r="C69" s="141"/>
+      <c r="D69" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="E69" s="132"/>
+      <c r="E69" s="135"/>
       <c r="F69" s="64"/>
       <c r="G69" s="26"/>
       <c r="H69" s="119" t="s">
@@ -18580,12 +18588,12 @@
       <c r="GV69" s="13"/>
     </row>
     <row r="70" spans="1:204" ht="34.5" customHeight="1">
-      <c r="B70" s="136"/>
-      <c r="C70" s="136"/>
-      <c r="D70" s="130" t="s">
+      <c r="B70" s="139"/>
+      <c r="C70" s="139"/>
+      <c r="D70" s="133" t="s">
         <v>104</v>
       </c>
-      <c r="E70" s="132"/>
+      <c r="E70" s="135"/>
       <c r="F70" s="64"/>
       <c r="G70" s="26"/>
       <c r="H70" s="119" t="s">
@@ -18793,12 +18801,12 @@
       <c r="GV70" s="13"/>
     </row>
     <row r="71" spans="1:204" ht="26.25">
-      <c r="B71" s="144" t="s">
+      <c r="B71" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="133"/>
-      <c r="D71" s="133"/>
-      <c r="E71" s="134"/>
+      <c r="C71" s="136"/>
+      <c r="D71" s="136"/>
+      <c r="E71" s="137"/>
       <c r="F71" s="23" t="s">
         <v>27</v>
       </c>
@@ -19016,10 +19024,10 @@
     <row r="72" spans="1:204" ht="45" customHeight="1">
       <c r="B72" s="97"/>
       <c r="C72" s="98"/>
-      <c r="D72" s="137" t="s">
+      <c r="D72" s="140" t="s">
         <v>312</v>
       </c>
-      <c r="E72" s="137"/>
+      <c r="E72" s="140"/>
       <c r="F72" s="114"/>
       <c r="G72" s="26"/>
       <c r="H72" s="119" t="s">
@@ -19229,10 +19237,10 @@
     <row r="73" spans="1:204" ht="47.25" customHeight="1">
       <c r="B73" s="97"/>
       <c r="C73" s="98"/>
-      <c r="D73" s="137" t="s">
+      <c r="D73" s="140" t="s">
         <v>313</v>
       </c>
-      <c r="E73" s="137"/>
+      <c r="E73" s="140"/>
       <c r="F73" s="64"/>
       <c r="G73" s="26"/>
       <c r="H73" s="119" t="s">
@@ -19442,10 +19450,10 @@
     <row r="74" spans="1:204" ht="26.25">
       <c r="B74" s="97"/>
       <c r="C74" s="98"/>
-      <c r="D74" s="137" t="s">
+      <c r="D74" s="140" t="s">
         <v>314</v>
       </c>
-      <c r="E74" s="137"/>
+      <c r="E74" s="140"/>
       <c r="F74" s="64"/>
       <c r="G74" s="26"/>
       <c r="H74" s="119" t="s">
@@ -19656,12 +19664,12 @@
       <c r="A75" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="145" t="s">
+      <c r="B75" s="148" t="s">
         <v>320</v>
       </c>
-      <c r="C75" s="146"/>
-      <c r="D75" s="146"/>
-      <c r="E75" s="146"/>
+      <c r="C75" s="149"/>
+      <c r="D75" s="149"/>
+      <c r="E75" s="149"/>
       <c r="F75" s="27"/>
       <c r="G75" s="7"/>
       <c r="H75" s="8"/>
@@ -19863,12 +19871,12 @@
       <c r="GV75" s="13"/>
     </row>
     <row r="76" spans="1:204" ht="26.25">
-      <c r="B76" s="144" t="s">
+      <c r="B76" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="133"/>
-      <c r="D76" s="133"/>
-      <c r="E76" s="134"/>
+      <c r="C76" s="136"/>
+      <c r="D76" s="136"/>
+      <c r="E76" s="137"/>
       <c r="F76" s="23" t="s">
         <v>31</v>
       </c>
@@ -20085,11 +20093,11 @@
     </row>
     <row r="77" spans="1:204" ht="44.25" customHeight="1">
       <c r="B77" s="97"/>
-      <c r="C77" s="133" t="s">
+      <c r="C77" s="136" t="s">
         <v>298</v>
       </c>
-      <c r="D77" s="133"/>
-      <c r="E77" s="134"/>
+      <c r="D77" s="136"/>
+      <c r="E77" s="137"/>
       <c r="F77" s="23"/>
       <c r="G77" s="26"/>
       <c r="H77" s="14" t="s">
@@ -20298,11 +20306,11 @@
     </row>
     <row r="78" spans="1:204" ht="60.75" customHeight="1">
       <c r="B78" s="97"/>
-      <c r="C78" s="133" t="s">
+      <c r="C78" s="136" t="s">
         <v>304</v>
       </c>
-      <c r="D78" s="133"/>
-      <c r="E78" s="134"/>
+      <c r="D78" s="136"/>
+      <c r="E78" s="137"/>
       <c r="F78" s="23"/>
       <c r="G78" s="26"/>
       <c r="H78" s="14" t="s">
@@ -20511,11 +20519,11 @@
     </row>
     <row r="79" spans="1:204" ht="26.25">
       <c r="B79" s="97"/>
-      <c r="C79" s="133" t="s">
+      <c r="C79" s="136" t="s">
         <v>283</v>
       </c>
-      <c r="D79" s="133"/>
-      <c r="E79" s="134"/>
+      <c r="D79" s="136"/>
+      <c r="E79" s="137"/>
       <c r="F79" s="23"/>
       <c r="G79" s="26"/>
       <c r="H79" s="14" t="s">
@@ -20724,11 +20732,11 @@
     </row>
     <row r="80" spans="1:204" ht="26.25">
       <c r="B80" s="97"/>
-      <c r="C80" s="133" t="s">
+      <c r="C80" s="136" t="s">
         <v>284</v>
       </c>
-      <c r="D80" s="133"/>
-      <c r="E80" s="134"/>
+      <c r="D80" s="136"/>
+      <c r="E80" s="137"/>
       <c r="F80" s="23"/>
       <c r="G80" s="26"/>
       <c r="H80" s="14" t="s">
@@ -20936,12 +20944,12 @@
       <c r="GV80" s="13"/>
     </row>
     <row r="81" spans="1:204" ht="26.25">
-      <c r="B81" s="144" t="s">
+      <c r="B81" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="C81" s="133"/>
-      <c r="D81" s="133"/>
-      <c r="E81" s="134"/>
+      <c r="C81" s="136"/>
+      <c r="D81" s="136"/>
+      <c r="E81" s="137"/>
       <c r="F81" s="23" t="s">
         <v>28</v>
       </c>
@@ -21158,11 +21166,11 @@
     </row>
     <row r="82" spans="1:204" ht="48.75" customHeight="1">
       <c r="B82" s="97"/>
-      <c r="C82" s="133" t="s">
+      <c r="C82" s="136" t="s">
         <v>285</v>
       </c>
-      <c r="D82" s="133"/>
-      <c r="E82" s="134"/>
+      <c r="D82" s="136"/>
+      <c r="E82" s="137"/>
       <c r="F82" s="23"/>
       <c r="G82" s="26"/>
       <c r="H82" s="119" t="s">
@@ -21371,11 +21379,11 @@
     </row>
     <row r="83" spans="1:204" ht="26.25">
       <c r="B83" s="97"/>
-      <c r="C83" s="133" t="s">
+      <c r="C83" s="136" t="s">
         <v>286</v>
       </c>
-      <c r="D83" s="133"/>
-      <c r="E83" s="134"/>
+      <c r="D83" s="136"/>
+      <c r="E83" s="137"/>
       <c r="F83" s="23"/>
       <c r="G83" s="26"/>
       <c r="H83" s="119" t="s">
@@ -21583,12 +21591,12 @@
       <c r="GV83" s="13"/>
     </row>
     <row r="84" spans="1:204" ht="26.25">
-      <c r="B84" s="144" t="s">
+      <c r="B84" s="147" t="s">
         <v>280</v>
       </c>
-      <c r="C84" s="133"/>
-      <c r="D84" s="133"/>
-      <c r="E84" s="134"/>
+      <c r="C84" s="136"/>
+      <c r="D84" s="136"/>
+      <c r="E84" s="137"/>
       <c r="F84" s="47" t="s">
         <v>39</v>
       </c>
@@ -21804,12 +21812,12 @@
       <c r="GV84" s="13"/>
     </row>
     <row r="85" spans="1:204" ht="26.25">
-      <c r="B85" s="144" t="s">
+      <c r="B85" s="147" t="s">
         <v>281</v>
       </c>
-      <c r="C85" s="133"/>
-      <c r="D85" s="133"/>
-      <c r="E85" s="134"/>
+      <c r="C85" s="136"/>
+      <c r="D85" s="136"/>
+      <c r="E85" s="137"/>
       <c r="F85" s="23" t="s">
         <v>42</v>
       </c>
@@ -22025,12 +22033,12 @@
       <c r="GV85" s="13"/>
     </row>
     <row r="86" spans="1:204" ht="26.25">
-      <c r="B86" s="157"/>
-      <c r="C86" s="158"/>
-      <c r="D86" s="155" t="s">
+      <c r="B86" s="160"/>
+      <c r="C86" s="161"/>
+      <c r="D86" s="158" t="s">
         <v>291</v>
       </c>
-      <c r="E86" s="134"/>
+      <c r="E86" s="137"/>
       <c r="F86" s="23"/>
       <c r="G86" s="26"/>
       <c r="H86" s="122" t="s">
@@ -22238,8 +22246,8 @@
       <c r="GV86" s="13"/>
     </row>
     <row r="87" spans="1:204" ht="30" customHeight="1">
-      <c r="B87" s="159"/>
-      <c r="C87" s="160"/>
+      <c r="B87" s="162"/>
+      <c r="C87" s="163"/>
       <c r="D87" s="123"/>
       <c r="E87" s="99" t="s">
         <v>292</v>
@@ -22451,12 +22459,12 @@
       <c r="GV87" s="13"/>
     </row>
     <row r="88" spans="1:204" ht="26.25">
-      <c r="B88" s="159"/>
-      <c r="C88" s="161"/>
-      <c r="D88" s="156" t="s">
+      <c r="B88" s="162"/>
+      <c r="C88" s="164"/>
+      <c r="D88" s="159" t="s">
         <v>290</v>
       </c>
-      <c r="E88" s="134"/>
+      <c r="E88" s="137"/>
       <c r="F88" s="23"/>
       <c r="G88" s="26"/>
       <c r="H88" s="14"/>
@@ -22662,9 +22670,9 @@
       <c r="GV88" s="13"/>
     </row>
     <row r="89" spans="1:204" ht="49.5" customHeight="1">
-      <c r="B89" s="159"/>
-      <c r="C89" s="160"/>
-      <c r="D89" s="164"/>
+      <c r="B89" s="162"/>
+      <c r="C89" s="163"/>
+      <c r="D89" s="167"/>
       <c r="E89" s="99" t="s">
         <v>288</v>
       </c>
@@ -22875,9 +22883,9 @@
       <c r="GV89" s="13"/>
     </row>
     <row r="90" spans="1:204" ht="28.5" customHeight="1">
-      <c r="B90" s="162"/>
-      <c r="C90" s="163"/>
-      <c r="D90" s="165"/>
+      <c r="B90" s="165"/>
+      <c r="C90" s="166"/>
+      <c r="D90" s="168"/>
       <c r="E90" s="99" t="s">
         <v>289</v>
       </c>
@@ -23088,12 +23096,12 @@
       <c r="GV90" s="13"/>
     </row>
     <row r="91" spans="1:204" ht="26.25">
-      <c r="B91" s="144" t="s">
+      <c r="B91" s="147" t="s">
         <v>282</v>
       </c>
-      <c r="C91" s="133"/>
-      <c r="D91" s="152"/>
-      <c r="E91" s="134"/>
+      <c r="C91" s="136"/>
+      <c r="D91" s="155"/>
+      <c r="E91" s="137"/>
       <c r="F91" s="23" t="s">
         <v>29</v>
       </c>
@@ -23311,10 +23319,10 @@
     <row r="92" spans="1:204" ht="47.25" customHeight="1">
       <c r="B92" s="97"/>
       <c r="C92" s="98"/>
-      <c r="D92" s="133" t="s">
+      <c r="D92" s="136" t="s">
         <v>316</v>
       </c>
-      <c r="E92" s="134"/>
+      <c r="E92" s="137"/>
       <c r="F92" s="114"/>
       <c r="G92" s="46"/>
       <c r="H92" s="115" t="s">
@@ -23524,10 +23532,10 @@
     <row r="93" spans="1:204" ht="27" customHeight="1">
       <c r="B93" s="97"/>
       <c r="C93" s="98"/>
-      <c r="D93" s="133" t="s">
+      <c r="D93" s="136" t="s">
         <v>317</v>
       </c>
-      <c r="E93" s="134"/>
+      <c r="E93" s="137"/>
       <c r="F93" s="114"/>
       <c r="G93" s="46"/>
       <c r="H93" s="115" t="s">
@@ -23738,12 +23746,12 @@
       <c r="A94" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B94" s="153" t="s">
+      <c r="B94" s="156" t="s">
         <v>319</v>
       </c>
-      <c r="C94" s="154"/>
-      <c r="D94" s="154"/>
-      <c r="E94" s="154"/>
+      <c r="C94" s="157"/>
+      <c r="D94" s="157"/>
+      <c r="E94" s="157"/>
       <c r="F94" s="27"/>
       <c r="G94" s="7"/>
       <c r="H94" s="8"/>
@@ -23949,12 +23957,12 @@
       <c r="GV94" s="13"/>
     </row>
     <row r="95" spans="1:204" ht="26.25">
-      <c r="B95" s="144" t="s">
+      <c r="B95" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="133"/>
-      <c r="D95" s="133"/>
-      <c r="E95" s="134"/>
+      <c r="C95" s="136"/>
+      <c r="D95" s="136"/>
+      <c r="E95" s="137"/>
       <c r="F95" s="23" t="s">
         <v>31</v>
       </c>
@@ -24171,11 +24179,11 @@
     </row>
     <row r="96" spans="1:204" ht="48" customHeight="1">
       <c r="B96" s="97"/>
-      <c r="C96" s="133" t="s">
+      <c r="C96" s="136" t="s">
         <v>303</v>
       </c>
-      <c r="D96" s="133"/>
-      <c r="E96" s="134"/>
+      <c r="D96" s="136"/>
+      <c r="E96" s="137"/>
       <c r="F96" s="23"/>
       <c r="G96" s="16"/>
       <c r="H96" s="119" t="s">
@@ -24384,11 +24392,11 @@
     </row>
     <row r="97" spans="2:204" ht="26.25">
       <c r="B97" s="97"/>
-      <c r="C97" s="133" t="s">
+      <c r="C97" s="136" t="s">
         <v>305</v>
       </c>
-      <c r="D97" s="133"/>
-      <c r="E97" s="134"/>
+      <c r="D97" s="136"/>
+      <c r="E97" s="137"/>
       <c r="F97" s="23"/>
       <c r="G97" s="16"/>
       <c r="H97" s="119" t="s">
@@ -24597,11 +24605,11 @@
     </row>
     <row r="98" spans="2:204" ht="26.25">
       <c r="B98" s="97"/>
-      <c r="C98" s="133" t="s">
+      <c r="C98" s="136" t="s">
         <v>306</v>
       </c>
-      <c r="D98" s="133"/>
-      <c r="E98" s="134"/>
+      <c r="D98" s="136"/>
+      <c r="E98" s="137"/>
       <c r="F98" s="23"/>
       <c r="G98" s="16"/>
       <c r="H98" s="119" t="s">
@@ -24810,11 +24818,11 @@
     </row>
     <row r="99" spans="2:204" ht="26.25">
       <c r="B99" s="97"/>
-      <c r="C99" s="133" t="s">
+      <c r="C99" s="136" t="s">
         <v>283</v>
       </c>
-      <c r="D99" s="133"/>
-      <c r="E99" s="134"/>
+      <c r="D99" s="136"/>
+      <c r="E99" s="137"/>
       <c r="F99" s="23"/>
       <c r="G99" s="16"/>
       <c r="H99" s="119" t="s">
@@ -25023,11 +25031,11 @@
     </row>
     <row r="100" spans="2:204" ht="26.25">
       <c r="B100" s="97"/>
-      <c r="C100" s="133" t="s">
+      <c r="C100" s="136" t="s">
         <v>318</v>
       </c>
-      <c r="D100" s="133"/>
-      <c r="E100" s="134"/>
+      <c r="D100" s="136"/>
+      <c r="E100" s="137"/>
       <c r="F100" s="23"/>
       <c r="G100" s="26"/>
       <c r="H100" s="14" t="s">
@@ -25235,12 +25243,12 @@
       <c r="GV100" s="13"/>
     </row>
     <row r="101" spans="2:204" ht="26.25">
-      <c r="B101" s="144" t="s">
+      <c r="B101" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="C101" s="133"/>
-      <c r="D101" s="133"/>
-      <c r="E101" s="134"/>
+      <c r="C101" s="136"/>
+      <c r="D101" s="136"/>
+      <c r="E101" s="137"/>
       <c r="F101" s="23" t="s">
         <v>28</v>
       </c>
@@ -25455,11 +25463,11 @@
     </row>
     <row r="102" spans="2:204" ht="48.75" customHeight="1">
       <c r="B102" s="97"/>
-      <c r="C102" s="133" t="s">
+      <c r="C102" s="136" t="s">
         <v>285</v>
       </c>
-      <c r="D102" s="133"/>
-      <c r="E102" s="134"/>
+      <c r="D102" s="136"/>
+      <c r="E102" s="137"/>
       <c r="F102" s="23"/>
       <c r="G102" s="26"/>
       <c r="H102" s="119" t="s">
@@ -25668,11 +25676,11 @@
     </row>
     <row r="103" spans="2:204" ht="26.25">
       <c r="B103" s="97"/>
-      <c r="C103" s="133" t="s">
+      <c r="C103" s="136" t="s">
         <v>311</v>
       </c>
-      <c r="D103" s="133"/>
-      <c r="E103" s="134"/>
+      <c r="D103" s="136"/>
+      <c r="E103" s="137"/>
       <c r="F103" s="23"/>
       <c r="G103" s="26"/>
       <c r="H103" s="119" t="s">
@@ -25880,12 +25888,12 @@
       <c r="GV103" s="13"/>
     </row>
     <row r="104" spans="2:204" ht="26.25">
-      <c r="B104" s="144" t="s">
+      <c r="B104" s="147" t="s">
         <v>299</v>
       </c>
-      <c r="C104" s="133"/>
-      <c r="D104" s="133"/>
-      <c r="E104" s="134"/>
+      <c r="C104" s="136"/>
+      <c r="D104" s="136"/>
+      <c r="E104" s="137"/>
       <c r="F104" s="47" t="s">
         <v>39</v>
       </c>
@@ -26099,12 +26107,12 @@
       <c r="GV104" s="13"/>
     </row>
     <row r="105" spans="2:204" ht="32.25">
-      <c r="B105" s="144" t="s">
+      <c r="B105" s="147" t="s">
         <v>300</v>
       </c>
-      <c r="C105" s="133"/>
-      <c r="D105" s="133"/>
-      <c r="E105" s="134"/>
+      <c r="C105" s="136"/>
+      <c r="D105" s="136"/>
+      <c r="E105" s="137"/>
       <c r="F105" s="23" t="s">
         <v>29</v>
       </c>
@@ -26321,11 +26329,11 @@
     </row>
     <row r="106" spans="2:204" ht="26.25">
       <c r="B106" s="97"/>
-      <c r="C106" s="133" t="s">
+      <c r="C106" s="136" t="s">
         <v>307</v>
       </c>
-      <c r="D106" s="133"/>
-      <c r="E106" s="134"/>
+      <c r="D106" s="136"/>
+      <c r="E106" s="137"/>
       <c r="F106" s="23"/>
       <c r="G106" s="46"/>
       <c r="H106" s="14" t="s">
@@ -26534,11 +26542,11 @@
     </row>
     <row r="107" spans="2:204" ht="26.25">
       <c r="B107" s="97"/>
-      <c r="C107" s="133" t="s">
+      <c r="C107" s="136" t="s">
         <v>308</v>
       </c>
-      <c r="D107" s="133"/>
-      <c r="E107" s="134"/>
+      <c r="D107" s="136"/>
+      <c r="E107" s="137"/>
       <c r="F107" s="23"/>
       <c r="G107" s="46"/>
       <c r="H107" s="14" t="s">
@@ -26747,11 +26755,11 @@
     </row>
     <row r="108" spans="2:204" ht="26.25">
       <c r="B108" s="97"/>
-      <c r="C108" s="133" t="s">
+      <c r="C108" s="136" t="s">
         <v>309</v>
       </c>
-      <c r="D108" s="133"/>
-      <c r="E108" s="134"/>
+      <c r="D108" s="136"/>
+      <c r="E108" s="137"/>
       <c r="F108" s="23"/>
       <c r="G108" s="46"/>
       <c r="H108" s="14" t="s">
@@ -26960,11 +26968,11 @@
     </row>
     <row r="109" spans="2:204" ht="26.25">
       <c r="B109" s="97"/>
-      <c r="C109" s="133" t="s">
+      <c r="C109" s="136" t="s">
         <v>310</v>
       </c>
-      <c r="D109" s="133"/>
-      <c r="E109" s="134"/>
+      <c r="D109" s="136"/>
+      <c r="E109" s="137"/>
       <c r="F109" s="23"/>
       <c r="G109" s="46"/>
       <c r="H109" s="14" t="s">
@@ -27172,12 +27180,12 @@
       <c r="GV109" s="13"/>
     </row>
     <row r="110" spans="2:204" ht="26.25">
-      <c r="B110" s="147" t="s">
+      <c r="B110" s="150" t="s">
         <v>301</v>
       </c>
-      <c r="C110" s="146"/>
-      <c r="D110" s="146"/>
-      <c r="E110" s="148"/>
+      <c r="C110" s="149"/>
+      <c r="D110" s="149"/>
+      <c r="E110" s="151"/>
       <c r="F110" s="24"/>
       <c r="G110" s="17"/>
       <c r="H110" s="18" t="s">
@@ -27389,12 +27397,12 @@
       <c r="GV110" s="13"/>
     </row>
     <row r="111" spans="2:204" ht="32.25">
-      <c r="B111" s="147" t="s">
+      <c r="B111" s="150" t="s">
         <v>302</v>
       </c>
-      <c r="C111" s="146"/>
-      <c r="D111" s="146"/>
-      <c r="E111" s="148"/>
+      <c r="C111" s="149"/>
+      <c r="D111" s="149"/>
+      <c r="E111" s="151"/>
       <c r="F111" s="24"/>
       <c r="G111" s="17"/>
       <c r="H111" s="18" t="s">
@@ -27606,10 +27614,10 @@
       <c r="GV111" s="13"/>
     </row>
     <row r="112" spans="2:204" ht="30" customHeight="1">
-      <c r="B112" s="149"/>
-      <c r="C112" s="150"/>
-      <c r="D112" s="150"/>
-      <c r="E112" s="151"/>
+      <c r="B112" s="152"/>
+      <c r="C112" s="153"/>
+      <c r="D112" s="153"/>
+      <c r="E112" s="154"/>
       <c r="F112" s="25"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>

--- a/220329 HTK UV LED Controller Project sheet.xlsx
+++ b/220329 HTK UV LED Controller Project sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f734f300cb83d8b/HTK DAIAN/MORITEX/UV LED CONTROLLER/HTK LED UV Project Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E2BF5C8-46EA-4EBB-B49F-4E141ABB1D50}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F190EA1-98D6-4196-8260-611B2BD8A576}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="323">
   <si>
     <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
   </si>
@@ -2256,6 +2256,90 @@
     <xf numFmtId="165" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2265,24 +2349,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2290,21 +2356,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2364,74 +2415,23 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -3665,10 +3665,10 @@
   <dimension ref="A1:GV112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
@@ -3723,45 +3723,45 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="5"/>
-      <c r="V1" s="179" t="s">
+      <c r="V1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
-      <c r="AA1" s="180"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
       <c r="AB1" s="52">
         <v>1</v>
       </c>
       <c r="AD1" s="51"/>
-      <c r="AE1" s="175" t="s">
+      <c r="AE1" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="177"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="134"/>
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="135"/>
       <c r="AJ1" s="54"/>
-      <c r="AK1" s="175" t="s">
+      <c r="AK1" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="178"/>
-      <c r="AM1" s="178"/>
-      <c r="AN1" s="177"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="136"/>
+      <c r="AN1" s="135"/>
       <c r="AO1" s="55"/>
-      <c r="AP1" s="179" t="s">
+      <c r="AP1" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="180"/>
-      <c r="AR1" s="180"/>
-      <c r="AS1" s="181"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="139"/>
       <c r="AT1" s="56"/>
-      <c r="AU1" s="179" t="s">
+      <c r="AU1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" s="180"/>
-      <c r="AW1" s="180"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
     </row>
     <row r="2" spans="1:204" ht="53.25" customHeight="1">
       <c r="A2" s="36" t="s">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="I2" s="40">
         <f ca="1">TODAY()</f>
-        <v>44655</v>
+        <v>44657</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4209,47 +4209,47 @@
       <c r="GV5" s="76"/>
     </row>
     <row r="6" spans="1:204" s="6" customFormat="1" ht="44.25" customHeight="1">
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="184" t="s">
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="188" t="s">
+      <c r="G6" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="182" t="s">
+      <c r="H6" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="182" t="s">
+      <c r="I6" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="190" t="s">
+      <c r="J6" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="182" t="s">
+      <c r="K6" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="182" t="s">
+      <c r="L6" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="182" t="s">
+      <c r="M6" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="182" t="s">
+      <c r="N6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="182" t="s">
+      <c r="O6" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="186" t="s">
+      <c r="P6" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="186"/>
-      <c r="R6" s="186" t="s">
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144" t="s">
         <v>25</v>
       </c>
       <c r="S6" s="93"/>
@@ -4446,23 +4446,23 @@
       <c r="GV6" s="103"/>
     </row>
     <row r="7" spans="1:204" ht="15.75" customHeight="1">
-      <c r="B7" s="172"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="187"/>
-      <c r="Q7" s="187"/>
-      <c r="R7" s="187"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="145"/>
+      <c r="R7" s="145"/>
       <c r="S7" s="28">
         <v>1</v>
       </c>
@@ -5541,12 +5541,12 @@
       <c r="A9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="148" t="s">
+      <c r="B9" s="156" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="59"/>
       <c r="G9" s="60" t="s">
         <v>30</v>
@@ -5754,12 +5754,12 @@
       <c r="GV9" s="13"/>
     </row>
     <row r="10" spans="1:204" ht="30" customHeight="1">
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="160"/>
       <c r="F10" s="23" t="s">
         <v>31</v>
       </c>
@@ -5975,12 +5975,12 @@
       <c r="GV10" s="13"/>
     </row>
     <row r="11" spans="1:204" ht="30" customHeight="1">
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="135"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="163"/>
       <c r="F11" s="23"/>
       <c r="G11" s="26" t="s">
         <v>73</v>
@@ -6186,12 +6186,12 @@
       <c r="GV11" s="13"/>
     </row>
     <row r="12" spans="1:204" ht="36.75" customHeight="1">
-      <c r="B12" s="142"/>
-      <c r="C12" s="133" t="s">
+      <c r="B12" s="164"/>
+      <c r="C12" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="134"/>
-      <c r="E12" s="135"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="163"/>
       <c r="F12" s="23"/>
       <c r="G12" s="130" t="s">
         <v>322</v>
@@ -6403,12 +6403,12 @@
       <c r="GV12" s="13"/>
     </row>
     <row r="13" spans="1:204" ht="37.5" hidden="1" customHeight="1">
-      <c r="B13" s="143"/>
-      <c r="C13" s="133" t="s">
+      <c r="B13" s="165"/>
+      <c r="C13" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="163"/>
       <c r="F13" s="23"/>
       <c r="G13" s="26"/>
       <c r="H13" s="14" t="s">
@@ -6620,12 +6620,12 @@
       <c r="GV13" s="105"/>
     </row>
     <row r="14" spans="1:204" ht="26.25" hidden="1">
-      <c r="B14" s="143"/>
-      <c r="C14" s="133" t="s">
+      <c r="B14" s="165"/>
+      <c r="C14" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="134"/>
-      <c r="E14" s="135"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="163"/>
       <c r="F14" s="23"/>
       <c r="G14" s="26"/>
       <c r="H14" s="14" t="s">
@@ -6835,12 +6835,12 @@
       <c r="GV14" s="13"/>
     </row>
     <row r="15" spans="1:204" ht="26.25">
-      <c r="B15" s="143"/>
-      <c r="C15" s="133" t="s">
+      <c r="B15" s="165"/>
+      <c r="C15" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="135"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="163"/>
       <c r="F15" s="23"/>
       <c r="G15" s="26"/>
       <c r="H15" s="14" t="s">
@@ -7050,12 +7050,12 @@
       <c r="GV15" s="13"/>
     </row>
     <row r="16" spans="1:204" ht="26.25">
-      <c r="B16" s="143"/>
-      <c r="C16" s="133" t="s">
+      <c r="B16" s="165"/>
+      <c r="C16" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="134"/>
-      <c r="E16" s="135"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="163"/>
       <c r="F16" s="23"/>
       <c r="G16" s="26"/>
       <c r="H16" s="14" t="s">
@@ -7265,12 +7265,12 @@
       <c r="GV16" s="13"/>
     </row>
     <row r="17" spans="2:204" ht="34.5" customHeight="1">
-      <c r="B17" s="144"/>
-      <c r="C17" s="133" t="s">
+      <c r="B17" s="166"/>
+      <c r="C17" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="134"/>
-      <c r="E17" s="135"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="163"/>
       <c r="F17" s="23"/>
       <c r="G17" s="26"/>
       <c r="H17" s="14" t="s">
@@ -7480,12 +7480,12 @@
       <c r="GV17" s="13"/>
     </row>
     <row r="18" spans="2:204" ht="26.25">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="135"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="163"/>
       <c r="F18" s="23"/>
       <c r="G18" s="26" t="s">
         <v>74</v>
@@ -7691,12 +7691,12 @@
       <c r="GV18" s="13"/>
     </row>
     <row r="19" spans="2:204" ht="39" customHeight="1">
-      <c r="B19" s="142"/>
-      <c r="C19" s="133" t="s">
+      <c r="B19" s="164"/>
+      <c r="C19" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="135"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="163"/>
       <c r="F19" s="23"/>
       <c r="G19" s="130" t="s">
         <v>322</v>
@@ -7907,13 +7907,13 @@
       <c r="GU19" s="13"/>
       <c r="GV19" s="13"/>
     </row>
-    <row r="20" spans="2:204" ht="34.5" customHeight="1">
-      <c r="B20" s="143"/>
-      <c r="C20" s="133" t="s">
+    <row r="20" spans="2:204" ht="34.5" hidden="1" customHeight="1">
+      <c r="B20" s="165"/>
+      <c r="C20" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="135"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="163"/>
       <c r="F20" s="23"/>
       <c r="G20" s="26"/>
       <c r="H20" s="14" t="s">
@@ -8123,12 +8123,12 @@
       <c r="GV20" s="13"/>
     </row>
     <row r="21" spans="2:204" ht="34.5" customHeight="1">
-      <c r="B21" s="143"/>
-      <c r="C21" s="133" t="s">
+      <c r="B21" s="165"/>
+      <c r="C21" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="134"/>
-      <c r="E21" s="135"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="163"/>
       <c r="F21" s="23"/>
       <c r="G21" s="26"/>
       <c r="H21" s="14" t="s">
@@ -8336,12 +8336,12 @@
       <c r="GV21" s="13"/>
     </row>
     <row r="22" spans="2:204" ht="37.5" customHeight="1">
-      <c r="B22" s="144"/>
-      <c r="C22" s="133" t="s">
+      <c r="B22" s="166"/>
+      <c r="C22" s="161" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="163"/>
       <c r="F22" s="23"/>
       <c r="G22" s="26"/>
       <c r="H22" s="14" t="s">
@@ -8549,12 +8549,12 @@
       <c r="GV22" s="13"/>
     </row>
     <row r="23" spans="2:204" ht="26.25">
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="135"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="163"/>
       <c r="F23" s="23"/>
       <c r="G23" s="26" t="s">
         <v>75</v>
@@ -8760,12 +8760,12 @@
       <c r="GV23" s="13"/>
     </row>
     <row r="24" spans="2:204" ht="26.25">
-      <c r="B24" s="142"/>
-      <c r="C24" s="133" t="s">
+      <c r="B24" s="164"/>
+      <c r="C24" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="134"/>
-      <c r="E24" s="135"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="163"/>
       <c r="F24" s="23"/>
       <c r="G24" s="130" t="s">
         <v>322</v>
@@ -8977,12 +8977,12 @@
       <c r="GV24" s="13"/>
     </row>
     <row r="25" spans="2:204" ht="36.75" customHeight="1">
-      <c r="B25" s="143"/>
-      <c r="C25" s="133" t="s">
+      <c r="B25" s="165"/>
+      <c r="C25" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="134"/>
-      <c r="E25" s="135"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="163"/>
       <c r="F25" s="23"/>
       <c r="G25" s="26"/>
       <c r="H25" s="14" t="s">
@@ -9190,12 +9190,12 @@
       <c r="GV25" s="13"/>
     </row>
     <row r="26" spans="2:204" ht="26.25">
-      <c r="B26" s="143"/>
-      <c r="C26" s="133" t="s">
+      <c r="B26" s="165"/>
+      <c r="C26" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="134"/>
-      <c r="E26" s="135"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="163"/>
       <c r="F26" s="23"/>
       <c r="G26" s="26"/>
       <c r="H26" s="14" t="s">
@@ -9403,12 +9403,12 @@
       <c r="GV26" s="13"/>
     </row>
     <row r="27" spans="2:204" ht="26.25">
-      <c r="B27" s="143"/>
-      <c r="C27" s="133" t="s">
+      <c r="B27" s="165"/>
+      <c r="C27" s="161" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="134"/>
-      <c r="E27" s="135"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="163"/>
       <c r="F27" s="23"/>
       <c r="G27" s="26"/>
       <c r="H27" s="14" t="s">
@@ -9616,12 +9616,12 @@
       <c r="GV27" s="13"/>
     </row>
     <row r="28" spans="2:204" ht="26.25">
-      <c r="B28" s="144"/>
-      <c r="C28" s="133" t="s">
+      <c r="B28" s="166"/>
+      <c r="C28" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="134"/>
-      <c r="E28" s="135"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="163"/>
       <c r="F28" s="23"/>
       <c r="G28" s="26"/>
       <c r="H28" s="14" t="s">
@@ -9829,12 +9829,12 @@
       <c r="GV28" s="13"/>
     </row>
     <row r="29" spans="2:204" ht="26.25">
-      <c r="B29" s="133" t="s">
+      <c r="B29" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="135"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="163"/>
       <c r="F29" s="23"/>
       <c r="G29" s="26" t="s">
         <v>76</v>
@@ -10040,12 +10040,12 @@
       <c r="GV29" s="13"/>
     </row>
     <row r="30" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B30" s="142"/>
-      <c r="C30" s="133" t="s">
+      <c r="B30" s="164"/>
+      <c r="C30" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="134"/>
-      <c r="E30" s="135"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="163"/>
       <c r="F30" s="23"/>
       <c r="G30" s="130" t="s">
         <v>322</v>
@@ -10257,12 +10257,12 @@
       <c r="GV30" s="13"/>
     </row>
     <row r="31" spans="2:204" ht="36.75" customHeight="1">
-      <c r="B31" s="143"/>
-      <c r="C31" s="133" t="s">
+      <c r="B31" s="165"/>
+      <c r="C31" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="134"/>
-      <c r="E31" s="135"/>
+      <c r="D31" s="162"/>
+      <c r="E31" s="163"/>
       <c r="F31" s="23"/>
       <c r="G31" s="26"/>
       <c r="H31" s="14" t="s">
@@ -10470,12 +10470,12 @@
       <c r="GV31" s="13"/>
     </row>
     <row r="32" spans="2:204" ht="26.25">
-      <c r="B32" s="143"/>
-      <c r="C32" s="133" t="s">
+      <c r="B32" s="165"/>
+      <c r="C32" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="134"/>
-      <c r="E32" s="135"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="163"/>
       <c r="F32" s="23"/>
       <c r="G32" s="26"/>
       <c r="H32" s="14" t="s">
@@ -10683,12 +10683,12 @@
       <c r="GV32" s="13"/>
     </row>
     <row r="33" spans="2:204" ht="26.25">
-      <c r="B33" s="143"/>
-      <c r="C33" s="133" t="s">
+      <c r="B33" s="165"/>
+      <c r="C33" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="134"/>
-      <c r="E33" s="135"/>
+      <c r="D33" s="162"/>
+      <c r="E33" s="163"/>
       <c r="F33" s="23"/>
       <c r="G33" s="26"/>
       <c r="H33" s="14" t="s">
@@ -10896,12 +10896,12 @@
       <c r="GV33" s="13"/>
     </row>
     <row r="34" spans="2:204" ht="26.25">
-      <c r="B34" s="143"/>
-      <c r="C34" s="133" t="s">
+      <c r="B34" s="165"/>
+      <c r="C34" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="134"/>
-      <c r="E34" s="135"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="163"/>
       <c r="F34" s="23"/>
       <c r="G34" s="26" t="s">
         <v>151</v>
@@ -11111,12 +11111,12 @@
       <c r="GV34" s="13"/>
     </row>
     <row r="35" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B35" s="144"/>
-      <c r="C35" s="133" t="s">
+      <c r="B35" s="166"/>
+      <c r="C35" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="134"/>
-      <c r="E35" s="135"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="163"/>
       <c r="F35" s="23"/>
       <c r="G35" s="26"/>
       <c r="H35" s="14" t="s">
@@ -11324,12 +11324,12 @@
       <c r="GV35" s="13"/>
     </row>
     <row r="36" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B36" s="133" t="s">
+      <c r="B36" s="161" t="s">
         <v>293</v>
       </c>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="135"/>
+      <c r="C36" s="162"/>
+      <c r="D36" s="162"/>
+      <c r="E36" s="163"/>
       <c r="F36" s="23"/>
       <c r="G36" s="26" t="s">
         <v>294</v>
@@ -11539,12 +11539,12 @@
       <c r="GV36" s="13"/>
     </row>
     <row r="37" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B37" s="138"/>
-      <c r="C37" s="134" t="s">
+      <c r="B37" s="188"/>
+      <c r="C37" s="162" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="134"/>
-      <c r="E37" s="135"/>
+      <c r="D37" s="162"/>
+      <c r="E37" s="163"/>
       <c r="F37" s="23"/>
       <c r="G37" s="26"/>
       <c r="H37" s="14" t="s">
@@ -11752,12 +11752,12 @@
       <c r="GV37" s="13"/>
     </row>
     <row r="38" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B38" s="139"/>
-      <c r="C38" s="134" t="s">
+      <c r="B38" s="189"/>
+      <c r="C38" s="162" t="s">
         <v>296</v>
       </c>
-      <c r="D38" s="134"/>
-      <c r="E38" s="135"/>
+      <c r="D38" s="162"/>
+      <c r="E38" s="163"/>
       <c r="F38" s="23"/>
       <c r="G38" s="26"/>
       <c r="H38" s="14" t="s">
@@ -11965,12 +11965,12 @@
       <c r="GV38" s="13"/>
     </row>
     <row r="39" spans="2:204" ht="26.25">
-      <c r="B39" s="147" t="s">
+      <c r="B39" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="136"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="137"/>
+      <c r="C39" s="159"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="160"/>
       <c r="F39" s="23" t="s">
         <v>28</v>
       </c>
@@ -12186,12 +12186,12 @@
       <c r="GV39" s="13"/>
     </row>
     <row r="40" spans="2:204" ht="26.25">
-      <c r="B40" s="133" t="s">
+      <c r="B40" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="134"/>
-      <c r="D40" s="134"/>
-      <c r="E40" s="135"/>
+      <c r="C40" s="162"/>
+      <c r="D40" s="162"/>
+      <c r="E40" s="163"/>
       <c r="F40" s="64"/>
       <c r="G40" s="26"/>
       <c r="H40" s="119" t="s">
@@ -12399,12 +12399,12 @@
       <c r="GV40" s="13"/>
     </row>
     <row r="41" spans="2:204" ht="26.25" hidden="1">
-      <c r="B41" s="142"/>
-      <c r="C41" s="133" t="s">
+      <c r="B41" s="164"/>
+      <c r="C41" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="134"/>
-      <c r="E41" s="135"/>
+      <c r="D41" s="162"/>
+      <c r="E41" s="163"/>
       <c r="F41" s="64"/>
       <c r="G41" s="26"/>
       <c r="H41" s="119" t="s">
@@ -12614,12 +12614,12 @@
       <c r="GV41" s="13"/>
     </row>
     <row r="42" spans="2:204" ht="26.25" hidden="1">
-      <c r="B42" s="143"/>
-      <c r="C42" s="133" t="s">
+      <c r="B42" s="165"/>
+      <c r="C42" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="134"/>
-      <c r="E42" s="135"/>
+      <c r="D42" s="162"/>
+      <c r="E42" s="163"/>
       <c r="F42" s="64"/>
       <c r="G42" s="26"/>
       <c r="H42" s="119" t="s">
@@ -12828,20 +12828,20 @@
       <c r="GU42" s="13"/>
       <c r="GV42" s="13"/>
     </row>
-    <row r="43" spans="2:204" ht="26.25">
-      <c r="B43" s="143"/>
-      <c r="C43" s="133" t="s">
+    <row r="43" spans="2:204" ht="26.25" hidden="1">
+      <c r="B43" s="165"/>
+      <c r="C43" s="161" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="134"/>
-      <c r="E43" s="135"/>
+      <c r="D43" s="162"/>
+      <c r="E43" s="163"/>
       <c r="F43" s="64"/>
       <c r="G43" s="26"/>
       <c r="H43" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I43" s="131">
-        <v>44657</v>
+      <c r="I43" s="132" t="s">
+        <v>150</v>
       </c>
       <c r="J43" s="14">
         <v>6</v>
@@ -13043,20 +13043,20 @@
       <c r="GU43" s="13"/>
       <c r="GV43" s="13"/>
     </row>
-    <row r="44" spans="2:204" ht="30" customHeight="1">
-      <c r="B44" s="143"/>
-      <c r="C44" s="133" t="s">
+    <row r="44" spans="2:204" ht="30" hidden="1" customHeight="1">
+      <c r="B44" s="165"/>
+      <c r="C44" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="134"/>
-      <c r="E44" s="135"/>
+      <c r="D44" s="162"/>
+      <c r="E44" s="163"/>
       <c r="F44" s="64"/>
       <c r="G44" s="26"/>
       <c r="H44" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I44" s="131">
-        <v>44658</v>
+      <c r="I44" s="132" t="s">
+        <v>150</v>
       </c>
       <c r="J44" s="14">
         <v>7</v>
@@ -13259,19 +13259,19 @@
       <c r="GV44" s="13"/>
     </row>
     <row r="45" spans="2:204" ht="26.25">
-      <c r="B45" s="143"/>
-      <c r="C45" s="133" t="s">
+      <c r="B45" s="165"/>
+      <c r="C45" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="134"/>
-      <c r="E45" s="135"/>
+      <c r="D45" s="162"/>
+      <c r="E45" s="163"/>
       <c r="F45" s="64"/>
       <c r="G45" s="26"/>
       <c r="H45" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I45" s="131">
-        <v>44658</v>
+      <c r="I45" s="132" t="s">
+        <v>150</v>
       </c>
       <c r="J45" s="14">
         <v>8</v>
@@ -13474,12 +13474,12 @@
       <c r="GV45" s="13"/>
     </row>
     <row r="46" spans="2:204" ht="37.5" customHeight="1">
-      <c r="B46" s="144"/>
-      <c r="C46" s="133" t="s">
+      <c r="B46" s="166"/>
+      <c r="C46" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="134"/>
-      <c r="E46" s="135"/>
+      <c r="D46" s="162"/>
+      <c r="E46" s="163"/>
       <c r="F46" s="64"/>
       <c r="G46" s="26"/>
       <c r="H46" s="119" t="s">
@@ -13689,12 +13689,12 @@
       <c r="GV46" s="13"/>
     </row>
     <row r="47" spans="2:204" ht="26.25">
-      <c r="B47" s="133" t="s">
+      <c r="B47" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="135"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="162"/>
+      <c r="E47" s="163"/>
       <c r="F47" s="64"/>
       <c r="G47" s="26"/>
       <c r="H47" s="119" t="s">
@@ -13903,11 +13903,11 @@
     </row>
     <row r="48" spans="2:204" ht="39" customHeight="1">
       <c r="B48" s="65"/>
-      <c r="C48" s="133" t="s">
+      <c r="C48" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="134"/>
-      <c r="E48" s="135"/>
+      <c r="D48" s="162"/>
+      <c r="E48" s="163"/>
       <c r="F48" s="64"/>
       <c r="G48" s="26"/>
       <c r="H48" s="119" t="s">
@@ -14115,12 +14115,12 @@
       <c r="GV48" s="13"/>
     </row>
     <row r="49" spans="2:204" ht="26.25">
-      <c r="B49" s="133" t="s">
+      <c r="B49" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="134"/>
-      <c r="D49" s="134"/>
-      <c r="E49" s="135"/>
+      <c r="C49" s="162"/>
+      <c r="D49" s="162"/>
+      <c r="E49" s="163"/>
       <c r="F49" s="64"/>
       <c r="G49" s="26"/>
       <c r="H49" s="119" t="s">
@@ -14328,12 +14328,12 @@
       <c r="GV49" s="13"/>
     </row>
     <row r="50" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B50" s="138"/>
-      <c r="C50" s="133" t="s">
+      <c r="B50" s="188"/>
+      <c r="C50" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="134"/>
-      <c r="E50" s="135"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="163"/>
       <c r="F50" s="64"/>
       <c r="G50" s="26"/>
       <c r="H50" s="119" t="s">
@@ -14541,12 +14541,12 @@
       <c r="GV50" s="13"/>
     </row>
     <row r="51" spans="2:204" ht="26.25">
-      <c r="B51" s="141"/>
-      <c r="C51" s="133" t="s">
+      <c r="B51" s="191"/>
+      <c r="C51" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="134"/>
-      <c r="E51" s="135"/>
+      <c r="D51" s="162"/>
+      <c r="E51" s="163"/>
       <c r="F51" s="64"/>
       <c r="G51" s="26"/>
       <c r="H51" s="119" t="s">
@@ -14754,12 +14754,12 @@
       <c r="GV51" s="13"/>
     </row>
     <row r="52" spans="2:204" ht="26.25">
-      <c r="B52" s="141"/>
-      <c r="C52" s="133" t="s">
+      <c r="B52" s="191"/>
+      <c r="C52" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="134"/>
-      <c r="E52" s="135"/>
+      <c r="D52" s="162"/>
+      <c r="E52" s="163"/>
       <c r="F52" s="64"/>
       <c r="G52" s="26"/>
       <c r="H52" s="119" t="s">
@@ -14967,12 +14967,12 @@
       <c r="GV52" s="13"/>
     </row>
     <row r="53" spans="2:204" ht="32.25" customHeight="1">
-      <c r="B53" s="141"/>
-      <c r="C53" s="133" t="s">
+      <c r="B53" s="191"/>
+      <c r="C53" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="134"/>
-      <c r="E53" s="135"/>
+      <c r="D53" s="162"/>
+      <c r="E53" s="163"/>
       <c r="F53" s="64"/>
       <c r="G53" s="26"/>
       <c r="H53" s="119" t="s">
@@ -15180,12 +15180,12 @@
       <c r="GV53" s="13"/>
     </row>
     <row r="54" spans="2:204" ht="43.5" customHeight="1">
-      <c r="B54" s="141"/>
-      <c r="C54" s="133" t="s">
+      <c r="B54" s="191"/>
+      <c r="C54" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="134"/>
-      <c r="E54" s="135"/>
+      <c r="D54" s="162"/>
+      <c r="E54" s="163"/>
       <c r="F54" s="64"/>
       <c r="G54" s="26"/>
       <c r="H54" s="119" t="s">
@@ -15393,12 +15393,12 @@
       <c r="GV54" s="13"/>
     </row>
     <row r="55" spans="2:204" ht="43.5" customHeight="1">
-      <c r="B55" s="141"/>
-      <c r="C55" s="133" t="s">
+      <c r="B55" s="191"/>
+      <c r="C55" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="134"/>
-      <c r="E55" s="135"/>
+      <c r="D55" s="162"/>
+      <c r="E55" s="163"/>
       <c r="F55" s="64"/>
       <c r="G55" s="26"/>
       <c r="H55" s="119" t="s">
@@ -15606,12 +15606,12 @@
       <c r="GV55" s="13"/>
     </row>
     <row r="56" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B56" s="141"/>
-      <c r="C56" s="133" t="s">
+      <c r="B56" s="191"/>
+      <c r="C56" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="134"/>
-      <c r="E56" s="135"/>
+      <c r="D56" s="162"/>
+      <c r="E56" s="163"/>
       <c r="F56" s="64"/>
       <c r="G56" s="26"/>
       <c r="H56" s="119" t="s">
@@ -15819,12 +15819,12 @@
       <c r="GV56" s="13"/>
     </row>
     <row r="57" spans="2:204" ht="26.25">
-      <c r="B57" s="141"/>
-      <c r="C57" s="133" t="s">
+      <c r="B57" s="191"/>
+      <c r="C57" s="161" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="134"/>
-      <c r="E57" s="135"/>
+      <c r="D57" s="162"/>
+      <c r="E57" s="163"/>
       <c r="F57" s="64"/>
       <c r="G57" s="26"/>
       <c r="H57" s="119" t="s">
@@ -16032,12 +16032,12 @@
       <c r="GV57" s="13"/>
     </row>
     <row r="58" spans="2:204" ht="26.25">
-      <c r="B58" s="141"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="145" t="s">
+      <c r="B58" s="191"/>
+      <c r="C58" s="188"/>
+      <c r="D58" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="E58" s="146"/>
+      <c r="E58" s="187"/>
       <c r="F58" s="64"/>
       <c r="G58" s="26"/>
       <c r="H58" s="119" t="s">
@@ -16245,12 +16245,12 @@
       <c r="GV58" s="13"/>
     </row>
     <row r="59" spans="2:204" ht="26.25">
-      <c r="B59" s="141"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="145" t="s">
+      <c r="B59" s="191"/>
+      <c r="C59" s="191"/>
+      <c r="D59" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="E59" s="146"/>
+      <c r="E59" s="187"/>
       <c r="F59" s="64"/>
       <c r="G59" s="26"/>
       <c r="H59" s="119" t="s">
@@ -16458,9 +16458,9 @@
       <c r="GV59" s="13"/>
     </row>
     <row r="60" spans="2:204" ht="36" customHeight="1">
-      <c r="B60" s="141"/>
-      <c r="C60" s="141"/>
-      <c r="D60" s="138"/>
+      <c r="B60" s="191"/>
+      <c r="C60" s="191"/>
+      <c r="D60" s="188"/>
       <c r="E60" s="65" t="s">
         <v>105</v>
       </c>
@@ -16671,9 +16671,9 @@
       <c r="GV60" s="13"/>
     </row>
     <row r="61" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B61" s="141"/>
-      <c r="C61" s="141"/>
-      <c r="D61" s="141"/>
+      <c r="B61" s="191"/>
+      <c r="C61" s="191"/>
+      <c r="D61" s="191"/>
       <c r="E61" s="65" t="s">
         <v>106</v>
       </c>
@@ -16884,9 +16884,9 @@
       <c r="GV61" s="13"/>
     </row>
     <row r="62" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B62" s="141"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="141"/>
+      <c r="B62" s="191"/>
+      <c r="C62" s="191"/>
+      <c r="D62" s="191"/>
       <c r="E62" s="65" t="s">
         <v>108</v>
       </c>
@@ -17097,9 +17097,9 @@
       <c r="GV62" s="13"/>
     </row>
     <row r="63" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B63" s="141"/>
-      <c r="C63" s="141"/>
-      <c r="D63" s="141"/>
+      <c r="B63" s="191"/>
+      <c r="C63" s="191"/>
+      <c r="D63" s="191"/>
       <c r="E63" s="65" t="s">
         <v>112</v>
       </c>
@@ -17310,9 +17310,9 @@
       <c r="GV63" s="13"/>
     </row>
     <row r="64" spans="2:204" ht="26.25">
-      <c r="B64" s="141"/>
-      <c r="C64" s="141"/>
-      <c r="D64" s="141"/>
+      <c r="B64" s="191"/>
+      <c r="C64" s="191"/>
+      <c r="D64" s="191"/>
       <c r="E64" s="65" t="s">
         <v>107</v>
       </c>
@@ -17523,9 +17523,9 @@
       <c r="GV64" s="13"/>
     </row>
     <row r="65" spans="1:204" ht="26.25">
-      <c r="B65" s="141"/>
-      <c r="C65" s="141"/>
-      <c r="D65" s="141"/>
+      <c r="B65" s="191"/>
+      <c r="C65" s="191"/>
+      <c r="D65" s="191"/>
       <c r="E65" s="65" t="s">
         <v>109</v>
       </c>
@@ -17736,9 +17736,9 @@
       <c r="GV65" s="13"/>
     </row>
     <row r="66" spans="1:204" ht="26.25">
-      <c r="B66" s="141"/>
-      <c r="C66" s="141"/>
-      <c r="D66" s="141"/>
+      <c r="B66" s="191"/>
+      <c r="C66" s="191"/>
+      <c r="D66" s="191"/>
       <c r="E66" s="65" t="s">
         <v>110</v>
       </c>
@@ -17949,9 +17949,9 @@
       <c r="GV66" s="13"/>
     </row>
     <row r="67" spans="1:204" ht="37.5" customHeight="1">
-      <c r="B67" s="141"/>
-      <c r="C67" s="141"/>
-      <c r="D67" s="139"/>
+      <c r="B67" s="191"/>
+      <c r="C67" s="191"/>
+      <c r="D67" s="189"/>
       <c r="E67" s="65" t="s">
         <v>111</v>
       </c>
@@ -18162,12 +18162,12 @@
       <c r="GV67" s="13"/>
     </row>
     <row r="68" spans="1:204" ht="33" customHeight="1">
-      <c r="B68" s="141"/>
-      <c r="C68" s="141"/>
-      <c r="D68" s="133" t="s">
+      <c r="B68" s="191"/>
+      <c r="C68" s="191"/>
+      <c r="D68" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="E68" s="135"/>
+      <c r="E68" s="163"/>
       <c r="F68" s="64"/>
       <c r="G68" s="26"/>
       <c r="H68" s="119" t="s">
@@ -18375,12 +18375,12 @@
       <c r="GV68" s="13"/>
     </row>
     <row r="69" spans="1:204" ht="26.25">
-      <c r="B69" s="141"/>
-      <c r="C69" s="141"/>
-      <c r="D69" s="133" t="s">
+      <c r="B69" s="191"/>
+      <c r="C69" s="191"/>
+      <c r="D69" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="E69" s="135"/>
+      <c r="E69" s="163"/>
       <c r="F69" s="64"/>
       <c r="G69" s="26"/>
       <c r="H69" s="119" t="s">
@@ -18588,12 +18588,12 @@
       <c r="GV69" s="13"/>
     </row>
     <row r="70" spans="1:204" ht="34.5" customHeight="1">
-      <c r="B70" s="139"/>
-      <c r="C70" s="139"/>
-      <c r="D70" s="133" t="s">
+      <c r="B70" s="189"/>
+      <c r="C70" s="189"/>
+      <c r="D70" s="161" t="s">
         <v>104</v>
       </c>
-      <c r="E70" s="135"/>
+      <c r="E70" s="163"/>
       <c r="F70" s="64"/>
       <c r="G70" s="26"/>
       <c r="H70" s="119" t="s">
@@ -18801,12 +18801,12 @@
       <c r="GV70" s="13"/>
     </row>
     <row r="71" spans="1:204" ht="26.25">
-      <c r="B71" s="147" t="s">
+      <c r="B71" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="136"/>
-      <c r="D71" s="136"/>
-      <c r="E71" s="137"/>
+      <c r="C71" s="159"/>
+      <c r="D71" s="159"/>
+      <c r="E71" s="160"/>
       <c r="F71" s="23" t="s">
         <v>27</v>
       </c>
@@ -19024,10 +19024,10 @@
     <row r="72" spans="1:204" ht="45" customHeight="1">
       <c r="B72" s="97"/>
       <c r="C72" s="98"/>
-      <c r="D72" s="140" t="s">
+      <c r="D72" s="190" t="s">
         <v>312</v>
       </c>
-      <c r="E72" s="140"/>
+      <c r="E72" s="190"/>
       <c r="F72" s="114"/>
       <c r="G72" s="26"/>
       <c r="H72" s="119" t="s">
@@ -19237,10 +19237,10 @@
     <row r="73" spans="1:204" ht="47.25" customHeight="1">
       <c r="B73" s="97"/>
       <c r="C73" s="98"/>
-      <c r="D73" s="140" t="s">
+      <c r="D73" s="190" t="s">
         <v>313</v>
       </c>
-      <c r="E73" s="140"/>
+      <c r="E73" s="190"/>
       <c r="F73" s="64"/>
       <c r="G73" s="26"/>
       <c r="H73" s="119" t="s">
@@ -19450,10 +19450,10 @@
     <row r="74" spans="1:204" ht="26.25">
       <c r="B74" s="97"/>
       <c r="C74" s="98"/>
-      <c r="D74" s="140" t="s">
+      <c r="D74" s="190" t="s">
         <v>314</v>
       </c>
-      <c r="E74" s="140"/>
+      <c r="E74" s="190"/>
       <c r="F74" s="64"/>
       <c r="G74" s="26"/>
       <c r="H74" s="119" t="s">
@@ -19664,12 +19664,12 @@
       <c r="A75" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="148" t="s">
+      <c r="B75" s="156" t="s">
         <v>320</v>
       </c>
-      <c r="C75" s="149"/>
-      <c r="D75" s="149"/>
-      <c r="E75" s="149"/>
+      <c r="C75" s="157"/>
+      <c r="D75" s="157"/>
+      <c r="E75" s="157"/>
       <c r="F75" s="27"/>
       <c r="G75" s="7"/>
       <c r="H75" s="8"/>
@@ -19871,12 +19871,12 @@
       <c r="GV75" s="13"/>
     </row>
     <row r="76" spans="1:204" ht="26.25">
-      <c r="B76" s="147" t="s">
+      <c r="B76" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="136"/>
-      <c r="D76" s="136"/>
-      <c r="E76" s="137"/>
+      <c r="C76" s="159"/>
+      <c r="D76" s="159"/>
+      <c r="E76" s="160"/>
       <c r="F76" s="23" t="s">
         <v>31</v>
       </c>
@@ -20093,11 +20093,11 @@
     </row>
     <row r="77" spans="1:204" ht="44.25" customHeight="1">
       <c r="B77" s="97"/>
-      <c r="C77" s="136" t="s">
+      <c r="C77" s="159" t="s">
         <v>298</v>
       </c>
-      <c r="D77" s="136"/>
-      <c r="E77" s="137"/>
+      <c r="D77" s="159"/>
+      <c r="E77" s="160"/>
       <c r="F77" s="23"/>
       <c r="G77" s="26"/>
       <c r="H77" s="14" t="s">
@@ -20306,11 +20306,11 @@
     </row>
     <row r="78" spans="1:204" ht="60.75" customHeight="1">
       <c r="B78" s="97"/>
-      <c r="C78" s="136" t="s">
+      <c r="C78" s="159" t="s">
         <v>304</v>
       </c>
-      <c r="D78" s="136"/>
-      <c r="E78" s="137"/>
+      <c r="D78" s="159"/>
+      <c r="E78" s="160"/>
       <c r="F78" s="23"/>
       <c r="G78" s="26"/>
       <c r="H78" s="14" t="s">
@@ -20519,11 +20519,11 @@
     </row>
     <row r="79" spans="1:204" ht="26.25">
       <c r="B79" s="97"/>
-      <c r="C79" s="136" t="s">
+      <c r="C79" s="159" t="s">
         <v>283</v>
       </c>
-      <c r="D79" s="136"/>
-      <c r="E79" s="137"/>
+      <c r="D79" s="159"/>
+      <c r="E79" s="160"/>
       <c r="F79" s="23"/>
       <c r="G79" s="26"/>
       <c r="H79" s="14" t="s">
@@ -20732,11 +20732,11 @@
     </row>
     <row r="80" spans="1:204" ht="26.25">
       <c r="B80" s="97"/>
-      <c r="C80" s="136" t="s">
+      <c r="C80" s="159" t="s">
         <v>284</v>
       </c>
-      <c r="D80" s="136"/>
-      <c r="E80" s="137"/>
+      <c r="D80" s="159"/>
+      <c r="E80" s="160"/>
       <c r="F80" s="23"/>
       <c r="G80" s="26"/>
       <c r="H80" s="14" t="s">
@@ -20944,12 +20944,12 @@
       <c r="GV80" s="13"/>
     </row>
     <row r="81" spans="1:204" ht="26.25">
-      <c r="B81" s="147" t="s">
+      <c r="B81" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="C81" s="136"/>
-      <c r="D81" s="136"/>
-      <c r="E81" s="137"/>
+      <c r="C81" s="159"/>
+      <c r="D81" s="159"/>
+      <c r="E81" s="160"/>
       <c r="F81" s="23" t="s">
         <v>28</v>
       </c>
@@ -21166,11 +21166,11 @@
     </row>
     <row r="82" spans="1:204" ht="48.75" customHeight="1">
       <c r="B82" s="97"/>
-      <c r="C82" s="136" t="s">
+      <c r="C82" s="159" t="s">
         <v>285</v>
       </c>
-      <c r="D82" s="136"/>
-      <c r="E82" s="137"/>
+      <c r="D82" s="159"/>
+      <c r="E82" s="160"/>
       <c r="F82" s="23"/>
       <c r="G82" s="26"/>
       <c r="H82" s="119" t="s">
@@ -21379,11 +21379,11 @@
     </row>
     <row r="83" spans="1:204" ht="26.25">
       <c r="B83" s="97"/>
-      <c r="C83" s="136" t="s">
+      <c r="C83" s="159" t="s">
         <v>286</v>
       </c>
-      <c r="D83" s="136"/>
-      <c r="E83" s="137"/>
+      <c r="D83" s="159"/>
+      <c r="E83" s="160"/>
       <c r="F83" s="23"/>
       <c r="G83" s="26"/>
       <c r="H83" s="119" t="s">
@@ -21591,12 +21591,12 @@
       <c r="GV83" s="13"/>
     </row>
     <row r="84" spans="1:204" ht="26.25">
-      <c r="B84" s="147" t="s">
+      <c r="B84" s="158" t="s">
         <v>280</v>
       </c>
-      <c r="C84" s="136"/>
-      <c r="D84" s="136"/>
-      <c r="E84" s="137"/>
+      <c r="C84" s="159"/>
+      <c r="D84" s="159"/>
+      <c r="E84" s="160"/>
       <c r="F84" s="47" t="s">
         <v>39</v>
       </c>
@@ -21812,12 +21812,12 @@
       <c r="GV84" s="13"/>
     </row>
     <row r="85" spans="1:204" ht="26.25">
-      <c r="B85" s="147" t="s">
+      <c r="B85" s="158" t="s">
         <v>281</v>
       </c>
-      <c r="C85" s="136"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="137"/>
+      <c r="C85" s="159"/>
+      <c r="D85" s="159"/>
+      <c r="E85" s="160"/>
       <c r="F85" s="23" t="s">
         <v>42</v>
       </c>
@@ -22033,12 +22033,12 @@
       <c r="GV85" s="13"/>
     </row>
     <row r="86" spans="1:204" ht="26.25">
-      <c r="B86" s="160"/>
-      <c r="C86" s="161"/>
-      <c r="D86" s="158" t="s">
+      <c r="B86" s="177"/>
+      <c r="C86" s="178"/>
+      <c r="D86" s="175" t="s">
         <v>291</v>
       </c>
-      <c r="E86" s="137"/>
+      <c r="E86" s="160"/>
       <c r="F86" s="23"/>
       <c r="G86" s="26"/>
       <c r="H86" s="122" t="s">
@@ -22246,8 +22246,8 @@
       <c r="GV86" s="13"/>
     </row>
     <row r="87" spans="1:204" ht="30" customHeight="1">
-      <c r="B87" s="162"/>
-      <c r="C87" s="163"/>
+      <c r="B87" s="179"/>
+      <c r="C87" s="180"/>
       <c r="D87" s="123"/>
       <c r="E87" s="99" t="s">
         <v>292</v>
@@ -22459,12 +22459,12 @@
       <c r="GV87" s="13"/>
     </row>
     <row r="88" spans="1:204" ht="26.25">
-      <c r="B88" s="162"/>
-      <c r="C88" s="164"/>
-      <c r="D88" s="159" t="s">
+      <c r="B88" s="179"/>
+      <c r="C88" s="181"/>
+      <c r="D88" s="176" t="s">
         <v>290</v>
       </c>
-      <c r="E88" s="137"/>
+      <c r="E88" s="160"/>
       <c r="F88" s="23"/>
       <c r="G88" s="26"/>
       <c r="H88" s="14"/>
@@ -22670,9 +22670,9 @@
       <c r="GV88" s="13"/>
     </row>
     <row r="89" spans="1:204" ht="49.5" customHeight="1">
-      <c r="B89" s="162"/>
-      <c r="C89" s="163"/>
-      <c r="D89" s="167"/>
+      <c r="B89" s="179"/>
+      <c r="C89" s="180"/>
+      <c r="D89" s="184"/>
       <c r="E89" s="99" t="s">
         <v>288</v>
       </c>
@@ -22883,9 +22883,9 @@
       <c r="GV89" s="13"/>
     </row>
     <row r="90" spans="1:204" ht="28.5" customHeight="1">
-      <c r="B90" s="165"/>
-      <c r="C90" s="166"/>
-      <c r="D90" s="168"/>
+      <c r="B90" s="182"/>
+      <c r="C90" s="183"/>
+      <c r="D90" s="185"/>
       <c r="E90" s="99" t="s">
         <v>289</v>
       </c>
@@ -23096,12 +23096,12 @@
       <c r="GV90" s="13"/>
     </row>
     <row r="91" spans="1:204" ht="26.25">
-      <c r="B91" s="147" t="s">
+      <c r="B91" s="158" t="s">
         <v>282</v>
       </c>
-      <c r="C91" s="136"/>
-      <c r="D91" s="155"/>
-      <c r="E91" s="137"/>
+      <c r="C91" s="159"/>
+      <c r="D91" s="172"/>
+      <c r="E91" s="160"/>
       <c r="F91" s="23" t="s">
         <v>29</v>
       </c>
@@ -23319,10 +23319,10 @@
     <row r="92" spans="1:204" ht="47.25" customHeight="1">
       <c r="B92" s="97"/>
       <c r="C92" s="98"/>
-      <c r="D92" s="136" t="s">
+      <c r="D92" s="159" t="s">
         <v>316</v>
       </c>
-      <c r="E92" s="137"/>
+      <c r="E92" s="160"/>
       <c r="F92" s="114"/>
       <c r="G92" s="46"/>
       <c r="H92" s="115" t="s">
@@ -23532,10 +23532,10 @@
     <row r="93" spans="1:204" ht="27" customHeight="1">
       <c r="B93" s="97"/>
       <c r="C93" s="98"/>
-      <c r="D93" s="136" t="s">
+      <c r="D93" s="159" t="s">
         <v>317</v>
       </c>
-      <c r="E93" s="137"/>
+      <c r="E93" s="160"/>
       <c r="F93" s="114"/>
       <c r="G93" s="46"/>
       <c r="H93" s="115" t="s">
@@ -23746,12 +23746,12 @@
       <c r="A94" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B94" s="156" t="s">
+      <c r="B94" s="173" t="s">
         <v>319</v>
       </c>
-      <c r="C94" s="157"/>
-      <c r="D94" s="157"/>
-      <c r="E94" s="157"/>
+      <c r="C94" s="174"/>
+      <c r="D94" s="174"/>
+      <c r="E94" s="174"/>
       <c r="F94" s="27"/>
       <c r="G94" s="7"/>
       <c r="H94" s="8"/>
@@ -23957,12 +23957,12 @@
       <c r="GV94" s="13"/>
     </row>
     <row r="95" spans="1:204" ht="26.25">
-      <c r="B95" s="147" t="s">
+      <c r="B95" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="136"/>
-      <c r="D95" s="136"/>
-      <c r="E95" s="137"/>
+      <c r="C95" s="159"/>
+      <c r="D95" s="159"/>
+      <c r="E95" s="160"/>
       <c r="F95" s="23" t="s">
         <v>31</v>
       </c>
@@ -24179,11 +24179,11 @@
     </row>
     <row r="96" spans="1:204" ht="48" customHeight="1">
       <c r="B96" s="97"/>
-      <c r="C96" s="136" t="s">
+      <c r="C96" s="159" t="s">
         <v>303</v>
       </c>
-      <c r="D96" s="136"/>
-      <c r="E96" s="137"/>
+      <c r="D96" s="159"/>
+      <c r="E96" s="160"/>
       <c r="F96" s="23"/>
       <c r="G96" s="16"/>
       <c r="H96" s="119" t="s">
@@ -24392,11 +24392,11 @@
     </row>
     <row r="97" spans="2:204" ht="26.25">
       <c r="B97" s="97"/>
-      <c r="C97" s="136" t="s">
+      <c r="C97" s="159" t="s">
         <v>305</v>
       </c>
-      <c r="D97" s="136"/>
-      <c r="E97" s="137"/>
+      <c r="D97" s="159"/>
+      <c r="E97" s="160"/>
       <c r="F97" s="23"/>
       <c r="G97" s="16"/>
       <c r="H97" s="119" t="s">
@@ -24605,11 +24605,11 @@
     </row>
     <row r="98" spans="2:204" ht="26.25">
       <c r="B98" s="97"/>
-      <c r="C98" s="136" t="s">
+      <c r="C98" s="159" t="s">
         <v>306</v>
       </c>
-      <c r="D98" s="136"/>
-      <c r="E98" s="137"/>
+      <c r="D98" s="159"/>
+      <c r="E98" s="160"/>
       <c r="F98" s="23"/>
       <c r="G98" s="16"/>
       <c r="H98" s="119" t="s">
@@ -24818,11 +24818,11 @@
     </row>
     <row r="99" spans="2:204" ht="26.25">
       <c r="B99" s="97"/>
-      <c r="C99" s="136" t="s">
+      <c r="C99" s="159" t="s">
         <v>283</v>
       </c>
-      <c r="D99" s="136"/>
-      <c r="E99" s="137"/>
+      <c r="D99" s="159"/>
+      <c r="E99" s="160"/>
       <c r="F99" s="23"/>
       <c r="G99" s="16"/>
       <c r="H99" s="119" t="s">
@@ -25031,11 +25031,11 @@
     </row>
     <row r="100" spans="2:204" ht="26.25">
       <c r="B100" s="97"/>
-      <c r="C100" s="136" t="s">
+      <c r="C100" s="159" t="s">
         <v>318</v>
       </c>
-      <c r="D100" s="136"/>
-      <c r="E100" s="137"/>
+      <c r="D100" s="159"/>
+      <c r="E100" s="160"/>
       <c r="F100" s="23"/>
       <c r="G100" s="26"/>
       <c r="H100" s="14" t="s">
@@ -25243,12 +25243,12 @@
       <c r="GV100" s="13"/>
     </row>
     <row r="101" spans="2:204" ht="26.25">
-      <c r="B101" s="147" t="s">
+      <c r="B101" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="C101" s="136"/>
-      <c r="D101" s="136"/>
-      <c r="E101" s="137"/>
+      <c r="C101" s="159"/>
+      <c r="D101" s="159"/>
+      <c r="E101" s="160"/>
       <c r="F101" s="23" t="s">
         <v>28</v>
       </c>
@@ -25463,11 +25463,11 @@
     </row>
     <row r="102" spans="2:204" ht="48.75" customHeight="1">
       <c r="B102" s="97"/>
-      <c r="C102" s="136" t="s">
+      <c r="C102" s="159" t="s">
         <v>285</v>
       </c>
-      <c r="D102" s="136"/>
-      <c r="E102" s="137"/>
+      <c r="D102" s="159"/>
+      <c r="E102" s="160"/>
       <c r="F102" s="23"/>
       <c r="G102" s="26"/>
       <c r="H102" s="119" t="s">
@@ -25676,11 +25676,11 @@
     </row>
     <row r="103" spans="2:204" ht="26.25">
       <c r="B103" s="97"/>
-      <c r="C103" s="136" t="s">
+      <c r="C103" s="159" t="s">
         <v>311</v>
       </c>
-      <c r="D103" s="136"/>
-      <c r="E103" s="137"/>
+      <c r="D103" s="159"/>
+      <c r="E103" s="160"/>
       <c r="F103" s="23"/>
       <c r="G103" s="26"/>
       <c r="H103" s="119" t="s">
@@ -25888,12 +25888,12 @@
       <c r="GV103" s="13"/>
     </row>
     <row r="104" spans="2:204" ht="26.25">
-      <c r="B104" s="147" t="s">
+      <c r="B104" s="158" t="s">
         <v>299</v>
       </c>
-      <c r="C104" s="136"/>
-      <c r="D104" s="136"/>
-      <c r="E104" s="137"/>
+      <c r="C104" s="159"/>
+      <c r="D104" s="159"/>
+      <c r="E104" s="160"/>
       <c r="F104" s="47" t="s">
         <v>39</v>
       </c>
@@ -26107,12 +26107,12 @@
       <c r="GV104" s="13"/>
     </row>
     <row r="105" spans="2:204" ht="32.25">
-      <c r="B105" s="147" t="s">
+      <c r="B105" s="158" t="s">
         <v>300</v>
       </c>
-      <c r="C105" s="136"/>
-      <c r="D105" s="136"/>
-      <c r="E105" s="137"/>
+      <c r="C105" s="159"/>
+      <c r="D105" s="159"/>
+      <c r="E105" s="160"/>
       <c r="F105" s="23" t="s">
         <v>29</v>
       </c>
@@ -26329,11 +26329,11 @@
     </row>
     <row r="106" spans="2:204" ht="26.25">
       <c r="B106" s="97"/>
-      <c r="C106" s="136" t="s">
+      <c r="C106" s="159" t="s">
         <v>307</v>
       </c>
-      <c r="D106" s="136"/>
-      <c r="E106" s="137"/>
+      <c r="D106" s="159"/>
+      <c r="E106" s="160"/>
       <c r="F106" s="23"/>
       <c r="G106" s="46"/>
       <c r="H106" s="14" t="s">
@@ -26542,11 +26542,11 @@
     </row>
     <row r="107" spans="2:204" ht="26.25">
       <c r="B107" s="97"/>
-      <c r="C107" s="136" t="s">
+      <c r="C107" s="159" t="s">
         <v>308</v>
       </c>
-      <c r="D107" s="136"/>
-      <c r="E107" s="137"/>
+      <c r="D107" s="159"/>
+      <c r="E107" s="160"/>
       <c r="F107" s="23"/>
       <c r="G107" s="46"/>
       <c r="H107" s="14" t="s">
@@ -26755,11 +26755,11 @@
     </row>
     <row r="108" spans="2:204" ht="26.25">
       <c r="B108" s="97"/>
-      <c r="C108" s="136" t="s">
+      <c r="C108" s="159" t="s">
         <v>309</v>
       </c>
-      <c r="D108" s="136"/>
-      <c r="E108" s="137"/>
+      <c r="D108" s="159"/>
+      <c r="E108" s="160"/>
       <c r="F108" s="23"/>
       <c r="G108" s="46"/>
       <c r="H108" s="14" t="s">
@@ -26968,11 +26968,11 @@
     </row>
     <row r="109" spans="2:204" ht="26.25">
       <c r="B109" s="97"/>
-      <c r="C109" s="136" t="s">
+      <c r="C109" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="D109" s="136"/>
-      <c r="E109" s="137"/>
+      <c r="D109" s="159"/>
+      <c r="E109" s="160"/>
       <c r="F109" s="23"/>
       <c r="G109" s="46"/>
       <c r="H109" s="14" t="s">
@@ -27180,12 +27180,12 @@
       <c r="GV109" s="13"/>
     </row>
     <row r="110" spans="2:204" ht="26.25">
-      <c r="B110" s="150" t="s">
+      <c r="B110" s="167" t="s">
         <v>301</v>
       </c>
-      <c r="C110" s="149"/>
-      <c r="D110" s="149"/>
-      <c r="E110" s="151"/>
+      <c r="C110" s="157"/>
+      <c r="D110" s="157"/>
+      <c r="E110" s="168"/>
       <c r="F110" s="24"/>
       <c r="G110" s="17"/>
       <c r="H110" s="18" t="s">
@@ -27397,12 +27397,12 @@
       <c r="GV110" s="13"/>
     </row>
     <row r="111" spans="2:204" ht="32.25">
-      <c r="B111" s="150" t="s">
+      <c r="B111" s="167" t="s">
         <v>302</v>
       </c>
-      <c r="C111" s="149"/>
-      <c r="D111" s="149"/>
-      <c r="E111" s="151"/>
+      <c r="C111" s="157"/>
+      <c r="D111" s="157"/>
+      <c r="E111" s="168"/>
       <c r="F111" s="24"/>
       <c r="G111" s="17"/>
       <c r="H111" s="18" t="s">
@@ -27614,10 +27614,10 @@
       <c r="GV111" s="13"/>
     </row>
     <row r="112" spans="2:204" ht="30" customHeight="1">
-      <c r="B112" s="152"/>
-      <c r="C112" s="153"/>
-      <c r="D112" s="153"/>
-      <c r="E112" s="154"/>
+      <c r="B112" s="169"/>
+      <c r="C112" s="170"/>
+      <c r="D112" s="170"/>
+      <c r="E112" s="171"/>
       <c r="F112" s="25"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
@@ -27828,24 +27828,87 @@
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="123">
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B50:B70"/>
+    <mergeCell ref="C58:C70"/>
+    <mergeCell ref="D60:D67"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="B86:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="B110:E110"/>
     <mergeCell ref="B6:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
@@ -27870,87 +27933,24 @@
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="B86:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B50:B70"/>
-    <mergeCell ref="C58:C70"/>
-    <mergeCell ref="D60:D67"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="R6:R7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="AA104:GV111 S9:GV31 S33:GV103 S32:X32 Z32:AB32 AD32:GV32">

--- a/220329 HTK UV LED Controller Project sheet.xlsx
+++ b/220329 HTK UV LED Controller Project sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f734f300cb83d8b/HTK DAIAN/MORITEX/UV LED CONTROLLER/HTK LED UV Project Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="297" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F190EA1-98D6-4196-8260-611B2BD8A576}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AF9A7F7-BBEE-42F3-A927-C78A96B207E1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Project Planner'!$A$9:$K$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Project Planner'!$A$9:$K$113</definedName>
     <definedName name="Actual">(PeriodInActual*('Project Planner'!$L1&gt;0))*PeriodInPlan</definedName>
     <definedName name="ActualBeyond">PeriodInActual*('Project Planner'!$L1&gt;0)</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="329">
   <si>
     <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
   </si>
@@ -1111,7 +1111,25 @@
     <t>A. FUNCTION DESIGN</t>
   </si>
   <si>
-    <t>Thiếu BOM</t>
+    <t>2.1.7 code system timer</t>
+  </si>
+  <si>
+    <t>2.1.8 code system WDT</t>
+  </si>
+  <si>
+    <t>Thiếu Cuộn kháng chính</t>
+  </si>
+  <si>
+    <t>Đã đặt chờ LK về</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Check những part đã về và chưa có TT</t>
+  </si>
+  <si>
+    <t>Xảy ra vđề khi I &lt; 50mA (Tăng trở, FET đầu ra, khuyêch đại). Các phần khác OK</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1140,7 @@
     <numFmt numFmtId="164" formatCode="0.00_ "/>
     <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -1433,6 +1451,11 @@
     </font>
     <font>
       <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1860,7 +1883,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2256,6 +2279,18 @@
     <xf numFmtId="165" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2338,15 +2373,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2433,6 +2459,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="% complete" xfId="13" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3662,13 +3689,13 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:GV112"/>
+  <dimension ref="A1:GV114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
@@ -3723,45 +3750,45 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="5"/>
-      <c r="V1" s="137" t="s">
+      <c r="V1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="138"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
       <c r="AB1" s="52">
         <v>1</v>
       </c>
       <c r="AD1" s="51"/>
-      <c r="AE1" s="133" t="s">
+      <c r="AE1" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="135"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="139"/>
       <c r="AJ1" s="54"/>
-      <c r="AK1" s="133" t="s">
+      <c r="AK1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="136"/>
-      <c r="AM1" s="136"/>
-      <c r="AN1" s="135"/>
+      <c r="AL1" s="140"/>
+      <c r="AM1" s="140"/>
+      <c r="AN1" s="139"/>
       <c r="AO1" s="55"/>
-      <c r="AP1" s="137" t="s">
+      <c r="AP1" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="138"/>
-      <c r="AR1" s="138"/>
-      <c r="AS1" s="139"/>
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="143"/>
       <c r="AT1" s="56"/>
-      <c r="AU1" s="137" t="s">
+      <c r="AU1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" s="138"/>
-      <c r="AW1" s="138"/>
+      <c r="AV1" s="142"/>
+      <c r="AW1" s="142"/>
     </row>
     <row r="2" spans="1:204" ht="53.25" customHeight="1">
       <c r="A2" s="36" t="s">
@@ -3778,7 +3805,7 @@
       </c>
       <c r="I2" s="40">
         <f ca="1">TODAY()</f>
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4209,47 +4236,47 @@
       <c r="GV5" s="76"/>
     </row>
     <row r="6" spans="1:204" s="6" customFormat="1" ht="44.25" customHeight="1">
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="142" t="s">
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="146" t="s">
+      <c r="G6" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="140" t="s">
+      <c r="I6" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="148" t="s">
+      <c r="J6" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="140" t="s">
+      <c r="K6" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="140" t="s">
+      <c r="L6" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="140" t="s">
+      <c r="M6" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="140" t="s">
+      <c r="N6" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="144" t="s">
+      <c r="P6" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144" t="s">
+      <c r="Q6" s="148"/>
+      <c r="R6" s="148" t="s">
         <v>25</v>
       </c>
       <c r="S6" s="93"/>
@@ -4446,23 +4473,23 @@
       <c r="GV6" s="103"/>
     </row>
     <row r="7" spans="1:204" ht="15.75" customHeight="1">
-      <c r="B7" s="153"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="145"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="149"/>
+      <c r="R7" s="149"/>
       <c r="S7" s="28">
         <v>1</v>
       </c>
@@ -5541,12 +5568,12 @@
       <c r="A9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="160" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
       <c r="F9" s="59"/>
       <c r="G9" s="60" t="s">
         <v>30</v>
@@ -5754,12 +5781,12 @@
       <c r="GV9" s="13"/>
     </row>
     <row r="10" spans="1:204" ht="30" customHeight="1">
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="160"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="164"/>
       <c r="F10" s="23" t="s">
         <v>31</v>
       </c>
@@ -5975,12 +6002,12 @@
       <c r="GV10" s="13"/>
     </row>
     <row r="11" spans="1:204" ht="30" customHeight="1">
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="163"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="136"/>
       <c r="F11" s="23"/>
       <c r="G11" s="26" t="s">
         <v>73</v>
@@ -6186,21 +6213,21 @@
       <c r="GV11" s="13"/>
     </row>
     <row r="12" spans="1:204" ht="36.75" customHeight="1">
-      <c r="B12" s="164"/>
-      <c r="C12" s="161" t="s">
+      <c r="B12" s="165"/>
+      <c r="C12" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="162"/>
-      <c r="E12" s="163"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="136"/>
       <c r="F12" s="23"/>
       <c r="G12" s="130" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>78</v>
       </c>
       <c r="I12" s="131">
-        <v>44657</v>
+        <v>44666</v>
       </c>
       <c r="J12" s="14">
         <v>1</v>
@@ -6403,12 +6430,12 @@
       <c r="GV12" s="13"/>
     </row>
     <row r="13" spans="1:204" ht="37.5" hidden="1" customHeight="1">
-      <c r="B13" s="165"/>
-      <c r="C13" s="161" t="s">
+      <c r="B13" s="166"/>
+      <c r="C13" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="162"/>
-      <c r="E13" s="163"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="23"/>
       <c r="G13" s="26"/>
       <c r="H13" s="14" t="s">
@@ -6620,12 +6647,12 @@
       <c r="GV13" s="105"/>
     </row>
     <row r="14" spans="1:204" ht="26.25" hidden="1">
-      <c r="B14" s="165"/>
-      <c r="C14" s="161" t="s">
+      <c r="B14" s="166"/>
+      <c r="C14" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="162"/>
-      <c r="E14" s="163"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
       <c r="F14" s="23"/>
       <c r="G14" s="26"/>
       <c r="H14" s="14" t="s">
@@ -6835,19 +6862,19 @@
       <c r="GV14" s="13"/>
     </row>
     <row r="15" spans="1:204" ht="26.25">
-      <c r="B15" s="165"/>
-      <c r="C15" s="161" t="s">
+      <c r="B15" s="166"/>
+      <c r="C15" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="162"/>
-      <c r="E15" s="163"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="136"/>
       <c r="F15" s="23"/>
       <c r="G15" s="26"/>
       <c r="H15" s="14" t="s">
         <v>77</v>
       </c>
       <c r="I15" s="131">
-        <v>44657</v>
+        <v>44662</v>
       </c>
       <c r="J15" s="14">
         <v>6</v>
@@ -7050,19 +7077,21 @@
       <c r="GV15" s="13"/>
     </row>
     <row r="16" spans="1:204" ht="26.25">
-      <c r="B16" s="165"/>
-      <c r="C16" s="161" t="s">
+      <c r="B16" s="166"/>
+      <c r="C16" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="162"/>
-      <c r="E16" s="163"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="136"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="130" t="s">
+        <v>328</v>
+      </c>
       <c r="H16" s="14" t="s">
         <v>77</v>
       </c>
       <c r="I16" s="131">
-        <v>44657</v>
+        <v>44662</v>
       </c>
       <c r="J16" s="14">
         <v>6</v>
@@ -7265,19 +7294,19 @@
       <c r="GV16" s="13"/>
     </row>
     <row r="17" spans="2:204" ht="34.5" customHeight="1">
-      <c r="B17" s="166"/>
-      <c r="C17" s="161" t="s">
+      <c r="B17" s="167"/>
+      <c r="C17" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="162"/>
-      <c r="E17" s="163"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="23"/>
       <c r="G17" s="26"/>
       <c r="H17" s="14" t="s">
         <v>77</v>
       </c>
       <c r="I17" s="131">
-        <v>44657</v>
+        <v>44662</v>
       </c>
       <c r="J17" s="14">
         <v>7</v>
@@ -7480,12 +7509,12 @@
       <c r="GV17" s="13"/>
     </row>
     <row r="18" spans="2:204" ht="26.25">
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="163"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="136"/>
       <c r="F18" s="23"/>
       <c r="G18" s="26" t="s">
         <v>74</v>
@@ -7690,22 +7719,22 @@
       <c r="GU18" s="13"/>
       <c r="GV18" s="13"/>
     </row>
-    <row r="19" spans="2:204" ht="39" customHeight="1">
-      <c r="B19" s="164"/>
-      <c r="C19" s="161" t="s">
+    <row r="19" spans="2:204" ht="39" hidden="1" customHeight="1">
+      <c r="B19" s="165"/>
+      <c r="C19" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="162"/>
-      <c r="E19" s="163"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="136"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="130" t="s">
-        <v>322</v>
+      <c r="G19" s="193" t="s">
+        <v>326</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="131">
-        <v>44657</v>
+      <c r="I19" s="132" t="s">
+        <v>150</v>
       </c>
       <c r="J19" s="14">
         <v>1</v>
@@ -7908,12 +7937,12 @@
       <c r="GV19" s="13"/>
     </row>
     <row r="20" spans="2:204" ht="34.5" hidden="1" customHeight="1">
-      <c r="B20" s="165"/>
-      <c r="C20" s="161" t="s">
+      <c r="B20" s="166"/>
+      <c r="C20" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="162"/>
-      <c r="E20" s="163"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="136"/>
       <c r="F20" s="23"/>
       <c r="G20" s="26"/>
       <c r="H20" s="14" t="s">
@@ -8123,12 +8152,12 @@
       <c r="GV20" s="13"/>
     </row>
     <row r="21" spans="2:204" ht="34.5" customHeight="1">
-      <c r="B21" s="165"/>
-      <c r="C21" s="161" t="s">
+      <c r="B21" s="166"/>
+      <c r="C21" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="162"/>
-      <c r="E21" s="163"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="136"/>
       <c r="F21" s="23"/>
       <c r="G21" s="26"/>
       <c r="H21" s="14" t="s">
@@ -8336,12 +8365,12 @@
       <c r="GV21" s="13"/>
     </row>
     <row r="22" spans="2:204" ht="37.5" customHeight="1">
-      <c r="B22" s="166"/>
-      <c r="C22" s="161" t="s">
+      <c r="B22" s="167"/>
+      <c r="C22" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="162"/>
-      <c r="E22" s="163"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="136"/>
       <c r="F22" s="23"/>
       <c r="G22" s="26"/>
       <c r="H22" s="14" t="s">
@@ -8549,12 +8578,12 @@
       <c r="GV22" s="13"/>
     </row>
     <row r="23" spans="2:204" ht="26.25">
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="163"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="136"/>
       <c r="F23" s="23"/>
       <c r="G23" s="26" t="s">
         <v>75</v>
@@ -8760,21 +8789,21 @@
       <c r="GV23" s="13"/>
     </row>
     <row r="24" spans="2:204" ht="26.25">
-      <c r="B24" s="164"/>
-      <c r="C24" s="161" t="s">
+      <c r="B24" s="165"/>
+      <c r="C24" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="162"/>
-      <c r="E24" s="163"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="136"/>
       <c r="F24" s="23"/>
       <c r="G24" s="130" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>35</v>
       </c>
       <c r="I24" s="131">
-        <v>44657</v>
+        <v>44666</v>
       </c>
       <c r="J24" s="14">
         <v>1</v>
@@ -8977,12 +9006,12 @@
       <c r="GV24" s="13"/>
     </row>
     <row r="25" spans="2:204" ht="36.75" customHeight="1">
-      <c r="B25" s="165"/>
-      <c r="C25" s="161" t="s">
+      <c r="B25" s="166"/>
+      <c r="C25" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="162"/>
-      <c r="E25" s="163"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="136"/>
       <c r="F25" s="23"/>
       <c r="G25" s="26"/>
       <c r="H25" s="14" t="s">
@@ -9190,12 +9219,12 @@
       <c r="GV25" s="13"/>
     </row>
     <row r="26" spans="2:204" ht="26.25">
-      <c r="B26" s="165"/>
-      <c r="C26" s="161" t="s">
+      <c r="B26" s="166"/>
+      <c r="C26" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="162"/>
-      <c r="E26" s="163"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="136"/>
       <c r="F26" s="23"/>
       <c r="G26" s="26"/>
       <c r="H26" s="14" t="s">
@@ -9403,12 +9432,12 @@
       <c r="GV26" s="13"/>
     </row>
     <row r="27" spans="2:204" ht="26.25">
-      <c r="B27" s="165"/>
-      <c r="C27" s="161" t="s">
+      <c r="B27" s="166"/>
+      <c r="C27" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="162"/>
-      <c r="E27" s="163"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="136"/>
       <c r="F27" s="23"/>
       <c r="G27" s="26"/>
       <c r="H27" s="14" t="s">
@@ -9616,12 +9645,12 @@
       <c r="GV27" s="13"/>
     </row>
     <row r="28" spans="2:204" ht="26.25">
-      <c r="B28" s="166"/>
-      <c r="C28" s="161" t="s">
+      <c r="B28" s="167"/>
+      <c r="C28" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="162"/>
-      <c r="E28" s="163"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="136"/>
       <c r="F28" s="23"/>
       <c r="G28" s="26"/>
       <c r="H28" s="14" t="s">
@@ -9829,12 +9858,12 @@
       <c r="GV28" s="13"/>
     </row>
     <row r="29" spans="2:204" ht="26.25">
-      <c r="B29" s="161" t="s">
+      <c r="B29" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="163"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
       <c r="F29" s="23"/>
       <c r="G29" s="26" t="s">
         <v>76</v>
@@ -10040,21 +10069,21 @@
       <c r="GV29" s="13"/>
     </row>
     <row r="30" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B30" s="164"/>
-      <c r="C30" s="161" t="s">
+      <c r="B30" s="165"/>
+      <c r="C30" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="162"/>
-      <c r="E30" s="163"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="136"/>
       <c r="F30" s="23"/>
       <c r="G30" s="130" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>78</v>
       </c>
       <c r="I30" s="131">
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="J30" s="14">
         <v>1</v>
@@ -10257,12 +10286,12 @@
       <c r="GV30" s="13"/>
     </row>
     <row r="31" spans="2:204" ht="36.75" customHeight="1">
-      <c r="B31" s="165"/>
-      <c r="C31" s="161" t="s">
+      <c r="B31" s="166"/>
+      <c r="C31" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="162"/>
-      <c r="E31" s="163"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="136"/>
       <c r="F31" s="23"/>
       <c r="G31" s="26"/>
       <c r="H31" s="14" t="s">
@@ -10470,12 +10499,12 @@
       <c r="GV31" s="13"/>
     </row>
     <row r="32" spans="2:204" ht="26.25">
-      <c r="B32" s="165"/>
-      <c r="C32" s="161" t="s">
+      <c r="B32" s="166"/>
+      <c r="C32" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="162"/>
-      <c r="E32" s="163"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="23"/>
       <c r="G32" s="26"/>
       <c r="H32" s="14" t="s">
@@ -10683,12 +10712,12 @@
       <c r="GV32" s="13"/>
     </row>
     <row r="33" spans="2:204" ht="26.25">
-      <c r="B33" s="165"/>
-      <c r="C33" s="161" t="s">
+      <c r="B33" s="166"/>
+      <c r="C33" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="162"/>
-      <c r="E33" s="163"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="23"/>
       <c r="G33" s="26"/>
       <c r="H33" s="14" t="s">
@@ -10896,12 +10925,12 @@
       <c r="GV33" s="13"/>
     </row>
     <row r="34" spans="2:204" ht="26.25">
-      <c r="B34" s="165"/>
-      <c r="C34" s="161" t="s">
+      <c r="B34" s="166"/>
+      <c r="C34" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="162"/>
-      <c r="E34" s="163"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="136"/>
       <c r="F34" s="23"/>
       <c r="G34" s="26" t="s">
         <v>151</v>
@@ -11111,12 +11140,12 @@
       <c r="GV34" s="13"/>
     </row>
     <row r="35" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B35" s="166"/>
-      <c r="C35" s="161" t="s">
+      <c r="B35" s="167"/>
+      <c r="C35" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="162"/>
-      <c r="E35" s="163"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="23"/>
       <c r="G35" s="26"/>
       <c r="H35" s="14" t="s">
@@ -11324,12 +11353,12 @@
       <c r="GV35" s="13"/>
     </row>
     <row r="36" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B36" s="161" t="s">
+      <c r="B36" s="134" t="s">
         <v>293</v>
       </c>
-      <c r="C36" s="162"/>
-      <c r="D36" s="162"/>
-      <c r="E36" s="163"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="23"/>
       <c r="G36" s="26" t="s">
         <v>294</v>
@@ -11539,12 +11568,12 @@
       <c r="GV36" s="13"/>
     </row>
     <row r="37" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B37" s="188"/>
-      <c r="C37" s="162" t="s">
+      <c r="B37" s="189"/>
+      <c r="C37" s="135" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="162"/>
-      <c r="E37" s="163"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="23"/>
       <c r="G37" s="26"/>
       <c r="H37" s="14" t="s">
@@ -11752,12 +11781,12 @@
       <c r="GV37" s="13"/>
     </row>
     <row r="38" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B38" s="189"/>
-      <c r="C38" s="162" t="s">
+      <c r="B38" s="190"/>
+      <c r="C38" s="135" t="s">
         <v>296</v>
       </c>
-      <c r="D38" s="162"/>
-      <c r="E38" s="163"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="23"/>
       <c r="G38" s="26"/>
       <c r="H38" s="14" t="s">
@@ -11965,12 +11994,12 @@
       <c r="GV38" s="13"/>
     </row>
     <row r="39" spans="2:204" ht="26.25">
-      <c r="B39" s="158" t="s">
+      <c r="B39" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="159"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="160"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="164"/>
       <c r="F39" s="23" t="s">
         <v>28</v>
       </c>
@@ -12186,12 +12215,12 @@
       <c r="GV39" s="13"/>
     </row>
     <row r="40" spans="2:204" ht="26.25">
-      <c r="B40" s="161" t="s">
+      <c r="B40" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="162"/>
-      <c r="D40" s="162"/>
-      <c r="E40" s="163"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="136"/>
       <c r="F40" s="64"/>
       <c r="G40" s="26"/>
       <c r="H40" s="119" t="s">
@@ -12399,12 +12428,12 @@
       <c r="GV40" s="13"/>
     </row>
     <row r="41" spans="2:204" ht="26.25" hidden="1">
-      <c r="B41" s="164"/>
-      <c r="C41" s="161" t="s">
+      <c r="B41" s="165"/>
+      <c r="C41" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="162"/>
-      <c r="E41" s="163"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="64"/>
       <c r="G41" s="26"/>
       <c r="H41" s="119" t="s">
@@ -12614,12 +12643,12 @@
       <c r="GV41" s="13"/>
     </row>
     <row r="42" spans="2:204" ht="26.25" hidden="1">
-      <c r="B42" s="165"/>
-      <c r="C42" s="161" t="s">
+      <c r="B42" s="166"/>
+      <c r="C42" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="162"/>
-      <c r="E42" s="163"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="64"/>
       <c r="G42" s="26"/>
       <c r="H42" s="119" t="s">
@@ -12829,12 +12858,12 @@
       <c r="GV42" s="13"/>
     </row>
     <row r="43" spans="2:204" ht="26.25" hidden="1">
-      <c r="B43" s="165"/>
-      <c r="C43" s="161" t="s">
+      <c r="B43" s="166"/>
+      <c r="C43" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="162"/>
-      <c r="E43" s="163"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="64"/>
       <c r="G43" s="26"/>
       <c r="H43" s="119" t="s">
@@ -13044,12 +13073,12 @@
       <c r="GV43" s="13"/>
     </row>
     <row r="44" spans="2:204" ht="30" hidden="1" customHeight="1">
-      <c r="B44" s="165"/>
-      <c r="C44" s="161" t="s">
+      <c r="B44" s="166"/>
+      <c r="C44" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="162"/>
-      <c r="E44" s="163"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="64"/>
       <c r="G44" s="26"/>
       <c r="H44" s="119" t="s">
@@ -13258,13 +13287,13 @@
       <c r="GU44" s="13"/>
       <c r="GV44" s="13"/>
     </row>
-    <row r="45" spans="2:204" ht="26.25">
-      <c r="B45" s="165"/>
-      <c r="C45" s="161" t="s">
+    <row r="45" spans="2:204" ht="26.25" hidden="1">
+      <c r="B45" s="166"/>
+      <c r="C45" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="162"/>
-      <c r="E45" s="163"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="64"/>
       <c r="G45" s="26"/>
       <c r="H45" s="119" t="s">
@@ -13474,12 +13503,12 @@
       <c r="GV45" s="13"/>
     </row>
     <row r="46" spans="2:204" ht="37.5" customHeight="1">
-      <c r="B46" s="166"/>
-      <c r="C46" s="161" t="s">
+      <c r="B46" s="167"/>
+      <c r="C46" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="162"/>
-      <c r="E46" s="163"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="136"/>
       <c r="F46" s="64"/>
       <c r="G46" s="26"/>
       <c r="H46" s="119" t="s">
@@ -13688,31 +13717,33 @@
       <c r="GU46" s="13"/>
       <c r="GV46" s="13"/>
     </row>
-    <row r="47" spans="2:204" ht="26.25">
-      <c r="B47" s="161" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="162"/>
-      <c r="D47" s="162"/>
-      <c r="E47" s="163"/>
+    <row r="47" spans="2:204" ht="26.25" hidden="1">
+      <c r="B47" s="133"/>
+      <c r="C47" s="134" t="s">
+        <v>322</v>
+      </c>
+      <c r="D47" s="135"/>
+      <c r="E47" s="136"/>
       <c r="F47" s="64"/>
       <c r="G47" s="26"/>
       <c r="H47" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I47" s="41"/>
-      <c r="J47" s="14">
-        <v>15</v>
-      </c>
-      <c r="K47" s="14">
+      <c r="I47" s="132" t="s">
+        <v>150</v>
+      </c>
+      <c r="J47" s="119">
+        <v>9</v>
+      </c>
+      <c r="K47" s="119">
         <v>1</v>
       </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
+      <c r="L47" s="119"/>
+      <c r="M47" s="119"/>
+      <c r="N47" s="119"/>
+      <c r="O47" s="119"/>
+      <c r="P47" s="119"/>
+      <c r="Q47" s="119"/>
       <c r="R47" s="15"/>
       <c r="S47" s="12"/>
       <c r="T47" s="12"/>
@@ -13901,31 +13932,33 @@
       <c r="GU47" s="13"/>
       <c r="GV47" s="13"/>
     </row>
-    <row r="48" spans="2:204" ht="39" customHeight="1">
-      <c r="B48" s="65"/>
-      <c r="C48" s="161" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="162"/>
-      <c r="E48" s="163"/>
+    <row r="48" spans="2:204" ht="26.25" hidden="1">
+      <c r="B48" s="133"/>
+      <c r="C48" s="134" t="s">
+        <v>323</v>
+      </c>
+      <c r="D48" s="135"/>
+      <c r="E48" s="136"/>
       <c r="F48" s="64"/>
       <c r="G48" s="26"/>
       <c r="H48" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="14">
-        <v>15</v>
-      </c>
-      <c r="K48" s="14">
+      <c r="I48" s="132" t="s">
+        <v>150</v>
+      </c>
+      <c r="J48" s="119">
+        <v>9</v>
+      </c>
+      <c r="K48" s="119">
         <v>1</v>
       </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
+      <c r="L48" s="119"/>
+      <c r="M48" s="119"/>
+      <c r="N48" s="119"/>
+      <c r="O48" s="119"/>
+      <c r="P48" s="119"/>
+      <c r="Q48" s="119"/>
       <c r="R48" s="15"/>
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
@@ -14115,12 +14148,12 @@
       <c r="GV48" s="13"/>
     </row>
     <row r="49" spans="2:204" ht="26.25">
-      <c r="B49" s="161" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="162"/>
-      <c r="D49" s="162"/>
-      <c r="E49" s="163"/>
+      <c r="B49" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="135"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="136"/>
       <c r="F49" s="64"/>
       <c r="G49" s="26"/>
       <c r="H49" s="119" t="s">
@@ -14128,10 +14161,10 @@
       </c>
       <c r="I49" s="41"/>
       <c r="J49" s="14">
-        <v>10</v>
-      </c>
-      <c r="K49" s="100">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="K49" s="14">
+        <v>1</v>
       </c>
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
@@ -14327,13 +14360,13 @@
       <c r="GU49" s="13"/>
       <c r="GV49" s="13"/>
     </row>
-    <row r="50" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B50" s="188"/>
-      <c r="C50" s="161" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="162"/>
-      <c r="E50" s="163"/>
+    <row r="50" spans="2:204" ht="39" customHeight="1">
+      <c r="B50" s="65"/>
+      <c r="C50" s="134" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="135"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="64"/>
       <c r="G50" s="26"/>
       <c r="H50" s="119" t="s">
@@ -14341,7 +14374,7 @@
       </c>
       <c r="I50" s="41"/>
       <c r="J50" s="14">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K50" s="14">
         <v>1</v>
@@ -14541,12 +14574,12 @@
       <c r="GV50" s="13"/>
     </row>
     <row r="51" spans="2:204" ht="26.25">
-      <c r="B51" s="191"/>
-      <c r="C51" s="161" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="162"/>
-      <c r="E51" s="163"/>
+      <c r="B51" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="135"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="136"/>
       <c r="F51" s="64"/>
       <c r="G51" s="26"/>
       <c r="H51" s="119" t="s">
@@ -14554,10 +14587,10 @@
       </c>
       <c r="I51" s="41"/>
       <c r="J51" s="14">
-        <v>20</v>
-      </c>
-      <c r="K51" s="14">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K51" s="100">
+        <v>28</v>
       </c>
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
@@ -14753,13 +14786,13 @@
       <c r="GU51" s="13"/>
       <c r="GV51" s="13"/>
     </row>
-    <row r="52" spans="2:204" ht="26.25">
-      <c r="B52" s="191"/>
-      <c r="C52" s="161" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="162"/>
-      <c r="E52" s="163"/>
+    <row r="52" spans="2:204" ht="33.75" customHeight="1">
+      <c r="B52" s="189"/>
+      <c r="C52" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="135"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="64"/>
       <c r="G52" s="26"/>
       <c r="H52" s="119" t="s">
@@ -14767,7 +14800,7 @@
       </c>
       <c r="I52" s="41"/>
       <c r="J52" s="14">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K52" s="14">
         <v>1</v>
@@ -14966,13 +14999,13 @@
       <c r="GU52" s="13"/>
       <c r="GV52" s="13"/>
     </row>
-    <row r="53" spans="2:204" ht="32.25" customHeight="1">
-      <c r="B53" s="191"/>
-      <c r="C53" s="161" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="162"/>
-      <c r="E53" s="163"/>
+    <row r="53" spans="2:204" ht="26.25">
+      <c r="B53" s="192"/>
+      <c r="C53" s="134" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="135"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="64"/>
       <c r="G53" s="26"/>
       <c r="H53" s="119" t="s">
@@ -14980,7 +15013,7 @@
       </c>
       <c r="I53" s="41"/>
       <c r="J53" s="14">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K53" s="14">
         <v>1</v>
@@ -15179,13 +15212,13 @@
       <c r="GU53" s="13"/>
       <c r="GV53" s="13"/>
     </row>
-    <row r="54" spans="2:204" ht="43.5" customHeight="1">
-      <c r="B54" s="191"/>
-      <c r="C54" s="161" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="162"/>
-      <c r="E54" s="163"/>
+    <row r="54" spans="2:204" ht="26.25">
+      <c r="B54" s="192"/>
+      <c r="C54" s="134" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="135"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="64"/>
       <c r="G54" s="26"/>
       <c r="H54" s="119" t="s">
@@ -15193,7 +15226,7 @@
       </c>
       <c r="I54" s="41"/>
       <c r="J54" s="14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K54" s="14">
         <v>1</v>
@@ -15392,13 +15425,13 @@
       <c r="GU54" s="13"/>
       <c r="GV54" s="13"/>
     </row>
-    <row r="55" spans="2:204" ht="43.5" customHeight="1">
-      <c r="B55" s="191"/>
-      <c r="C55" s="161" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="162"/>
-      <c r="E55" s="163"/>
+    <row r="55" spans="2:204" ht="32.25" customHeight="1">
+      <c r="B55" s="192"/>
+      <c r="C55" s="134" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="135"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="64"/>
       <c r="G55" s="26"/>
       <c r="H55" s="119" t="s">
@@ -15406,7 +15439,7 @@
       </c>
       <c r="I55" s="41"/>
       <c r="J55" s="14">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K55" s="14">
         <v>1</v>
@@ -15605,13 +15638,13 @@
       <c r="GU55" s="13"/>
       <c r="GV55" s="13"/>
     </row>
-    <row r="56" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B56" s="191"/>
-      <c r="C56" s="161" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" s="162"/>
-      <c r="E56" s="163"/>
+    <row r="56" spans="2:204" ht="43.5" customHeight="1">
+      <c r="B56" s="192"/>
+      <c r="C56" s="134" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="135"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="64"/>
       <c r="G56" s="26"/>
       <c r="H56" s="119" t="s">
@@ -15619,7 +15652,7 @@
       </c>
       <c r="I56" s="41"/>
       <c r="J56" s="14">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K56" s="14">
         <v>1</v>
@@ -15818,13 +15851,13 @@
       <c r="GU56" s="13"/>
       <c r="GV56" s="13"/>
     </row>
-    <row r="57" spans="2:204" ht="26.25">
-      <c r="B57" s="191"/>
-      <c r="C57" s="161" t="s">
-        <v>113</v>
-      </c>
-      <c r="D57" s="162"/>
-      <c r="E57" s="163"/>
+    <row r="57" spans="2:204" ht="43.5" customHeight="1">
+      <c r="B57" s="192"/>
+      <c r="C57" s="134" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="135"/>
+      <c r="E57" s="136"/>
       <c r="F57" s="64"/>
       <c r="G57" s="26"/>
       <c r="H57" s="119" t="s">
@@ -15832,10 +15865,10 @@
       </c>
       <c r="I57" s="41"/>
       <c r="J57" s="14">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K57" s="14">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
@@ -16031,13 +16064,13 @@
       <c r="GU57" s="13"/>
       <c r="GV57" s="13"/>
     </row>
-    <row r="58" spans="2:204" ht="26.25">
-      <c r="B58" s="191"/>
-      <c r="C58" s="188"/>
-      <c r="D58" s="186" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="187"/>
+    <row r="58" spans="2:204" ht="33.75" customHeight="1">
+      <c r="B58" s="192"/>
+      <c r="C58" s="134" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="135"/>
+      <c r="E58" s="136"/>
       <c r="F58" s="64"/>
       <c r="G58" s="26"/>
       <c r="H58" s="119" t="s">
@@ -16045,7 +16078,7 @@
       </c>
       <c r="I58" s="41"/>
       <c r="J58" s="14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K58" s="14">
         <v>1</v>
@@ -16245,12 +16278,12 @@
       <c r="GV58" s="13"/>
     </row>
     <row r="59" spans="2:204" ht="26.25">
-      <c r="B59" s="191"/>
-      <c r="C59" s="191"/>
-      <c r="D59" s="186" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" s="187"/>
+      <c r="B59" s="192"/>
+      <c r="C59" s="134" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="135"/>
+      <c r="E59" s="136"/>
       <c r="F59" s="64"/>
       <c r="G59" s="26"/>
       <c r="H59" s="119" t="s">
@@ -16258,10 +16291,10 @@
       </c>
       <c r="I59" s="41"/>
       <c r="J59" s="14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K59" s="14">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
@@ -16457,13 +16490,13 @@
       <c r="GU59" s="13"/>
       <c r="GV59" s="13"/>
     </row>
-    <row r="60" spans="2:204" ht="36" customHeight="1">
-      <c r="B60" s="191"/>
-      <c r="C60" s="191"/>
-      <c r="D60" s="188"/>
-      <c r="E60" s="65" t="s">
-        <v>105</v>
-      </c>
+    <row r="60" spans="2:204" ht="26.25">
+      <c r="B60" s="192"/>
+      <c r="C60" s="189"/>
+      <c r="D60" s="187" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="188"/>
       <c r="F60" s="64"/>
       <c r="G60" s="26"/>
       <c r="H60" s="119" t="s">
@@ -16471,7 +16504,7 @@
       </c>
       <c r="I60" s="41"/>
       <c r="J60" s="14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K60" s="14">
         <v>1</v>
@@ -16670,13 +16703,13 @@
       <c r="GU60" s="13"/>
       <c r="GV60" s="13"/>
     </row>
-    <row r="61" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B61" s="191"/>
-      <c r="C61" s="191"/>
-      <c r="D61" s="191"/>
-      <c r="E61" s="65" t="s">
-        <v>106</v>
-      </c>
+    <row r="61" spans="2:204" ht="26.25">
+      <c r="B61" s="192"/>
+      <c r="C61" s="192"/>
+      <c r="D61" s="187" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="188"/>
       <c r="F61" s="64"/>
       <c r="G61" s="26"/>
       <c r="H61" s="119" t="s">
@@ -16687,7 +16720,7 @@
         <v>24</v>
       </c>
       <c r="K61" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
@@ -16883,12 +16916,12 @@
       <c r="GU61" s="13"/>
       <c r="GV61" s="13"/>
     </row>
-    <row r="62" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B62" s="191"/>
-      <c r="C62" s="191"/>
-      <c r="D62" s="191"/>
+    <row r="62" spans="2:204" ht="36" customHeight="1">
+      <c r="B62" s="192"/>
+      <c r="C62" s="192"/>
+      <c r="D62" s="189"/>
       <c r="E62" s="65" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F62" s="64"/>
       <c r="G62" s="26"/>
@@ -16897,7 +16930,7 @@
       </c>
       <c r="I62" s="41"/>
       <c r="J62" s="14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K62" s="14">
         <v>1</v>
@@ -17096,12 +17129,12 @@
       <c r="GU62" s="13"/>
       <c r="GV62" s="13"/>
     </row>
-    <row r="63" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B63" s="191"/>
-      <c r="C63" s="191"/>
-      <c r="D63" s="191"/>
+    <row r="63" spans="2:204" ht="35.25" customHeight="1">
+      <c r="B63" s="192"/>
+      <c r="C63" s="192"/>
+      <c r="D63" s="192"/>
       <c r="E63" s="65" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F63" s="64"/>
       <c r="G63" s="26"/>
@@ -17110,7 +17143,7 @@
       </c>
       <c r="I63" s="41"/>
       <c r="J63" s="14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K63" s="14">
         <v>1</v>
@@ -17309,12 +17342,12 @@
       <c r="GU63" s="13"/>
       <c r="GV63" s="13"/>
     </row>
-    <row r="64" spans="2:204" ht="26.25">
-      <c r="B64" s="191"/>
-      <c r="C64" s="191"/>
-      <c r="D64" s="191"/>
+    <row r="64" spans="2:204" ht="35.25" customHeight="1">
+      <c r="B64" s="192"/>
+      <c r="C64" s="192"/>
+      <c r="D64" s="192"/>
       <c r="E64" s="65" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F64" s="64"/>
       <c r="G64" s="26"/>
@@ -17323,7 +17356,7 @@
       </c>
       <c r="I64" s="41"/>
       <c r="J64" s="14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K64" s="14">
         <v>1</v>
@@ -17522,12 +17555,12 @@
       <c r="GU64" s="13"/>
       <c r="GV64" s="13"/>
     </row>
-    <row r="65" spans="1:204" ht="26.25">
-      <c r="B65" s="191"/>
-      <c r="C65" s="191"/>
-      <c r="D65" s="191"/>
+    <row r="65" spans="1:204" ht="33.75" customHeight="1">
+      <c r="B65" s="192"/>
+      <c r="C65" s="192"/>
+      <c r="D65" s="192"/>
       <c r="E65" s="65" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F65" s="64"/>
       <c r="G65" s="26"/>
@@ -17536,7 +17569,7 @@
       </c>
       <c r="I65" s="41"/>
       <c r="J65" s="14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K65" s="14">
         <v>1</v>
@@ -17736,11 +17769,11 @@
       <c r="GV65" s="13"/>
     </row>
     <row r="66" spans="1:204" ht="26.25">
-      <c r="B66" s="191"/>
-      <c r="C66" s="191"/>
-      <c r="D66" s="191"/>
+      <c r="B66" s="192"/>
+      <c r="C66" s="192"/>
+      <c r="D66" s="192"/>
       <c r="E66" s="65" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F66" s="64"/>
       <c r="G66" s="26"/>
@@ -17749,7 +17782,7 @@
       </c>
       <c r="I66" s="41"/>
       <c r="J66" s="14">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K66" s="14">
         <v>1</v>
@@ -17948,12 +17981,12 @@
       <c r="GU66" s="13"/>
       <c r="GV66" s="13"/>
     </row>
-    <row r="67" spans="1:204" ht="37.5" customHeight="1">
-      <c r="B67" s="191"/>
-      <c r="C67" s="191"/>
-      <c r="D67" s="189"/>
+    <row r="67" spans="1:204" ht="26.25">
+      <c r="B67" s="192"/>
+      <c r="C67" s="192"/>
+      <c r="D67" s="192"/>
       <c r="E67" s="65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F67" s="64"/>
       <c r="G67" s="26"/>
@@ -17962,7 +17995,7 @@
       </c>
       <c r="I67" s="41"/>
       <c r="J67" s="14">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K67" s="14">
         <v>1</v>
@@ -18161,13 +18194,13 @@
       <c r="GU67" s="13"/>
       <c r="GV67" s="13"/>
     </row>
-    <row r="68" spans="1:204" ht="33" customHeight="1">
-      <c r="B68" s="191"/>
-      <c r="C68" s="191"/>
-      <c r="D68" s="161" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" s="163"/>
+    <row r="68" spans="1:204" ht="26.25">
+      <c r="B68" s="192"/>
+      <c r="C68" s="192"/>
+      <c r="D68" s="192"/>
+      <c r="E68" s="65" t="s">
+        <v>110</v>
+      </c>
       <c r="F68" s="64"/>
       <c r="G68" s="26"/>
       <c r="H68" s="119" t="s">
@@ -18175,7 +18208,7 @@
       </c>
       <c r="I68" s="41"/>
       <c r="J68" s="14">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K68" s="14">
         <v>1</v>
@@ -18374,13 +18407,13 @@
       <c r="GU68" s="13"/>
       <c r="GV68" s="13"/>
     </row>
-    <row r="69" spans="1:204" ht="26.25">
-      <c r="B69" s="191"/>
-      <c r="C69" s="191"/>
-      <c r="D69" s="161" t="s">
-        <v>103</v>
-      </c>
-      <c r="E69" s="163"/>
+    <row r="69" spans="1:204" ht="37.5" customHeight="1">
+      <c r="B69" s="192"/>
+      <c r="C69" s="192"/>
+      <c r="D69" s="190"/>
+      <c r="E69" s="65" t="s">
+        <v>111</v>
+      </c>
       <c r="F69" s="64"/>
       <c r="G69" s="26"/>
       <c r="H69" s="119" t="s">
@@ -18388,10 +18421,10 @@
       </c>
       <c r="I69" s="41"/>
       <c r="J69" s="14">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K69" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L69" s="14"/>
       <c r="M69" s="14"/>
@@ -18587,13 +18620,13 @@
       <c r="GU69" s="13"/>
       <c r="GV69" s="13"/>
     </row>
-    <row r="70" spans="1:204" ht="34.5" customHeight="1">
-      <c r="B70" s="189"/>
-      <c r="C70" s="189"/>
-      <c r="D70" s="161" t="s">
-        <v>104</v>
-      </c>
-      <c r="E70" s="163"/>
+    <row r="70" spans="1:204" ht="33" customHeight="1">
+      <c r="B70" s="192"/>
+      <c r="C70" s="192"/>
+      <c r="D70" s="134" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="136"/>
       <c r="F70" s="64"/>
       <c r="G70" s="26"/>
       <c r="H70" s="119" t="s">
@@ -18601,10 +18634,10 @@
       </c>
       <c r="I70" s="41"/>
       <c r="J70" s="14">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K70" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
@@ -18801,36 +18834,28 @@
       <c r="GV70" s="13"/>
     </row>
     <row r="71" spans="1:204" ht="26.25">
-      <c r="B71" s="158" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" s="159"/>
-      <c r="D71" s="159"/>
-      <c r="E71" s="160"/>
-      <c r="F71" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H71" s="14" t="s">
-        <v>77</v>
+      <c r="B71" s="192"/>
+      <c r="C71" s="192"/>
+      <c r="D71" s="134" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="136"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="119" t="s">
+        <v>315</v>
       </c>
       <c r="I71" s="41"/>
       <c r="J71" s="14">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K71" s="14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
-      <c r="N71" s="14">
-        <v>2</v>
-      </c>
-      <c r="O71" s="14">
-        <v>6</v>
-      </c>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
       <c r="R71" s="15"/>
@@ -19021,24 +19046,24 @@
       <c r="GU71" s="13"/>
       <c r="GV71" s="13"/>
     </row>
-    <row r="72" spans="1:204" ht="45" customHeight="1">
-      <c r="B72" s="97"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="190" t="s">
-        <v>312</v>
-      </c>
-      <c r="E72" s="190"/>
-      <c r="F72" s="114"/>
+    <row r="72" spans="1:204" ht="34.5" customHeight="1">
+      <c r="B72" s="190"/>
+      <c r="C72" s="190"/>
+      <c r="D72" s="134" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="136"/>
+      <c r="F72" s="64"/>
       <c r="G72" s="26"/>
       <c r="H72" s="119" t="s">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="I72" s="41"/>
       <c r="J72" s="14">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K72" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
@@ -19234,29 +19259,37 @@
       <c r="GU72" s="13"/>
       <c r="GV72" s="13"/>
     </row>
-    <row r="73" spans="1:204" ht="47.25" customHeight="1">
-      <c r="B73" s="97"/>
-      <c r="C73" s="98"/>
-      <c r="D73" s="190" t="s">
-        <v>313</v>
-      </c>
-      <c r="E73" s="190"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="119" t="s">
+    <row r="73" spans="1:204" ht="26.25">
+      <c r="B73" s="162" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="163"/>
+      <c r="D73" s="163"/>
+      <c r="E73" s="164"/>
+      <c r="F73" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="14" t="s">
         <v>77</v>
       </c>
       <c r="I73" s="41"/>
       <c r="J73" s="14">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K73" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
+      <c r="N73" s="14">
+        <v>2</v>
+      </c>
+      <c r="O73" s="14">
+        <v>6</v>
+      </c>
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
       <c r="R73" s="15"/>
@@ -19447,24 +19480,24 @@
       <c r="GU73" s="13"/>
       <c r="GV73" s="13"/>
     </row>
-    <row r="74" spans="1:204" ht="26.25">
+    <row r="74" spans="1:204" ht="45" customHeight="1">
       <c r="B74" s="97"/>
       <c r="C74" s="98"/>
-      <c r="D74" s="190" t="s">
-        <v>314</v>
-      </c>
-      <c r="E74" s="190"/>
-      <c r="F74" s="64"/>
+      <c r="D74" s="191" t="s">
+        <v>312</v>
+      </c>
+      <c r="E74" s="191"/>
+      <c r="F74" s="114"/>
       <c r="G74" s="26"/>
       <c r="H74" s="119" t="s">
         <v>77</v>
       </c>
       <c r="I74" s="41"/>
       <c r="J74" s="14">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K74" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
@@ -19660,29 +19693,32 @@
       <c r="GU74" s="13"/>
       <c r="GV74" s="13"/>
     </row>
-    <row r="75" spans="1:204" ht="32.25" customHeight="1">
-      <c r="A75" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B75" s="156" t="s">
-        <v>320</v>
-      </c>
-      <c r="C75" s="157"/>
-      <c r="D75" s="157"/>
-      <c r="E75" s="157"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="10"/>
+    <row r="75" spans="1:204" ht="47.25" customHeight="1">
+      <c r="B75" s="97"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="191" t="s">
+        <v>313</v>
+      </c>
+      <c r="E75" s="191"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="I75" s="41"/>
+      <c r="J75" s="14">
+        <v>40</v>
+      </c>
+      <c r="K75" s="14">
+        <v>5</v>
+      </c>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="15"/>
       <c r="S75" s="12"/>
       <c r="T75" s="12"/>
       <c r="U75" s="12"/>
@@ -19871,36 +19907,28 @@
       <c r="GV75" s="13"/>
     </row>
     <row r="76" spans="1:204" ht="26.25">
-      <c r="B76" s="158" t="s">
-        <v>49</v>
-      </c>
-      <c r="C76" s="159"/>
-      <c r="D76" s="159"/>
-      <c r="E76" s="160"/>
-      <c r="F76" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G76" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H76" s="14" t="s">
+      <c r="B76" s="97"/>
+      <c r="C76" s="98"/>
+      <c r="D76" s="191" t="s">
+        <v>314</v>
+      </c>
+      <c r="E76" s="191"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="119" t="s">
         <v>77</v>
       </c>
       <c r="I76" s="41"/>
       <c r="J76" s="14">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="K76" s="14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
-      <c r="N76" s="14">
-        <v>2</v>
-      </c>
-      <c r="O76" s="14">
-        <v>4</v>
-      </c>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
       <c r="P76" s="14"/>
       <c r="Q76" s="14"/>
       <c r="R76" s="15"/>
@@ -20091,32 +20119,29 @@
       <c r="GU76" s="13"/>
       <c r="GV76" s="13"/>
     </row>
-    <row r="77" spans="1:204" ht="44.25" customHeight="1">
-      <c r="B77" s="97"/>
-      <c r="C77" s="159" t="s">
-        <v>298</v>
-      </c>
-      <c r="D77" s="159"/>
-      <c r="E77" s="160"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I77" s="41"/>
-      <c r="J77" s="14">
-        <v>22</v>
-      </c>
-      <c r="K77" s="14">
-        <v>1</v>
-      </c>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="14"/>
-      <c r="R77" s="15"/>
+    <row r="77" spans="1:204" ht="32.25" customHeight="1">
+      <c r="A77" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="160" t="s">
+        <v>320</v>
+      </c>
+      <c r="C77" s="161"/>
+      <c r="D77" s="161"/>
+      <c r="E77" s="161"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="10"/>
       <c r="S77" s="12"/>
       <c r="T77" s="12"/>
       <c r="U77" s="12"/>
@@ -20304,29 +20329,37 @@
       <c r="GU77" s="13"/>
       <c r="GV77" s="13"/>
     </row>
-    <row r="78" spans="1:204" ht="60.75" customHeight="1">
-      <c r="B78" s="97"/>
-      <c r="C78" s="159" t="s">
-        <v>304</v>
-      </c>
-      <c r="D78" s="159"/>
-      <c r="E78" s="160"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="26"/>
+    <row r="78" spans="1:204" ht="26.25">
+      <c r="B78" s="162" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="163"/>
+      <c r="D78" s="163"/>
+      <c r="E78" s="164"/>
+      <c r="F78" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="26" t="s">
+        <v>297</v>
+      </c>
       <c r="H78" s="14" t="s">
         <v>77</v>
       </c>
       <c r="I78" s="41"/>
       <c r="J78" s="14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K78" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L78" s="14"/>
       <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="14"/>
+      <c r="N78" s="14">
+        <v>2</v>
+      </c>
+      <c r="O78" s="14">
+        <v>4</v>
+      </c>
       <c r="P78" s="14"/>
       <c r="Q78" s="14"/>
       <c r="R78" s="15"/>
@@ -20517,13 +20550,13 @@
       <c r="GU78" s="13"/>
       <c r="GV78" s="13"/>
     </row>
-    <row r="79" spans="1:204" ht="26.25">
+    <row r="79" spans="1:204" ht="44.25" customHeight="1">
       <c r="B79" s="97"/>
-      <c r="C79" s="159" t="s">
-        <v>283</v>
-      </c>
-      <c r="D79" s="159"/>
-      <c r="E79" s="160"/>
+      <c r="C79" s="163" t="s">
+        <v>298</v>
+      </c>
+      <c r="D79" s="163"/>
+      <c r="E79" s="164"/>
       <c r="F79" s="23"/>
       <c r="G79" s="26"/>
       <c r="H79" s="14" t="s">
@@ -20531,7 +20564,7 @@
       </c>
       <c r="I79" s="41"/>
       <c r="J79" s="14">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K79" s="14">
         <v>1</v>
@@ -20730,13 +20763,13 @@
       <c r="GU79" s="13"/>
       <c r="GV79" s="13"/>
     </row>
-    <row r="80" spans="1:204" ht="26.25">
+    <row r="80" spans="1:204" ht="60.75" customHeight="1">
       <c r="B80" s="97"/>
-      <c r="C80" s="159" t="s">
-        <v>284</v>
-      </c>
-      <c r="D80" s="159"/>
-      <c r="E80" s="160"/>
+      <c r="C80" s="163" t="s">
+        <v>304</v>
+      </c>
+      <c r="D80" s="163"/>
+      <c r="E80" s="164"/>
       <c r="F80" s="23"/>
       <c r="G80" s="26"/>
       <c r="H80" s="14" t="s">
@@ -20744,10 +20777,10 @@
       </c>
       <c r="I80" s="41"/>
       <c r="J80" s="14">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K80" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
@@ -20944,36 +20977,28 @@
       <c r="GV80" s="13"/>
     </row>
     <row r="81" spans="1:204" ht="26.25">
-      <c r="B81" s="158" t="s">
-        <v>50</v>
-      </c>
-      <c r="C81" s="159"/>
-      <c r="D81" s="159"/>
-      <c r="E81" s="160"/>
-      <c r="F81" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G81" s="26" t="s">
-        <v>38</v>
-      </c>
+      <c r="B81" s="97"/>
+      <c r="C81" s="163" t="s">
+        <v>283</v>
+      </c>
+      <c r="D81" s="163"/>
+      <c r="E81" s="164"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="26"/>
       <c r="H81" s="14" t="s">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="I81" s="41"/>
       <c r="J81" s="14">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="K81" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
-      <c r="N81" s="14">
-        <v>2</v>
-      </c>
-      <c r="O81" s="14">
-        <v>4</v>
-      </c>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
       <c r="R81" s="15"/>
@@ -21164,21 +21189,21 @@
       <c r="GU81" s="13"/>
       <c r="GV81" s="13"/>
     </row>
-    <row r="82" spans="1:204" ht="48.75" customHeight="1">
+    <row r="82" spans="1:204" ht="26.25">
       <c r="B82" s="97"/>
-      <c r="C82" s="159" t="s">
-        <v>285</v>
-      </c>
-      <c r="D82" s="159"/>
-      <c r="E82" s="160"/>
+      <c r="C82" s="163" t="s">
+        <v>284</v>
+      </c>
+      <c r="D82" s="163"/>
+      <c r="E82" s="164"/>
       <c r="F82" s="23"/>
       <c r="G82" s="26"/>
-      <c r="H82" s="119" t="s">
-        <v>315</v>
+      <c r="H82" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="I82" s="41"/>
       <c r="J82" s="14">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K82" s="14">
         <v>1</v>
@@ -21378,28 +21403,36 @@
       <c r="GV82" s="13"/>
     </row>
     <row r="83" spans="1:204" ht="26.25">
-      <c r="B83" s="97"/>
-      <c r="C83" s="159" t="s">
-        <v>286</v>
-      </c>
-      <c r="D83" s="159"/>
-      <c r="E83" s="160"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="119" t="s">
+      <c r="B83" s="162" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="163"/>
+      <c r="D83" s="163"/>
+      <c r="E83" s="164"/>
+      <c r="F83" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H83" s="14" t="s">
         <v>315</v>
       </c>
       <c r="I83" s="41"/>
       <c r="J83" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K83" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="14"/>
+      <c r="N83" s="14">
+        <v>2</v>
+      </c>
+      <c r="O83" s="14">
+        <v>4</v>
+      </c>
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
       <c r="R83" s="15"/>
@@ -21590,37 +21623,29 @@
       <c r="GU83" s="13"/>
       <c r="GV83" s="13"/>
     </row>
-    <row r="84" spans="1:204" ht="26.25">
-      <c r="B84" s="158" t="s">
-        <v>280</v>
-      </c>
-      <c r="C84" s="159"/>
-      <c r="D84" s="159"/>
-      <c r="E84" s="160"/>
-      <c r="F84" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G84" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H84" s="14" t="s">
-        <v>41</v>
+    <row r="84" spans="1:204" ht="48.75" customHeight="1">
+      <c r="B84" s="97"/>
+      <c r="C84" s="163" t="s">
+        <v>285</v>
+      </c>
+      <c r="D84" s="163"/>
+      <c r="E84" s="164"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="119" t="s">
+        <v>315</v>
       </c>
       <c r="I84" s="41"/>
-      <c r="J84" s="100">
-        <v>17</v>
-      </c>
-      <c r="K84" s="100">
-        <v>14</v>
+      <c r="J84" s="14">
+        <v>46</v>
+      </c>
+      <c r="K84" s="14">
+        <v>1</v>
       </c>
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
-      <c r="N84" s="14">
-        <v>1</v>
-      </c>
-      <c r="O84" s="14">
-        <v>2</v>
-      </c>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
       <c r="R84" s="15"/>
@@ -21812,36 +21837,28 @@
       <c r="GV84" s="13"/>
     </row>
     <row r="85" spans="1:204" ht="26.25">
-      <c r="B85" s="158" t="s">
-        <v>281</v>
-      </c>
-      <c r="C85" s="159"/>
-      <c r="D85" s="159"/>
-      <c r="E85" s="160"/>
-      <c r="F85" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G85" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H85" s="14" t="s">
-        <v>33</v>
+      <c r="B85" s="97"/>
+      <c r="C85" s="163" t="s">
+        <v>286</v>
+      </c>
+      <c r="D85" s="163"/>
+      <c r="E85" s="164"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="119" t="s">
+        <v>315</v>
       </c>
       <c r="I85" s="41"/>
       <c r="J85" s="14">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85" s="14">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
-      <c r="N85" s="14">
-        <v>3</v>
-      </c>
-      <c r="O85" s="14">
-        <v>3</v>
-      </c>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
       <c r="R85" s="15"/>
@@ -22033,28 +22050,36 @@
       <c r="GV85" s="13"/>
     </row>
     <row r="86" spans="1:204" ht="26.25">
-      <c r="B86" s="177"/>
-      <c r="C86" s="178"/>
-      <c r="D86" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="E86" s="160"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="122" t="s">
-        <v>77</v>
+      <c r="B86" s="162" t="s">
+        <v>280</v>
+      </c>
+      <c r="C86" s="163"/>
+      <c r="D86" s="163"/>
+      <c r="E86" s="164"/>
+      <c r="F86" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="I86" s="41"/>
-      <c r="J86" s="14">
-        <v>46</v>
-      </c>
-      <c r="K86" s="14">
-        <v>3</v>
+      <c r="J86" s="100">
+        <v>17</v>
+      </c>
+      <c r="K86" s="100">
+        <v>14</v>
       </c>
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="14"/>
+      <c r="N86" s="14">
+        <v>1</v>
+      </c>
+      <c r="O86" s="14">
+        <v>2</v>
+      </c>
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
       <c r="R86" s="15"/>
@@ -22245,29 +22270,37 @@
       <c r="GU86" s="13"/>
       <c r="GV86" s="13"/>
     </row>
-    <row r="87" spans="1:204" ht="30" customHeight="1">
-      <c r="B87" s="179"/>
-      <c r="C87" s="180"/>
-      <c r="D87" s="123"/>
-      <c r="E87" s="99" t="s">
-        <v>292</v>
-      </c>
-      <c r="F87" s="23"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="122" t="s">
-        <v>77</v>
+    <row r="87" spans="1:204" ht="26.25">
+      <c r="B87" s="162" t="s">
+        <v>281</v>
+      </c>
+      <c r="C87" s="163"/>
+      <c r="D87" s="163"/>
+      <c r="E87" s="164"/>
+      <c r="F87" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="I87" s="41"/>
       <c r="J87" s="14">
         <v>46</v>
       </c>
       <c r="K87" s="14">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L87" s="14"/>
       <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="14"/>
+      <c r="N87" s="14">
+        <v>3</v>
+      </c>
+      <c r="O87" s="14">
+        <v>3</v>
+      </c>
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
       <c r="R87" s="15"/>
@@ -22459,21 +22492,23 @@
       <c r="GV87" s="13"/>
     </row>
     <row r="88" spans="1:204" ht="26.25">
-      <c r="B88" s="179"/>
-      <c r="C88" s="181"/>
+      <c r="B88" s="178"/>
+      <c r="C88" s="179"/>
       <c r="D88" s="176" t="s">
-        <v>290</v>
-      </c>
-      <c r="E88" s="160"/>
+        <v>291</v>
+      </c>
+      <c r="E88" s="164"/>
       <c r="F88" s="23"/>
       <c r="G88" s="26"/>
-      <c r="H88" s="14"/>
+      <c r="H88" s="122" t="s">
+        <v>77</v>
+      </c>
       <c r="I88" s="41"/>
       <c r="J88" s="14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K88" s="14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L88" s="14"/>
       <c r="M88" s="14"/>
@@ -22669,12 +22704,12 @@
       <c r="GU88" s="13"/>
       <c r="GV88" s="13"/>
     </row>
-    <row r="89" spans="1:204" ht="49.5" customHeight="1">
-      <c r="B89" s="179"/>
-      <c r="C89" s="180"/>
-      <c r="D89" s="184"/>
+    <row r="89" spans="1:204" ht="30" customHeight="1">
+      <c r="B89" s="180"/>
+      <c r="C89" s="181"/>
+      <c r="D89" s="123"/>
       <c r="E89" s="99" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F89" s="23"/>
       <c r="G89" s="26"/>
@@ -22683,10 +22718,10 @@
       </c>
       <c r="I89" s="41"/>
       <c r="J89" s="14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K89" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
@@ -22882,24 +22917,22 @@
       <c r="GU89" s="13"/>
       <c r="GV89" s="13"/>
     </row>
-    <row r="90" spans="1:204" ht="28.5" customHeight="1">
-      <c r="B90" s="182"/>
-      <c r="C90" s="183"/>
-      <c r="D90" s="185"/>
-      <c r="E90" s="99" t="s">
-        <v>289</v>
-      </c>
+    <row r="90" spans="1:204" ht="26.25">
+      <c r="B90" s="180"/>
+      <c r="C90" s="182"/>
+      <c r="D90" s="177" t="s">
+        <v>290</v>
+      </c>
+      <c r="E90" s="164"/>
       <c r="F90" s="23"/>
       <c r="G90" s="26"/>
-      <c r="H90" s="122" t="s">
-        <v>77</v>
-      </c>
+      <c r="H90" s="14"/>
       <c r="I90" s="41"/>
       <c r="J90" s="14">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K90" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L90" s="14"/>
       <c r="M90" s="14"/>
@@ -23095,37 +23128,29 @@
       <c r="GU90" s="13"/>
       <c r="GV90" s="13"/>
     </row>
-    <row r="91" spans="1:204" ht="26.25">
-      <c r="B91" s="158" t="s">
-        <v>282</v>
-      </c>
-      <c r="C91" s="159"/>
-      <c r="D91" s="172"/>
-      <c r="E91" s="160"/>
-      <c r="F91" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G91" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="H91" s="14" t="s">
-        <v>33</v>
+    <row r="91" spans="1:204" ht="49.5" customHeight="1">
+      <c r="B91" s="180"/>
+      <c r="C91" s="181"/>
+      <c r="D91" s="185"/>
+      <c r="E91" s="99" t="s">
+        <v>288</v>
+      </c>
+      <c r="F91" s="23"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="122" t="s">
+        <v>77</v>
       </c>
       <c r="I91" s="41"/>
-      <c r="J91" s="121">
-        <v>50</v>
-      </c>
-      <c r="K91" s="121">
-        <v>7</v>
+      <c r="J91" s="14">
+        <v>49</v>
+      </c>
+      <c r="K91" s="14">
+        <v>1</v>
       </c>
       <c r="L91" s="14"/>
       <c r="M91" s="14"/>
-      <c r="N91" s="14">
-        <v>2</v>
-      </c>
-      <c r="O91" s="14">
-        <v>2</v>
-      </c>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
       <c r="R91" s="15"/>
@@ -23316,29 +23341,29 @@
       <c r="GU91" s="13"/>
       <c r="GV91" s="13"/>
     </row>
-    <row r="92" spans="1:204" ht="47.25" customHeight="1">
-      <c r="B92" s="97"/>
-      <c r="C92" s="98"/>
-      <c r="D92" s="159" t="s">
-        <v>316</v>
-      </c>
-      <c r="E92" s="160"/>
-      <c r="F92" s="114"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="115" t="s">
+    <row r="92" spans="1:204" ht="28.5" customHeight="1">
+      <c r="B92" s="183"/>
+      <c r="C92" s="184"/>
+      <c r="D92" s="186"/>
+      <c r="E92" s="99" t="s">
+        <v>289</v>
+      </c>
+      <c r="F92" s="23"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="I92" s="117"/>
+      <c r="I92" s="41"/>
       <c r="J92" s="14">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="K92" s="14">
-        <v>1</v>
-      </c>
-      <c r="L92" s="116"/>
-      <c r="M92" s="116"/>
-      <c r="N92" s="116"/>
-      <c r="O92" s="116"/>
+        <v>7</v>
+      </c>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
       <c r="R92" s="15"/>
@@ -23529,29 +23554,37 @@
       <c r="GU92" s="13"/>
       <c r="GV92" s="13"/>
     </row>
-    <row r="93" spans="1:204" ht="27" customHeight="1">
-      <c r="B93" s="97"/>
-      <c r="C93" s="98"/>
-      <c r="D93" s="159" t="s">
-        <v>317</v>
-      </c>
-      <c r="E93" s="160"/>
-      <c r="F93" s="114"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="115" t="s">
-        <v>287</v>
-      </c>
-      <c r="I93" s="117"/>
-      <c r="J93" s="14">
+    <row r="93" spans="1:204" ht="26.25">
+      <c r="B93" s="162" t="s">
+        <v>282</v>
+      </c>
+      <c r="C93" s="163"/>
+      <c r="D93" s="173"/>
+      <c r="E93" s="164"/>
+      <c r="F93" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" s="41"/>
+      <c r="J93" s="121">
         <v>50</v>
       </c>
-      <c r="K93" s="14">
+      <c r="K93" s="121">
         <v>7</v>
       </c>
-      <c r="L93" s="116"/>
-      <c r="M93" s="116"/>
-      <c r="N93" s="116"/>
-      <c r="O93" s="116"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14">
+        <v>2</v>
+      </c>
+      <c r="O93" s="14">
+        <v>2</v>
+      </c>
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
       <c r="R93" s="15"/>
@@ -23742,33 +23775,32 @@
       <c r="GU93" s="13"/>
       <c r="GV93" s="13"/>
     </row>
-    <row r="94" spans="1:204" ht="31.5" customHeight="1">
-      <c r="A94" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B94" s="173" t="s">
-        <v>319</v>
-      </c>
-      <c r="C94" s="174"/>
-      <c r="D94" s="174"/>
-      <c r="E94" s="174"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="42"/>
-      <c r="J94" s="118">
-        <v>57</v>
-      </c>
-      <c r="K94" s="118">
-        <v>68</v>
-      </c>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="9"/>
-      <c r="R94" s="10"/>
+    <row r="94" spans="1:204" ht="47.25" customHeight="1">
+      <c r="B94" s="97"/>
+      <c r="C94" s="98"/>
+      <c r="D94" s="163" t="s">
+        <v>316</v>
+      </c>
+      <c r="E94" s="164"/>
+      <c r="F94" s="114"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="I94" s="117"/>
+      <c r="J94" s="14">
+        <v>29</v>
+      </c>
+      <c r="K94" s="14">
+        <v>1</v>
+      </c>
+      <c r="L94" s="116"/>
+      <c r="M94" s="116"/>
+      <c r="N94" s="116"/>
+      <c r="O94" s="116"/>
+      <c r="P94" s="14"/>
+      <c r="Q94" s="14"/>
+      <c r="R94" s="15"/>
       <c r="S94" s="12"/>
       <c r="T94" s="12"/>
       <c r="U94" s="12"/>
@@ -23956,37 +23988,29 @@
       <c r="GU94" s="13"/>
       <c r="GV94" s="13"/>
     </row>
-    <row r="95" spans="1:204" ht="26.25">
-      <c r="B95" s="158" t="s">
-        <v>49</v>
-      </c>
-      <c r="C95" s="159"/>
-      <c r="D95" s="159"/>
-      <c r="E95" s="160"/>
-      <c r="F95" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H95" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I95" s="41"/>
-      <c r="J95" s="120">
-        <v>57</v>
+    <row r="95" spans="1:204" ht="27" customHeight="1">
+      <c r="B95" s="97"/>
+      <c r="C95" s="98"/>
+      <c r="D95" s="163" t="s">
+        <v>317</v>
+      </c>
+      <c r="E95" s="164"/>
+      <c r="F95" s="114"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="115" t="s">
+        <v>287</v>
+      </c>
+      <c r="I95" s="117"/>
+      <c r="J95" s="14">
+        <v>50</v>
       </c>
       <c r="K95" s="14">
-        <v>17</v>
-      </c>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="14">
-        <v>2</v>
-      </c>
-      <c r="O95" s="14">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="L95" s="116"/>
+      <c r="M95" s="116"/>
+      <c r="N95" s="116"/>
+      <c r="O95" s="116"/>
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
       <c r="R95" s="15"/>
@@ -24177,32 +24201,33 @@
       <c r="GU95" s="13"/>
       <c r="GV95" s="13"/>
     </row>
-    <row r="96" spans="1:204" ht="48" customHeight="1">
-      <c r="B96" s="97"/>
-      <c r="C96" s="159" t="s">
-        <v>303</v>
-      </c>
-      <c r="D96" s="159"/>
-      <c r="E96" s="160"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="I96" s="41"/>
-      <c r="J96" s="120">
+    <row r="96" spans="1:204" ht="31.5" customHeight="1">
+      <c r="A96" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="174" t="s">
+        <v>319</v>
+      </c>
+      <c r="C96" s="175"/>
+      <c r="D96" s="175"/>
+      <c r="E96" s="175"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="118">
         <v>57</v>
       </c>
-      <c r="K96" s="14">
-        <v>3</v>
-      </c>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
-      <c r="N96" s="14"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="14"/>
-      <c r="Q96" s="14"/>
-      <c r="R96" s="15"/>
+      <c r="K96" s="118">
+        <v>68</v>
+      </c>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="10"/>
       <c r="S96" s="12"/>
       <c r="T96" s="12"/>
       <c r="U96" s="12"/>
@@ -24391,28 +24416,36 @@
       <c r="GV96" s="13"/>
     </row>
     <row r="97" spans="2:204" ht="26.25">
-      <c r="B97" s="97"/>
-      <c r="C97" s="159" t="s">
-        <v>305</v>
-      </c>
-      <c r="D97" s="159"/>
-      <c r="E97" s="160"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="119" t="s">
+      <c r="B97" s="162" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="163"/>
+      <c r="D97" s="163"/>
+      <c r="E97" s="164"/>
+      <c r="F97" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" s="14" t="s">
         <v>77</v>
       </c>
       <c r="I97" s="41"/>
       <c r="J97" s="120">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K97" s="14">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="L97" s="14"/>
       <c r="M97" s="14"/>
-      <c r="N97" s="14"/>
-      <c r="O97" s="14"/>
+      <c r="N97" s="14">
+        <v>2</v>
+      </c>
+      <c r="O97" s="14">
+        <v>2</v>
+      </c>
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
       <c r="R97" s="15"/>
@@ -24603,13 +24636,13 @@
       <c r="GU97" s="13"/>
       <c r="GV97" s="13"/>
     </row>
-    <row r="98" spans="2:204" ht="26.25">
+    <row r="98" spans="2:204" ht="48" customHeight="1">
       <c r="B98" s="97"/>
-      <c r="C98" s="159" t="s">
-        <v>306</v>
-      </c>
-      <c r="D98" s="159"/>
-      <c r="E98" s="160"/>
+      <c r="C98" s="163" t="s">
+        <v>303</v>
+      </c>
+      <c r="D98" s="163"/>
+      <c r="E98" s="164"/>
       <c r="F98" s="23"/>
       <c r="G98" s="16"/>
       <c r="H98" s="119" t="s">
@@ -24617,10 +24650,10 @@
       </c>
       <c r="I98" s="41"/>
       <c r="J98" s="120">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K98" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
@@ -24818,11 +24851,11 @@
     </row>
     <row r="99" spans="2:204" ht="26.25">
       <c r="B99" s="97"/>
-      <c r="C99" s="159" t="s">
-        <v>283</v>
-      </c>
-      <c r="D99" s="159"/>
-      <c r="E99" s="160"/>
+      <c r="C99" s="163" t="s">
+        <v>305</v>
+      </c>
+      <c r="D99" s="163"/>
+      <c r="E99" s="164"/>
       <c r="F99" s="23"/>
       <c r="G99" s="16"/>
       <c r="H99" s="119" t="s">
@@ -24830,10 +24863,10 @@
       </c>
       <c r="I99" s="41"/>
       <c r="J99" s="120">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="K99" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
@@ -25031,22 +25064,22 @@
     </row>
     <row r="100" spans="2:204" ht="26.25">
       <c r="B100" s="97"/>
-      <c r="C100" s="159" t="s">
-        <v>318</v>
-      </c>
-      <c r="D100" s="159"/>
-      <c r="E100" s="160"/>
+      <c r="C100" s="163" t="s">
+        <v>306</v>
+      </c>
+      <c r="D100" s="163"/>
+      <c r="E100" s="164"/>
       <c r="F100" s="23"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="14" t="s">
+      <c r="G100" s="16"/>
+      <c r="H100" s="119" t="s">
         <v>77</v>
       </c>
       <c r="I100" s="41"/>
-      <c r="J100" s="119">
-        <v>72</v>
+      <c r="J100" s="120">
+        <v>64</v>
       </c>
       <c r="K100" s="14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
@@ -25243,34 +25276,28 @@
       <c r="GV100" s="13"/>
     </row>
     <row r="101" spans="2:204" ht="26.25">
-      <c r="B101" s="158" t="s">
-        <v>50</v>
-      </c>
-      <c r="C101" s="159"/>
-      <c r="D101" s="159"/>
-      <c r="E101" s="160"/>
-      <c r="F101" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14" t="s">
-        <v>315</v>
+      <c r="B101" s="97"/>
+      <c r="C101" s="163" t="s">
+        <v>283</v>
+      </c>
+      <c r="D101" s="163"/>
+      <c r="E101" s="164"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="119" t="s">
+        <v>77</v>
       </c>
       <c r="I101" s="41"/>
-      <c r="J101" s="14">
-        <v>73</v>
+      <c r="J101" s="120">
+        <v>71</v>
       </c>
       <c r="K101" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
-      <c r="N101" s="14">
-        <v>2</v>
-      </c>
-      <c r="O101" s="14">
-        <v>2</v>
-      </c>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
       <c r="R101" s="15"/>
@@ -25461,21 +25488,21 @@
       <c r="GU101" s="13"/>
       <c r="GV101" s="13"/>
     </row>
-    <row r="102" spans="2:204" ht="48.75" customHeight="1">
+    <row r="102" spans="2:204" ht="26.25">
       <c r="B102" s="97"/>
-      <c r="C102" s="159" t="s">
-        <v>285</v>
-      </c>
-      <c r="D102" s="159"/>
-      <c r="E102" s="160"/>
+      <c r="C102" s="163" t="s">
+        <v>318</v>
+      </c>
+      <c r="D102" s="163"/>
+      <c r="E102" s="164"/>
       <c r="F102" s="23"/>
       <c r="G102" s="26"/>
-      <c r="H102" s="119" t="s">
-        <v>315</v>
+      <c r="H102" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="I102" s="41"/>
-      <c r="J102" s="14">
-        <v>73</v>
+      <c r="J102" s="119">
+        <v>72</v>
       </c>
       <c r="K102" s="14">
         <v>1</v>
@@ -25675,28 +25702,34 @@
       <c r="GV102" s="13"/>
     </row>
     <row r="103" spans="2:204" ht="26.25">
-      <c r="B103" s="97"/>
-      <c r="C103" s="159" t="s">
-        <v>311</v>
-      </c>
-      <c r="D103" s="159"/>
-      <c r="E103" s="160"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="119" t="s">
+      <c r="B103" s="162" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="163"/>
+      <c r="D103" s="163"/>
+      <c r="E103" s="164"/>
+      <c r="F103" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14" t="s">
         <v>315</v>
       </c>
       <c r="I103" s="41"/>
       <c r="J103" s="14">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K103" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L103" s="14"/>
       <c r="M103" s="14"/>
-      <c r="N103" s="14"/>
-      <c r="O103" s="14"/>
+      <c r="N103" s="14">
+        <v>2</v>
+      </c>
+      <c r="O103" s="14">
+        <v>2</v>
+      </c>
       <c r="P103" s="14"/>
       <c r="Q103" s="14"/>
       <c r="R103" s="15"/>
@@ -25887,35 +25920,29 @@
       <c r="GU103" s="13"/>
       <c r="GV103" s="13"/>
     </row>
-    <row r="104" spans="2:204" ht="26.25">
-      <c r="B104" s="158" t="s">
-        <v>299</v>
-      </c>
-      <c r="C104" s="159"/>
-      <c r="D104" s="159"/>
-      <c r="E104" s="160"/>
-      <c r="F104" s="47" t="s">
-        <v>39</v>
-      </c>
+    <row r="104" spans="2:204" ht="48.75" customHeight="1">
+      <c r="B104" s="97"/>
+      <c r="C104" s="163" t="s">
+        <v>285</v>
+      </c>
+      <c r="D104" s="163"/>
+      <c r="E104" s="164"/>
+      <c r="F104" s="23"/>
       <c r="G104" s="26"/>
-      <c r="H104" s="14" t="s">
-        <v>41</v>
+      <c r="H104" s="119" t="s">
+        <v>315</v>
       </c>
       <c r="I104" s="41"/>
-      <c r="J104" s="121">
-        <v>57</v>
-      </c>
-      <c r="K104" s="121">
-        <v>14</v>
+      <c r="J104" s="14">
+        <v>73</v>
+      </c>
+      <c r="K104" s="14">
+        <v>1</v>
       </c>
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
-      <c r="N104" s="14">
-        <v>1</v>
-      </c>
-      <c r="O104" s="14">
-        <v>2</v>
-      </c>
+      <c r="N104" s="14"/>
+      <c r="O104" s="14"/>
       <c r="P104" s="14"/>
       <c r="Q104" s="14"/>
       <c r="R104" s="15"/>
@@ -26106,37 +26133,29 @@
       <c r="GU104" s="13"/>
       <c r="GV104" s="13"/>
     </row>
-    <row r="105" spans="2:204" ht="32.25">
-      <c r="B105" s="158" t="s">
-        <v>300</v>
-      </c>
-      <c r="C105" s="159"/>
-      <c r="D105" s="159"/>
-      <c r="E105" s="160"/>
-      <c r="F105" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G105" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H105" s="14" t="s">
-        <v>37</v>
+    <row r="105" spans="2:204" ht="26.25">
+      <c r="B105" s="97"/>
+      <c r="C105" s="163" t="s">
+        <v>311</v>
+      </c>
+      <c r="D105" s="163"/>
+      <c r="E105" s="164"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="119" t="s">
+        <v>315</v>
       </c>
       <c r="I105" s="41"/>
       <c r="J105" s="14">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K105" s="14">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L105" s="14"/>
       <c r="M105" s="14"/>
-      <c r="N105" s="14">
-        <v>3</v>
-      </c>
-      <c r="O105" s="14">
-        <v>3</v>
-      </c>
+      <c r="N105" s="14"/>
+      <c r="O105" s="14"/>
       <c r="P105" s="14"/>
       <c r="Q105" s="14"/>
       <c r="R105" s="15"/>
@@ -26328,28 +26347,34 @@
       <c r="GV105" s="13"/>
     </row>
     <row r="106" spans="2:204" ht="26.25">
-      <c r="B106" s="97"/>
-      <c r="C106" s="159" t="s">
-        <v>307</v>
-      </c>
-      <c r="D106" s="159"/>
-      <c r="E106" s="160"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="46"/>
+      <c r="B106" s="162" t="s">
+        <v>299</v>
+      </c>
+      <c r="C106" s="163"/>
+      <c r="D106" s="163"/>
+      <c r="E106" s="164"/>
+      <c r="F106" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106" s="26"/>
       <c r="H106" s="14" t="s">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="I106" s="41"/>
-      <c r="J106" s="14">
-        <v>76</v>
-      </c>
-      <c r="K106" s="14">
-        <v>4</v>
+      <c r="J106" s="121">
+        <v>57</v>
+      </c>
+      <c r="K106" s="121">
+        <v>14</v>
       </c>
       <c r="L106" s="14"/>
       <c r="M106" s="14"/>
-      <c r="N106" s="14"/>
-      <c r="O106" s="14"/>
+      <c r="N106" s="14">
+        <v>1</v>
+      </c>
+      <c r="O106" s="14">
+        <v>2</v>
+      </c>
       <c r="P106" s="14"/>
       <c r="Q106" s="14"/>
       <c r="R106" s="15"/>
@@ -26540,29 +26565,37 @@
       <c r="GU106" s="13"/>
       <c r="GV106" s="13"/>
     </row>
-    <row r="107" spans="2:204" ht="26.25">
-      <c r="B107" s="97"/>
-      <c r="C107" s="159" t="s">
-        <v>308</v>
-      </c>
-      <c r="D107" s="159"/>
-      <c r="E107" s="160"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="46"/>
+    <row r="107" spans="2:204" ht="32.25">
+      <c r="B107" s="162" t="s">
+        <v>300</v>
+      </c>
+      <c r="C107" s="163"/>
+      <c r="D107" s="163"/>
+      <c r="E107" s="164"/>
+      <c r="F107" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G107" s="46" t="s">
+        <v>46</v>
+      </c>
       <c r="H107" s="14" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="I107" s="41"/>
       <c r="J107" s="14">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K107" s="14">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L107" s="14"/>
       <c r="M107" s="14"/>
-      <c r="N107" s="14"/>
-      <c r="O107" s="14"/>
+      <c r="N107" s="14">
+        <v>3</v>
+      </c>
+      <c r="O107" s="14">
+        <v>3</v>
+      </c>
       <c r="P107" s="14"/>
       <c r="Q107" s="14"/>
       <c r="R107" s="15"/>
@@ -26755,19 +26788,19 @@
     </row>
     <row r="108" spans="2:204" ht="26.25">
       <c r="B108" s="97"/>
-      <c r="C108" s="159" t="s">
-        <v>309</v>
-      </c>
-      <c r="D108" s="159"/>
-      <c r="E108" s="160"/>
+      <c r="C108" s="163" t="s">
+        <v>307</v>
+      </c>
+      <c r="D108" s="163"/>
+      <c r="E108" s="164"/>
       <c r="F108" s="23"/>
       <c r="G108" s="46"/>
       <c r="H108" s="14" t="s">
-        <v>35</v>
+        <v>315</v>
       </c>
       <c r="I108" s="41"/>
       <c r="J108" s="14">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K108" s="14">
         <v>4</v>
@@ -26968,22 +27001,22 @@
     </row>
     <row r="109" spans="2:204" ht="26.25">
       <c r="B109" s="97"/>
-      <c r="C109" s="159" t="s">
-        <v>310</v>
-      </c>
-      <c r="D109" s="159"/>
-      <c r="E109" s="160"/>
+      <c r="C109" s="163" t="s">
+        <v>308</v>
+      </c>
+      <c r="D109" s="163"/>
+      <c r="E109" s="164"/>
       <c r="F109" s="23"/>
       <c r="G109" s="46"/>
       <c r="H109" s="14" t="s">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="I109" s="41"/>
       <c r="J109" s="14">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K109" s="14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L109" s="14"/>
       <c r="M109" s="14"/>
@@ -27180,32 +27213,28 @@
       <c r="GV109" s="13"/>
     </row>
     <row r="110" spans="2:204" ht="26.25">
-      <c r="B110" s="167" t="s">
-        <v>301</v>
-      </c>
-      <c r="C110" s="157"/>
-      <c r="D110" s="157"/>
-      <c r="E110" s="168"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I110" s="43"/>
-      <c r="J110" s="17">
-        <v>95</v>
-      </c>
-      <c r="K110" s="17">
-        <v>23</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17">
-        <v>3</v>
-      </c>
-      <c r="O110" s="17">
-        <v>6</v>
-      </c>
+      <c r="B110" s="97"/>
+      <c r="C110" s="163" t="s">
+        <v>309</v>
+      </c>
+      <c r="D110" s="163"/>
+      <c r="E110" s="164"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" s="41"/>
+      <c r="J110" s="14">
+        <v>84</v>
+      </c>
+      <c r="K110" s="14">
+        <v>4</v>
+      </c>
+      <c r="L110" s="14"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="14"/>
+      <c r="O110" s="14"/>
       <c r="P110" s="14"/>
       <c r="Q110" s="14"/>
       <c r="R110" s="15"/>
@@ -27396,33 +27425,29 @@
       <c r="GU110" s="13"/>
       <c r="GV110" s="13"/>
     </row>
-    <row r="111" spans="2:204" ht="32.25">
-      <c r="B111" s="167" t="s">
-        <v>302</v>
-      </c>
-      <c r="C111" s="157"/>
-      <c r="D111" s="157"/>
-      <c r="E111" s="168"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I111" s="43"/>
-      <c r="J111" s="17">
-        <v>118</v>
-      </c>
-      <c r="K111" s="17">
+    <row r="111" spans="2:204" ht="26.25">
+      <c r="B111" s="97"/>
+      <c r="C111" s="163" t="s">
+        <v>310</v>
+      </c>
+      <c r="D111" s="163"/>
+      <c r="E111" s="164"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="I111" s="41"/>
+      <c r="J111" s="14">
+        <v>88</v>
+      </c>
+      <c r="K111" s="14">
         <v>7</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17">
-        <v>4</v>
-      </c>
-      <c r="O111" s="17">
-        <v>2</v>
-      </c>
+      <c r="L111" s="14"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="14"/>
+      <c r="O111" s="14"/>
       <c r="P111" s="14"/>
       <c r="Q111" s="14"/>
       <c r="R111" s="15"/>
@@ -27613,27 +27638,36 @@
       <c r="GU111" s="13"/>
       <c r="GV111" s="13"/>
     </row>
-    <row r="112" spans="2:204" ht="30" customHeight="1">
-      <c r="B112" s="169"/>
-      <c r="C112" s="170"/>
-      <c r="D112" s="170"/>
-      <c r="E112" s="171"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="19">
-        <f>SUM(O10:O111)</f>
-        <v>46</v>
-      </c>
-      <c r="P112" s="12"/>
-      <c r="Q112" s="12"/>
-      <c r="R112" s="20"/>
+    <row r="112" spans="2:204" ht="26.25">
+      <c r="B112" s="168" t="s">
+        <v>301</v>
+      </c>
+      <c r="C112" s="161"/>
+      <c r="D112" s="161"/>
+      <c r="E112" s="169"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" s="43"/>
+      <c r="J112" s="17">
+        <v>95</v>
+      </c>
+      <c r="K112" s="17">
+        <v>23</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17">
+        <v>3</v>
+      </c>
+      <c r="O112" s="17">
+        <v>6</v>
+      </c>
+      <c r="P112" s="14"/>
+      <c r="Q112" s="14"/>
+      <c r="R112" s="15"/>
       <c r="S112" s="12"/>
       <c r="T112" s="12"/>
       <c r="U112" s="12"/>
@@ -27821,99 +27855,523 @@
       <c r="GU112" s="13"/>
       <c r="GV112" s="13"/>
     </row>
+    <row r="113" spans="2:204" ht="32.25">
+      <c r="B113" s="168" t="s">
+        <v>302</v>
+      </c>
+      <c r="C113" s="161"/>
+      <c r="D113" s="161"/>
+      <c r="E113" s="169"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113" s="43"/>
+      <c r="J113" s="17">
+        <v>118</v>
+      </c>
+      <c r="K113" s="17">
+        <v>7</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17">
+        <v>4</v>
+      </c>
+      <c r="O113" s="17">
+        <v>2</v>
+      </c>
+      <c r="P113" s="14"/>
+      <c r="Q113" s="14"/>
+      <c r="R113" s="15"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="12"/>
+      <c r="U113" s="12"/>
+      <c r="V113" s="12"/>
+      <c r="W113" s="13"/>
+      <c r="X113" s="12"/>
+      <c r="Y113" s="13"/>
+      <c r="Z113" s="13"/>
+      <c r="AA113" s="13"/>
+      <c r="AB113" s="11"/>
+      <c r="AC113" s="12"/>
+      <c r="AD113" s="12"/>
+      <c r="AE113" s="12"/>
+      <c r="AF113" s="12"/>
+      <c r="AG113" s="12"/>
+      <c r="AH113" s="12"/>
+      <c r="AI113" s="12"/>
+      <c r="AJ113" s="12"/>
+      <c r="AK113" s="12"/>
+      <c r="AL113" s="12"/>
+      <c r="AM113" s="12"/>
+      <c r="AN113" s="12"/>
+      <c r="AO113" s="12"/>
+      <c r="AP113" s="12"/>
+      <c r="AQ113" s="12"/>
+      <c r="AR113" s="12"/>
+      <c r="AS113" s="12"/>
+      <c r="AT113" s="12"/>
+      <c r="AU113" s="12"/>
+      <c r="AV113" s="13"/>
+      <c r="AW113" s="13"/>
+      <c r="AX113" s="13"/>
+      <c r="AY113" s="13"/>
+      <c r="AZ113" s="13"/>
+      <c r="BA113" s="13"/>
+      <c r="BB113" s="13"/>
+      <c r="BC113" s="13"/>
+      <c r="BD113" s="13"/>
+      <c r="BE113" s="13"/>
+      <c r="BF113" s="13"/>
+      <c r="BG113" s="13"/>
+      <c r="BH113" s="13"/>
+      <c r="BI113" s="13"/>
+      <c r="BJ113" s="13"/>
+      <c r="BK113" s="13"/>
+      <c r="BL113" s="13"/>
+      <c r="BM113" s="13"/>
+      <c r="BN113" s="13"/>
+      <c r="BO113" s="13"/>
+      <c r="BP113" s="13"/>
+      <c r="BQ113" s="13"/>
+      <c r="BR113" s="13"/>
+      <c r="BS113" s="13"/>
+      <c r="BT113" s="13"/>
+      <c r="BU113" s="13"/>
+      <c r="BV113" s="13"/>
+      <c r="BW113" s="13"/>
+      <c r="BX113" s="13"/>
+      <c r="BY113" s="13"/>
+      <c r="BZ113" s="13"/>
+      <c r="CA113" s="13"/>
+      <c r="CB113" s="13"/>
+      <c r="CC113" s="13"/>
+      <c r="CD113" s="13"/>
+      <c r="CE113" s="13"/>
+      <c r="CF113" s="13"/>
+      <c r="CG113" s="13"/>
+      <c r="CH113" s="13"/>
+      <c r="CI113" s="13"/>
+      <c r="CJ113" s="13"/>
+      <c r="CK113" s="13"/>
+      <c r="CL113" s="13"/>
+      <c r="CM113" s="13"/>
+      <c r="CN113" s="13"/>
+      <c r="CO113" s="13"/>
+      <c r="CP113" s="13"/>
+      <c r="CQ113" s="13"/>
+      <c r="CR113" s="13"/>
+      <c r="CS113" s="13"/>
+      <c r="CT113" s="13"/>
+      <c r="CU113" s="13"/>
+      <c r="CV113" s="13"/>
+      <c r="CW113" s="13"/>
+      <c r="CX113" s="13"/>
+      <c r="CY113" s="13"/>
+      <c r="CZ113" s="13"/>
+      <c r="DA113" s="13"/>
+      <c r="DB113" s="13"/>
+      <c r="DC113" s="13"/>
+      <c r="DD113" s="13"/>
+      <c r="DE113" s="13"/>
+      <c r="DF113" s="13"/>
+      <c r="DG113" s="13"/>
+      <c r="DH113" s="13"/>
+      <c r="DI113" s="13"/>
+      <c r="DJ113" s="13"/>
+      <c r="DK113" s="13"/>
+      <c r="DL113" s="13"/>
+      <c r="DM113" s="13"/>
+      <c r="DN113" s="13"/>
+      <c r="DO113" s="13"/>
+      <c r="DP113" s="13"/>
+      <c r="DQ113" s="13"/>
+      <c r="DR113" s="13"/>
+      <c r="DS113" s="13"/>
+      <c r="DT113" s="13"/>
+      <c r="DU113" s="13"/>
+      <c r="DV113" s="13"/>
+      <c r="DW113" s="13"/>
+      <c r="DX113" s="13"/>
+      <c r="DY113" s="13"/>
+      <c r="DZ113" s="13"/>
+      <c r="EA113" s="13"/>
+      <c r="EB113" s="13"/>
+      <c r="EC113" s="13"/>
+      <c r="ED113" s="13"/>
+      <c r="EE113" s="13"/>
+      <c r="EF113" s="13"/>
+      <c r="EG113" s="13"/>
+      <c r="EH113" s="13"/>
+      <c r="EI113" s="13"/>
+      <c r="EJ113" s="13"/>
+      <c r="EK113" s="13"/>
+      <c r="EL113" s="13"/>
+      <c r="EM113" s="13"/>
+      <c r="EN113" s="13"/>
+      <c r="EO113" s="13"/>
+      <c r="EP113" s="13"/>
+      <c r="EQ113" s="13"/>
+      <c r="ER113" s="13"/>
+      <c r="ES113" s="13"/>
+      <c r="ET113" s="13"/>
+      <c r="EU113" s="13"/>
+      <c r="EV113" s="13"/>
+      <c r="EW113" s="13"/>
+      <c r="EX113" s="13"/>
+      <c r="EY113" s="13"/>
+      <c r="EZ113" s="13"/>
+      <c r="FA113" s="13"/>
+      <c r="FB113" s="13"/>
+      <c r="FC113" s="13"/>
+      <c r="FD113" s="13"/>
+      <c r="FE113" s="13"/>
+      <c r="FF113" s="13"/>
+      <c r="FG113" s="13"/>
+      <c r="FH113" s="13"/>
+      <c r="FI113" s="13"/>
+      <c r="FJ113" s="13"/>
+      <c r="FK113" s="13"/>
+      <c r="FL113" s="13"/>
+      <c r="FM113" s="13"/>
+      <c r="FN113" s="13"/>
+      <c r="FO113" s="13"/>
+      <c r="FP113" s="13"/>
+      <c r="FQ113" s="13"/>
+      <c r="FR113" s="13"/>
+      <c r="FS113" s="13"/>
+      <c r="FT113" s="13"/>
+      <c r="FU113" s="13"/>
+      <c r="FV113" s="13"/>
+      <c r="FW113" s="13"/>
+      <c r="FX113" s="13"/>
+      <c r="FY113" s="13"/>
+      <c r="FZ113" s="13"/>
+      <c r="GA113" s="13"/>
+      <c r="GB113" s="13"/>
+      <c r="GC113" s="13"/>
+      <c r="GD113" s="13"/>
+      <c r="GE113" s="13"/>
+      <c r="GF113" s="13"/>
+      <c r="GG113" s="13"/>
+      <c r="GH113" s="13"/>
+      <c r="GI113" s="13"/>
+      <c r="GJ113" s="13"/>
+      <c r="GK113" s="13"/>
+      <c r="GL113" s="13"/>
+      <c r="GM113" s="13"/>
+      <c r="GN113" s="13"/>
+      <c r="GO113" s="13"/>
+      <c r="GP113" s="13"/>
+      <c r="GQ113" s="13"/>
+      <c r="GR113" s="13"/>
+      <c r="GS113" s="13"/>
+      <c r="GT113" s="13"/>
+      <c r="GU113" s="13"/>
+      <c r="GV113" s="13"/>
+    </row>
+    <row r="114" spans="2:204" ht="30" customHeight="1">
+      <c r="B114" s="170"/>
+      <c r="C114" s="171"/>
+      <c r="D114" s="171"/>
+      <c r="E114" s="172"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="19">
+        <f>SUM(O10:O113)</f>
+        <v>46</v>
+      </c>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="20"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="12"/>
+      <c r="U114" s="12"/>
+      <c r="V114" s="12"/>
+      <c r="W114" s="13"/>
+      <c r="X114" s="12"/>
+      <c r="Y114" s="13"/>
+      <c r="Z114" s="13"/>
+      <c r="AA114" s="13"/>
+      <c r="AB114" s="11"/>
+      <c r="AC114" s="12"/>
+      <c r="AD114" s="12"/>
+      <c r="AE114" s="12"/>
+      <c r="AF114" s="12"/>
+      <c r="AG114" s="12"/>
+      <c r="AH114" s="12"/>
+      <c r="AI114" s="12"/>
+      <c r="AJ114" s="12"/>
+      <c r="AK114" s="12"/>
+      <c r="AL114" s="12"/>
+      <c r="AM114" s="12"/>
+      <c r="AN114" s="12"/>
+      <c r="AO114" s="12"/>
+      <c r="AP114" s="12"/>
+      <c r="AQ114" s="12"/>
+      <c r="AR114" s="12"/>
+      <c r="AS114" s="12"/>
+      <c r="AT114" s="12"/>
+      <c r="AU114" s="12"/>
+      <c r="AV114" s="13"/>
+      <c r="AW114" s="13"/>
+      <c r="AX114" s="13"/>
+      <c r="AY114" s="13"/>
+      <c r="AZ114" s="13"/>
+      <c r="BA114" s="13"/>
+      <c r="BB114" s="13"/>
+      <c r="BC114" s="13"/>
+      <c r="BD114" s="13"/>
+      <c r="BE114" s="13"/>
+      <c r="BF114" s="13"/>
+      <c r="BG114" s="13"/>
+      <c r="BH114" s="13"/>
+      <c r="BI114" s="13"/>
+      <c r="BJ114" s="13"/>
+      <c r="BK114" s="13"/>
+      <c r="BL114" s="13"/>
+      <c r="BM114" s="13"/>
+      <c r="BN114" s="13"/>
+      <c r="BO114" s="13"/>
+      <c r="BP114" s="13"/>
+      <c r="BQ114" s="13"/>
+      <c r="BR114" s="13"/>
+      <c r="BS114" s="13"/>
+      <c r="BT114" s="13"/>
+      <c r="BU114" s="13"/>
+      <c r="BV114" s="13"/>
+      <c r="BW114" s="13"/>
+      <c r="BX114" s="13"/>
+      <c r="BY114" s="13"/>
+      <c r="BZ114" s="13"/>
+      <c r="CA114" s="13"/>
+      <c r="CB114" s="13"/>
+      <c r="CC114" s="13"/>
+      <c r="CD114" s="13"/>
+      <c r="CE114" s="13"/>
+      <c r="CF114" s="13"/>
+      <c r="CG114" s="13"/>
+      <c r="CH114" s="13"/>
+      <c r="CI114" s="13"/>
+      <c r="CJ114" s="13"/>
+      <c r="CK114" s="13"/>
+      <c r="CL114" s="13"/>
+      <c r="CM114" s="13"/>
+      <c r="CN114" s="13"/>
+      <c r="CO114" s="13"/>
+      <c r="CP114" s="13"/>
+      <c r="CQ114" s="13"/>
+      <c r="CR114" s="13"/>
+      <c r="CS114" s="13"/>
+      <c r="CT114" s="13"/>
+      <c r="CU114" s="13"/>
+      <c r="CV114" s="13"/>
+      <c r="CW114" s="13"/>
+      <c r="CX114" s="13"/>
+      <c r="CY114" s="13"/>
+      <c r="CZ114" s="13"/>
+      <c r="DA114" s="13"/>
+      <c r="DB114" s="13"/>
+      <c r="DC114" s="13"/>
+      <c r="DD114" s="13"/>
+      <c r="DE114" s="13"/>
+      <c r="DF114" s="13"/>
+      <c r="DG114" s="13"/>
+      <c r="DH114" s="13"/>
+      <c r="DI114" s="13"/>
+      <c r="DJ114" s="13"/>
+      <c r="DK114" s="13"/>
+      <c r="DL114" s="13"/>
+      <c r="DM114" s="13"/>
+      <c r="DN114" s="13"/>
+      <c r="DO114" s="13"/>
+      <c r="DP114" s="13"/>
+      <c r="DQ114" s="13"/>
+      <c r="DR114" s="13"/>
+      <c r="DS114" s="13"/>
+      <c r="DT114" s="13"/>
+      <c r="DU114" s="13"/>
+      <c r="DV114" s="13"/>
+      <c r="DW114" s="13"/>
+      <c r="DX114" s="13"/>
+      <c r="DY114" s="13"/>
+      <c r="DZ114" s="13"/>
+      <c r="EA114" s="13"/>
+      <c r="EB114" s="13"/>
+      <c r="EC114" s="13"/>
+      <c r="ED114" s="13"/>
+      <c r="EE114" s="13"/>
+      <c r="EF114" s="13"/>
+      <c r="EG114" s="13"/>
+      <c r="EH114" s="13"/>
+      <c r="EI114" s="13"/>
+      <c r="EJ114" s="13"/>
+      <c r="EK114" s="13"/>
+      <c r="EL114" s="13"/>
+      <c r="EM114" s="13"/>
+      <c r="EN114" s="13"/>
+      <c r="EO114" s="13"/>
+      <c r="EP114" s="13"/>
+      <c r="EQ114" s="13"/>
+      <c r="ER114" s="13"/>
+      <c r="ES114" s="13"/>
+      <c r="ET114" s="13"/>
+      <c r="EU114" s="13"/>
+      <c r="EV114" s="13"/>
+      <c r="EW114" s="13"/>
+      <c r="EX114" s="13"/>
+      <c r="EY114" s="13"/>
+      <c r="EZ114" s="13"/>
+      <c r="FA114" s="13"/>
+      <c r="FB114" s="13"/>
+      <c r="FC114" s="13"/>
+      <c r="FD114" s="13"/>
+      <c r="FE114" s="13"/>
+      <c r="FF114" s="13"/>
+      <c r="FG114" s="13"/>
+      <c r="FH114" s="13"/>
+      <c r="FI114" s="13"/>
+      <c r="FJ114" s="13"/>
+      <c r="FK114" s="13"/>
+      <c r="FL114" s="13"/>
+      <c r="FM114" s="13"/>
+      <c r="FN114" s="13"/>
+      <c r="FO114" s="13"/>
+      <c r="FP114" s="13"/>
+      <c r="FQ114" s="13"/>
+      <c r="FR114" s="13"/>
+      <c r="FS114" s="13"/>
+      <c r="FT114" s="13"/>
+      <c r="FU114" s="13"/>
+      <c r="FV114" s="13"/>
+      <c r="FW114" s="13"/>
+      <c r="FX114" s="13"/>
+      <c r="FY114" s="13"/>
+      <c r="FZ114" s="13"/>
+      <c r="GA114" s="13"/>
+      <c r="GB114" s="13"/>
+      <c r="GC114" s="13"/>
+      <c r="GD114" s="13"/>
+      <c r="GE114" s="13"/>
+      <c r="GF114" s="13"/>
+      <c r="GG114" s="13"/>
+      <c r="GH114" s="13"/>
+      <c r="GI114" s="13"/>
+      <c r="GJ114" s="13"/>
+      <c r="GK114" s="13"/>
+      <c r="GL114" s="13"/>
+      <c r="GM114" s="13"/>
+      <c r="GN114" s="13"/>
+      <c r="GO114" s="13"/>
+      <c r="GP114" s="13"/>
+      <c r="GQ114" s="13"/>
+      <c r="GR114" s="13"/>
+      <c r="GS114" s="13"/>
+      <c r="GT114" s="13"/>
+      <c r="GU114" s="13"/>
+      <c r="GV114" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:K111" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A9:K113" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
-  <mergeCells count="123">
+  <mergeCells count="125">
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B52:B72"/>
+    <mergeCell ref="C60:C72"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C47:E47"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B50:B70"/>
-    <mergeCell ref="C58:C70"/>
-    <mergeCell ref="D60:D67"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C48:E48"/>
     <mergeCell ref="C50:E50"/>
-    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="C52:E52"/>
     <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B51:E51"/>
     <mergeCell ref="C42:E42"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="B86:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C97:E97"/>
     <mergeCell ref="C98:E98"/>
     <mergeCell ref="C99:E99"/>
     <mergeCell ref="C100:E100"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="B88:C92"/>
+    <mergeCell ref="D91:D92"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B29:E29"/>
@@ -27926,13 +28384,11 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C48:E48"/>
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="AK1:AN1"/>
     <mergeCell ref="AP1:AS1"/>
@@ -27951,9 +28407,14 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="R6:R7"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="AA104:GV111 S9:GV31 S33:GV103 S32:X32 Z32:AB32 AD32:GV32">
+  <conditionalFormatting sqref="AA106:GV113 S9:GV31 S32:X32 Z32:AB32 AD32:GV32 S33:GV105">
     <cfRule type="expression" dxfId="64" priority="774">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -27984,7 +28445,7 @@
       <formula>S$7=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S105:W111">
+  <conditionalFormatting sqref="S107:W113">
     <cfRule type="expression" dxfId="55" priority="757">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28010,7 +28471,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S104:W104">
+  <conditionalFormatting sqref="S106:W106">
     <cfRule type="expression" dxfId="47" priority="749">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28036,7 +28497,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X105:Y111">
+  <conditionalFormatting sqref="X107:Y113">
     <cfRule type="expression" dxfId="39" priority="538">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28062,7 +28523,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X104:Y104">
+  <conditionalFormatting sqref="X106:Y106">
     <cfRule type="expression" dxfId="31" priority="530">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28088,7 +28549,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z105:Z111">
+  <conditionalFormatting sqref="Z107:Z113">
     <cfRule type="expression" dxfId="23" priority="385">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28114,7 +28575,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z104">
+  <conditionalFormatting sqref="Z106">
     <cfRule type="expression" dxfId="15" priority="377">
       <formula>PercentComplete</formula>
     </cfRule>

--- a/220329 HTK UV LED Controller Project sheet.xlsx
+++ b/220329 HTK UV LED Controller Project sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f734f300cb83d8b/HTK DAIAN/MORITEX/UV LED CONTROLLER/HTK LED UV Project Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AF9A7F7-BBEE-42F3-A927-C78A96B207E1}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC2D90BF-7A3B-48CC-91E2-CD4670D2E8DC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="329">
   <si>
     <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
   </si>
@@ -2282,13 +2282,113 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2360,106 +2460,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="% complete" xfId="13" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3692,10 +3692,10 @@
   <dimension ref="A1:GV114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="AE55" sqref="AE55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
@@ -3750,45 +3750,45 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="5"/>
-      <c r="V1" s="141" t="s">
+      <c r="V1" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="142"/>
-      <c r="AA1" s="142"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
       <c r="AB1" s="52">
         <v>1</v>
       </c>
       <c r="AD1" s="51"/>
-      <c r="AE1" s="137" t="s">
+      <c r="AE1" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="138"/>
-      <c r="AG1" s="138"/>
-      <c r="AH1" s="138"/>
-      <c r="AI1" s="139"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="172"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="173"/>
       <c r="AJ1" s="54"/>
-      <c r="AK1" s="137" t="s">
+      <c r="AK1" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="140"/>
-      <c r="AM1" s="140"/>
-      <c r="AN1" s="139"/>
+      <c r="AL1" s="174"/>
+      <c r="AM1" s="174"/>
+      <c r="AN1" s="173"/>
       <c r="AO1" s="55"/>
-      <c r="AP1" s="141" t="s">
+      <c r="AP1" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="142"/>
-      <c r="AR1" s="142"/>
-      <c r="AS1" s="143"/>
+      <c r="AQ1" s="176"/>
+      <c r="AR1" s="176"/>
+      <c r="AS1" s="177"/>
       <c r="AT1" s="56"/>
-      <c r="AU1" s="141" t="s">
+      <c r="AU1" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" s="142"/>
-      <c r="AW1" s="142"/>
+      <c r="AV1" s="176"/>
+      <c r="AW1" s="176"/>
     </row>
     <row r="2" spans="1:204" ht="53.25" customHeight="1">
       <c r="A2" s="36" t="s">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="I2" s="40">
         <f ca="1">TODAY()</f>
-        <v>44658</v>
+        <v>44662</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4236,47 +4236,47 @@
       <c r="GV5" s="76"/>
     </row>
     <row r="6" spans="1:204" s="6" customFormat="1" ht="44.25" customHeight="1">
-      <c r="B6" s="154" t="s">
+      <c r="B6" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="146" t="s">
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="150" t="s">
+      <c r="G6" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="144" t="s">
+      <c r="H6" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="152" t="s">
+      <c r="J6" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="144" t="s">
+      <c r="K6" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="144" t="s">
+      <c r="L6" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="144" t="s">
+      <c r="M6" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="144" t="s">
+      <c r="N6" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="144" t="s">
+      <c r="O6" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="148" t="s">
+      <c r="P6" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="148"/>
-      <c r="R6" s="148" t="s">
+      <c r="Q6" s="182"/>
+      <c r="R6" s="182" t="s">
         <v>25</v>
       </c>
       <c r="S6" s="93"/>
@@ -4473,23 +4473,23 @@
       <c r="GV6" s="103"/>
     </row>
     <row r="7" spans="1:204" ht="15.75" customHeight="1">
-      <c r="B7" s="157"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="149"/>
-      <c r="Q7" s="149"/>
-      <c r="R7" s="149"/>
+      <c r="B7" s="191"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="183"/>
+      <c r="Q7" s="183"/>
+      <c r="R7" s="183"/>
       <c r="S7" s="28">
         <v>1</v>
       </c>
@@ -5568,12 +5568,12 @@
       <c r="A9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="152" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
       <c r="F9" s="59"/>
       <c r="G9" s="60" t="s">
         <v>30</v>
@@ -5781,12 +5781,12 @@
       <c r="GV9" s="13"/>
     </row>
     <row r="10" spans="1:204" ht="30" customHeight="1">
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="164"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="23" t="s">
         <v>31</v>
       </c>
@@ -6002,11 +6002,11 @@
       <c r="GV10" s="13"/>
     </row>
     <row r="11" spans="1:204" ht="30" customHeight="1">
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
       <c r="E11" s="136"/>
       <c r="F11" s="23"/>
       <c r="G11" s="26" t="s">
@@ -6213,11 +6213,11 @@
       <c r="GV11" s="13"/>
     </row>
     <row r="12" spans="1:204" ht="36.75" customHeight="1">
-      <c r="B12" s="165"/>
-      <c r="C12" s="134" t="s">
+      <c r="B12" s="143"/>
+      <c r="C12" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="135"/>
+      <c r="D12" s="140"/>
       <c r="E12" s="136"/>
       <c r="F12" s="23"/>
       <c r="G12" s="130" t="s">
@@ -6430,11 +6430,11 @@
       <c r="GV12" s="13"/>
     </row>
     <row r="13" spans="1:204" ht="37.5" hidden="1" customHeight="1">
-      <c r="B13" s="166"/>
-      <c r="C13" s="134" t="s">
+      <c r="B13" s="144"/>
+      <c r="C13" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="135"/>
+      <c r="D13" s="140"/>
       <c r="E13" s="136"/>
       <c r="F13" s="23"/>
       <c r="G13" s="26"/>
@@ -6647,11 +6647,11 @@
       <c r="GV13" s="105"/>
     </row>
     <row r="14" spans="1:204" ht="26.25" hidden="1">
-      <c r="B14" s="166"/>
-      <c r="C14" s="134" t="s">
+      <c r="B14" s="144"/>
+      <c r="C14" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="135"/>
+      <c r="D14" s="140"/>
       <c r="E14" s="136"/>
       <c r="F14" s="23"/>
       <c r="G14" s="26"/>
@@ -6862,11 +6862,11 @@
       <c r="GV14" s="13"/>
     </row>
     <row r="15" spans="1:204" ht="26.25">
-      <c r="B15" s="166"/>
-      <c r="C15" s="134" t="s">
+      <c r="B15" s="144"/>
+      <c r="C15" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="135"/>
+      <c r="D15" s="140"/>
       <c r="E15" s="136"/>
       <c r="F15" s="23"/>
       <c r="G15" s="26"/>
@@ -7077,11 +7077,11 @@
       <c r="GV15" s="13"/>
     </row>
     <row r="16" spans="1:204" ht="26.25">
-      <c r="B16" s="166"/>
-      <c r="C16" s="134" t="s">
+      <c r="B16" s="144"/>
+      <c r="C16" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="135"/>
+      <c r="D16" s="140"/>
       <c r="E16" s="136"/>
       <c r="F16" s="23"/>
       <c r="G16" s="130" t="s">
@@ -7294,11 +7294,11 @@
       <c r="GV16" s="13"/>
     </row>
     <row r="17" spans="2:204" ht="34.5" customHeight="1">
-      <c r="B17" s="167"/>
-      <c r="C17" s="134" t="s">
+      <c r="B17" s="145"/>
+      <c r="C17" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="135"/>
+      <c r="D17" s="140"/>
       <c r="E17" s="136"/>
       <c r="F17" s="23"/>
       <c r="G17" s="26"/>
@@ -7509,11 +7509,11 @@
       <c r="GV17" s="13"/>
     </row>
     <row r="18" spans="2:204" ht="26.25">
-      <c r="B18" s="134" t="s">
+      <c r="B18" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
       <c r="E18" s="136"/>
       <c r="F18" s="23"/>
       <c r="G18" s="26" t="s">
@@ -7720,14 +7720,14 @@
       <c r="GV18" s="13"/>
     </row>
     <row r="19" spans="2:204" ht="39" hidden="1" customHeight="1">
-      <c r="B19" s="165"/>
-      <c r="C19" s="134" t="s">
+      <c r="B19" s="143"/>
+      <c r="C19" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="135"/>
+      <c r="D19" s="140"/>
       <c r="E19" s="136"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="193" t="s">
+      <c r="G19" s="134" t="s">
         <v>326</v>
       </c>
       <c r="H19" s="14" t="s">
@@ -7937,11 +7937,11 @@
       <c r="GV19" s="13"/>
     </row>
     <row r="20" spans="2:204" ht="34.5" hidden="1" customHeight="1">
-      <c r="B20" s="166"/>
-      <c r="C20" s="134" t="s">
+      <c r="B20" s="144"/>
+      <c r="C20" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="135"/>
+      <c r="D20" s="140"/>
       <c r="E20" s="136"/>
       <c r="F20" s="23"/>
       <c r="G20" s="26"/>
@@ -8152,11 +8152,11 @@
       <c r="GV20" s="13"/>
     </row>
     <row r="21" spans="2:204" ht="34.5" customHeight="1">
-      <c r="B21" s="166"/>
-      <c r="C21" s="134" t="s">
+      <c r="B21" s="144"/>
+      <c r="C21" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="135"/>
+      <c r="D21" s="140"/>
       <c r="E21" s="136"/>
       <c r="F21" s="23"/>
       <c r="G21" s="26"/>
@@ -8365,11 +8365,11 @@
       <c r="GV21" s="13"/>
     </row>
     <row r="22" spans="2:204" ht="37.5" customHeight="1">
-      <c r="B22" s="167"/>
-      <c r="C22" s="134" t="s">
+      <c r="B22" s="145"/>
+      <c r="C22" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="135"/>
+      <c r="D22" s="140"/>
       <c r="E22" s="136"/>
       <c r="F22" s="23"/>
       <c r="G22" s="26"/>
@@ -8578,11 +8578,11 @@
       <c r="GV22" s="13"/>
     </row>
     <row r="23" spans="2:204" ht="26.25">
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
       <c r="E23" s="136"/>
       <c r="F23" s="23"/>
       <c r="G23" s="26" t="s">
@@ -8789,11 +8789,11 @@
       <c r="GV23" s="13"/>
     </row>
     <row r="24" spans="2:204" ht="26.25">
-      <c r="B24" s="165"/>
-      <c r="C24" s="134" t="s">
+      <c r="B24" s="143"/>
+      <c r="C24" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="135"/>
+      <c r="D24" s="140"/>
       <c r="E24" s="136"/>
       <c r="F24" s="23"/>
       <c r="G24" s="130" t="s">
@@ -9006,11 +9006,11 @@
       <c r="GV24" s="13"/>
     </row>
     <row r="25" spans="2:204" ht="36.75" customHeight="1">
-      <c r="B25" s="166"/>
-      <c r="C25" s="134" t="s">
+      <c r="B25" s="144"/>
+      <c r="C25" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="135"/>
+      <c r="D25" s="140"/>
       <c r="E25" s="136"/>
       <c r="F25" s="23"/>
       <c r="G25" s="26"/>
@@ -9219,11 +9219,11 @@
       <c r="GV25" s="13"/>
     </row>
     <row r="26" spans="2:204" ht="26.25">
-      <c r="B26" s="166"/>
-      <c r="C26" s="134" t="s">
+      <c r="B26" s="144"/>
+      <c r="C26" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="135"/>
+      <c r="D26" s="140"/>
       <c r="E26" s="136"/>
       <c r="F26" s="23"/>
       <c r="G26" s="26"/>
@@ -9432,11 +9432,11 @@
       <c r="GV26" s="13"/>
     </row>
     <row r="27" spans="2:204" ht="26.25">
-      <c r="B27" s="166"/>
-      <c r="C27" s="134" t="s">
+      <c r="B27" s="144"/>
+      <c r="C27" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="135"/>
+      <c r="D27" s="140"/>
       <c r="E27" s="136"/>
       <c r="F27" s="23"/>
       <c r="G27" s="26"/>
@@ -9645,11 +9645,11 @@
       <c r="GV27" s="13"/>
     </row>
     <row r="28" spans="2:204" ht="26.25">
-      <c r="B28" s="167"/>
-      <c r="C28" s="134" t="s">
+      <c r="B28" s="145"/>
+      <c r="C28" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="135"/>
+      <c r="D28" s="140"/>
       <c r="E28" s="136"/>
       <c r="F28" s="23"/>
       <c r="G28" s="26"/>
@@ -9858,11 +9858,11 @@
       <c r="GV28" s="13"/>
     </row>
     <row r="29" spans="2:204" ht="26.25">
-      <c r="B29" s="134" t="s">
+      <c r="B29" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
       <c r="E29" s="136"/>
       <c r="F29" s="23"/>
       <c r="G29" s="26" t="s">
@@ -10069,11 +10069,11 @@
       <c r="GV29" s="13"/>
     </row>
     <row r="30" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B30" s="165"/>
-      <c r="C30" s="134" t="s">
+      <c r="B30" s="143"/>
+      <c r="C30" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="135"/>
+      <c r="D30" s="140"/>
       <c r="E30" s="136"/>
       <c r="F30" s="23"/>
       <c r="G30" s="130" t="s">
@@ -10286,11 +10286,11 @@
       <c r="GV30" s="13"/>
     </row>
     <row r="31" spans="2:204" ht="36.75" customHeight="1">
-      <c r="B31" s="166"/>
-      <c r="C31" s="134" t="s">
+      <c r="B31" s="144"/>
+      <c r="C31" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="135"/>
+      <c r="D31" s="140"/>
       <c r="E31" s="136"/>
       <c r="F31" s="23"/>
       <c r="G31" s="26"/>
@@ -10499,11 +10499,11 @@
       <c r="GV31" s="13"/>
     </row>
     <row r="32" spans="2:204" ht="26.25">
-      <c r="B32" s="166"/>
-      <c r="C32" s="134" t="s">
+      <c r="B32" s="144"/>
+      <c r="C32" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="135"/>
+      <c r="D32" s="140"/>
       <c r="E32" s="136"/>
       <c r="F32" s="23"/>
       <c r="G32" s="26"/>
@@ -10712,11 +10712,11 @@
       <c r="GV32" s="13"/>
     </row>
     <row r="33" spans="2:204" ht="26.25">
-      <c r="B33" s="166"/>
-      <c r="C33" s="134" t="s">
+      <c r="B33" s="144"/>
+      <c r="C33" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="135"/>
+      <c r="D33" s="140"/>
       <c r="E33" s="136"/>
       <c r="F33" s="23"/>
       <c r="G33" s="26"/>
@@ -10925,11 +10925,11 @@
       <c r="GV33" s="13"/>
     </row>
     <row r="34" spans="2:204" ht="26.25">
-      <c r="B34" s="166"/>
-      <c r="C34" s="134" t="s">
+      <c r="B34" s="144"/>
+      <c r="C34" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="135"/>
+      <c r="D34" s="140"/>
       <c r="E34" s="136"/>
       <c r="F34" s="23"/>
       <c r="G34" s="26" t="s">
@@ -11140,11 +11140,11 @@
       <c r="GV34" s="13"/>
     </row>
     <row r="35" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B35" s="167"/>
-      <c r="C35" s="134" t="s">
+      <c r="B35" s="145"/>
+      <c r="C35" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="135"/>
+      <c r="D35" s="140"/>
       <c r="E35" s="136"/>
       <c r="F35" s="23"/>
       <c r="G35" s="26"/>
@@ -11353,11 +11353,11 @@
       <c r="GV35" s="13"/>
     </row>
     <row r="36" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B36" s="134" t="s">
+      <c r="B36" s="135" t="s">
         <v>293</v>
       </c>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="140"/>
       <c r="E36" s="136"/>
       <c r="F36" s="23"/>
       <c r="G36" s="26" t="s">
@@ -11568,11 +11568,11 @@
       <c r="GV36" s="13"/>
     </row>
     <row r="37" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B37" s="189"/>
-      <c r="C37" s="135" t="s">
+      <c r="B37" s="137"/>
+      <c r="C37" s="140" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="135"/>
+      <c r="D37" s="140"/>
       <c r="E37" s="136"/>
       <c r="F37" s="23"/>
       <c r="G37" s="26"/>
@@ -11781,11 +11781,11 @@
       <c r="GV37" s="13"/>
     </row>
     <row r="38" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B38" s="190"/>
-      <c r="C38" s="135" t="s">
+      <c r="B38" s="139"/>
+      <c r="C38" s="140" t="s">
         <v>296</v>
       </c>
-      <c r="D38" s="135"/>
+      <c r="D38" s="140"/>
       <c r="E38" s="136"/>
       <c r="F38" s="23"/>
       <c r="G38" s="26"/>
@@ -11994,12 +11994,12 @@
       <c r="GV38" s="13"/>
     </row>
     <row r="39" spans="2:204" ht="26.25">
-      <c r="B39" s="162" t="s">
+      <c r="B39" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="164"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="147"/>
       <c r="F39" s="23" t="s">
         <v>28</v>
       </c>
@@ -12215,11 +12215,11 @@
       <c r="GV39" s="13"/>
     </row>
     <row r="40" spans="2:204" ht="26.25">
-      <c r="B40" s="134" t="s">
+      <c r="B40" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="135"/>
-      <c r="D40" s="135"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
       <c r="E40" s="136"/>
       <c r="F40" s="64"/>
       <c r="G40" s="26"/>
@@ -12428,11 +12428,11 @@
       <c r="GV40" s="13"/>
     </row>
     <row r="41" spans="2:204" ht="26.25" hidden="1">
-      <c r="B41" s="165"/>
-      <c r="C41" s="134" t="s">
+      <c r="B41" s="143"/>
+      <c r="C41" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="135"/>
+      <c r="D41" s="140"/>
       <c r="E41" s="136"/>
       <c r="F41" s="64"/>
       <c r="G41" s="26"/>
@@ -12643,11 +12643,11 @@
       <c r="GV41" s="13"/>
     </row>
     <row r="42" spans="2:204" ht="26.25" hidden="1">
-      <c r="B42" s="166"/>
-      <c r="C42" s="134" t="s">
+      <c r="B42" s="144"/>
+      <c r="C42" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="135"/>
+      <c r="D42" s="140"/>
       <c r="E42" s="136"/>
       <c r="F42" s="64"/>
       <c r="G42" s="26"/>
@@ -12858,11 +12858,11 @@
       <c r="GV42" s="13"/>
     </row>
     <row r="43" spans="2:204" ht="26.25" hidden="1">
-      <c r="B43" s="166"/>
-      <c r="C43" s="134" t="s">
+      <c r="B43" s="144"/>
+      <c r="C43" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="135"/>
+      <c r="D43" s="140"/>
       <c r="E43" s="136"/>
       <c r="F43" s="64"/>
       <c r="G43" s="26"/>
@@ -13073,11 +13073,11 @@
       <c r="GV43" s="13"/>
     </row>
     <row r="44" spans="2:204" ht="30" hidden="1" customHeight="1">
-      <c r="B44" s="166"/>
-      <c r="C44" s="134" t="s">
+      <c r="B44" s="144"/>
+      <c r="C44" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="135"/>
+      <c r="D44" s="140"/>
       <c r="E44" s="136"/>
       <c r="F44" s="64"/>
       <c r="G44" s="26"/>
@@ -13288,11 +13288,11 @@
       <c r="GV44" s="13"/>
     </row>
     <row r="45" spans="2:204" ht="26.25" hidden="1">
-      <c r="B45" s="166"/>
-      <c r="C45" s="134" t="s">
+      <c r="B45" s="144"/>
+      <c r="C45" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="135"/>
+      <c r="D45" s="140"/>
       <c r="E45" s="136"/>
       <c r="F45" s="64"/>
       <c r="G45" s="26"/>
@@ -13502,20 +13502,20 @@
       <c r="GU45" s="13"/>
       <c r="GV45" s="13"/>
     </row>
-    <row r="46" spans="2:204" ht="37.5" customHeight="1">
-      <c r="B46" s="167"/>
-      <c r="C46" s="134" t="s">
+    <row r="46" spans="2:204" ht="37.5" hidden="1" customHeight="1">
+      <c r="B46" s="145"/>
+      <c r="C46" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="135"/>
+      <c r="D46" s="140"/>
       <c r="E46" s="136"/>
       <c r="F46" s="64"/>
       <c r="G46" s="26"/>
       <c r="H46" s="119" t="s">
         <v>315</v>
       </c>
-      <c r="I46" s="131">
-        <v>44659</v>
+      <c r="I46" s="132" t="s">
+        <v>150</v>
       </c>
       <c r="J46" s="14">
         <v>9</v>
@@ -13719,10 +13719,10 @@
     </row>
     <row r="47" spans="2:204" ht="26.25" hidden="1">
       <c r="B47" s="133"/>
-      <c r="C47" s="134" t="s">
+      <c r="C47" s="135" t="s">
         <v>322</v>
       </c>
-      <c r="D47" s="135"/>
+      <c r="D47" s="140"/>
       <c r="E47" s="136"/>
       <c r="F47" s="64"/>
       <c r="G47" s="26"/>
@@ -13934,10 +13934,10 @@
     </row>
     <row r="48" spans="2:204" ht="26.25" hidden="1">
       <c r="B48" s="133"/>
-      <c r="C48" s="134" t="s">
+      <c r="C48" s="135" t="s">
         <v>323</v>
       </c>
-      <c r="D48" s="135"/>
+      <c r="D48" s="140"/>
       <c r="E48" s="136"/>
       <c r="F48" s="64"/>
       <c r="G48" s="26"/>
@@ -14148,11 +14148,11 @@
       <c r="GV48" s="13"/>
     </row>
     <row r="49" spans="2:204" ht="26.25">
-      <c r="B49" s="134" t="s">
+      <c r="B49" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="135"/>
-      <c r="D49" s="135"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="140"/>
       <c r="E49" s="136"/>
       <c r="F49" s="64"/>
       <c r="G49" s="26"/>
@@ -14362,10 +14362,10 @@
     </row>
     <row r="50" spans="2:204" ht="39" customHeight="1">
       <c r="B50" s="65"/>
-      <c r="C50" s="134" t="s">
+      <c r="C50" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="135"/>
+      <c r="D50" s="140"/>
       <c r="E50" s="136"/>
       <c r="F50" s="64"/>
       <c r="G50" s="26"/>
@@ -14574,11 +14574,11 @@
       <c r="GV50" s="13"/>
     </row>
     <row r="51" spans="2:204" ht="26.25">
-      <c r="B51" s="134" t="s">
+      <c r="B51" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="135"/>
-      <c r="D51" s="135"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
       <c r="E51" s="136"/>
       <c r="F51" s="64"/>
       <c r="G51" s="26"/>
@@ -14787,11 +14787,11 @@
       <c r="GV51" s="13"/>
     </row>
     <row r="52" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B52" s="189"/>
-      <c r="C52" s="134" t="s">
+      <c r="B52" s="137"/>
+      <c r="C52" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="135"/>
+      <c r="D52" s="140"/>
       <c r="E52" s="136"/>
       <c r="F52" s="64"/>
       <c r="G52" s="26"/>
@@ -15000,11 +15000,11 @@
       <c r="GV52" s="13"/>
     </row>
     <row r="53" spans="2:204" ht="26.25">
-      <c r="B53" s="192"/>
-      <c r="C53" s="134" t="s">
+      <c r="B53" s="138"/>
+      <c r="C53" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="D53" s="135"/>
+      <c r="D53" s="140"/>
       <c r="E53" s="136"/>
       <c r="F53" s="64"/>
       <c r="G53" s="26"/>
@@ -15213,11 +15213,11 @@
       <c r="GV53" s="13"/>
     </row>
     <row r="54" spans="2:204" ht="26.25">
-      <c r="B54" s="192"/>
-      <c r="C54" s="134" t="s">
+      <c r="B54" s="138"/>
+      <c r="C54" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="135"/>
+      <c r="D54" s="140"/>
       <c r="E54" s="136"/>
       <c r="F54" s="64"/>
       <c r="G54" s="26"/>
@@ -15426,11 +15426,11 @@
       <c r="GV54" s="13"/>
     </row>
     <row r="55" spans="2:204" ht="32.25" customHeight="1">
-      <c r="B55" s="192"/>
-      <c r="C55" s="134" t="s">
+      <c r="B55" s="138"/>
+      <c r="C55" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="135"/>
+      <c r="D55" s="140"/>
       <c r="E55" s="136"/>
       <c r="F55" s="64"/>
       <c r="G55" s="26"/>
@@ -15639,11 +15639,11 @@
       <c r="GV55" s="13"/>
     </row>
     <row r="56" spans="2:204" ht="43.5" customHeight="1">
-      <c r="B56" s="192"/>
-      <c r="C56" s="134" t="s">
+      <c r="B56" s="138"/>
+      <c r="C56" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="135"/>
+      <c r="D56" s="140"/>
       <c r="E56" s="136"/>
       <c r="F56" s="64"/>
       <c r="G56" s="26"/>
@@ -15852,11 +15852,11 @@
       <c r="GV56" s="13"/>
     </row>
     <row r="57" spans="2:204" ht="43.5" customHeight="1">
-      <c r="B57" s="192"/>
-      <c r="C57" s="134" t="s">
+      <c r="B57" s="138"/>
+      <c r="C57" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="135"/>
+      <c r="D57" s="140"/>
       <c r="E57" s="136"/>
       <c r="F57" s="64"/>
       <c r="G57" s="26"/>
@@ -16065,11 +16065,11 @@
       <c r="GV57" s="13"/>
     </row>
     <row r="58" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B58" s="192"/>
-      <c r="C58" s="134" t="s">
+      <c r="B58" s="138"/>
+      <c r="C58" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="135"/>
+      <c r="D58" s="140"/>
       <c r="E58" s="136"/>
       <c r="F58" s="64"/>
       <c r="G58" s="26"/>
@@ -16278,11 +16278,11 @@
       <c r="GV58" s="13"/>
     </row>
     <row r="59" spans="2:204" ht="26.25">
-      <c r="B59" s="192"/>
-      <c r="C59" s="134" t="s">
+      <c r="B59" s="138"/>
+      <c r="C59" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="135"/>
+      <c r="D59" s="140"/>
       <c r="E59" s="136"/>
       <c r="F59" s="64"/>
       <c r="G59" s="26"/>
@@ -16491,12 +16491,12 @@
       <c r="GV59" s="13"/>
     </row>
     <row r="60" spans="2:204" ht="26.25">
-      <c r="B60" s="192"/>
-      <c r="C60" s="189"/>
-      <c r="D60" s="187" t="s">
+      <c r="B60" s="138"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="141" t="s">
         <v>100</v>
       </c>
-      <c r="E60" s="188"/>
+      <c r="E60" s="142"/>
       <c r="F60" s="64"/>
       <c r="G60" s="26"/>
       <c r="H60" s="119" t="s">
@@ -16704,12 +16704,12 @@
       <c r="GV60" s="13"/>
     </row>
     <row r="61" spans="2:204" ht="26.25">
-      <c r="B61" s="192"/>
-      <c r="C61" s="192"/>
-      <c r="D61" s="187" t="s">
+      <c r="B61" s="138"/>
+      <c r="C61" s="138"/>
+      <c r="D61" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="E61" s="188"/>
+      <c r="E61" s="142"/>
       <c r="F61" s="64"/>
       <c r="G61" s="26"/>
       <c r="H61" s="119" t="s">
@@ -16917,9 +16917,9 @@
       <c r="GV61" s="13"/>
     </row>
     <row r="62" spans="2:204" ht="36" customHeight="1">
-      <c r="B62" s="192"/>
-      <c r="C62" s="192"/>
-      <c r="D62" s="189"/>
+      <c r="B62" s="138"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="137"/>
       <c r="E62" s="65" t="s">
         <v>105</v>
       </c>
@@ -17130,9 +17130,9 @@
       <c r="GV62" s="13"/>
     </row>
     <row r="63" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B63" s="192"/>
-      <c r="C63" s="192"/>
-      <c r="D63" s="192"/>
+      <c r="B63" s="138"/>
+      <c r="C63" s="138"/>
+      <c r="D63" s="138"/>
       <c r="E63" s="65" t="s">
         <v>106</v>
       </c>
@@ -17343,9 +17343,9 @@
       <c r="GV63" s="13"/>
     </row>
     <row r="64" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B64" s="192"/>
-      <c r="C64" s="192"/>
-      <c r="D64" s="192"/>
+      <c r="B64" s="138"/>
+      <c r="C64" s="138"/>
+      <c r="D64" s="138"/>
       <c r="E64" s="65" t="s">
         <v>108</v>
       </c>
@@ -17556,9 +17556,9 @@
       <c r="GV64" s="13"/>
     </row>
     <row r="65" spans="1:204" ht="33.75" customHeight="1">
-      <c r="B65" s="192"/>
-      <c r="C65" s="192"/>
-      <c r="D65" s="192"/>
+      <c r="B65" s="138"/>
+      <c r="C65" s="138"/>
+      <c r="D65" s="138"/>
       <c r="E65" s="65" t="s">
         <v>112</v>
       </c>
@@ -17769,9 +17769,9 @@
       <c r="GV65" s="13"/>
     </row>
     <row r="66" spans="1:204" ht="26.25">
-      <c r="B66" s="192"/>
-      <c r="C66" s="192"/>
-      <c r="D66" s="192"/>
+      <c r="B66" s="138"/>
+      <c r="C66" s="138"/>
+      <c r="D66" s="138"/>
       <c r="E66" s="65" t="s">
         <v>107</v>
       </c>
@@ -17982,9 +17982,9 @@
       <c r="GV66" s="13"/>
     </row>
     <row r="67" spans="1:204" ht="26.25">
-      <c r="B67" s="192"/>
-      <c r="C67" s="192"/>
-      <c r="D67" s="192"/>
+      <c r="B67" s="138"/>
+      <c r="C67" s="138"/>
+      <c r="D67" s="138"/>
       <c r="E67" s="65" t="s">
         <v>109</v>
       </c>
@@ -18195,9 +18195,9 @@
       <c r="GV67" s="13"/>
     </row>
     <row r="68" spans="1:204" ht="26.25">
-      <c r="B68" s="192"/>
-      <c r="C68" s="192"/>
-      <c r="D68" s="192"/>
+      <c r="B68" s="138"/>
+      <c r="C68" s="138"/>
+      <c r="D68" s="138"/>
       <c r="E68" s="65" t="s">
         <v>110</v>
       </c>
@@ -18408,9 +18408,9 @@
       <c r="GV68" s="13"/>
     </row>
     <row r="69" spans="1:204" ht="37.5" customHeight="1">
-      <c r="B69" s="192"/>
-      <c r="C69" s="192"/>
-      <c r="D69" s="190"/>
+      <c r="B69" s="138"/>
+      <c r="C69" s="138"/>
+      <c r="D69" s="139"/>
       <c r="E69" s="65" t="s">
         <v>111</v>
       </c>
@@ -18621,9 +18621,9 @@
       <c r="GV69" s="13"/>
     </row>
     <row r="70" spans="1:204" ht="33" customHeight="1">
-      <c r="B70" s="192"/>
-      <c r="C70" s="192"/>
-      <c r="D70" s="134" t="s">
+      <c r="B70" s="138"/>
+      <c r="C70" s="138"/>
+      <c r="D70" s="135" t="s">
         <v>101</v>
       </c>
       <c r="E70" s="136"/>
@@ -18834,9 +18834,9 @@
       <c r="GV70" s="13"/>
     </row>
     <row r="71" spans="1:204" ht="26.25">
-      <c r="B71" s="192"/>
-      <c r="C71" s="192"/>
-      <c r="D71" s="134" t="s">
+      <c r="B71" s="138"/>
+      <c r="C71" s="138"/>
+      <c r="D71" s="135" t="s">
         <v>103</v>
       </c>
       <c r="E71" s="136"/>
@@ -19047,9 +19047,9 @@
       <c r="GV71" s="13"/>
     </row>
     <row r="72" spans="1:204" ht="34.5" customHeight="1">
-      <c r="B72" s="190"/>
-      <c r="C72" s="190"/>
-      <c r="D72" s="134" t="s">
+      <c r="B72" s="139"/>
+      <c r="C72" s="139"/>
+      <c r="D72" s="135" t="s">
         <v>104</v>
       </c>
       <c r="E72" s="136"/>
@@ -19260,12 +19260,12 @@
       <c r="GV72" s="13"/>
     </row>
     <row r="73" spans="1:204" ht="26.25">
-      <c r="B73" s="162" t="s">
+      <c r="B73" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="C73" s="163"/>
-      <c r="D73" s="163"/>
-      <c r="E73" s="164"/>
+      <c r="C73" s="146"/>
+      <c r="D73" s="146"/>
+      <c r="E73" s="147"/>
       <c r="F73" s="23" t="s">
         <v>27</v>
       </c>
@@ -19483,10 +19483,10 @@
     <row r="74" spans="1:204" ht="45" customHeight="1">
       <c r="B74" s="97"/>
       <c r="C74" s="98"/>
-      <c r="D74" s="191" t="s">
+      <c r="D74" s="153" t="s">
         <v>312</v>
       </c>
-      <c r="E74" s="191"/>
+      <c r="E74" s="153"/>
       <c r="F74" s="114"/>
       <c r="G74" s="26"/>
       <c r="H74" s="119" t="s">
@@ -19696,10 +19696,10 @@
     <row r="75" spans="1:204" ht="47.25" customHeight="1">
       <c r="B75" s="97"/>
       <c r="C75" s="98"/>
-      <c r="D75" s="191" t="s">
+      <c r="D75" s="153" t="s">
         <v>313</v>
       </c>
-      <c r="E75" s="191"/>
+      <c r="E75" s="153"/>
       <c r="F75" s="64"/>
       <c r="G75" s="26"/>
       <c r="H75" s="119" t="s">
@@ -19909,10 +19909,10 @@
     <row r="76" spans="1:204" ht="26.25">
       <c r="B76" s="97"/>
       <c r="C76" s="98"/>
-      <c r="D76" s="191" t="s">
+      <c r="D76" s="153" t="s">
         <v>314</v>
       </c>
-      <c r="E76" s="191"/>
+      <c r="E76" s="153"/>
       <c r="F76" s="64"/>
       <c r="G76" s="26"/>
       <c r="H76" s="119" t="s">
@@ -20123,12 +20123,12 @@
       <c r="A77" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="160" t="s">
+      <c r="B77" s="152" t="s">
         <v>320</v>
       </c>
-      <c r="C77" s="161"/>
-      <c r="D77" s="161"/>
-      <c r="E77" s="161"/>
+      <c r="C77" s="150"/>
+      <c r="D77" s="150"/>
+      <c r="E77" s="150"/>
       <c r="F77" s="27"/>
       <c r="G77" s="7"/>
       <c r="H77" s="8"/>
@@ -20330,12 +20330,12 @@
       <c r="GV77" s="13"/>
     </row>
     <row r="78" spans="1:204" ht="26.25">
-      <c r="B78" s="162" t="s">
+      <c r="B78" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="163"/>
-      <c r="D78" s="163"/>
-      <c r="E78" s="164"/>
+      <c r="C78" s="146"/>
+      <c r="D78" s="146"/>
+      <c r="E78" s="147"/>
       <c r="F78" s="23" t="s">
         <v>31</v>
       </c>
@@ -20552,11 +20552,11 @@
     </row>
     <row r="79" spans="1:204" ht="44.25" customHeight="1">
       <c r="B79" s="97"/>
-      <c r="C79" s="163" t="s">
+      <c r="C79" s="146" t="s">
         <v>298</v>
       </c>
-      <c r="D79" s="163"/>
-      <c r="E79" s="164"/>
+      <c r="D79" s="146"/>
+      <c r="E79" s="147"/>
       <c r="F79" s="23"/>
       <c r="G79" s="26"/>
       <c r="H79" s="14" t="s">
@@ -20765,11 +20765,11 @@
     </row>
     <row r="80" spans="1:204" ht="60.75" customHeight="1">
       <c r="B80" s="97"/>
-      <c r="C80" s="163" t="s">
+      <c r="C80" s="146" t="s">
         <v>304</v>
       </c>
-      <c r="D80" s="163"/>
-      <c r="E80" s="164"/>
+      <c r="D80" s="146"/>
+      <c r="E80" s="147"/>
       <c r="F80" s="23"/>
       <c r="G80" s="26"/>
       <c r="H80" s="14" t="s">
@@ -20978,11 +20978,11 @@
     </row>
     <row r="81" spans="1:204" ht="26.25">
       <c r="B81" s="97"/>
-      <c r="C81" s="163" t="s">
+      <c r="C81" s="146" t="s">
         <v>283</v>
       </c>
-      <c r="D81" s="163"/>
-      <c r="E81" s="164"/>
+      <c r="D81" s="146"/>
+      <c r="E81" s="147"/>
       <c r="F81" s="23"/>
       <c r="G81" s="26"/>
       <c r="H81" s="14" t="s">
@@ -21191,11 +21191,11 @@
     </row>
     <row r="82" spans="1:204" ht="26.25">
       <c r="B82" s="97"/>
-      <c r="C82" s="163" t="s">
+      <c r="C82" s="146" t="s">
         <v>284</v>
       </c>
-      <c r="D82" s="163"/>
-      <c r="E82" s="164"/>
+      <c r="D82" s="146"/>
+      <c r="E82" s="147"/>
       <c r="F82" s="23"/>
       <c r="G82" s="26"/>
       <c r="H82" s="14" t="s">
@@ -21403,12 +21403,12 @@
       <c r="GV82" s="13"/>
     </row>
     <row r="83" spans="1:204" ht="26.25">
-      <c r="B83" s="162" t="s">
+      <c r="B83" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="163"/>
-      <c r="D83" s="163"/>
-      <c r="E83" s="164"/>
+      <c r="C83" s="146"/>
+      <c r="D83" s="146"/>
+      <c r="E83" s="147"/>
       <c r="F83" s="23" t="s">
         <v>28</v>
       </c>
@@ -21625,11 +21625,11 @@
     </row>
     <row r="84" spans="1:204" ht="48.75" customHeight="1">
       <c r="B84" s="97"/>
-      <c r="C84" s="163" t="s">
+      <c r="C84" s="146" t="s">
         <v>285</v>
       </c>
-      <c r="D84" s="163"/>
-      <c r="E84" s="164"/>
+      <c r="D84" s="146"/>
+      <c r="E84" s="147"/>
       <c r="F84" s="23"/>
       <c r="G84" s="26"/>
       <c r="H84" s="119" t="s">
@@ -21838,11 +21838,11 @@
     </row>
     <row r="85" spans="1:204" ht="26.25">
       <c r="B85" s="97"/>
-      <c r="C85" s="163" t="s">
+      <c r="C85" s="146" t="s">
         <v>286</v>
       </c>
-      <c r="D85" s="163"/>
-      <c r="E85" s="164"/>
+      <c r="D85" s="146"/>
+      <c r="E85" s="147"/>
       <c r="F85" s="23"/>
       <c r="G85" s="26"/>
       <c r="H85" s="119" t="s">
@@ -22050,12 +22050,12 @@
       <c r="GV85" s="13"/>
     </row>
     <row r="86" spans="1:204" ht="26.25">
-      <c r="B86" s="162" t="s">
+      <c r="B86" s="148" t="s">
         <v>280</v>
       </c>
-      <c r="C86" s="163"/>
-      <c r="D86" s="163"/>
-      <c r="E86" s="164"/>
+      <c r="C86" s="146"/>
+      <c r="D86" s="146"/>
+      <c r="E86" s="147"/>
       <c r="F86" s="47" t="s">
         <v>39</v>
       </c>
@@ -22271,12 +22271,12 @@
       <c r="GV86" s="13"/>
     </row>
     <row r="87" spans="1:204" ht="26.25">
-      <c r="B87" s="162" t="s">
+      <c r="B87" s="148" t="s">
         <v>281</v>
       </c>
-      <c r="C87" s="163"/>
-      <c r="D87" s="163"/>
-      <c r="E87" s="164"/>
+      <c r="C87" s="146"/>
+      <c r="D87" s="146"/>
+      <c r="E87" s="147"/>
       <c r="F87" s="23" t="s">
         <v>42</v>
       </c>
@@ -22492,12 +22492,12 @@
       <c r="GV87" s="13"/>
     </row>
     <row r="88" spans="1:204" ht="26.25">
-      <c r="B88" s="178"/>
-      <c r="C88" s="179"/>
-      <c r="D88" s="176" t="s">
+      <c r="B88" s="162"/>
+      <c r="C88" s="163"/>
+      <c r="D88" s="160" t="s">
         <v>291</v>
       </c>
-      <c r="E88" s="164"/>
+      <c r="E88" s="147"/>
       <c r="F88" s="23"/>
       <c r="G88" s="26"/>
       <c r="H88" s="122" t="s">
@@ -22705,8 +22705,8 @@
       <c r="GV88" s="13"/>
     </row>
     <row r="89" spans="1:204" ht="30" customHeight="1">
-      <c r="B89" s="180"/>
-      <c r="C89" s="181"/>
+      <c r="B89" s="164"/>
+      <c r="C89" s="165"/>
       <c r="D89" s="123"/>
       <c r="E89" s="99" t="s">
         <v>292</v>
@@ -22918,12 +22918,12 @@
       <c r="GV89" s="13"/>
     </row>
     <row r="90" spans="1:204" ht="26.25">
-      <c r="B90" s="180"/>
-      <c r="C90" s="182"/>
-      <c r="D90" s="177" t="s">
+      <c r="B90" s="164"/>
+      <c r="C90" s="166"/>
+      <c r="D90" s="161" t="s">
         <v>290</v>
       </c>
-      <c r="E90" s="164"/>
+      <c r="E90" s="147"/>
       <c r="F90" s="23"/>
       <c r="G90" s="26"/>
       <c r="H90" s="14"/>
@@ -23129,9 +23129,9 @@
       <c r="GV90" s="13"/>
     </row>
     <row r="91" spans="1:204" ht="49.5" customHeight="1">
-      <c r="B91" s="180"/>
-      <c r="C91" s="181"/>
-      <c r="D91" s="185"/>
+      <c r="B91" s="164"/>
+      <c r="C91" s="165"/>
+      <c r="D91" s="169"/>
       <c r="E91" s="99" t="s">
         <v>288</v>
       </c>
@@ -23342,9 +23342,9 @@
       <c r="GV91" s="13"/>
     </row>
     <row r="92" spans="1:204" ht="28.5" customHeight="1">
-      <c r="B92" s="183"/>
-      <c r="C92" s="184"/>
-      <c r="D92" s="186"/>
+      <c r="B92" s="167"/>
+      <c r="C92" s="168"/>
+      <c r="D92" s="170"/>
       <c r="E92" s="99" t="s">
         <v>289</v>
       </c>
@@ -23555,12 +23555,12 @@
       <c r="GV92" s="13"/>
     </row>
     <row r="93" spans="1:204" ht="26.25">
-      <c r="B93" s="162" t="s">
+      <c r="B93" s="148" t="s">
         <v>282</v>
       </c>
-      <c r="C93" s="163"/>
-      <c r="D93" s="173"/>
-      <c r="E93" s="164"/>
+      <c r="C93" s="146"/>
+      <c r="D93" s="157"/>
+      <c r="E93" s="147"/>
       <c r="F93" s="23" t="s">
         <v>29</v>
       </c>
@@ -23778,10 +23778,10 @@
     <row r="94" spans="1:204" ht="47.25" customHeight="1">
       <c r="B94" s="97"/>
       <c r="C94" s="98"/>
-      <c r="D94" s="163" t="s">
+      <c r="D94" s="146" t="s">
         <v>316</v>
       </c>
-      <c r="E94" s="164"/>
+      <c r="E94" s="147"/>
       <c r="F94" s="114"/>
       <c r="G94" s="46"/>
       <c r="H94" s="115" t="s">
@@ -23991,10 +23991,10 @@
     <row r="95" spans="1:204" ht="27" customHeight="1">
       <c r="B95" s="97"/>
       <c r="C95" s="98"/>
-      <c r="D95" s="163" t="s">
+      <c r="D95" s="146" t="s">
         <v>317</v>
       </c>
-      <c r="E95" s="164"/>
+      <c r="E95" s="147"/>
       <c r="F95" s="114"/>
       <c r="G95" s="46"/>
       <c r="H95" s="115" t="s">
@@ -24205,12 +24205,12 @@
       <c r="A96" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B96" s="174" t="s">
+      <c r="B96" s="158" t="s">
         <v>319</v>
       </c>
-      <c r="C96" s="175"/>
-      <c r="D96" s="175"/>
-      <c r="E96" s="175"/>
+      <c r="C96" s="159"/>
+      <c r="D96" s="159"/>
+      <c r="E96" s="159"/>
       <c r="F96" s="27"/>
       <c r="G96" s="7"/>
       <c r="H96" s="8"/>
@@ -24416,12 +24416,12 @@
       <c r="GV96" s="13"/>
     </row>
     <row r="97" spans="2:204" ht="26.25">
-      <c r="B97" s="162" t="s">
+      <c r="B97" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="C97" s="163"/>
-      <c r="D97" s="163"/>
-      <c r="E97" s="164"/>
+      <c r="C97" s="146"/>
+      <c r="D97" s="146"/>
+      <c r="E97" s="147"/>
       <c r="F97" s="23" t="s">
         <v>31</v>
       </c>
@@ -24638,11 +24638,11 @@
     </row>
     <row r="98" spans="2:204" ht="48" customHeight="1">
       <c r="B98" s="97"/>
-      <c r="C98" s="163" t="s">
+      <c r="C98" s="146" t="s">
         <v>303</v>
       </c>
-      <c r="D98" s="163"/>
-      <c r="E98" s="164"/>
+      <c r="D98" s="146"/>
+      <c r="E98" s="147"/>
       <c r="F98" s="23"/>
       <c r="G98" s="16"/>
       <c r="H98" s="119" t="s">
@@ -24851,11 +24851,11 @@
     </row>
     <row r="99" spans="2:204" ht="26.25">
       <c r="B99" s="97"/>
-      <c r="C99" s="163" t="s">
+      <c r="C99" s="146" t="s">
         <v>305</v>
       </c>
-      <c r="D99" s="163"/>
-      <c r="E99" s="164"/>
+      <c r="D99" s="146"/>
+      <c r="E99" s="147"/>
       <c r="F99" s="23"/>
       <c r="G99" s="16"/>
       <c r="H99" s="119" t="s">
@@ -25064,11 +25064,11 @@
     </row>
     <row r="100" spans="2:204" ht="26.25">
       <c r="B100" s="97"/>
-      <c r="C100" s="163" t="s">
+      <c r="C100" s="146" t="s">
         <v>306</v>
       </c>
-      <c r="D100" s="163"/>
-      <c r="E100" s="164"/>
+      <c r="D100" s="146"/>
+      <c r="E100" s="147"/>
       <c r="F100" s="23"/>
       <c r="G100" s="16"/>
       <c r="H100" s="119" t="s">
@@ -25277,11 +25277,11 @@
     </row>
     <row r="101" spans="2:204" ht="26.25">
       <c r="B101" s="97"/>
-      <c r="C101" s="163" t="s">
+      <c r="C101" s="146" t="s">
         <v>283</v>
       </c>
-      <c r="D101" s="163"/>
-      <c r="E101" s="164"/>
+      <c r="D101" s="146"/>
+      <c r="E101" s="147"/>
       <c r="F101" s="23"/>
       <c r="G101" s="16"/>
       <c r="H101" s="119" t="s">
@@ -25490,11 +25490,11 @@
     </row>
     <row r="102" spans="2:204" ht="26.25">
       <c r="B102" s="97"/>
-      <c r="C102" s="163" t="s">
+      <c r="C102" s="146" t="s">
         <v>318</v>
       </c>
-      <c r="D102" s="163"/>
-      <c r="E102" s="164"/>
+      <c r="D102" s="146"/>
+      <c r="E102" s="147"/>
       <c r="F102" s="23"/>
       <c r="G102" s="26"/>
       <c r="H102" s="14" t="s">
@@ -25702,12 +25702,12 @@
       <c r="GV102" s="13"/>
     </row>
     <row r="103" spans="2:204" ht="26.25">
-      <c r="B103" s="162" t="s">
+      <c r="B103" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="C103" s="163"/>
-      <c r="D103" s="163"/>
-      <c r="E103" s="164"/>
+      <c r="C103" s="146"/>
+      <c r="D103" s="146"/>
+      <c r="E103" s="147"/>
       <c r="F103" s="23" t="s">
         <v>28</v>
       </c>
@@ -25922,11 +25922,11 @@
     </row>
     <row r="104" spans="2:204" ht="48.75" customHeight="1">
       <c r="B104" s="97"/>
-      <c r="C104" s="163" t="s">
+      <c r="C104" s="146" t="s">
         <v>285</v>
       </c>
-      <c r="D104" s="163"/>
-      <c r="E104" s="164"/>
+      <c r="D104" s="146"/>
+      <c r="E104" s="147"/>
       <c r="F104" s="23"/>
       <c r="G104" s="26"/>
       <c r="H104" s="119" t="s">
@@ -26135,11 +26135,11 @@
     </row>
     <row r="105" spans="2:204" ht="26.25">
       <c r="B105" s="97"/>
-      <c r="C105" s="163" t="s">
+      <c r="C105" s="146" t="s">
         <v>311</v>
       </c>
-      <c r="D105" s="163"/>
-      <c r="E105" s="164"/>
+      <c r="D105" s="146"/>
+      <c r="E105" s="147"/>
       <c r="F105" s="23"/>
       <c r="G105" s="26"/>
       <c r="H105" s="119" t="s">
@@ -26347,12 +26347,12 @@
       <c r="GV105" s="13"/>
     </row>
     <row r="106" spans="2:204" ht="26.25">
-      <c r="B106" s="162" t="s">
+      <c r="B106" s="148" t="s">
         <v>299</v>
       </c>
-      <c r="C106" s="163"/>
-      <c r="D106" s="163"/>
-      <c r="E106" s="164"/>
+      <c r="C106" s="146"/>
+      <c r="D106" s="146"/>
+      <c r="E106" s="147"/>
       <c r="F106" s="47" t="s">
         <v>39</v>
       </c>
@@ -26566,12 +26566,12 @@
       <c r="GV106" s="13"/>
     </row>
     <row r="107" spans="2:204" ht="32.25">
-      <c r="B107" s="162" t="s">
+      <c r="B107" s="148" t="s">
         <v>300</v>
       </c>
-      <c r="C107" s="163"/>
-      <c r="D107" s="163"/>
-      <c r="E107" s="164"/>
+      <c r="C107" s="146"/>
+      <c r="D107" s="146"/>
+      <c r="E107" s="147"/>
       <c r="F107" s="23" t="s">
         <v>29</v>
       </c>
@@ -26788,11 +26788,11 @@
     </row>
     <row r="108" spans="2:204" ht="26.25">
       <c r="B108" s="97"/>
-      <c r="C108" s="163" t="s">
+      <c r="C108" s="146" t="s">
         <v>307</v>
       </c>
-      <c r="D108" s="163"/>
-      <c r="E108" s="164"/>
+      <c r="D108" s="146"/>
+      <c r="E108" s="147"/>
       <c r="F108" s="23"/>
       <c r="G108" s="46"/>
       <c r="H108" s="14" t="s">
@@ -27001,11 +27001,11 @@
     </row>
     <row r="109" spans="2:204" ht="26.25">
       <c r="B109" s="97"/>
-      <c r="C109" s="163" t="s">
+      <c r="C109" s="146" t="s">
         <v>308</v>
       </c>
-      <c r="D109" s="163"/>
-      <c r="E109" s="164"/>
+      <c r="D109" s="146"/>
+      <c r="E109" s="147"/>
       <c r="F109" s="23"/>
       <c r="G109" s="46"/>
       <c r="H109" s="14" t="s">
@@ -27214,11 +27214,11 @@
     </row>
     <row r="110" spans="2:204" ht="26.25">
       <c r="B110" s="97"/>
-      <c r="C110" s="163" t="s">
+      <c r="C110" s="146" t="s">
         <v>309</v>
       </c>
-      <c r="D110" s="163"/>
-      <c r="E110" s="164"/>
+      <c r="D110" s="146"/>
+      <c r="E110" s="147"/>
       <c r="F110" s="23"/>
       <c r="G110" s="46"/>
       <c r="H110" s="14" t="s">
@@ -27427,11 +27427,11 @@
     </row>
     <row r="111" spans="2:204" ht="26.25">
       <c r="B111" s="97"/>
-      <c r="C111" s="163" t="s">
+      <c r="C111" s="146" t="s">
         <v>310</v>
       </c>
-      <c r="D111" s="163"/>
-      <c r="E111" s="164"/>
+      <c r="D111" s="146"/>
+      <c r="E111" s="147"/>
       <c r="F111" s="23"/>
       <c r="G111" s="46"/>
       <c r="H111" s="14" t="s">
@@ -27639,12 +27639,12 @@
       <c r="GV111" s="13"/>
     </row>
     <row r="112" spans="2:204" ht="26.25">
-      <c r="B112" s="168" t="s">
+      <c r="B112" s="149" t="s">
         <v>301</v>
       </c>
-      <c r="C112" s="161"/>
-      <c r="D112" s="161"/>
-      <c r="E112" s="169"/>
+      <c r="C112" s="150"/>
+      <c r="D112" s="150"/>
+      <c r="E112" s="151"/>
       <c r="F112" s="24"/>
       <c r="G112" s="17"/>
       <c r="H112" s="18" t="s">
@@ -27856,12 +27856,12 @@
       <c r="GV112" s="13"/>
     </row>
     <row r="113" spans="2:204" ht="32.25">
-      <c r="B113" s="168" t="s">
+      <c r="B113" s="149" t="s">
         <v>302</v>
       </c>
-      <c r="C113" s="161"/>
-      <c r="D113" s="161"/>
-      <c r="E113" s="169"/>
+      <c r="C113" s="150"/>
+      <c r="D113" s="150"/>
+      <c r="E113" s="151"/>
       <c r="F113" s="24"/>
       <c r="G113" s="17"/>
       <c r="H113" s="18" t="s">
@@ -28073,10 +28073,10 @@
       <c r="GV113" s="13"/>
     </row>
     <row r="114" spans="2:204" ht="30" customHeight="1">
-      <c r="B114" s="170"/>
-      <c r="C114" s="171"/>
-      <c r="D114" s="171"/>
-      <c r="E114" s="172"/>
+      <c r="B114" s="154"/>
+      <c r="C114" s="155"/>
+      <c r="D114" s="155"/>
+      <c r="E114" s="156"/>
       <c r="F114" s="25"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
@@ -28287,43 +28287,55 @@
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="125">
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="B52:B72"/>
-    <mergeCell ref="C60:C72"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="B88:C92"/>
+    <mergeCell ref="D91:D92"/>
     <mergeCell ref="C98:E98"/>
     <mergeCell ref="C99:E99"/>
     <mergeCell ref="C100:E100"/>
@@ -28348,6 +28360,25 @@
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="B19:B22"/>
@@ -28355,23 +28386,6 @@
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="B88:C92"/>
-    <mergeCell ref="D91:D92"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B29:E29"/>
@@ -28380,38 +28394,24 @@
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B52:B72"/>
+    <mergeCell ref="C60:C72"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C47:E47"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="AA106:GV113 S9:GV31 S32:X32 Z32:AB32 AD32:GV32 S33:GV105">

--- a/220329 HTK UV LED Controller Project sheet.xlsx
+++ b/220329 HTK UV LED Controller Project sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f734f300cb83d8b/HTK DAIAN/MORITEX/UV LED CONTROLLER/HTK LED UV Project Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="334" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC2D90BF-7A3B-48CC-91E2-CD4670D2E8DC}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4532301-08E0-4D91-8040-CA5C8F4CFE15}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2283,37 +2283,31 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2322,22 +2316,70 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2391,74 +2433,32 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -3692,10 +3692,10 @@
   <dimension ref="A1:GV114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AE55" sqref="AE55"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
@@ -3750,45 +3750,45 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="5"/>
-      <c r="V1" s="175" t="s">
+      <c r="V1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="154"/>
       <c r="AB1" s="52">
         <v>1</v>
       </c>
       <c r="AD1" s="51"/>
-      <c r="AE1" s="171" t="s">
+      <c r="AE1" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="172"/>
-      <c r="AH1" s="172"/>
-      <c r="AI1" s="173"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="150"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
       <c r="AJ1" s="54"/>
-      <c r="AK1" s="171" t="s">
+      <c r="AK1" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="174"/>
-      <c r="AM1" s="174"/>
-      <c r="AN1" s="173"/>
+      <c r="AL1" s="152"/>
+      <c r="AM1" s="152"/>
+      <c r="AN1" s="151"/>
       <c r="AO1" s="55"/>
-      <c r="AP1" s="175" t="s">
+      <c r="AP1" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="176"/>
-      <c r="AS1" s="177"/>
+      <c r="AQ1" s="154"/>
+      <c r="AR1" s="154"/>
+      <c r="AS1" s="155"/>
       <c r="AT1" s="56"/>
-      <c r="AU1" s="175" t="s">
+      <c r="AU1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" s="176"/>
-      <c r="AW1" s="176"/>
+      <c r="AV1" s="154"/>
+      <c r="AW1" s="154"/>
     </row>
     <row r="2" spans="1:204" ht="53.25" customHeight="1">
       <c r="A2" s="36" t="s">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="I2" s="40">
         <f ca="1">TODAY()</f>
-        <v>44662</v>
+        <v>44664</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4236,47 +4236,47 @@
       <c r="GV5" s="76"/>
     </row>
     <row r="6" spans="1:204" s="6" customFormat="1" ht="44.25" customHeight="1">
-      <c r="B6" s="188" t="s">
+      <c r="B6" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="180" t="s">
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="184" t="s">
+      <c r="G6" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="178" t="s">
+      <c r="H6" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="178" t="s">
+      <c r="I6" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="186" t="s">
+      <c r="J6" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="178" t="s">
+      <c r="K6" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="178" t="s">
+      <c r="L6" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="178" t="s">
+      <c r="M6" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="178" t="s">
+      <c r="N6" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="178" t="s">
+      <c r="O6" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="182" t="s">
+      <c r="P6" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="182" t="s">
+      <c r="Q6" s="160"/>
+      <c r="R6" s="160" t="s">
         <v>25</v>
       </c>
       <c r="S6" s="93"/>
@@ -4473,23 +4473,23 @@
       <c r="GV6" s="103"/>
     </row>
     <row r="7" spans="1:204" ht="15.75" customHeight="1">
-      <c r="B7" s="191"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="157"/>
+      <c r="N7" s="157"/>
+      <c r="O7" s="157"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="161"/>
       <c r="S7" s="28">
         <v>1</v>
       </c>
@@ -5568,12 +5568,12 @@
       <c r="A9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="141" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="59"/>
       <c r="G9" s="60" t="s">
         <v>30</v>
@@ -5781,12 +5781,12 @@
       <c r="GV9" s="13"/>
     </row>
     <row r="10" spans="1:204" ht="30" customHeight="1">
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="147"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="145"/>
       <c r="F10" s="23" t="s">
         <v>31</v>
       </c>
@@ -6002,12 +6002,12 @@
       <c r="GV10" s="13"/>
     </row>
     <row r="11" spans="1:204" ht="30" customHeight="1">
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="136"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="148"/>
       <c r="F11" s="23"/>
       <c r="G11" s="26" t="s">
         <v>73</v>
@@ -6213,12 +6213,12 @@
       <c r="GV11" s="13"/>
     </row>
     <row r="12" spans="1:204" ht="36.75" customHeight="1">
-      <c r="B12" s="143"/>
-      <c r="C12" s="135" t="s">
+      <c r="B12" s="186"/>
+      <c r="C12" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="136"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="148"/>
       <c r="F12" s="23"/>
       <c r="G12" s="130" t="s">
         <v>324</v>
@@ -6430,12 +6430,12 @@
       <c r="GV12" s="13"/>
     </row>
     <row r="13" spans="1:204" ht="37.5" hidden="1" customHeight="1">
-      <c r="B13" s="144"/>
-      <c r="C13" s="135" t="s">
+      <c r="B13" s="187"/>
+      <c r="C13" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="140"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="148"/>
       <c r="F13" s="23"/>
       <c r="G13" s="26"/>
       <c r="H13" s="14" t="s">
@@ -6647,12 +6647,12 @@
       <c r="GV13" s="105"/>
     </row>
     <row r="14" spans="1:204" ht="26.25" hidden="1">
-      <c r="B14" s="144"/>
-      <c r="C14" s="135" t="s">
+      <c r="B14" s="187"/>
+      <c r="C14" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="140"/>
-      <c r="E14" s="136"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="148"/>
       <c r="F14" s="23"/>
       <c r="G14" s="26"/>
       <c r="H14" s="14" t="s">
@@ -6862,19 +6862,19 @@
       <c r="GV14" s="13"/>
     </row>
     <row r="15" spans="1:204" ht="26.25">
-      <c r="B15" s="144"/>
-      <c r="C15" s="135" t="s">
+      <c r="B15" s="187"/>
+      <c r="C15" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="140"/>
-      <c r="E15" s="136"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="148"/>
       <c r="F15" s="23"/>
       <c r="G15" s="26"/>
       <c r="H15" s="14" t="s">
         <v>77</v>
       </c>
       <c r="I15" s="131">
-        <v>44662</v>
+        <v>44666</v>
       </c>
       <c r="J15" s="14">
         <v>6</v>
@@ -7077,12 +7077,12 @@
       <c r="GV15" s="13"/>
     </row>
     <row r="16" spans="1:204" ht="26.25">
-      <c r="B16" s="144"/>
-      <c r="C16" s="135" t="s">
+      <c r="B16" s="187"/>
+      <c r="C16" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="140"/>
-      <c r="E16" s="136"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="148"/>
       <c r="F16" s="23"/>
       <c r="G16" s="130" t="s">
         <v>328</v>
@@ -7091,7 +7091,7 @@
         <v>77</v>
       </c>
       <c r="I16" s="131">
-        <v>44662</v>
+        <v>44666</v>
       </c>
       <c r="J16" s="14">
         <v>6</v>
@@ -7294,19 +7294,19 @@
       <c r="GV16" s="13"/>
     </row>
     <row r="17" spans="2:204" ht="34.5" customHeight="1">
-      <c r="B17" s="145"/>
-      <c r="C17" s="135" t="s">
+      <c r="B17" s="188"/>
+      <c r="C17" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="140"/>
-      <c r="E17" s="136"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="148"/>
       <c r="F17" s="23"/>
       <c r="G17" s="26"/>
       <c r="H17" s="14" t="s">
         <v>77</v>
       </c>
       <c r="I17" s="131">
-        <v>44662</v>
+        <v>44666</v>
       </c>
       <c r="J17" s="14">
         <v>7</v>
@@ -7509,12 +7509,12 @@
       <c r="GV17" s="13"/>
     </row>
     <row r="18" spans="2:204" ht="26.25">
-      <c r="B18" s="135" t="s">
+      <c r="B18" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="136"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="148"/>
       <c r="F18" s="23"/>
       <c r="G18" s="26" t="s">
         <v>74</v>
@@ -7720,12 +7720,12 @@
       <c r="GV18" s="13"/>
     </row>
     <row r="19" spans="2:204" ht="39" hidden="1" customHeight="1">
-      <c r="B19" s="143"/>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="186"/>
+      <c r="C19" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="136"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="148"/>
       <c r="F19" s="23"/>
       <c r="G19" s="134" t="s">
         <v>326</v>
@@ -7937,12 +7937,12 @@
       <c r="GV19" s="13"/>
     </row>
     <row r="20" spans="2:204" ht="34.5" hidden="1" customHeight="1">
-      <c r="B20" s="144"/>
-      <c r="C20" s="135" t="s">
+      <c r="B20" s="187"/>
+      <c r="C20" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="136"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="148"/>
       <c r="F20" s="23"/>
       <c r="G20" s="26"/>
       <c r="H20" s="14" t="s">
@@ -8152,12 +8152,12 @@
       <c r="GV20" s="13"/>
     </row>
     <row r="21" spans="2:204" ht="34.5" customHeight="1">
-      <c r="B21" s="144"/>
-      <c r="C21" s="135" t="s">
+      <c r="B21" s="187"/>
+      <c r="C21" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="140"/>
-      <c r="E21" s="136"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="148"/>
       <c r="F21" s="23"/>
       <c r="G21" s="26"/>
       <c r="H21" s="14" t="s">
@@ -8365,12 +8365,12 @@
       <c r="GV21" s="13"/>
     </row>
     <row r="22" spans="2:204" ht="37.5" customHeight="1">
-      <c r="B22" s="145"/>
-      <c r="C22" s="135" t="s">
+      <c r="B22" s="188"/>
+      <c r="C22" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="140"/>
-      <c r="E22" s="136"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="148"/>
       <c r="F22" s="23"/>
       <c r="G22" s="26"/>
       <c r="H22" s="14" t="s">
@@ -8578,12 +8578,12 @@
       <c r="GV22" s="13"/>
     </row>
     <row r="23" spans="2:204" ht="26.25">
-      <c r="B23" s="135" t="s">
+      <c r="B23" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="140"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="136"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="148"/>
       <c r="F23" s="23"/>
       <c r="G23" s="26" t="s">
         <v>75</v>
@@ -8789,12 +8789,12 @@
       <c r="GV23" s="13"/>
     </row>
     <row r="24" spans="2:204" ht="26.25">
-      <c r="B24" s="143"/>
-      <c r="C24" s="135" t="s">
+      <c r="B24" s="186"/>
+      <c r="C24" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="140"/>
-      <c r="E24" s="136"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="148"/>
       <c r="F24" s="23"/>
       <c r="G24" s="130" t="s">
         <v>325</v>
@@ -9006,12 +9006,12 @@
       <c r="GV24" s="13"/>
     </row>
     <row r="25" spans="2:204" ht="36.75" customHeight="1">
-      <c r="B25" s="144"/>
-      <c r="C25" s="135" t="s">
+      <c r="B25" s="187"/>
+      <c r="C25" s="146" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="140"/>
-      <c r="E25" s="136"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="148"/>
       <c r="F25" s="23"/>
       <c r="G25" s="26"/>
       <c r="H25" s="14" t="s">
@@ -9219,12 +9219,12 @@
       <c r="GV25" s="13"/>
     </row>
     <row r="26" spans="2:204" ht="26.25">
-      <c r="B26" s="144"/>
-      <c r="C26" s="135" t="s">
+      <c r="B26" s="187"/>
+      <c r="C26" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="140"/>
-      <c r="E26" s="136"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="148"/>
       <c r="F26" s="23"/>
       <c r="G26" s="26"/>
       <c r="H26" s="14" t="s">
@@ -9432,12 +9432,12 @@
       <c r="GV26" s="13"/>
     </row>
     <row r="27" spans="2:204" ht="26.25">
-      <c r="B27" s="144"/>
-      <c r="C27" s="135" t="s">
+      <c r="B27" s="187"/>
+      <c r="C27" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="140"/>
-      <c r="E27" s="136"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="148"/>
       <c r="F27" s="23"/>
       <c r="G27" s="26"/>
       <c r="H27" s="14" t="s">
@@ -9645,12 +9645,12 @@
       <c r="GV27" s="13"/>
     </row>
     <row r="28" spans="2:204" ht="26.25">
-      <c r="B28" s="145"/>
-      <c r="C28" s="135" t="s">
+      <c r="B28" s="188"/>
+      <c r="C28" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="140"/>
-      <c r="E28" s="136"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
       <c r="F28" s="23"/>
       <c r="G28" s="26"/>
       <c r="H28" s="14" t="s">
@@ -9858,12 +9858,12 @@
       <c r="GV28" s="13"/>
     </row>
     <row r="29" spans="2:204" ht="26.25">
-      <c r="B29" s="135" t="s">
+      <c r="B29" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="136"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="148"/>
       <c r="F29" s="23"/>
       <c r="G29" s="26" t="s">
         <v>76</v>
@@ -10069,12 +10069,12 @@
       <c r="GV29" s="13"/>
     </row>
     <row r="30" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B30" s="143"/>
-      <c r="C30" s="135" t="s">
+      <c r="B30" s="186"/>
+      <c r="C30" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="140"/>
-      <c r="E30" s="136"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="148"/>
       <c r="F30" s="23"/>
       <c r="G30" s="130" t="s">
         <v>327</v>
@@ -10083,7 +10083,7 @@
         <v>78</v>
       </c>
       <c r="I30" s="131">
-        <v>44659</v>
+        <v>44665</v>
       </c>
       <c r="J30" s="14">
         <v>1</v>
@@ -10286,12 +10286,12 @@
       <c r="GV30" s="13"/>
     </row>
     <row r="31" spans="2:204" ht="36.75" customHeight="1">
-      <c r="B31" s="144"/>
-      <c r="C31" s="135" t="s">
+      <c r="B31" s="187"/>
+      <c r="C31" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="140"/>
-      <c r="E31" s="136"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="148"/>
       <c r="F31" s="23"/>
       <c r="G31" s="26"/>
       <c r="H31" s="14" t="s">
@@ -10499,12 +10499,12 @@
       <c r="GV31" s="13"/>
     </row>
     <row r="32" spans="2:204" ht="26.25">
-      <c r="B32" s="144"/>
-      <c r="C32" s="135" t="s">
+      <c r="B32" s="187"/>
+      <c r="C32" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="140"/>
-      <c r="E32" s="136"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="148"/>
       <c r="F32" s="23"/>
       <c r="G32" s="26"/>
       <c r="H32" s="14" t="s">
@@ -10712,12 +10712,12 @@
       <c r="GV32" s="13"/>
     </row>
     <row r="33" spans="2:204" ht="26.25">
-      <c r="B33" s="144"/>
-      <c r="C33" s="135" t="s">
+      <c r="B33" s="187"/>
+      <c r="C33" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="140"/>
-      <c r="E33" s="136"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="148"/>
       <c r="F33" s="23"/>
       <c r="G33" s="26"/>
       <c r="H33" s="14" t="s">
@@ -10925,12 +10925,12 @@
       <c r="GV33" s="13"/>
     </row>
     <row r="34" spans="2:204" ht="26.25">
-      <c r="B34" s="144"/>
-      <c r="C34" s="135" t="s">
+      <c r="B34" s="187"/>
+      <c r="C34" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="140"/>
-      <c r="E34" s="136"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="148"/>
       <c r="F34" s="23"/>
       <c r="G34" s="26" t="s">
         <v>151</v>
@@ -11140,12 +11140,12 @@
       <c r="GV34" s="13"/>
     </row>
     <row r="35" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B35" s="145"/>
-      <c r="C35" s="135" t="s">
+      <c r="B35" s="188"/>
+      <c r="C35" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="140"/>
-      <c r="E35" s="136"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="148"/>
       <c r="F35" s="23"/>
       <c r="G35" s="26"/>
       <c r="H35" s="14" t="s">
@@ -11353,12 +11353,12 @@
       <c r="GV35" s="13"/>
     </row>
     <row r="36" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B36" s="135" t="s">
+      <c r="B36" s="146" t="s">
         <v>293</v>
       </c>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="136"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="148"/>
       <c r="F36" s="23"/>
       <c r="G36" s="26" t="s">
         <v>294</v>
@@ -11568,12 +11568,12 @@
       <c r="GV36" s="13"/>
     </row>
     <row r="37" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B37" s="137"/>
-      <c r="C37" s="140" t="s">
+      <c r="B37" s="189"/>
+      <c r="C37" s="147" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="140"/>
-      <c r="E37" s="136"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="148"/>
       <c r="F37" s="23"/>
       <c r="G37" s="26"/>
       <c r="H37" s="14" t="s">
@@ -11781,12 +11781,12 @@
       <c r="GV37" s="13"/>
     </row>
     <row r="38" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B38" s="139"/>
-      <c r="C38" s="140" t="s">
+      <c r="B38" s="190"/>
+      <c r="C38" s="147" t="s">
         <v>296</v>
       </c>
-      <c r="D38" s="140"/>
-      <c r="E38" s="136"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="148"/>
       <c r="F38" s="23"/>
       <c r="G38" s="26"/>
       <c r="H38" s="14" t="s">
@@ -11994,12 +11994,12 @@
       <c r="GV38" s="13"/>
     </row>
     <row r="39" spans="2:204" ht="26.25">
-      <c r="B39" s="148" t="s">
+      <c r="B39" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="146"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="147"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="145"/>
       <c r="F39" s="23" t="s">
         <v>28</v>
       </c>
@@ -12215,12 +12215,12 @@
       <c r="GV39" s="13"/>
     </row>
     <row r="40" spans="2:204" ht="26.25">
-      <c r="B40" s="135" t="s">
+      <c r="B40" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="136"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="148"/>
       <c r="F40" s="64"/>
       <c r="G40" s="26"/>
       <c r="H40" s="119" t="s">
@@ -12428,12 +12428,12 @@
       <c r="GV40" s="13"/>
     </row>
     <row r="41" spans="2:204" ht="26.25" hidden="1">
-      <c r="B41" s="143"/>
-      <c r="C41" s="135" t="s">
+      <c r="B41" s="186"/>
+      <c r="C41" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="140"/>
-      <c r="E41" s="136"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="148"/>
       <c r="F41" s="64"/>
       <c r="G41" s="26"/>
       <c r="H41" s="119" t="s">
@@ -12643,12 +12643,12 @@
       <c r="GV41" s="13"/>
     </row>
     <row r="42" spans="2:204" ht="26.25" hidden="1">
-      <c r="B42" s="144"/>
-      <c r="C42" s="135" t="s">
+      <c r="B42" s="187"/>
+      <c r="C42" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="140"/>
-      <c r="E42" s="136"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="148"/>
       <c r="F42" s="64"/>
       <c r="G42" s="26"/>
       <c r="H42" s="119" t="s">
@@ -12858,12 +12858,12 @@
       <c r="GV42" s="13"/>
     </row>
     <row r="43" spans="2:204" ht="26.25" hidden="1">
-      <c r="B43" s="144"/>
-      <c r="C43" s="135" t="s">
+      <c r="B43" s="187"/>
+      <c r="C43" s="146" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="140"/>
-      <c r="E43" s="136"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="148"/>
       <c r="F43" s="64"/>
       <c r="G43" s="26"/>
       <c r="H43" s="119" t="s">
@@ -13073,12 +13073,12 @@
       <c r="GV43" s="13"/>
     </row>
     <row r="44" spans="2:204" ht="30" hidden="1" customHeight="1">
-      <c r="B44" s="144"/>
-      <c r="C44" s="135" t="s">
+      <c r="B44" s="187"/>
+      <c r="C44" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="140"/>
-      <c r="E44" s="136"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="148"/>
       <c r="F44" s="64"/>
       <c r="G44" s="26"/>
       <c r="H44" s="119" t="s">
@@ -13288,12 +13288,12 @@
       <c r="GV44" s="13"/>
     </row>
     <row r="45" spans="2:204" ht="26.25" hidden="1">
-      <c r="B45" s="144"/>
-      <c r="C45" s="135" t="s">
+      <c r="B45" s="187"/>
+      <c r="C45" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="140"/>
-      <c r="E45" s="136"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="148"/>
       <c r="F45" s="64"/>
       <c r="G45" s="26"/>
       <c r="H45" s="119" t="s">
@@ -13503,12 +13503,12 @@
       <c r="GV45" s="13"/>
     </row>
     <row r="46" spans="2:204" ht="37.5" hidden="1" customHeight="1">
-      <c r="B46" s="145"/>
-      <c r="C46" s="135" t="s">
+      <c r="B46" s="188"/>
+      <c r="C46" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="140"/>
-      <c r="E46" s="136"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="148"/>
       <c r="F46" s="64"/>
       <c r="G46" s="26"/>
       <c r="H46" s="119" t="s">
@@ -13719,11 +13719,11 @@
     </row>
     <row r="47" spans="2:204" ht="26.25" hidden="1">
       <c r="B47" s="133"/>
-      <c r="C47" s="135" t="s">
+      <c r="C47" s="146" t="s">
         <v>322</v>
       </c>
-      <c r="D47" s="140"/>
-      <c r="E47" s="136"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="148"/>
       <c r="F47" s="64"/>
       <c r="G47" s="26"/>
       <c r="H47" s="119" t="s">
@@ -13934,11 +13934,11 @@
     </row>
     <row r="48" spans="2:204" ht="26.25" hidden="1">
       <c r="B48" s="133"/>
-      <c r="C48" s="135" t="s">
+      <c r="C48" s="146" t="s">
         <v>323</v>
       </c>
-      <c r="D48" s="140"/>
-      <c r="E48" s="136"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="148"/>
       <c r="F48" s="64"/>
       <c r="G48" s="26"/>
       <c r="H48" s="119" t="s">
@@ -14148,12 +14148,12 @@
       <c r="GV48" s="13"/>
     </row>
     <row r="49" spans="2:204" ht="26.25">
-      <c r="B49" s="135" t="s">
+      <c r="B49" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="140"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="136"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="148"/>
       <c r="F49" s="64"/>
       <c r="G49" s="26"/>
       <c r="H49" s="119" t="s">
@@ -14362,11 +14362,11 @@
     </row>
     <row r="50" spans="2:204" ht="39" customHeight="1">
       <c r="B50" s="65"/>
-      <c r="C50" s="135" t="s">
+      <c r="C50" s="146" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="140"/>
-      <c r="E50" s="136"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="148"/>
       <c r="F50" s="64"/>
       <c r="G50" s="26"/>
       <c r="H50" s="119" t="s">
@@ -14574,12 +14574,12 @@
       <c r="GV50" s="13"/>
     </row>
     <row r="51" spans="2:204" ht="26.25">
-      <c r="B51" s="135" t="s">
+      <c r="B51" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="140"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="136"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="148"/>
       <c r="F51" s="64"/>
       <c r="G51" s="26"/>
       <c r="H51" s="119" t="s">
@@ -14787,12 +14787,12 @@
       <c r="GV51" s="13"/>
     </row>
     <row r="52" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B52" s="137"/>
-      <c r="C52" s="135" t="s">
+      <c r="B52" s="189"/>
+      <c r="C52" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="140"/>
-      <c r="E52" s="136"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="148"/>
       <c r="F52" s="64"/>
       <c r="G52" s="26"/>
       <c r="H52" s="119" t="s">
@@ -15000,12 +15000,12 @@
       <c r="GV52" s="13"/>
     </row>
     <row r="53" spans="2:204" ht="26.25">
-      <c r="B53" s="138"/>
-      <c r="C53" s="135" t="s">
+      <c r="B53" s="191"/>
+      <c r="C53" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="D53" s="140"/>
-      <c r="E53" s="136"/>
+      <c r="D53" s="147"/>
+      <c r="E53" s="148"/>
       <c r="F53" s="64"/>
       <c r="G53" s="26"/>
       <c r="H53" s="119" t="s">
@@ -15213,12 +15213,12 @@
       <c r="GV53" s="13"/>
     </row>
     <row r="54" spans="2:204" ht="26.25">
-      <c r="B54" s="138"/>
-      <c r="C54" s="135" t="s">
+      <c r="B54" s="191"/>
+      <c r="C54" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="140"/>
-      <c r="E54" s="136"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="148"/>
       <c r="F54" s="64"/>
       <c r="G54" s="26"/>
       <c r="H54" s="119" t="s">
@@ -15426,12 +15426,12 @@
       <c r="GV54" s="13"/>
     </row>
     <row r="55" spans="2:204" ht="32.25" customHeight="1">
-      <c r="B55" s="138"/>
-      <c r="C55" s="135" t="s">
+      <c r="B55" s="191"/>
+      <c r="C55" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="140"/>
-      <c r="E55" s="136"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="148"/>
       <c r="F55" s="64"/>
       <c r="G55" s="26"/>
       <c r="H55" s="119" t="s">
@@ -15639,12 +15639,12 @@
       <c r="GV55" s="13"/>
     </row>
     <row r="56" spans="2:204" ht="43.5" customHeight="1">
-      <c r="B56" s="138"/>
-      <c r="C56" s="135" t="s">
+      <c r="B56" s="191"/>
+      <c r="C56" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="140"/>
-      <c r="E56" s="136"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="148"/>
       <c r="F56" s="64"/>
       <c r="G56" s="26"/>
       <c r="H56" s="119" t="s">
@@ -15852,12 +15852,12 @@
       <c r="GV56" s="13"/>
     </row>
     <row r="57" spans="2:204" ht="43.5" customHeight="1">
-      <c r="B57" s="138"/>
-      <c r="C57" s="135" t="s">
+      <c r="B57" s="191"/>
+      <c r="C57" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="140"/>
-      <c r="E57" s="136"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="148"/>
       <c r="F57" s="64"/>
       <c r="G57" s="26"/>
       <c r="H57" s="119" t="s">
@@ -16065,12 +16065,12 @@
       <c r="GV57" s="13"/>
     </row>
     <row r="58" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B58" s="138"/>
-      <c r="C58" s="135" t="s">
+      <c r="B58" s="191"/>
+      <c r="C58" s="146" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="140"/>
-      <c r="E58" s="136"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="148"/>
       <c r="F58" s="64"/>
       <c r="G58" s="26"/>
       <c r="H58" s="119" t="s">
@@ -16278,12 +16278,12 @@
       <c r="GV58" s="13"/>
     </row>
     <row r="59" spans="2:204" ht="26.25">
-      <c r="B59" s="138"/>
-      <c r="C59" s="135" t="s">
+      <c r="B59" s="191"/>
+      <c r="C59" s="146" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="140"/>
-      <c r="E59" s="136"/>
+      <c r="D59" s="147"/>
+      <c r="E59" s="148"/>
       <c r="F59" s="64"/>
       <c r="G59" s="26"/>
       <c r="H59" s="119" t="s">
@@ -16491,12 +16491,12 @@
       <c r="GV59" s="13"/>
     </row>
     <row r="60" spans="2:204" ht="26.25">
-      <c r="B60" s="138"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="141" t="s">
+      <c r="B60" s="191"/>
+      <c r="C60" s="189"/>
+      <c r="D60" s="192" t="s">
         <v>100</v>
       </c>
-      <c r="E60" s="142"/>
+      <c r="E60" s="193"/>
       <c r="F60" s="64"/>
       <c r="G60" s="26"/>
       <c r="H60" s="119" t="s">
@@ -16704,12 +16704,12 @@
       <c r="GV60" s="13"/>
     </row>
     <row r="61" spans="2:204" ht="26.25">
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="141" t="s">
+      <c r="B61" s="191"/>
+      <c r="C61" s="191"/>
+      <c r="D61" s="192" t="s">
         <v>102</v>
       </c>
-      <c r="E61" s="142"/>
+      <c r="E61" s="193"/>
       <c r="F61" s="64"/>
       <c r="G61" s="26"/>
       <c r="H61" s="119" t="s">
@@ -16917,9 +16917,9 @@
       <c r="GV61" s="13"/>
     </row>
     <row r="62" spans="2:204" ht="36" customHeight="1">
-      <c r="B62" s="138"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="137"/>
+      <c r="B62" s="191"/>
+      <c r="C62" s="191"/>
+      <c r="D62" s="189"/>
       <c r="E62" s="65" t="s">
         <v>105</v>
       </c>
@@ -17130,9 +17130,9 @@
       <c r="GV62" s="13"/>
     </row>
     <row r="63" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B63" s="138"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="138"/>
+      <c r="B63" s="191"/>
+      <c r="C63" s="191"/>
+      <c r="D63" s="191"/>
       <c r="E63" s="65" t="s">
         <v>106</v>
       </c>
@@ -17343,9 +17343,9 @@
       <c r="GV63" s="13"/>
     </row>
     <row r="64" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B64" s="138"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="138"/>
+      <c r="B64" s="191"/>
+      <c r="C64" s="191"/>
+      <c r="D64" s="191"/>
       <c r="E64" s="65" t="s">
         <v>108</v>
       </c>
@@ -17556,9 +17556,9 @@
       <c r="GV64" s="13"/>
     </row>
     <row r="65" spans="1:204" ht="33.75" customHeight="1">
-      <c r="B65" s="138"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="138"/>
+      <c r="B65" s="191"/>
+      <c r="C65" s="191"/>
+      <c r="D65" s="191"/>
       <c r="E65" s="65" t="s">
         <v>112</v>
       </c>
@@ -17769,9 +17769,9 @@
       <c r="GV65" s="13"/>
     </row>
     <row r="66" spans="1:204" ht="26.25">
-      <c r="B66" s="138"/>
-      <c r="C66" s="138"/>
-      <c r="D66" s="138"/>
+      <c r="B66" s="191"/>
+      <c r="C66" s="191"/>
+      <c r="D66" s="191"/>
       <c r="E66" s="65" t="s">
         <v>107</v>
       </c>
@@ -17982,9 +17982,9 @@
       <c r="GV66" s="13"/>
     </row>
     <row r="67" spans="1:204" ht="26.25">
-      <c r="B67" s="138"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="138"/>
+      <c r="B67" s="191"/>
+      <c r="C67" s="191"/>
+      <c r="D67" s="191"/>
       <c r="E67" s="65" t="s">
         <v>109</v>
       </c>
@@ -18195,9 +18195,9 @@
       <c r="GV67" s="13"/>
     </row>
     <row r="68" spans="1:204" ht="26.25">
-      <c r="B68" s="138"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="138"/>
+      <c r="B68" s="191"/>
+      <c r="C68" s="191"/>
+      <c r="D68" s="191"/>
       <c r="E68" s="65" t="s">
         <v>110</v>
       </c>
@@ -18408,9 +18408,9 @@
       <c r="GV68" s="13"/>
     </row>
     <row r="69" spans="1:204" ht="37.5" customHeight="1">
-      <c r="B69" s="138"/>
-      <c r="C69" s="138"/>
-      <c r="D69" s="139"/>
+      <c r="B69" s="191"/>
+      <c r="C69" s="191"/>
+      <c r="D69" s="190"/>
       <c r="E69" s="65" t="s">
         <v>111</v>
       </c>
@@ -18621,12 +18621,12 @@
       <c r="GV69" s="13"/>
     </row>
     <row r="70" spans="1:204" ht="33" customHeight="1">
-      <c r="B70" s="138"/>
-      <c r="C70" s="138"/>
-      <c r="D70" s="135" t="s">
+      <c r="B70" s="191"/>
+      <c r="C70" s="191"/>
+      <c r="D70" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="E70" s="136"/>
+      <c r="E70" s="148"/>
       <c r="F70" s="64"/>
       <c r="G70" s="26"/>
       <c r="H70" s="119" t="s">
@@ -18834,12 +18834,12 @@
       <c r="GV70" s="13"/>
     </row>
     <row r="71" spans="1:204" ht="26.25">
-      <c r="B71" s="138"/>
-      <c r="C71" s="138"/>
-      <c r="D71" s="135" t="s">
+      <c r="B71" s="191"/>
+      <c r="C71" s="191"/>
+      <c r="D71" s="146" t="s">
         <v>103</v>
       </c>
-      <c r="E71" s="136"/>
+      <c r="E71" s="148"/>
       <c r="F71" s="64"/>
       <c r="G71" s="26"/>
       <c r="H71" s="119" t="s">
@@ -19047,12 +19047,12 @@
       <c r="GV71" s="13"/>
     </row>
     <row r="72" spans="1:204" ht="34.5" customHeight="1">
-      <c r="B72" s="139"/>
-      <c r="C72" s="139"/>
-      <c r="D72" s="135" t="s">
+      <c r="B72" s="190"/>
+      <c r="C72" s="190"/>
+      <c r="D72" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="E72" s="136"/>
+      <c r="E72" s="148"/>
       <c r="F72" s="64"/>
       <c r="G72" s="26"/>
       <c r="H72" s="119" t="s">
@@ -19260,12 +19260,12 @@
       <c r="GV72" s="13"/>
     </row>
     <row r="73" spans="1:204" ht="26.25">
-      <c r="B73" s="148" t="s">
+      <c r="B73" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="C73" s="146"/>
-      <c r="D73" s="146"/>
-      <c r="E73" s="147"/>
+      <c r="C73" s="144"/>
+      <c r="D73" s="144"/>
+      <c r="E73" s="145"/>
       <c r="F73" s="23" t="s">
         <v>27</v>
       </c>
@@ -19483,10 +19483,10 @@
     <row r="74" spans="1:204" ht="45" customHeight="1">
       <c r="B74" s="97"/>
       <c r="C74" s="98"/>
-      <c r="D74" s="153" t="s">
+      <c r="D74" s="185" t="s">
         <v>312</v>
       </c>
-      <c r="E74" s="153"/>
+      <c r="E74" s="185"/>
       <c r="F74" s="114"/>
       <c r="G74" s="26"/>
       <c r="H74" s="119" t="s">
@@ -19696,10 +19696,10 @@
     <row r="75" spans="1:204" ht="47.25" customHeight="1">
       <c r="B75" s="97"/>
       <c r="C75" s="98"/>
-      <c r="D75" s="153" t="s">
+      <c r="D75" s="185" t="s">
         <v>313</v>
       </c>
-      <c r="E75" s="153"/>
+      <c r="E75" s="185"/>
       <c r="F75" s="64"/>
       <c r="G75" s="26"/>
       <c r="H75" s="119" t="s">
@@ -19909,10 +19909,10 @@
     <row r="76" spans="1:204" ht="26.25">
       <c r="B76" s="97"/>
       <c r="C76" s="98"/>
-      <c r="D76" s="153" t="s">
+      <c r="D76" s="185" t="s">
         <v>314</v>
       </c>
-      <c r="E76" s="153"/>
+      <c r="E76" s="185"/>
       <c r="F76" s="64"/>
       <c r="G76" s="26"/>
       <c r="H76" s="119" t="s">
@@ -20123,12 +20123,12 @@
       <c r="A77" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="152" t="s">
+      <c r="B77" s="141" t="s">
         <v>320</v>
       </c>
-      <c r="C77" s="150"/>
-      <c r="D77" s="150"/>
-      <c r="E77" s="150"/>
+      <c r="C77" s="142"/>
+      <c r="D77" s="142"/>
+      <c r="E77" s="142"/>
       <c r="F77" s="27"/>
       <c r="G77" s="7"/>
       <c r="H77" s="8"/>
@@ -20330,12 +20330,12 @@
       <c r="GV77" s="13"/>
     </row>
     <row r="78" spans="1:204" ht="26.25">
-      <c r="B78" s="148" t="s">
+      <c r="B78" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="146"/>
-      <c r="D78" s="146"/>
-      <c r="E78" s="147"/>
+      <c r="C78" s="144"/>
+      <c r="D78" s="144"/>
+      <c r="E78" s="145"/>
       <c r="F78" s="23" t="s">
         <v>31</v>
       </c>
@@ -20552,11 +20552,11 @@
     </row>
     <row r="79" spans="1:204" ht="44.25" customHeight="1">
       <c r="B79" s="97"/>
-      <c r="C79" s="146" t="s">
+      <c r="C79" s="144" t="s">
         <v>298</v>
       </c>
-      <c r="D79" s="146"/>
-      <c r="E79" s="147"/>
+      <c r="D79" s="144"/>
+      <c r="E79" s="145"/>
       <c r="F79" s="23"/>
       <c r="G79" s="26"/>
       <c r="H79" s="14" t="s">
@@ -20765,11 +20765,11 @@
     </row>
     <row r="80" spans="1:204" ht="60.75" customHeight="1">
       <c r="B80" s="97"/>
-      <c r="C80" s="146" t="s">
+      <c r="C80" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="D80" s="146"/>
-      <c r="E80" s="147"/>
+      <c r="D80" s="144"/>
+      <c r="E80" s="145"/>
       <c r="F80" s="23"/>
       <c r="G80" s="26"/>
       <c r="H80" s="14" t="s">
@@ -20978,11 +20978,11 @@
     </row>
     <row r="81" spans="1:204" ht="26.25">
       <c r="B81" s="97"/>
-      <c r="C81" s="146" t="s">
+      <c r="C81" s="144" t="s">
         <v>283</v>
       </c>
-      <c r="D81" s="146"/>
-      <c r="E81" s="147"/>
+      <c r="D81" s="144"/>
+      <c r="E81" s="145"/>
       <c r="F81" s="23"/>
       <c r="G81" s="26"/>
       <c r="H81" s="14" t="s">
@@ -21191,11 +21191,11 @@
     </row>
     <row r="82" spans="1:204" ht="26.25">
       <c r="B82" s="97"/>
-      <c r="C82" s="146" t="s">
+      <c r="C82" s="144" t="s">
         <v>284</v>
       </c>
-      <c r="D82" s="146"/>
-      <c r="E82" s="147"/>
+      <c r="D82" s="144"/>
+      <c r="E82" s="145"/>
       <c r="F82" s="23"/>
       <c r="G82" s="26"/>
       <c r="H82" s="14" t="s">
@@ -21403,12 +21403,12 @@
       <c r="GV82" s="13"/>
     </row>
     <row r="83" spans="1:204" ht="26.25">
-      <c r="B83" s="148" t="s">
+      <c r="B83" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="146"/>
-      <c r="D83" s="146"/>
-      <c r="E83" s="147"/>
+      <c r="C83" s="144"/>
+      <c r="D83" s="144"/>
+      <c r="E83" s="145"/>
       <c r="F83" s="23" t="s">
         <v>28</v>
       </c>
@@ -21625,11 +21625,11 @@
     </row>
     <row r="84" spans="1:204" ht="48.75" customHeight="1">
       <c r="B84" s="97"/>
-      <c r="C84" s="146" t="s">
+      <c r="C84" s="144" t="s">
         <v>285</v>
       </c>
-      <c r="D84" s="146"/>
-      <c r="E84" s="147"/>
+      <c r="D84" s="144"/>
+      <c r="E84" s="145"/>
       <c r="F84" s="23"/>
       <c r="G84" s="26"/>
       <c r="H84" s="119" t="s">
@@ -21838,11 +21838,11 @@
     </row>
     <row r="85" spans="1:204" ht="26.25">
       <c r="B85" s="97"/>
-      <c r="C85" s="146" t="s">
+      <c r="C85" s="144" t="s">
         <v>286</v>
       </c>
-      <c r="D85" s="146"/>
-      <c r="E85" s="147"/>
+      <c r="D85" s="144"/>
+      <c r="E85" s="145"/>
       <c r="F85" s="23"/>
       <c r="G85" s="26"/>
       <c r="H85" s="119" t="s">
@@ -22050,12 +22050,12 @@
       <c r="GV85" s="13"/>
     </row>
     <row r="86" spans="1:204" ht="26.25">
-      <c r="B86" s="148" t="s">
+      <c r="B86" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="C86" s="146"/>
-      <c r="D86" s="146"/>
-      <c r="E86" s="147"/>
+      <c r="C86" s="144"/>
+      <c r="D86" s="144"/>
+      <c r="E86" s="145"/>
       <c r="F86" s="47" t="s">
         <v>39</v>
       </c>
@@ -22271,12 +22271,12 @@
       <c r="GV86" s="13"/>
     </row>
     <row r="87" spans="1:204" ht="26.25">
-      <c r="B87" s="148" t="s">
+      <c r="B87" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="C87" s="146"/>
-      <c r="D87" s="146"/>
-      <c r="E87" s="147"/>
+      <c r="C87" s="144"/>
+      <c r="D87" s="144"/>
+      <c r="E87" s="145"/>
       <c r="F87" s="23" t="s">
         <v>42</v>
       </c>
@@ -22492,12 +22492,12 @@
       <c r="GV87" s="13"/>
     </row>
     <row r="88" spans="1:204" ht="26.25">
-      <c r="B88" s="162"/>
-      <c r="C88" s="163"/>
-      <c r="D88" s="160" t="s">
+      <c r="B88" s="176"/>
+      <c r="C88" s="177"/>
+      <c r="D88" s="174" t="s">
         <v>291</v>
       </c>
-      <c r="E88" s="147"/>
+      <c r="E88" s="145"/>
       <c r="F88" s="23"/>
       <c r="G88" s="26"/>
       <c r="H88" s="122" t="s">
@@ -22705,8 +22705,8 @@
       <c r="GV88" s="13"/>
     </row>
     <row r="89" spans="1:204" ht="30" customHeight="1">
-      <c r="B89" s="164"/>
-      <c r="C89" s="165"/>
+      <c r="B89" s="178"/>
+      <c r="C89" s="179"/>
       <c r="D89" s="123"/>
       <c r="E89" s="99" t="s">
         <v>292</v>
@@ -22918,12 +22918,12 @@
       <c r="GV89" s="13"/>
     </row>
     <row r="90" spans="1:204" ht="26.25">
-      <c r="B90" s="164"/>
-      <c r="C90" s="166"/>
-      <c r="D90" s="161" t="s">
+      <c r="B90" s="178"/>
+      <c r="C90" s="180"/>
+      <c r="D90" s="175" t="s">
         <v>290</v>
       </c>
-      <c r="E90" s="147"/>
+      <c r="E90" s="145"/>
       <c r="F90" s="23"/>
       <c r="G90" s="26"/>
       <c r="H90" s="14"/>
@@ -23129,9 +23129,9 @@
       <c r="GV90" s="13"/>
     </row>
     <row r="91" spans="1:204" ht="49.5" customHeight="1">
-      <c r="B91" s="164"/>
-      <c r="C91" s="165"/>
-      <c r="D91" s="169"/>
+      <c r="B91" s="178"/>
+      <c r="C91" s="179"/>
+      <c r="D91" s="183"/>
       <c r="E91" s="99" t="s">
         <v>288</v>
       </c>
@@ -23342,9 +23342,9 @@
       <c r="GV91" s="13"/>
     </row>
     <row r="92" spans="1:204" ht="28.5" customHeight="1">
-      <c r="B92" s="167"/>
-      <c r="C92" s="168"/>
-      <c r="D92" s="170"/>
+      <c r="B92" s="181"/>
+      <c r="C92" s="182"/>
+      <c r="D92" s="184"/>
       <c r="E92" s="99" t="s">
         <v>289</v>
       </c>
@@ -23555,12 +23555,12 @@
       <c r="GV92" s="13"/>
     </row>
     <row r="93" spans="1:204" ht="26.25">
-      <c r="B93" s="148" t="s">
+      <c r="B93" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="C93" s="146"/>
-      <c r="D93" s="157"/>
-      <c r="E93" s="147"/>
+      <c r="C93" s="144"/>
+      <c r="D93" s="171"/>
+      <c r="E93" s="145"/>
       <c r="F93" s="23" t="s">
         <v>29</v>
       </c>
@@ -23778,10 +23778,10 @@
     <row r="94" spans="1:204" ht="47.25" customHeight="1">
       <c r="B94" s="97"/>
       <c r="C94" s="98"/>
-      <c r="D94" s="146" t="s">
+      <c r="D94" s="144" t="s">
         <v>316</v>
       </c>
-      <c r="E94" s="147"/>
+      <c r="E94" s="145"/>
       <c r="F94" s="114"/>
       <c r="G94" s="46"/>
       <c r="H94" s="115" t="s">
@@ -23991,10 +23991,10 @@
     <row r="95" spans="1:204" ht="27" customHeight="1">
       <c r="B95" s="97"/>
       <c r="C95" s="98"/>
-      <c r="D95" s="146" t="s">
+      <c r="D95" s="144" t="s">
         <v>317</v>
       </c>
-      <c r="E95" s="147"/>
+      <c r="E95" s="145"/>
       <c r="F95" s="114"/>
       <c r="G95" s="46"/>
       <c r="H95" s="115" t="s">
@@ -24205,12 +24205,12 @@
       <c r="A96" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B96" s="158" t="s">
+      <c r="B96" s="172" t="s">
         <v>319</v>
       </c>
-      <c r="C96" s="159"/>
-      <c r="D96" s="159"/>
-      <c r="E96" s="159"/>
+      <c r="C96" s="173"/>
+      <c r="D96" s="173"/>
+      <c r="E96" s="173"/>
       <c r="F96" s="27"/>
       <c r="G96" s="7"/>
       <c r="H96" s="8"/>
@@ -24416,12 +24416,12 @@
       <c r="GV96" s="13"/>
     </row>
     <row r="97" spans="2:204" ht="26.25">
-      <c r="B97" s="148" t="s">
+      <c r="B97" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="C97" s="146"/>
-      <c r="D97" s="146"/>
-      <c r="E97" s="147"/>
+      <c r="C97" s="144"/>
+      <c r="D97" s="144"/>
+      <c r="E97" s="145"/>
       <c r="F97" s="23" t="s">
         <v>31</v>
       </c>
@@ -24638,11 +24638,11 @@
     </row>
     <row r="98" spans="2:204" ht="48" customHeight="1">
       <c r="B98" s="97"/>
-      <c r="C98" s="146" t="s">
+      <c r="C98" s="144" t="s">
         <v>303</v>
       </c>
-      <c r="D98" s="146"/>
-      <c r="E98" s="147"/>
+      <c r="D98" s="144"/>
+      <c r="E98" s="145"/>
       <c r="F98" s="23"/>
       <c r="G98" s="16"/>
       <c r="H98" s="119" t="s">
@@ -24851,11 +24851,11 @@
     </row>
     <row r="99" spans="2:204" ht="26.25">
       <c r="B99" s="97"/>
-      <c r="C99" s="146" t="s">
+      <c r="C99" s="144" t="s">
         <v>305</v>
       </c>
-      <c r="D99" s="146"/>
-      <c r="E99" s="147"/>
+      <c r="D99" s="144"/>
+      <c r="E99" s="145"/>
       <c r="F99" s="23"/>
       <c r="G99" s="16"/>
       <c r="H99" s="119" t="s">
@@ -25064,11 +25064,11 @@
     </row>
     <row r="100" spans="2:204" ht="26.25">
       <c r="B100" s="97"/>
-      <c r="C100" s="146" t="s">
+      <c r="C100" s="144" t="s">
         <v>306</v>
       </c>
-      <c r="D100" s="146"/>
-      <c r="E100" s="147"/>
+      <c r="D100" s="144"/>
+      <c r="E100" s="145"/>
       <c r="F100" s="23"/>
       <c r="G100" s="16"/>
       <c r="H100" s="119" t="s">
@@ -25277,11 +25277,11 @@
     </row>
     <row r="101" spans="2:204" ht="26.25">
       <c r="B101" s="97"/>
-      <c r="C101" s="146" t="s">
+      <c r="C101" s="144" t="s">
         <v>283</v>
       </c>
-      <c r="D101" s="146"/>
-      <c r="E101" s="147"/>
+      <c r="D101" s="144"/>
+      <c r="E101" s="145"/>
       <c r="F101" s="23"/>
       <c r="G101" s="16"/>
       <c r="H101" s="119" t="s">
@@ -25490,11 +25490,11 @@
     </row>
     <row r="102" spans="2:204" ht="26.25">
       <c r="B102" s="97"/>
-      <c r="C102" s="146" t="s">
+      <c r="C102" s="144" t="s">
         <v>318</v>
       </c>
-      <c r="D102" s="146"/>
-      <c r="E102" s="147"/>
+      <c r="D102" s="144"/>
+      <c r="E102" s="145"/>
       <c r="F102" s="23"/>
       <c r="G102" s="26"/>
       <c r="H102" s="14" t="s">
@@ -25702,12 +25702,12 @@
       <c r="GV102" s="13"/>
     </row>
     <row r="103" spans="2:204" ht="26.25">
-      <c r="B103" s="148" t="s">
+      <c r="B103" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="C103" s="146"/>
-      <c r="D103" s="146"/>
-      <c r="E103" s="147"/>
+      <c r="C103" s="144"/>
+      <c r="D103" s="144"/>
+      <c r="E103" s="145"/>
       <c r="F103" s="23" t="s">
         <v>28</v>
       </c>
@@ -25922,11 +25922,11 @@
     </row>
     <row r="104" spans="2:204" ht="48.75" customHeight="1">
       <c r="B104" s="97"/>
-      <c r="C104" s="146" t="s">
+      <c r="C104" s="144" t="s">
         <v>285</v>
       </c>
-      <c r="D104" s="146"/>
-      <c r="E104" s="147"/>
+      <c r="D104" s="144"/>
+      <c r="E104" s="145"/>
       <c r="F104" s="23"/>
       <c r="G104" s="26"/>
       <c r="H104" s="119" t="s">
@@ -26135,11 +26135,11 @@
     </row>
     <row r="105" spans="2:204" ht="26.25">
       <c r="B105" s="97"/>
-      <c r="C105" s="146" t="s">
+      <c r="C105" s="144" t="s">
         <v>311</v>
       </c>
-      <c r="D105" s="146"/>
-      <c r="E105" s="147"/>
+      <c r="D105" s="144"/>
+      <c r="E105" s="145"/>
       <c r="F105" s="23"/>
       <c r="G105" s="26"/>
       <c r="H105" s="119" t="s">
@@ -26347,12 +26347,12 @@
       <c r="GV105" s="13"/>
     </row>
     <row r="106" spans="2:204" ht="26.25">
-      <c r="B106" s="148" t="s">
+      <c r="B106" s="143" t="s">
         <v>299</v>
       </c>
-      <c r="C106" s="146"/>
-      <c r="D106" s="146"/>
-      <c r="E106" s="147"/>
+      <c r="C106" s="144"/>
+      <c r="D106" s="144"/>
+      <c r="E106" s="145"/>
       <c r="F106" s="47" t="s">
         <v>39</v>
       </c>
@@ -26566,12 +26566,12 @@
       <c r="GV106" s="13"/>
     </row>
     <row r="107" spans="2:204" ht="32.25">
-      <c r="B107" s="148" t="s">
+      <c r="B107" s="143" t="s">
         <v>300</v>
       </c>
-      <c r="C107" s="146"/>
-      <c r="D107" s="146"/>
-      <c r="E107" s="147"/>
+      <c r="C107" s="144"/>
+      <c r="D107" s="144"/>
+      <c r="E107" s="145"/>
       <c r="F107" s="23" t="s">
         <v>29</v>
       </c>
@@ -26788,11 +26788,11 @@
     </row>
     <row r="108" spans="2:204" ht="26.25">
       <c r="B108" s="97"/>
-      <c r="C108" s="146" t="s">
+      <c r="C108" s="144" t="s">
         <v>307</v>
       </c>
-      <c r="D108" s="146"/>
-      <c r="E108" s="147"/>
+      <c r="D108" s="144"/>
+      <c r="E108" s="145"/>
       <c r="F108" s="23"/>
       <c r="G108" s="46"/>
       <c r="H108" s="14" t="s">
@@ -27001,11 +27001,11 @@
     </row>
     <row r="109" spans="2:204" ht="26.25">
       <c r="B109" s="97"/>
-      <c r="C109" s="146" t="s">
+      <c r="C109" s="144" t="s">
         <v>308</v>
       </c>
-      <c r="D109" s="146"/>
-      <c r="E109" s="147"/>
+      <c r="D109" s="144"/>
+      <c r="E109" s="145"/>
       <c r="F109" s="23"/>
       <c r="G109" s="46"/>
       <c r="H109" s="14" t="s">
@@ -27214,11 +27214,11 @@
     </row>
     <row r="110" spans="2:204" ht="26.25">
       <c r="B110" s="97"/>
-      <c r="C110" s="146" t="s">
+      <c r="C110" s="144" t="s">
         <v>309</v>
       </c>
-      <c r="D110" s="146"/>
-      <c r="E110" s="147"/>
+      <c r="D110" s="144"/>
+      <c r="E110" s="145"/>
       <c r="F110" s="23"/>
       <c r="G110" s="46"/>
       <c r="H110" s="14" t="s">
@@ -27427,11 +27427,11 @@
     </row>
     <row r="111" spans="2:204" ht="26.25">
       <c r="B111" s="97"/>
-      <c r="C111" s="146" t="s">
+      <c r="C111" s="144" t="s">
         <v>310</v>
       </c>
-      <c r="D111" s="146"/>
-      <c r="E111" s="147"/>
+      <c r="D111" s="144"/>
+      <c r="E111" s="145"/>
       <c r="F111" s="23"/>
       <c r="G111" s="46"/>
       <c r="H111" s="14" t="s">
@@ -27639,12 +27639,12 @@
       <c r="GV111" s="13"/>
     </row>
     <row r="112" spans="2:204" ht="26.25">
-      <c r="B112" s="149" t="s">
+      <c r="B112" s="166" t="s">
         <v>301</v>
       </c>
-      <c r="C112" s="150"/>
-      <c r="D112" s="150"/>
-      <c r="E112" s="151"/>
+      <c r="C112" s="142"/>
+      <c r="D112" s="142"/>
+      <c r="E112" s="167"/>
       <c r="F112" s="24"/>
       <c r="G112" s="17"/>
       <c r="H112" s="18" t="s">
@@ -27856,12 +27856,12 @@
       <c r="GV112" s="13"/>
     </row>
     <row r="113" spans="2:204" ht="32.25">
-      <c r="B113" s="149" t="s">
+      <c r="B113" s="166" t="s">
         <v>302</v>
       </c>
-      <c r="C113" s="150"/>
-      <c r="D113" s="150"/>
-      <c r="E113" s="151"/>
+      <c r="C113" s="142"/>
+      <c r="D113" s="142"/>
+      <c r="E113" s="167"/>
       <c r="F113" s="24"/>
       <c r="G113" s="17"/>
       <c r="H113" s="18" t="s">
@@ -28073,10 +28073,10 @@
       <c r="GV113" s="13"/>
     </row>
     <row r="114" spans="2:204" ht="30" customHeight="1">
-      <c r="B114" s="154"/>
-      <c r="C114" s="155"/>
-      <c r="D114" s="155"/>
-      <c r="E114" s="156"/>
+      <c r="B114" s="168"/>
+      <c r="C114" s="169"/>
+      <c r="D114" s="169"/>
+      <c r="E114" s="170"/>
       <c r="F114" s="25"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
@@ -28287,6 +28287,107 @@
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="125">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B52:B72"/>
+    <mergeCell ref="C60:C72"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="B88:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
     <mergeCell ref="B6:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
@@ -28311,107 +28412,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="B88:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="B52:B72"/>
-    <mergeCell ref="C60:C72"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C47:E47"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="AA106:GV113 S9:GV31 S32:X32 Z32:AB32 AD32:GV32 S33:GV105">
@@ -28627,7 +28627,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="14">
+  <dataValidations count="14">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="I8 P5:Q8 I3:I6 G6:H8 M5:O6 M3:Q4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="R3:R8" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="L3:L6" xr:uid="{00000000-0002-0000-0000-000002000000}"/>

--- a/220329 HTK UV LED Controller Project sheet.xlsx
+++ b/220329 HTK UV LED Controller Project sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f734f300cb83d8b/HTK DAIAN/MORITEX/UV LED CONTROLLER/HTK LED UV Project Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4532301-08E0-4D91-8040-CA5C8F4CFE15}"/>
+  <xr:revisionPtr revIDLastSave="369" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FF58EB4-C1B2-42D4-B50B-E6BB9DCC66B4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Project Planner'!$A$9:$K$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Project Planner'!$A$9:$K$114</definedName>
     <definedName name="Actual">(PeriodInActual*('Project Planner'!$L1&gt;0))*PeriodInPlan</definedName>
     <definedName name="ActualBeyond">PeriodInActual*('Project Planner'!$L1&gt;0)</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="330">
   <si>
     <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
   </si>
@@ -445,21 +445,6 @@
     <t>2.3.3 Read all button data</t>
   </si>
   <si>
-    <t>2.3.3.1 Code errState</t>
-  </si>
-  <si>
-    <t>2.3.3.3 Code output control state</t>
-  </si>
-  <si>
-    <t>2.3.3.2 Code Standby state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.3.4 Code Stable function </t>
-  </si>
-  <si>
-    <t>2.3.3.5 Code connect all state</t>
-  </si>
-  <si>
     <t>a. Set life time alarm substate</t>
   </si>
   <si>
@@ -1117,19 +1102,37 @@
     <t>2.1.8 code system WDT</t>
   </si>
   <si>
-    <t>Thiếu Cuộn kháng chính</t>
-  </si>
-  <si>
-    <t>Đã đặt chờ LK về</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
     <t>Check những part đã về và chưa có TT</t>
   </si>
   <si>
-    <t>Xảy ra vđề khi I &lt; 50mA (Tăng trở, FET đầu ra, khuyêch đại). Các phần khác OK</t>
+    <t>Sử dụng tải giả</t>
+  </si>
+  <si>
+    <t>2.3.8.1 Code errState</t>
+  </si>
+  <si>
+    <t>2.3.8.2 Code Standby state</t>
+  </si>
+  <si>
+    <t>2.3.8.3 Code output control state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.8.4 Code Stable function </t>
+  </si>
+  <si>
+    <t>2.3.8.5 Code connect all state</t>
+  </si>
+  <si>
+    <t>2.3.0 Make database</t>
+  </si>
+  <si>
+    <t>Co trong BOM chinh</t>
+  </si>
+  <si>
+    <t>co trong BOM chinh</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1886,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2283,6 +2286,117 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2300,30 +2414,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2375,90 +2465,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -3689,13 +3695,13 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:GV114"/>
+  <dimension ref="A1:GV115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
@@ -3750,45 +3756,45 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="5"/>
-      <c r="V1" s="153" t="s">
+      <c r="V1" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="154"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
+      <c r="Y1" s="183"/>
+      <c r="Z1" s="183"/>
+      <c r="AA1" s="183"/>
       <c r="AB1" s="52">
         <v>1</v>
       </c>
       <c r="AD1" s="51"/>
-      <c r="AE1" s="149" t="s">
+      <c r="AE1" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="150"/>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
+      <c r="AF1" s="179"/>
+      <c r="AG1" s="179"/>
+      <c r="AH1" s="179"/>
+      <c r="AI1" s="180"/>
       <c r="AJ1" s="54"/>
-      <c r="AK1" s="149" t="s">
+      <c r="AK1" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="152"/>
-      <c r="AM1" s="152"/>
-      <c r="AN1" s="151"/>
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="181"/>
+      <c r="AN1" s="180"/>
       <c r="AO1" s="55"/>
-      <c r="AP1" s="153" t="s">
+      <c r="AP1" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="154"/>
-      <c r="AR1" s="154"/>
-      <c r="AS1" s="155"/>
+      <c r="AQ1" s="183"/>
+      <c r="AR1" s="183"/>
+      <c r="AS1" s="184"/>
       <c r="AT1" s="56"/>
-      <c r="AU1" s="153" t="s">
+      <c r="AU1" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" s="154"/>
-      <c r="AW1" s="154"/>
+      <c r="AV1" s="183"/>
+      <c r="AW1" s="183"/>
     </row>
     <row r="2" spans="1:204" ht="53.25" customHeight="1">
       <c r="A2" s="36" t="s">
@@ -3805,7 +3811,7 @@
       </c>
       <c r="I2" s="40">
         <f ca="1">TODAY()</f>
-        <v>44664</v>
+        <v>44672</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -3818,7 +3824,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="70"/>
       <c r="T2" s="70" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="U2" s="53"/>
       <c r="V2" s="70"/>
@@ -3856,7 +3862,7 @@
       <c r="AZ2" s="84"/>
       <c r="BA2" s="83"/>
       <c r="BB2" s="50" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="BC2" s="50"/>
       <c r="BD2" s="50"/>
@@ -3890,7 +3896,7 @@
       <c r="CF2" s="50"/>
       <c r="CG2" s="50"/>
       <c r="CH2" s="50" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="CI2" s="50"/>
       <c r="CJ2" s="50"/>
@@ -3922,7 +3928,7 @@
       <c r="DJ2" s="50"/>
       <c r="DK2" s="50"/>
       <c r="DL2" s="50" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="DM2" s="50"/>
       <c r="DN2" s="50"/>
@@ -3955,7 +3961,7 @@
       <c r="EO2" s="50"/>
       <c r="EP2" s="50"/>
       <c r="EQ2" s="50" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="ER2" s="50"/>
       <c r="ES2" s="50"/>
@@ -3988,7 +3994,7 @@
       <c r="FT2" s="85"/>
       <c r="FU2" s="85"/>
       <c r="FV2" s="85" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="FW2" s="85"/>
       <c r="FX2" s="85"/>
@@ -4236,47 +4242,47 @@
       <c r="GV5" s="76"/>
     </row>
     <row r="6" spans="1:204" s="6" customFormat="1" ht="44.25" customHeight="1">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="158" t="s">
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="162" t="s">
+      <c r="G6" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="156" t="s">
+      <c r="H6" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="156" t="s">
+      <c r="I6" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="164" t="s">
+      <c r="J6" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="156" t="s">
+      <c r="K6" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="156" t="s">
+      <c r="L6" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="156" t="s">
+      <c r="M6" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="156" t="s">
+      <c r="N6" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="156" t="s">
+      <c r="O6" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="160" t="s">
+      <c r="P6" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="160" t="s">
+      <c r="Q6" s="189"/>
+      <c r="R6" s="189" t="s">
         <v>25</v>
       </c>
       <c r="S6" s="93"/>
@@ -4296,7 +4302,7 @@
       <c r="AG6" s="77"/>
       <c r="AH6" s="80"/>
       <c r="AI6" s="79" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AJ6" s="77"/>
       <c r="AK6" s="77"/>
@@ -4350,7 +4356,7 @@
       <c r="CG6" s="106"/>
       <c r="CH6" s="106"/>
       <c r="CI6" s="109" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="CJ6" s="106"/>
       <c r="CK6" s="106"/>
@@ -4394,7 +4400,7 @@
       <c r="DW6" s="111"/>
       <c r="DX6" s="111"/>
       <c r="DY6" s="112" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="DZ6" s="111"/>
       <c r="EA6" s="111"/>
@@ -4473,23 +4479,23 @@
       <c r="GV6" s="103"/>
     </row>
     <row r="7" spans="1:204" ht="15.75" customHeight="1">
-      <c r="B7" s="138"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="157"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="161"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="186"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="190"/>
+      <c r="Q7" s="190"/>
+      <c r="R7" s="190"/>
       <c r="S7" s="28">
         <v>1</v>
       </c>
@@ -5042,7 +5048,7 @@
         <v>4.09</v>
       </c>
       <c r="AE8" s="81" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AF8" s="82">
         <v>4.1100000000000003</v>
@@ -5102,478 +5108,478 @@
         <v>4.29</v>
       </c>
       <c r="AY8" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ8" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA8" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB8" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="AZ8" s="82" t="s">
+      <c r="BC8" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD8" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="BE8" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="BA8" s="82" t="s">
+      <c r="BF8" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="BB8" s="82" t="s">
+      <c r="BG8" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="BC8" s="82" t="s">
+      <c r="BH8" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="BD8" s="82" t="s">
+      <c r="BI8" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="BE8" s="82" t="s">
+      <c r="BJ8" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="BF8" s="82" t="s">
+      <c r="BK8" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="BG8" s="82" t="s">
+      <c r="BL8" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="BH8" s="82" t="s">
+      <c r="BM8" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="BI8" s="82" t="s">
+      <c r="BN8" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="BJ8" s="82" t="s">
+      <c r="BO8" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="BK8" s="82" t="s">
+      <c r="BP8" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="BL8" s="82" t="s">
+      <c r="BQ8" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="BM8" s="82" t="s">
+      <c r="BR8" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="BN8" s="82" t="s">
+      <c r="BS8" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="BO8" s="82" t="s">
+      <c r="BT8" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="BP8" s="82" t="s">
+      <c r="BU8" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="BQ8" s="82" t="s">
+      <c r="BV8" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="BR8" s="82" t="s">
+      <c r="BW8" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="BS8" s="82" t="s">
+      <c r="BX8" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="BT8" s="82" t="s">
+      <c r="BY8" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="BU8" s="82" t="s">
+      <c r="BZ8" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="BV8" s="82" t="s">
+      <c r="CA8" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="BW8" s="82" t="s">
+      <c r="CB8" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="BX8" s="82" t="s">
+      <c r="CC8" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="BY8" s="82" t="s">
+      <c r="CD8" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="BZ8" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="CA8" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="CB8" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="CC8" s="82" t="s">
+      <c r="CE8" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="CD8" s="82" t="s">
+      <c r="CF8" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="CE8" s="82" t="s">
+      <c r="CG8" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="CH8" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="CI8" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="CJ8" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="CF8" s="82" t="s">
+      <c r="CK8" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="CG8" s="82" t="s">
+      <c r="CL8" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="CH8" s="82" t="s">
+      <c r="CM8" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="CI8" s="82" t="s">
+      <c r="CN8" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="CJ8" s="82" t="s">
+      <c r="CO8" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="CK8" s="82" t="s">
+      <c r="CP8" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="CL8" s="82" t="s">
+      <c r="CQ8" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="CM8" s="82" t="s">
+      <c r="CR8" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="CN8" s="82" t="s">
+      <c r="CS8" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="CO8" s="82" t="s">
+      <c r="CT8" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="CP8" s="82" t="s">
+      <c r="CU8" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="CQ8" s="82" t="s">
+      <c r="CV8" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="CR8" s="82" t="s">
+      <c r="CW8" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="CS8" s="82" t="s">
+      <c r="CX8" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="CT8" s="82" t="s">
+      <c r="CY8" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="CU8" s="82" t="s">
+      <c r="CZ8" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="CV8" s="82" t="s">
+      <c r="DA8" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="CW8" s="82" t="s">
+      <c r="DB8" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="CX8" s="82" t="s">
+      <c r="DC8" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="CY8" s="82" t="s">
+      <c r="DD8" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="CZ8" s="82" t="s">
+      <c r="DE8" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="DA8" s="82" t="s">
+      <c r="DF8" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="DB8" s="82" t="s">
+      <c r="DG8" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="DC8" s="82" t="s">
+      <c r="DH8" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="DD8" s="82" t="s">
+      <c r="DI8" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="DE8" s="82" t="s">
+      <c r="DJ8" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="DF8" s="82" t="s">
+      <c r="DK8" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="DG8" s="82" t="s">
+      <c r="DL8" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="DH8" s="82" t="s">
+      <c r="DM8" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="DI8" s="82" t="s">
+      <c r="DN8" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="DJ8" s="82" t="s">
+      <c r="DO8" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="DK8" s="82" t="s">
+      <c r="DP8" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="DL8" s="82" t="s">
+      <c r="DQ8" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="DM8" s="82" t="s">
+      <c r="DR8" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="DN8" s="82" t="s">
+      <c r="DS8" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="DO8" s="82" t="s">
+      <c r="DT8" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="DP8" s="82" t="s">
+      <c r="DU8" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="DQ8" s="82" t="s">
+      <c r="DV8" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="DR8" s="82" t="s">
+      <c r="DW8" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="DS8" s="82" t="s">
+      <c r="DX8" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="DT8" s="82" t="s">
+      <c r="DY8" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="DU8" s="82" t="s">
+      <c r="DZ8" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="DV8" s="82" t="s">
+      <c r="EA8" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="DW8" s="82" t="s">
+      <c r="EB8" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="DX8" s="82" t="s">
+      <c r="EC8" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="DY8" s="82" t="s">
+      <c r="ED8" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="DZ8" s="82" t="s">
+      <c r="EE8" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="EA8" s="82" t="s">
+      <c r="EF8" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="EB8" s="82" t="s">
+      <c r="EG8" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="EC8" s="82" t="s">
+      <c r="EH8" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="ED8" s="82" t="s">
+      <c r="EI8" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="EE8" s="82" t="s">
+      <c r="EJ8" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="EF8" s="82" t="s">
+      <c r="EK8" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="EG8" s="82" t="s">
+      <c r="EL8" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="EH8" s="82" t="s">
+      <c r="EM8" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="EI8" s="82" t="s">
-        <v>209</v>
-      </c>
-      <c r="EJ8" s="82" t="s">
+      <c r="EN8" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="EK8" s="82" t="s">
+      <c r="EO8" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="EL8" s="82" t="s">
+      <c r="EP8" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="EM8" s="82" t="s">
+      <c r="EQ8" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="EN8" s="82" t="s">
+      <c r="ER8" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="ES8" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="EO8" s="82" t="s">
+      <c r="ET8" s="82" t="s">
         <v>216</v>
       </c>
-      <c r="EP8" s="82" t="s">
+      <c r="EU8" s="82" t="s">
         <v>217</v>
       </c>
-      <c r="EQ8" s="82" t="s">
+      <c r="EV8" s="82" t="s">
         <v>218</v>
       </c>
-      <c r="ER8" s="82" t="s">
+      <c r="EW8" s="82" t="s">
         <v>219</v>
       </c>
-      <c r="ES8" s="82" t="s">
+      <c r="EX8" s="82" t="s">
         <v>220</v>
       </c>
-      <c r="ET8" s="82" t="s">
+      <c r="EY8" s="82" t="s">
         <v>221</v>
       </c>
-      <c r="EU8" s="82" t="s">
+      <c r="EZ8" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="EV8" s="82" t="s">
+      <c r="FA8" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="EW8" s="82" t="s">
+      <c r="FB8" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="EX8" s="82" t="s">
+      <c r="FC8" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="EY8" s="82" t="s">
+      <c r="FD8" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="EZ8" s="82" t="s">
+      <c r="FE8" s="82" t="s">
         <v>227</v>
       </c>
-      <c r="FA8" s="82" t="s">
+      <c r="FF8" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="FB8" s="82" t="s">
+      <c r="FG8" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="FC8" s="82" t="s">
+      <c r="FH8" s="82" t="s">
         <v>230</v>
       </c>
-      <c r="FD8" s="82" t="s">
+      <c r="FI8" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="FE8" s="82" t="s">
+      <c r="FJ8" s="82" t="s">
         <v>232</v>
       </c>
-      <c r="FF8" s="82" t="s">
+      <c r="FK8" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="FG8" s="82" t="s">
+      <c r="FL8" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="FH8" s="82" t="s">
+      <c r="FM8" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="FI8" s="82" t="s">
+      <c r="FN8" s="82" t="s">
         <v>236</v>
       </c>
-      <c r="FJ8" s="82" t="s">
+      <c r="FO8" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="FK8" s="82" t="s">
+      <c r="FP8" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="FL8" s="82" t="s">
+      <c r="FQ8" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="FM8" s="82" t="s">
-        <v>240</v>
-      </c>
-      <c r="FN8" s="82" t="s">
-        <v>241</v>
-      </c>
-      <c r="FO8" s="82" t="s">
+      <c r="FR8" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="FS8" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="FP8" s="82" t="s">
+      <c r="FT8" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="FQ8" s="82" t="s">
+      <c r="FU8" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="FR8" s="82" t="s">
-        <v>277</v>
-      </c>
-      <c r="FS8" s="82" t="s">
+      <c r="FV8" s="82" t="s">
+        <v>245</v>
+      </c>
+      <c r="FW8" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="FX8" s="82" t="s">
         <v>247</v>
       </c>
-      <c r="FT8" s="82" t="s">
+      <c r="FY8" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="FU8" s="82" t="s">
+      <c r="FZ8" s="82" t="s">
         <v>249</v>
       </c>
-      <c r="FV8" s="82" t="s">
+      <c r="GA8" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="FW8" s="82" t="s">
+      <c r="GB8" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="FX8" s="82" t="s">
+      <c r="GC8" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="FY8" s="82" t="s">
+      <c r="GD8" s="82" t="s">
         <v>253</v>
       </c>
-      <c r="FZ8" s="82" t="s">
+      <c r="GE8" s="82" t="s">
         <v>254</v>
       </c>
-      <c r="GA8" s="82" t="s">
+      <c r="GF8" s="82" t="s">
         <v>255</v>
       </c>
-      <c r="GB8" s="82" t="s">
+      <c r="GG8" s="82" t="s">
         <v>256</v>
       </c>
-      <c r="GC8" s="82" t="s">
+      <c r="GH8" s="82" t="s">
         <v>257</v>
       </c>
-      <c r="GD8" s="82" t="s">
+      <c r="GI8" s="82" t="s">
         <v>258</v>
       </c>
-      <c r="GE8" s="82" t="s">
+      <c r="GJ8" s="82" t="s">
         <v>259</v>
       </c>
-      <c r="GF8" s="82" t="s">
+      <c r="GK8" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="GG8" s="82" t="s">
+      <c r="GL8" s="82" t="s">
         <v>261</v>
       </c>
-      <c r="GH8" s="82" t="s">
+      <c r="GM8" s="82" t="s">
         <v>262</v>
       </c>
-      <c r="GI8" s="82" t="s">
+      <c r="GN8" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="GJ8" s="82" t="s">
+      <c r="GO8" s="82" t="s">
         <v>264</v>
       </c>
-      <c r="GK8" s="82" t="s">
+      <c r="GP8" s="82" t="s">
         <v>265</v>
       </c>
-      <c r="GL8" s="82" t="s">
+      <c r="GQ8" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="GM8" s="82" t="s">
+      <c r="GR8" s="82" t="s">
         <v>267</v>
       </c>
-      <c r="GN8" s="82" t="s">
+      <c r="GS8" s="82" t="s">
         <v>268</v>
       </c>
-      <c r="GO8" s="82" t="s">
+      <c r="GT8" s="82" t="s">
         <v>269</v>
       </c>
-      <c r="GP8" s="82" t="s">
+      <c r="GU8" s="82" t="s">
         <v>270</v>
       </c>
-      <c r="GQ8" s="82" t="s">
+      <c r="GV8" s="82" t="s">
         <v>271</v>
-      </c>
-      <c r="GR8" s="82" t="s">
-        <v>272</v>
-      </c>
-      <c r="GS8" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="GT8" s="82" t="s">
-        <v>274</v>
-      </c>
-      <c r="GU8" s="82" t="s">
-        <v>275</v>
-      </c>
-      <c r="GV8" s="82" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:204" ht="36" customHeight="1">
       <c r="A9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="141" t="s">
-        <v>321</v>
-      </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
+      <c r="B9" s="171" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
       <c r="F9" s="59"/>
       <c r="G9" s="60" t="s">
         <v>30</v>
@@ -5781,12 +5787,12 @@
       <c r="GV9" s="13"/>
     </row>
     <row r="10" spans="1:204" ht="30" customHeight="1">
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="145"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="152"/>
       <c r="F10" s="23" t="s">
         <v>31</v>
       </c>
@@ -6002,12 +6008,12 @@
       <c r="GV10" s="13"/>
     </row>
     <row r="11" spans="1:204" ht="30" customHeight="1">
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="148"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="138"/>
       <c r="F11" s="23"/>
       <c r="G11" s="26" t="s">
         <v>73</v>
@@ -6212,22 +6218,22 @@
       <c r="GU11" s="13"/>
       <c r="GV11" s="13"/>
     </row>
-    <row r="12" spans="1:204" ht="36.75" customHeight="1">
-      <c r="B12" s="186"/>
-      <c r="C12" s="146" t="s">
+    <row r="12" spans="1:204" ht="36.75" hidden="1" customHeight="1">
+      <c r="B12" s="139"/>
+      <c r="C12" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="147"/>
-      <c r="E12" s="148"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="138"/>
       <c r="F12" s="23"/>
       <c r="G12" s="130" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>78</v>
       </c>
       <c r="I12" s="131">
-        <v>44666</v>
+        <v>44671</v>
       </c>
       <c r="J12" s="14">
         <v>1</v>
@@ -6430,19 +6436,19 @@
       <c r="GV12" s="13"/>
     </row>
     <row r="13" spans="1:204" ht="37.5" hidden="1" customHeight="1">
-      <c r="B13" s="187"/>
-      <c r="C13" s="146" t="s">
+      <c r="B13" s="140"/>
+      <c r="C13" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="147"/>
-      <c r="E13" s="148"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="138"/>
       <c r="F13" s="23"/>
       <c r="G13" s="26"/>
       <c r="H13" s="14" t="s">
         <v>77</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J13" s="14">
         <v>1</v>
@@ -6647,19 +6653,19 @@
       <c r="GV13" s="105"/>
     </row>
     <row r="14" spans="1:204" ht="26.25" hidden="1">
-      <c r="B14" s="187"/>
-      <c r="C14" s="146" t="s">
+      <c r="B14" s="140"/>
+      <c r="C14" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="147"/>
-      <c r="E14" s="148"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="138"/>
       <c r="F14" s="23"/>
       <c r="G14" s="26"/>
       <c r="H14" s="14" t="s">
         <v>77</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J14" s="14">
         <v>5</v>
@@ -6862,19 +6868,19 @@
       <c r="GV14" s="13"/>
     </row>
     <row r="15" spans="1:204" ht="26.25">
-      <c r="B15" s="187"/>
-      <c r="C15" s="146" t="s">
+      <c r="B15" s="140"/>
+      <c r="C15" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="147"/>
-      <c r="E15" s="148"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="138"/>
       <c r="F15" s="23"/>
       <c r="G15" s="26"/>
       <c r="H15" s="14" t="s">
         <v>77</v>
       </c>
       <c r="I15" s="131">
-        <v>44666</v>
+        <v>44674</v>
       </c>
       <c r="J15" s="14">
         <v>6</v>
@@ -7077,21 +7083,21 @@
       <c r="GV15" s="13"/>
     </row>
     <row r="16" spans="1:204" ht="26.25">
-      <c r="B16" s="187"/>
-      <c r="C16" s="146" t="s">
+      <c r="B16" s="140"/>
+      <c r="C16" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="148"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="138"/>
       <c r="F16" s="23"/>
       <c r="G16" s="130" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>77</v>
       </c>
       <c r="I16" s="131">
-        <v>44666</v>
+        <v>44674</v>
       </c>
       <c r="J16" s="14">
         <v>6</v>
@@ -7294,19 +7300,19 @@
       <c r="GV16" s="13"/>
     </row>
     <row r="17" spans="2:204" ht="34.5" customHeight="1">
-      <c r="B17" s="188"/>
-      <c r="C17" s="146" t="s">
+      <c r="B17" s="141"/>
+      <c r="C17" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="147"/>
-      <c r="E17" s="148"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="138"/>
       <c r="F17" s="23"/>
       <c r="G17" s="26"/>
       <c r="H17" s="14" t="s">
         <v>77</v>
       </c>
       <c r="I17" s="131">
-        <v>44666</v>
+        <v>44674</v>
       </c>
       <c r="J17" s="14">
         <v>7</v>
@@ -7509,12 +7515,12 @@
       <c r="GV17" s="13"/>
     </row>
     <row r="18" spans="2:204" ht="26.25">
-      <c r="B18" s="146" t="s">
+      <c r="B18" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="148"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="138"/>
       <c r="F18" s="23"/>
       <c r="G18" s="26" t="s">
         <v>74</v>
@@ -7720,21 +7726,21 @@
       <c r="GV18" s="13"/>
     </row>
     <row r="19" spans="2:204" ht="39" hidden="1" customHeight="1">
-      <c r="B19" s="186"/>
-      <c r="C19" s="146" t="s">
+      <c r="B19" s="139"/>
+      <c r="C19" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="147"/>
-      <c r="E19" s="148"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="138"/>
       <c r="F19" s="23"/>
       <c r="G19" s="134" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>78</v>
       </c>
       <c r="I19" s="132" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J19" s="14">
         <v>1</v>
@@ -7937,19 +7943,19 @@
       <c r="GV19" s="13"/>
     </row>
     <row r="20" spans="2:204" ht="34.5" hidden="1" customHeight="1">
-      <c r="B20" s="187"/>
-      <c r="C20" s="146" t="s">
+      <c r="B20" s="140"/>
+      <c r="C20" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="147"/>
-      <c r="E20" s="148"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="138"/>
       <c r="F20" s="23"/>
       <c r="G20" s="26"/>
       <c r="H20" s="14" t="s">
         <v>77</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J20" s="14">
         <v>8</v>
@@ -8152,12 +8158,12 @@
       <c r="GV20" s="13"/>
     </row>
     <row r="21" spans="2:204" ht="34.5" customHeight="1">
-      <c r="B21" s="187"/>
-      <c r="C21" s="146" t="s">
+      <c r="B21" s="140"/>
+      <c r="C21" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="147"/>
-      <c r="E21" s="148"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="138"/>
       <c r="F21" s="23"/>
       <c r="G21" s="26"/>
       <c r="H21" s="14" t="s">
@@ -8365,12 +8371,12 @@
       <c r="GV21" s="13"/>
     </row>
     <row r="22" spans="2:204" ht="37.5" customHeight="1">
-      <c r="B22" s="188"/>
-      <c r="C22" s="146" t="s">
+      <c r="B22" s="141"/>
+      <c r="C22" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="147"/>
-      <c r="E22" s="148"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="138"/>
       <c r="F22" s="23"/>
       <c r="G22" s="26"/>
       <c r="H22" s="14" t="s">
@@ -8578,12 +8584,12 @@
       <c r="GV22" s="13"/>
     </row>
     <row r="23" spans="2:204" ht="26.25">
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="148"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="138"/>
       <c r="F23" s="23"/>
       <c r="G23" s="26" t="s">
         <v>75</v>
@@ -8788,22 +8794,22 @@
       <c r="GU23" s="13"/>
       <c r="GV23" s="13"/>
     </row>
-    <row r="24" spans="2:204" ht="26.25">
-      <c r="B24" s="186"/>
-      <c r="C24" s="146" t="s">
+    <row r="24" spans="2:204" ht="26.25" hidden="1">
+      <c r="B24" s="139"/>
+      <c r="C24" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="147"/>
-      <c r="E24" s="148"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="138"/>
       <c r="F24" s="23"/>
       <c r="G24" s="130" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>35</v>
       </c>
       <c r="I24" s="131">
-        <v>44666</v>
+        <v>44671</v>
       </c>
       <c r="J24" s="14">
         <v>1</v>
@@ -9006,12 +9012,12 @@
       <c r="GV24" s="13"/>
     </row>
     <row r="25" spans="2:204" ht="36.75" customHeight="1">
-      <c r="B25" s="187"/>
-      <c r="C25" s="146" t="s">
+      <c r="B25" s="140"/>
+      <c r="C25" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="147"/>
-      <c r="E25" s="148"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="138"/>
       <c r="F25" s="23"/>
       <c r="G25" s="26"/>
       <c r="H25" s="14" t="s">
@@ -9219,12 +9225,12 @@
       <c r="GV25" s="13"/>
     </row>
     <row r="26" spans="2:204" ht="26.25">
-      <c r="B26" s="187"/>
-      <c r="C26" s="146" t="s">
+      <c r="B26" s="140"/>
+      <c r="C26" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="147"/>
-      <c r="E26" s="148"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="138"/>
       <c r="F26" s="23"/>
       <c r="G26" s="26"/>
       <c r="H26" s="14" t="s">
@@ -9432,12 +9438,12 @@
       <c r="GV26" s="13"/>
     </row>
     <row r="27" spans="2:204" ht="26.25">
-      <c r="B27" s="187"/>
-      <c r="C27" s="146" t="s">
+      <c r="B27" s="140"/>
+      <c r="C27" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="147"/>
-      <c r="E27" s="148"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="138"/>
       <c r="F27" s="23"/>
       <c r="G27" s="26"/>
       <c r="H27" s="14" t="s">
@@ -9645,12 +9651,12 @@
       <c r="GV27" s="13"/>
     </row>
     <row r="28" spans="2:204" ht="26.25">
-      <c r="B28" s="188"/>
-      <c r="C28" s="146" t="s">
+      <c r="B28" s="141"/>
+      <c r="C28" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
       <c r="F28" s="23"/>
       <c r="G28" s="26"/>
       <c r="H28" s="14" t="s">
@@ -9858,12 +9864,12 @@
       <c r="GV28" s="13"/>
     </row>
     <row r="29" spans="2:204" ht="26.25">
-      <c r="B29" s="146" t="s">
+      <c r="B29" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="148"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
       <c r="F29" s="23"/>
       <c r="G29" s="26" t="s">
         <v>76</v>
@@ -10069,21 +10075,21 @@
       <c r="GV29" s="13"/>
     </row>
     <row r="30" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B30" s="186"/>
-      <c r="C30" s="146" t="s">
+      <c r="B30" s="139"/>
+      <c r="C30" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="147"/>
-      <c r="E30" s="148"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="138"/>
       <c r="F30" s="23"/>
       <c r="G30" s="130" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>78</v>
       </c>
       <c r="I30" s="131">
-        <v>44665</v>
+        <v>44677</v>
       </c>
       <c r="J30" s="14">
         <v>1</v>
@@ -10286,12 +10292,12 @@
       <c r="GV30" s="13"/>
     </row>
     <row r="31" spans="2:204" ht="36.75" customHeight="1">
-      <c r="B31" s="187"/>
-      <c r="C31" s="146" t="s">
+      <c r="B31" s="140"/>
+      <c r="C31" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="147"/>
-      <c r="E31" s="148"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="138"/>
       <c r="F31" s="23"/>
       <c r="G31" s="26"/>
       <c r="H31" s="14" t="s">
@@ -10499,12 +10505,12 @@
       <c r="GV31" s="13"/>
     </row>
     <row r="32" spans="2:204" ht="26.25">
-      <c r="B32" s="187"/>
-      <c r="C32" s="146" t="s">
+      <c r="B32" s="140"/>
+      <c r="C32" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="147"/>
-      <c r="E32" s="148"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="138"/>
       <c r="F32" s="23"/>
       <c r="G32" s="26"/>
       <c r="H32" s="14" t="s">
@@ -10712,12 +10718,12 @@
       <c r="GV32" s="13"/>
     </row>
     <row r="33" spans="2:204" ht="26.25">
-      <c r="B33" s="187"/>
-      <c r="C33" s="146" t="s">
+      <c r="B33" s="140"/>
+      <c r="C33" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="147"/>
-      <c r="E33" s="148"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="138"/>
       <c r="F33" s="23"/>
       <c r="G33" s="26"/>
       <c r="H33" s="14" t="s">
@@ -10925,15 +10931,15 @@
       <c r="GV33" s="13"/>
     </row>
     <row r="34" spans="2:204" ht="26.25">
-      <c r="B34" s="187"/>
-      <c r="C34" s="146" t="s">
+      <c r="B34" s="140"/>
+      <c r="C34" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="147"/>
-      <c r="E34" s="148"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="138"/>
       <c r="F34" s="23"/>
       <c r="G34" s="26" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>77</v>
@@ -11140,12 +11146,12 @@
       <c r="GV34" s="13"/>
     </row>
     <row r="35" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B35" s="188"/>
-      <c r="C35" s="146" t="s">
+      <c r="B35" s="141"/>
+      <c r="C35" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="147"/>
-      <c r="E35" s="148"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="138"/>
       <c r="F35" s="23"/>
       <c r="G35" s="26"/>
       <c r="H35" s="14" t="s">
@@ -11353,15 +11359,15 @@
       <c r="GV35" s="13"/>
     </row>
     <row r="36" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B36" s="146" t="s">
-        <v>293</v>
-      </c>
-      <c r="C36" s="147"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="148"/>
+      <c r="B36" s="136" t="s">
+        <v>288</v>
+      </c>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="138"/>
       <c r="F36" s="23"/>
       <c r="G36" s="26" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>77</v>
@@ -11568,12 +11574,12 @@
       <c r="GV36" s="13"/>
     </row>
     <row r="37" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B37" s="189"/>
-      <c r="C37" s="147" t="s">
-        <v>295</v>
-      </c>
-      <c r="D37" s="147"/>
-      <c r="E37" s="148"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="137" t="s">
+        <v>290</v>
+      </c>
+      <c r="D37" s="137"/>
+      <c r="E37" s="138"/>
       <c r="F37" s="23"/>
       <c r="G37" s="26"/>
       <c r="H37" s="14" t="s">
@@ -11781,12 +11787,12 @@
       <c r="GV37" s="13"/>
     </row>
     <row r="38" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B38" s="190"/>
-      <c r="C38" s="147" t="s">
-        <v>296</v>
-      </c>
-      <c r="D38" s="147"/>
-      <c r="E38" s="148"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="137" t="s">
+        <v>291</v>
+      </c>
+      <c r="D38" s="137"/>
+      <c r="E38" s="138"/>
       <c r="F38" s="23"/>
       <c r="G38" s="26"/>
       <c r="H38" s="14" t="s">
@@ -11994,12 +12000,12 @@
       <c r="GV38" s="13"/>
     </row>
     <row r="39" spans="2:204" ht="26.25">
-      <c r="B39" s="143" t="s">
+      <c r="B39" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="145"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="152"/>
       <c r="F39" s="23" t="s">
         <v>28</v>
       </c>
@@ -12007,7 +12013,7 @@
         <v>34</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I39" s="41"/>
       <c r="J39" s="14">
@@ -12215,16 +12221,16 @@
       <c r="GV39" s="13"/>
     </row>
     <row r="40" spans="2:204" ht="26.25">
-      <c r="B40" s="146" t="s">
+      <c r="B40" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="147"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="148"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="138"/>
       <c r="F40" s="64"/>
       <c r="G40" s="26"/>
       <c r="H40" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I40" s="41"/>
       <c r="J40" s="14">
@@ -12428,19 +12434,19 @@
       <c r="GV40" s="13"/>
     </row>
     <row r="41" spans="2:204" ht="26.25" hidden="1">
-      <c r="B41" s="186"/>
-      <c r="C41" s="146" t="s">
+      <c r="B41" s="139"/>
+      <c r="C41" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="147"/>
-      <c r="E41" s="148"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="138"/>
       <c r="F41" s="64"/>
       <c r="G41" s="26"/>
       <c r="H41" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I41" s="132" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J41" s="14">
         <v>4</v>
@@ -12643,19 +12649,19 @@
       <c r="GV41" s="13"/>
     </row>
     <row r="42" spans="2:204" ht="26.25" hidden="1">
-      <c r="B42" s="187"/>
-      <c r="C42" s="146" t="s">
+      <c r="B42" s="140"/>
+      <c r="C42" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="147"/>
-      <c r="E42" s="148"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="138"/>
       <c r="F42" s="64"/>
       <c r="G42" s="26"/>
       <c r="H42" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I42" s="132" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J42" s="14">
         <v>5</v>
@@ -12858,19 +12864,19 @@
       <c r="GV42" s="13"/>
     </row>
     <row r="43" spans="2:204" ht="26.25" hidden="1">
-      <c r="B43" s="187"/>
-      <c r="C43" s="146" t="s">
+      <c r="B43" s="140"/>
+      <c r="C43" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="147"/>
-      <c r="E43" s="148"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="138"/>
       <c r="F43" s="64"/>
       <c r="G43" s="26"/>
       <c r="H43" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I43" s="132" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J43" s="14">
         <v>6</v>
@@ -13073,19 +13079,19 @@
       <c r="GV43" s="13"/>
     </row>
     <row r="44" spans="2:204" ht="30" hidden="1" customHeight="1">
-      <c r="B44" s="187"/>
-      <c r="C44" s="146" t="s">
+      <c r="B44" s="140"/>
+      <c r="C44" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="147"/>
-      <c r="E44" s="148"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="138"/>
       <c r="F44" s="64"/>
       <c r="G44" s="26"/>
       <c r="H44" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I44" s="132" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J44" s="14">
         <v>7</v>
@@ -13288,19 +13294,19 @@
       <c r="GV44" s="13"/>
     </row>
     <row r="45" spans="2:204" ht="26.25" hidden="1">
-      <c r="B45" s="187"/>
-      <c r="C45" s="146" t="s">
+      <c r="B45" s="140"/>
+      <c r="C45" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="147"/>
-      <c r="E45" s="148"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="138"/>
       <c r="F45" s="64"/>
       <c r="G45" s="26"/>
       <c r="H45" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I45" s="132" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J45" s="14">
         <v>8</v>
@@ -13503,19 +13509,19 @@
       <c r="GV45" s="13"/>
     </row>
     <row r="46" spans="2:204" ht="37.5" hidden="1" customHeight="1">
-      <c r="B46" s="188"/>
-      <c r="C46" s="146" t="s">
+      <c r="B46" s="141"/>
+      <c r="C46" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="147"/>
-      <c r="E46" s="148"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="138"/>
       <c r="F46" s="64"/>
       <c r="G46" s="26"/>
       <c r="H46" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I46" s="132" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J46" s="14">
         <v>9</v>
@@ -13719,18 +13725,18 @@
     </row>
     <row r="47" spans="2:204" ht="26.25" hidden="1">
       <c r="B47" s="133"/>
-      <c r="C47" s="146" t="s">
-        <v>322</v>
-      </c>
-      <c r="D47" s="147"/>
-      <c r="E47" s="148"/>
+      <c r="C47" s="136" t="s">
+        <v>317</v>
+      </c>
+      <c r="D47" s="137"/>
+      <c r="E47" s="138"/>
       <c r="F47" s="64"/>
       <c r="G47" s="26"/>
       <c r="H47" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I47" s="132" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J47" s="119">
         <v>9</v>
@@ -13934,18 +13940,18 @@
     </row>
     <row r="48" spans="2:204" ht="26.25" hidden="1">
       <c r="B48" s="133"/>
-      <c r="C48" s="146" t="s">
-        <v>323</v>
-      </c>
-      <c r="D48" s="147"/>
-      <c r="E48" s="148"/>
+      <c r="C48" s="136" t="s">
+        <v>318</v>
+      </c>
+      <c r="D48" s="137"/>
+      <c r="E48" s="138"/>
       <c r="F48" s="64"/>
       <c r="G48" s="26"/>
       <c r="H48" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I48" s="132" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J48" s="119">
         <v>9</v>
@@ -14148,16 +14154,16 @@
       <c r="GV48" s="13"/>
     </row>
     <row r="49" spans="2:204" ht="26.25">
-      <c r="B49" s="146" t="s">
+      <c r="B49" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="147"/>
-      <c r="D49" s="147"/>
-      <c r="E49" s="148"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="138"/>
       <c r="F49" s="64"/>
       <c r="G49" s="26"/>
       <c r="H49" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I49" s="41"/>
       <c r="J49" s="14">
@@ -14360,19 +14366,21 @@
       <c r="GU49" s="13"/>
       <c r="GV49" s="13"/>
     </row>
-    <row r="50" spans="2:204" ht="39" customHeight="1">
+    <row r="50" spans="2:204" ht="39" hidden="1" customHeight="1">
       <c r="B50" s="65"/>
-      <c r="C50" s="146" t="s">
+      <c r="C50" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="147"/>
-      <c r="E50" s="148"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="138"/>
       <c r="F50" s="64"/>
       <c r="G50" s="26"/>
       <c r="H50" s="119" t="s">
-        <v>315</v>
-      </c>
-      <c r="I50" s="41"/>
+        <v>310</v>
+      </c>
+      <c r="I50" s="41" t="s">
+        <v>145</v>
+      </c>
       <c r="J50" s="14">
         <v>15</v>
       </c>
@@ -14574,16 +14582,16 @@
       <c r="GV50" s="13"/>
     </row>
     <row r="51" spans="2:204" ht="26.25">
-      <c r="B51" s="146" t="s">
+      <c r="B51" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="148"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="138"/>
       <c r="F51" s="64"/>
       <c r="G51" s="26"/>
       <c r="H51" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I51" s="41"/>
       <c r="J51" s="14">
@@ -14786,31 +14794,33 @@
       <c r="GU51" s="13"/>
       <c r="GV51" s="13"/>
     </row>
-    <row r="52" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B52" s="189"/>
-      <c r="C52" s="146" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="147"/>
-      <c r="E52" s="148"/>
+    <row r="52" spans="2:204" ht="24" hidden="1" customHeight="1">
+      <c r="B52" s="135"/>
+      <c r="C52" s="136" t="s">
+        <v>327</v>
+      </c>
+      <c r="D52" s="137"/>
+      <c r="E52" s="138"/>
       <c r="F52" s="64"/>
       <c r="G52" s="26"/>
       <c r="H52" s="119" t="s">
-        <v>315</v>
-      </c>
-      <c r="I52" s="41"/>
-      <c r="J52" s="14">
+        <v>310</v>
+      </c>
+      <c r="I52" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="J52" s="119">
         <v>19</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="119">
         <v>1</v>
       </c>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
+      <c r="L52" s="119"/>
+      <c r="M52" s="119"/>
+      <c r="N52" s="119"/>
+      <c r="O52" s="119"/>
+      <c r="P52" s="119"/>
+      <c r="Q52" s="119"/>
       <c r="R52" s="15"/>
       <c r="S52" s="12"/>
       <c r="T52" s="12"/>
@@ -14999,21 +15009,21 @@
       <c r="GU52" s="13"/>
       <c r="GV52" s="13"/>
     </row>
-    <row r="53" spans="2:204" ht="26.25">
-      <c r="B53" s="191"/>
-      <c r="C53" s="146" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="147"/>
-      <c r="E53" s="148"/>
+    <row r="53" spans="2:204" ht="33.75" customHeight="1">
+      <c r="B53" s="143"/>
+      <c r="C53" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="137"/>
+      <c r="E53" s="138"/>
       <c r="F53" s="64"/>
       <c r="G53" s="26"/>
       <c r="H53" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I53" s="41"/>
       <c r="J53" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K53" s="14">
         <v>1</v>
@@ -15212,21 +15222,23 @@
       <c r="GU53" s="13"/>
       <c r="GV53" s="13"/>
     </row>
-    <row r="54" spans="2:204" ht="26.25">
-      <c r="B54" s="191"/>
-      <c r="C54" s="146" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="147"/>
-      <c r="E54" s="148"/>
+    <row r="54" spans="2:204" ht="26.25" hidden="1">
+      <c r="B54" s="144"/>
+      <c r="C54" s="136" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="137"/>
+      <c r="E54" s="138"/>
       <c r="F54" s="64"/>
       <c r="G54" s="26"/>
       <c r="H54" s="119" t="s">
-        <v>315</v>
-      </c>
-      <c r="I54" s="41"/>
+        <v>310</v>
+      </c>
+      <c r="I54" s="41" t="s">
+        <v>145</v>
+      </c>
       <c r="J54" s="14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K54" s="14">
         <v>1</v>
@@ -15425,21 +15437,23 @@
       <c r="GU54" s="13"/>
       <c r="GV54" s="13"/>
     </row>
-    <row r="55" spans="2:204" ht="32.25" customHeight="1">
-      <c r="B55" s="191"/>
-      <c r="C55" s="146" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="147"/>
-      <c r="E55" s="148"/>
+    <row r="55" spans="2:204" ht="26.25" hidden="1">
+      <c r="B55" s="144"/>
+      <c r="C55" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="137"/>
+      <c r="E55" s="138"/>
       <c r="F55" s="64"/>
       <c r="G55" s="26"/>
       <c r="H55" s="119" t="s">
-        <v>315</v>
-      </c>
-      <c r="I55" s="41"/>
+        <v>310</v>
+      </c>
+      <c r="I55" s="41" t="s">
+        <v>145</v>
+      </c>
       <c r="J55" s="14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K55" s="14">
         <v>1</v>
@@ -15638,21 +15652,21 @@
       <c r="GU55" s="13"/>
       <c r="GV55" s="13"/>
     </row>
-    <row r="56" spans="2:204" ht="43.5" customHeight="1">
-      <c r="B56" s="191"/>
-      <c r="C56" s="146" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="147"/>
-      <c r="E56" s="148"/>
+    <row r="56" spans="2:204" ht="32.25" customHeight="1">
+      <c r="B56" s="144"/>
+      <c r="C56" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="137"/>
+      <c r="E56" s="138"/>
       <c r="F56" s="64"/>
       <c r="G56" s="26"/>
       <c r="H56" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I56" s="41"/>
       <c r="J56" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K56" s="14">
         <v>1</v>
@@ -15852,20 +15866,20 @@
       <c r="GV56" s="13"/>
     </row>
     <row r="57" spans="2:204" ht="43.5" customHeight="1">
-      <c r="B57" s="191"/>
-      <c r="C57" s="146" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="147"/>
-      <c r="E57" s="148"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="136" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="137"/>
+      <c r="E57" s="138"/>
       <c r="F57" s="64"/>
       <c r="G57" s="26"/>
       <c r="H57" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I57" s="41"/>
       <c r="J57" s="14">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K57" s="14">
         <v>1</v>
@@ -16064,21 +16078,21 @@
       <c r="GU57" s="13"/>
       <c r="GV57" s="13"/>
     </row>
-    <row r="58" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B58" s="191"/>
-      <c r="C58" s="146" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="147"/>
-      <c r="E58" s="148"/>
+    <row r="58" spans="2:204" ht="43.5" customHeight="1">
+      <c r="B58" s="144"/>
+      <c r="C58" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="137"/>
+      <c r="E58" s="138"/>
       <c r="F58" s="64"/>
       <c r="G58" s="26"/>
       <c r="H58" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I58" s="41"/>
       <c r="J58" s="14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K58" s="14">
         <v>1</v>
@@ -16277,24 +16291,24 @@
       <c r="GU58" s="13"/>
       <c r="GV58" s="13"/>
     </row>
-    <row r="59" spans="2:204" ht="26.25">
-      <c r="B59" s="191"/>
-      <c r="C59" s="146" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" s="147"/>
-      <c r="E59" s="148"/>
+    <row r="59" spans="2:204" ht="33.75" customHeight="1">
+      <c r="B59" s="144"/>
+      <c r="C59" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="137"/>
+      <c r="E59" s="138"/>
       <c r="F59" s="64"/>
       <c r="G59" s="26"/>
       <c r="H59" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I59" s="41"/>
       <c r="J59" s="14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K59" s="14">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
@@ -16491,23 +16505,23 @@
       <c r="GV59" s="13"/>
     </row>
     <row r="60" spans="2:204" ht="26.25">
-      <c r="B60" s="191"/>
-      <c r="C60" s="189"/>
-      <c r="D60" s="192" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="193"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="136" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="137"/>
+      <c r="E60" s="138"/>
       <c r="F60" s="64"/>
       <c r="G60" s="26"/>
       <c r="H60" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I60" s="41"/>
       <c r="J60" s="14">
         <v>23</v>
       </c>
       <c r="K60" s="14">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
@@ -16704,23 +16718,23 @@
       <c r="GV60" s="13"/>
     </row>
     <row r="61" spans="2:204" ht="26.25">
-      <c r="B61" s="191"/>
-      <c r="C61" s="191"/>
-      <c r="D61" s="192" t="s">
-        <v>102</v>
-      </c>
-      <c r="E61" s="193"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="146" t="s">
+        <v>322</v>
+      </c>
+      <c r="E61" s="147"/>
       <c r="F61" s="64"/>
       <c r="G61" s="26"/>
       <c r="H61" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I61" s="41"/>
       <c r="J61" s="14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K61" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
@@ -16916,24 +16930,24 @@
       <c r="GU61" s="13"/>
       <c r="GV61" s="13"/>
     </row>
-    <row r="62" spans="2:204" ht="36" customHeight="1">
-      <c r="B62" s="191"/>
-      <c r="C62" s="191"/>
-      <c r="D62" s="189"/>
-      <c r="E62" s="65" t="s">
-        <v>105</v>
-      </c>
+    <row r="62" spans="2:204" ht="26.25">
+      <c r="B62" s="144"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="146" t="s">
+        <v>323</v>
+      </c>
+      <c r="E62" s="147"/>
       <c r="F62" s="64"/>
       <c r="G62" s="26"/>
       <c r="H62" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I62" s="41"/>
       <c r="J62" s="14">
         <v>24</v>
       </c>
       <c r="K62" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
@@ -17129,19 +17143,21 @@
       <c r="GU62" s="13"/>
       <c r="GV62" s="13"/>
     </row>
-    <row r="63" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B63" s="191"/>
-      <c r="C63" s="191"/>
-      <c r="D63" s="191"/>
+    <row r="63" spans="2:204" ht="36" hidden="1" customHeight="1">
+      <c r="B63" s="144"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="143"/>
       <c r="E63" s="65" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F63" s="64"/>
       <c r="G63" s="26"/>
       <c r="H63" s="119" t="s">
-        <v>315</v>
-      </c>
-      <c r="I63" s="41"/>
+        <v>310</v>
+      </c>
+      <c r="I63" s="41" t="s">
+        <v>145</v>
+      </c>
       <c r="J63" s="14">
         <v>24</v>
       </c>
@@ -17342,21 +17358,23 @@
       <c r="GU63" s="13"/>
       <c r="GV63" s="13"/>
     </row>
-    <row r="64" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B64" s="191"/>
-      <c r="C64" s="191"/>
-      <c r="D64" s="191"/>
+    <row r="64" spans="2:204" ht="35.25" hidden="1" customHeight="1">
+      <c r="B64" s="144"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="144"/>
       <c r="E64" s="65" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F64" s="64"/>
       <c r="G64" s="26"/>
       <c r="H64" s="119" t="s">
-        <v>315</v>
-      </c>
-      <c r="I64" s="41"/>
+        <v>310</v>
+      </c>
+      <c r="I64" s="41" t="s">
+        <v>145</v>
+      </c>
       <c r="J64" s="14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K64" s="14">
         <v>1</v>
@@ -17555,19 +17573,21 @@
       <c r="GU64" s="13"/>
       <c r="GV64" s="13"/>
     </row>
-    <row r="65" spans="1:204" ht="33.75" customHeight="1">
-      <c r="B65" s="191"/>
-      <c r="C65" s="191"/>
-      <c r="D65" s="191"/>
+    <row r="65" spans="1:204" ht="35.25" hidden="1" customHeight="1">
+      <c r="B65" s="144"/>
+      <c r="C65" s="144"/>
+      <c r="D65" s="144"/>
       <c r="E65" s="65" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F65" s="64"/>
       <c r="G65" s="26"/>
       <c r="H65" s="119" t="s">
-        <v>315</v>
-      </c>
-      <c r="I65" s="41"/>
+        <v>310</v>
+      </c>
+      <c r="I65" s="41" t="s">
+        <v>145</v>
+      </c>
       <c r="J65" s="14">
         <v>25</v>
       </c>
@@ -17768,21 +17788,23 @@
       <c r="GU65" s="13"/>
       <c r="GV65" s="13"/>
     </row>
-    <row r="66" spans="1:204" ht="26.25">
-      <c r="B66" s="191"/>
-      <c r="C66" s="191"/>
-      <c r="D66" s="191"/>
+    <row r="66" spans="1:204" ht="33.75" hidden="1" customHeight="1">
+      <c r="B66" s="144"/>
+      <c r="C66" s="144"/>
+      <c r="D66" s="144"/>
       <c r="E66" s="65" t="s">
         <v>107</v>
       </c>
       <c r="F66" s="64"/>
       <c r="G66" s="26"/>
       <c r="H66" s="119" t="s">
-        <v>315</v>
-      </c>
-      <c r="I66" s="41"/>
+        <v>310</v>
+      </c>
+      <c r="I66" s="41" t="s">
+        <v>145</v>
+      </c>
       <c r="J66" s="14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K66" s="14">
         <v>1</v>
@@ -17981,19 +18003,21 @@
       <c r="GU66" s="13"/>
       <c r="GV66" s="13"/>
     </row>
-    <row r="67" spans="1:204" ht="26.25">
-      <c r="B67" s="191"/>
-      <c r="C67" s="191"/>
-      <c r="D67" s="191"/>
+    <row r="67" spans="1:204" ht="26.25" hidden="1">
+      <c r="B67" s="144"/>
+      <c r="C67" s="144"/>
+      <c r="D67" s="144"/>
       <c r="E67" s="65" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F67" s="64"/>
       <c r="G67" s="26"/>
       <c r="H67" s="119" t="s">
-        <v>315</v>
-      </c>
-      <c r="I67" s="41"/>
+        <v>310</v>
+      </c>
+      <c r="I67" s="41" t="s">
+        <v>145</v>
+      </c>
       <c r="J67" s="14">
         <v>26</v>
       </c>
@@ -18194,21 +18218,23 @@
       <c r="GU67" s="13"/>
       <c r="GV67" s="13"/>
     </row>
-    <row r="68" spans="1:204" ht="26.25">
-      <c r="B68" s="191"/>
-      <c r="C68" s="191"/>
-      <c r="D68" s="191"/>
+    <row r="68" spans="1:204" ht="26.25" hidden="1">
+      <c r="B68" s="144"/>
+      <c r="C68" s="144"/>
+      <c r="D68" s="144"/>
       <c r="E68" s="65" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F68" s="64"/>
       <c r="G68" s="26"/>
       <c r="H68" s="119" t="s">
-        <v>315</v>
-      </c>
-      <c r="I68" s="41"/>
+        <v>310</v>
+      </c>
+      <c r="I68" s="41" t="s">
+        <v>145</v>
+      </c>
       <c r="J68" s="14">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K68" s="14">
         <v>1</v>
@@ -18407,19 +18433,21 @@
       <c r="GU68" s="13"/>
       <c r="GV68" s="13"/>
     </row>
-    <row r="69" spans="1:204" ht="37.5" customHeight="1">
-      <c r="B69" s="191"/>
-      <c r="C69" s="191"/>
-      <c r="D69" s="190"/>
+    <row r="69" spans="1:204" ht="26.25" hidden="1">
+      <c r="B69" s="144"/>
+      <c r="C69" s="144"/>
+      <c r="D69" s="144"/>
       <c r="E69" s="65" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F69" s="64"/>
       <c r="G69" s="26"/>
       <c r="H69" s="119" t="s">
-        <v>315</v>
-      </c>
-      <c r="I69" s="41"/>
+        <v>310</v>
+      </c>
+      <c r="I69" s="41" t="s">
+        <v>145</v>
+      </c>
       <c r="J69" s="14">
         <v>27</v>
       </c>
@@ -18620,21 +18648,23 @@
       <c r="GU69" s="13"/>
       <c r="GV69" s="13"/>
     </row>
-    <row r="70" spans="1:204" ht="33" customHeight="1">
-      <c r="B70" s="191"/>
-      <c r="C70" s="191"/>
-      <c r="D70" s="146" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" s="148"/>
+    <row r="70" spans="1:204" ht="37.5" hidden="1" customHeight="1">
+      <c r="B70" s="144"/>
+      <c r="C70" s="144"/>
+      <c r="D70" s="145"/>
+      <c r="E70" s="65" t="s">
+        <v>106</v>
+      </c>
       <c r="F70" s="64"/>
       <c r="G70" s="26"/>
       <c r="H70" s="119" t="s">
-        <v>315</v>
-      </c>
-      <c r="I70" s="41"/>
+        <v>310</v>
+      </c>
+      <c r="I70" s="41" t="s">
+        <v>145</v>
+      </c>
       <c r="J70" s="14">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K70" s="14">
         <v>1</v>
@@ -18833,24 +18863,24 @@
       <c r="GU70" s="13"/>
       <c r="GV70" s="13"/>
     </row>
-    <row r="71" spans="1:204" ht="26.25">
-      <c r="B71" s="191"/>
-      <c r="C71" s="191"/>
-      <c r="D71" s="146" t="s">
-        <v>103</v>
-      </c>
-      <c r="E71" s="148"/>
+    <row r="71" spans="1:204" ht="33" customHeight="1">
+      <c r="B71" s="144"/>
+      <c r="C71" s="144"/>
+      <c r="D71" s="136" t="s">
+        <v>324</v>
+      </c>
+      <c r="E71" s="138"/>
       <c r="F71" s="64"/>
       <c r="G71" s="26"/>
       <c r="H71" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I71" s="41"/>
       <c r="J71" s="14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K71" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
@@ -19046,24 +19076,24 @@
       <c r="GU71" s="13"/>
       <c r="GV71" s="13"/>
     </row>
-    <row r="72" spans="1:204" ht="34.5" customHeight="1">
-      <c r="B72" s="190"/>
-      <c r="C72" s="190"/>
-      <c r="D72" s="146" t="s">
-        <v>104</v>
-      </c>
-      <c r="E72" s="148"/>
+    <row r="72" spans="1:204" ht="26.25">
+      <c r="B72" s="144"/>
+      <c r="C72" s="144"/>
+      <c r="D72" s="136" t="s">
+        <v>325</v>
+      </c>
+      <c r="E72" s="138"/>
       <c r="F72" s="64"/>
       <c r="G72" s="26"/>
       <c r="H72" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I72" s="41"/>
       <c r="J72" s="14">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K72" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
@@ -19259,37 +19289,29 @@
       <c r="GU72" s="13"/>
       <c r="GV72" s="13"/>
     </row>
-    <row r="73" spans="1:204" ht="26.25">
-      <c r="B73" s="143" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" s="144"/>
-      <c r="D73" s="144"/>
-      <c r="E73" s="145"/>
-      <c r="F73" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H73" s="14" t="s">
-        <v>77</v>
+    <row r="73" spans="1:204" ht="34.5" customHeight="1">
+      <c r="B73" s="145"/>
+      <c r="C73" s="145"/>
+      <c r="D73" s="136" t="s">
+        <v>326</v>
+      </c>
+      <c r="E73" s="138"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="119" t="s">
+        <v>310</v>
       </c>
       <c r="I73" s="41"/>
       <c r="J73" s="14">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K73" s="14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
-      <c r="N73" s="14">
-        <v>2</v>
-      </c>
-      <c r="O73" s="14">
-        <v>6</v>
-      </c>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
       <c r="R73" s="15"/>
@@ -19480,16 +19502,20 @@
       <c r="GU73" s="13"/>
       <c r="GV73" s="13"/>
     </row>
-    <row r="74" spans="1:204" ht="45" customHeight="1">
-      <c r="B74" s="97"/>
-      <c r="C74" s="98"/>
-      <c r="D74" s="185" t="s">
-        <v>312</v>
-      </c>
-      <c r="E74" s="185"/>
-      <c r="F74" s="114"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="119" t="s">
+    <row r="74" spans="1:204" ht="26.25">
+      <c r="B74" s="153" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="151"/>
+      <c r="D74" s="151"/>
+      <c r="E74" s="152"/>
+      <c r="F74" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" s="14" t="s">
         <v>77</v>
       </c>
       <c r="I74" s="41"/>
@@ -19497,12 +19523,16 @@
         <v>38</v>
       </c>
       <c r="K74" s="14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
+      <c r="N74" s="14">
+        <v>2</v>
+      </c>
+      <c r="O74" s="14">
+        <v>6</v>
+      </c>
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
       <c r="R74" s="15"/>
@@ -19693,24 +19723,24 @@
       <c r="GU74" s="13"/>
       <c r="GV74" s="13"/>
     </row>
-    <row r="75" spans="1:204" ht="47.25" customHeight="1">
+    <row r="75" spans="1:204" ht="45" customHeight="1">
       <c r="B75" s="97"/>
       <c r="C75" s="98"/>
-      <c r="D75" s="185" t="s">
-        <v>313</v>
-      </c>
-      <c r="E75" s="185"/>
-      <c r="F75" s="64"/>
+      <c r="D75" s="142" t="s">
+        <v>307</v>
+      </c>
+      <c r="E75" s="142"/>
+      <c r="F75" s="114"/>
       <c r="G75" s="26"/>
       <c r="H75" s="119" t="s">
         <v>77</v>
       </c>
       <c r="I75" s="41"/>
       <c r="J75" s="14">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K75" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L75" s="14"/>
       <c r="M75" s="14"/>
@@ -19906,13 +19936,13 @@
       <c r="GU75" s="13"/>
       <c r="GV75" s="13"/>
     </row>
-    <row r="76" spans="1:204" ht="26.25">
+    <row r="76" spans="1:204" ht="47.25" customHeight="1">
       <c r="B76" s="97"/>
       <c r="C76" s="98"/>
-      <c r="D76" s="185" t="s">
-        <v>314</v>
-      </c>
-      <c r="E76" s="185"/>
+      <c r="D76" s="142" t="s">
+        <v>308</v>
+      </c>
+      <c r="E76" s="142"/>
       <c r="F76" s="64"/>
       <c r="G76" s="26"/>
       <c r="H76" s="119" t="s">
@@ -19920,10 +19950,10 @@
       </c>
       <c r="I76" s="41"/>
       <c r="J76" s="14">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K76" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
@@ -20119,29 +20149,32 @@
       <c r="GU76" s="13"/>
       <c r="GV76" s="13"/>
     </row>
-    <row r="77" spans="1:204" ht="32.25" customHeight="1">
-      <c r="A77" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B77" s="141" t="s">
-        <v>320</v>
-      </c>
-      <c r="C77" s="142"/>
-      <c r="D77" s="142"/>
+    <row r="77" spans="1:204" ht="26.25">
+      <c r="B77" s="97"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="142" t="s">
+        <v>309</v>
+      </c>
       <c r="E77" s="142"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="10"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="I77" s="41"/>
+      <c r="J77" s="14">
+        <v>45</v>
+      </c>
+      <c r="K77" s="14">
+        <v>1</v>
+      </c>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="15"/>
       <c r="S77" s="12"/>
       <c r="T77" s="12"/>
       <c r="U77" s="12"/>
@@ -20329,40 +20362,29 @@
       <c r="GU77" s="13"/>
       <c r="GV77" s="13"/>
     </row>
-    <row r="78" spans="1:204" ht="26.25">
-      <c r="B78" s="143" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" s="144"/>
-      <c r="D78" s="144"/>
-      <c r="E78" s="145"/>
-      <c r="F78" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G78" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H78" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I78" s="41"/>
-      <c r="J78" s="14">
-        <v>22</v>
-      </c>
-      <c r="K78" s="14">
-        <v>7</v>
-      </c>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14">
-        <v>2</v>
-      </c>
-      <c r="O78" s="14">
-        <v>4</v>
-      </c>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="14"/>
-      <c r="R78" s="15"/>
+    <row r="78" spans="1:204" ht="32.25" customHeight="1">
+      <c r="A78" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="171" t="s">
+        <v>315</v>
+      </c>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
+      <c r="E78" s="169"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="10"/>
       <c r="S78" s="12"/>
       <c r="T78" s="12"/>
       <c r="U78" s="12"/>
@@ -20550,15 +20572,19 @@
       <c r="GU78" s="13"/>
       <c r="GV78" s="13"/>
     </row>
-    <row r="79" spans="1:204" ht="44.25" customHeight="1">
-      <c r="B79" s="97"/>
-      <c r="C79" s="144" t="s">
-        <v>298</v>
-      </c>
-      <c r="D79" s="144"/>
-      <c r="E79" s="145"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="26"/>
+    <row r="79" spans="1:204" ht="26.25">
+      <c r="B79" s="153" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="151"/>
+      <c r="D79" s="151"/>
+      <c r="E79" s="152"/>
+      <c r="F79" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>292</v>
+      </c>
       <c r="H79" s="14" t="s">
         <v>77</v>
       </c>
@@ -20567,12 +20593,16 @@
         <v>22</v>
       </c>
       <c r="K79" s="14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="14"/>
+      <c r="N79" s="14">
+        <v>2</v>
+      </c>
+      <c r="O79" s="14">
+        <v>4</v>
+      </c>
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
       <c r="R79" s="15"/>
@@ -20763,13 +20793,13 @@
       <c r="GU79" s="13"/>
       <c r="GV79" s="13"/>
     </row>
-    <row r="80" spans="1:204" ht="60.75" customHeight="1">
+    <row r="80" spans="1:204" ht="44.25" customHeight="1">
       <c r="B80" s="97"/>
-      <c r="C80" s="144" t="s">
-        <v>304</v>
-      </c>
-      <c r="D80" s="144"/>
-      <c r="E80" s="145"/>
+      <c r="C80" s="151" t="s">
+        <v>293</v>
+      </c>
+      <c r="D80" s="151"/>
+      <c r="E80" s="152"/>
       <c r="F80" s="23"/>
       <c r="G80" s="26"/>
       <c r="H80" s="14" t="s">
@@ -20777,10 +20807,10 @@
       </c>
       <c r="I80" s="41"/>
       <c r="J80" s="14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K80" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
@@ -20976,13 +21006,13 @@
       <c r="GU80" s="13"/>
       <c r="GV80" s="13"/>
     </row>
-    <row r="81" spans="1:204" ht="26.25">
+    <row r="81" spans="2:204" ht="60.75" customHeight="1">
       <c r="B81" s="97"/>
-      <c r="C81" s="144" t="s">
-        <v>283</v>
-      </c>
-      <c r="D81" s="144"/>
-      <c r="E81" s="145"/>
+      <c r="C81" s="151" t="s">
+        <v>299</v>
+      </c>
+      <c r="D81" s="151"/>
+      <c r="E81" s="152"/>
       <c r="F81" s="23"/>
       <c r="G81" s="26"/>
       <c r="H81" s="14" t="s">
@@ -20990,10 +21020,10 @@
       </c>
       <c r="I81" s="41"/>
       <c r="J81" s="14">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K81" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
@@ -21189,13 +21219,13 @@
       <c r="GU81" s="13"/>
       <c r="GV81" s="13"/>
     </row>
-    <row r="82" spans="1:204" ht="26.25">
+    <row r="82" spans="2:204" ht="26.25">
       <c r="B82" s="97"/>
-      <c r="C82" s="144" t="s">
-        <v>284</v>
-      </c>
-      <c r="D82" s="144"/>
-      <c r="E82" s="145"/>
+      <c r="C82" s="151" t="s">
+        <v>278</v>
+      </c>
+      <c r="D82" s="151"/>
+      <c r="E82" s="152"/>
       <c r="F82" s="23"/>
       <c r="G82" s="26"/>
       <c r="H82" s="14" t="s">
@@ -21203,7 +21233,7 @@
       </c>
       <c r="I82" s="41"/>
       <c r="J82" s="14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K82" s="14">
         <v>1</v>
@@ -21402,37 +21432,29 @@
       <c r="GU82" s="13"/>
       <c r="GV82" s="13"/>
     </row>
-    <row r="83" spans="1:204" ht="26.25">
-      <c r="B83" s="143" t="s">
-        <v>50</v>
-      </c>
-      <c r="C83" s="144"/>
-      <c r="D83" s="144"/>
-      <c r="E83" s="145"/>
-      <c r="F83" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" s="26" t="s">
-        <v>38</v>
-      </c>
+    <row r="83" spans="2:204" ht="26.25">
+      <c r="B83" s="97"/>
+      <c r="C83" s="151" t="s">
+        <v>279</v>
+      </c>
+      <c r="D83" s="151"/>
+      <c r="E83" s="152"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="26"/>
       <c r="H83" s="14" t="s">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="I83" s="41"/>
       <c r="J83" s="14">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K83" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
-      <c r="N83" s="14">
-        <v>2</v>
-      </c>
-      <c r="O83" s="14">
-        <v>4</v>
-      </c>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
       <c r="R83" s="15"/>
@@ -21623,29 +21645,37 @@
       <c r="GU83" s="13"/>
       <c r="GV83" s="13"/>
     </row>
-    <row r="84" spans="1:204" ht="48.75" customHeight="1">
-      <c r="B84" s="97"/>
-      <c r="C84" s="144" t="s">
-        <v>285</v>
-      </c>
-      <c r="D84" s="144"/>
-      <c r="E84" s="145"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="119" t="s">
-        <v>315</v>
+    <row r="84" spans="2:204" ht="26.25">
+      <c r="B84" s="153" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="151"/>
+      <c r="D84" s="151"/>
+      <c r="E84" s="152"/>
+      <c r="F84" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>310</v>
       </c>
       <c r="I84" s="41"/>
       <c r="J84" s="14">
         <v>46</v>
       </c>
       <c r="K84" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
+      <c r="N84" s="14">
+        <v>2</v>
+      </c>
+      <c r="O84" s="14">
+        <v>4</v>
+      </c>
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
       <c r="R84" s="15"/>
@@ -21836,24 +21866,24 @@
       <c r="GU84" s="13"/>
       <c r="GV84" s="13"/>
     </row>
-    <row r="85" spans="1:204" ht="26.25">
+    <row r="85" spans="2:204" ht="48.75" customHeight="1">
       <c r="B85" s="97"/>
-      <c r="C85" s="144" t="s">
-        <v>286</v>
-      </c>
-      <c r="D85" s="144"/>
-      <c r="E85" s="145"/>
+      <c r="C85" s="151" t="s">
+        <v>280</v>
+      </c>
+      <c r="D85" s="151"/>
+      <c r="E85" s="152"/>
       <c r="F85" s="23"/>
       <c r="G85" s="26"/>
       <c r="H85" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I85" s="41"/>
       <c r="J85" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
@@ -22049,37 +22079,29 @@
       <c r="GU85" s="13"/>
       <c r="GV85" s="13"/>
     </row>
-    <row r="86" spans="1:204" ht="26.25">
-      <c r="B86" s="143" t="s">
-        <v>280</v>
-      </c>
-      <c r="C86" s="144"/>
-      <c r="D86" s="144"/>
-      <c r="E86" s="145"/>
-      <c r="F86" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G86" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H86" s="14" t="s">
-        <v>41</v>
+    <row r="86" spans="2:204" ht="26.25">
+      <c r="B86" s="97"/>
+      <c r="C86" s="151" t="s">
+        <v>281</v>
+      </c>
+      <c r="D86" s="151"/>
+      <c r="E86" s="152"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="119" t="s">
+        <v>310</v>
       </c>
       <c r="I86" s="41"/>
-      <c r="J86" s="100">
-        <v>17</v>
-      </c>
-      <c r="K86" s="100">
-        <v>14</v>
+      <c r="J86" s="14">
+        <v>47</v>
+      </c>
+      <c r="K86" s="14">
+        <v>3</v>
       </c>
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
-      <c r="N86" s="14">
-        <v>1</v>
-      </c>
-      <c r="O86" s="14">
-        <v>2</v>
-      </c>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
       <c r="R86" s="15"/>
@@ -22270,36 +22292,36 @@
       <c r="GU86" s="13"/>
       <c r="GV86" s="13"/>
     </row>
-    <row r="87" spans="1:204" ht="26.25">
-      <c r="B87" s="143" t="s">
-        <v>281</v>
-      </c>
-      <c r="C87" s="144"/>
-      <c r="D87" s="144"/>
-      <c r="E87" s="145"/>
-      <c r="F87" s="23" t="s">
-        <v>42</v>
+    <row r="87" spans="2:204" ht="26.25">
+      <c r="B87" s="153" t="s">
+        <v>275</v>
+      </c>
+      <c r="C87" s="151"/>
+      <c r="D87" s="151"/>
+      <c r="E87" s="152"/>
+      <c r="F87" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I87" s="41"/>
-      <c r="J87" s="14">
-        <v>46</v>
-      </c>
-      <c r="K87" s="14">
-        <v>11</v>
+      <c r="J87" s="100">
+        <v>17</v>
+      </c>
+      <c r="K87" s="100">
+        <v>14</v>
       </c>
       <c r="L87" s="14"/>
       <c r="M87" s="14"/>
       <c r="N87" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O87" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
@@ -22491,29 +22513,37 @@
       <c r="GU87" s="13"/>
       <c r="GV87" s="13"/>
     </row>
-    <row r="88" spans="1:204" ht="26.25">
-      <c r="B88" s="176"/>
-      <c r="C88" s="177"/>
-      <c r="D88" s="174" t="s">
-        <v>291</v>
-      </c>
-      <c r="E88" s="145"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="122" t="s">
-        <v>77</v>
+    <row r="88" spans="2:204" ht="26.25">
+      <c r="B88" s="153" t="s">
+        <v>276</v>
+      </c>
+      <c r="C88" s="151"/>
+      <c r="D88" s="151"/>
+      <c r="E88" s="152"/>
+      <c r="F88" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="I88" s="41"/>
       <c r="J88" s="14">
         <v>46</v>
       </c>
       <c r="K88" s="14">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L88" s="14"/>
       <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
+      <c r="N88" s="14">
+        <v>3</v>
+      </c>
+      <c r="O88" s="14">
+        <v>3</v>
+      </c>
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
       <c r="R88" s="15"/>
@@ -22704,13 +22734,13 @@
       <c r="GU88" s="13"/>
       <c r="GV88" s="13"/>
     </row>
-    <row r="89" spans="1:204" ht="30" customHeight="1">
-      <c r="B89" s="178"/>
-      <c r="C89" s="179"/>
-      <c r="D89" s="123"/>
-      <c r="E89" s="99" t="s">
-        <v>292</v>
-      </c>
+    <row r="89" spans="2:204" ht="26.25">
+      <c r="B89" s="159"/>
+      <c r="C89" s="160"/>
+      <c r="D89" s="157" t="s">
+        <v>286</v>
+      </c>
+      <c r="E89" s="152"/>
       <c r="F89" s="23"/>
       <c r="G89" s="26"/>
       <c r="H89" s="122" t="s">
@@ -22917,22 +22947,24 @@
       <c r="GU89" s="13"/>
       <c r="GV89" s="13"/>
     </row>
-    <row r="90" spans="1:204" ht="26.25">
-      <c r="B90" s="178"/>
-      <c r="C90" s="180"/>
-      <c r="D90" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="E90" s="145"/>
+    <row r="90" spans="2:204" ht="30" customHeight="1">
+      <c r="B90" s="161"/>
+      <c r="C90" s="162"/>
+      <c r="D90" s="123"/>
+      <c r="E90" s="99" t="s">
+        <v>287</v>
+      </c>
       <c r="F90" s="23"/>
       <c r="G90" s="26"/>
-      <c r="H90" s="14"/>
+      <c r="H90" s="122" t="s">
+        <v>77</v>
+      </c>
       <c r="I90" s="41"/>
       <c r="J90" s="14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K90" s="14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L90" s="14"/>
       <c r="M90" s="14"/>
@@ -23128,24 +23160,22 @@
       <c r="GU90" s="13"/>
       <c r="GV90" s="13"/>
     </row>
-    <row r="91" spans="1:204" ht="49.5" customHeight="1">
-      <c r="B91" s="178"/>
-      <c r="C91" s="179"/>
-      <c r="D91" s="183"/>
-      <c r="E91" s="99" t="s">
-        <v>288</v>
-      </c>
+    <row r="91" spans="2:204" ht="26.25">
+      <c r="B91" s="161"/>
+      <c r="C91" s="163"/>
+      <c r="D91" s="158" t="s">
+        <v>285</v>
+      </c>
+      <c r="E91" s="152"/>
       <c r="F91" s="23"/>
       <c r="G91" s="26"/>
-      <c r="H91" s="122" t="s">
-        <v>77</v>
-      </c>
+      <c r="H91" s="14"/>
       <c r="I91" s="41"/>
       <c r="J91" s="14">
         <v>49</v>
       </c>
       <c r="K91" s="14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L91" s="14"/>
       <c r="M91" s="14"/>
@@ -23341,12 +23371,12 @@
       <c r="GU91" s="13"/>
       <c r="GV91" s="13"/>
     </row>
-    <row r="92" spans="1:204" ht="28.5" customHeight="1">
-      <c r="B92" s="181"/>
-      <c r="C92" s="182"/>
-      <c r="D92" s="184"/>
+    <row r="92" spans="2:204" ht="49.5" customHeight="1">
+      <c r="B92" s="161"/>
+      <c r="C92" s="162"/>
+      <c r="D92" s="166"/>
       <c r="E92" s="99" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F92" s="23"/>
       <c r="G92" s="26"/>
@@ -23355,10 +23385,10 @@
       </c>
       <c r="I92" s="41"/>
       <c r="J92" s="14">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K92" s="14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L92" s="14"/>
       <c r="M92" s="14"/>
@@ -23554,37 +23584,29 @@
       <c r="GU92" s="13"/>
       <c r="GV92" s="13"/>
     </row>
-    <row r="93" spans="1:204" ht="26.25">
-      <c r="B93" s="143" t="s">
-        <v>282</v>
-      </c>
-      <c r="C93" s="144"/>
-      <c r="D93" s="171"/>
-      <c r="E93" s="145"/>
-      <c r="F93" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G93" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="H93" s="14" t="s">
-        <v>33</v>
+    <row r="93" spans="2:204" ht="28.5" customHeight="1">
+      <c r="B93" s="164"/>
+      <c r="C93" s="165"/>
+      <c r="D93" s="167"/>
+      <c r="E93" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="F93" s="23"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="122" t="s">
+        <v>77</v>
       </c>
       <c r="I93" s="41"/>
-      <c r="J93" s="121">
+      <c r="J93" s="14">
         <v>50</v>
       </c>
-      <c r="K93" s="121">
+      <c r="K93" s="14">
         <v>7</v>
       </c>
       <c r="L93" s="14"/>
       <c r="M93" s="14"/>
-      <c r="N93" s="14">
-        <v>2</v>
-      </c>
-      <c r="O93" s="14">
-        <v>2</v>
-      </c>
+      <c r="N93" s="14"/>
+      <c r="O93" s="14"/>
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
       <c r="R93" s="15"/>
@@ -23775,29 +23797,37 @@
       <c r="GU93" s="13"/>
       <c r="GV93" s="13"/>
     </row>
-    <row r="94" spans="1:204" ht="47.25" customHeight="1">
-      <c r="B94" s="97"/>
-      <c r="C94" s="98"/>
-      <c r="D94" s="144" t="s">
-        <v>316</v>
-      </c>
-      <c r="E94" s="145"/>
-      <c r="F94" s="114"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="I94" s="117"/>
-      <c r="J94" s="14">
+    <row r="94" spans="2:204" ht="26.25">
+      <c r="B94" s="153" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" s="151"/>
+      <c r="D94" s="154"/>
+      <c r="E94" s="152"/>
+      <c r="F94" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K94" s="14">
-        <v>1</v>
-      </c>
-      <c r="L94" s="116"/>
-      <c r="M94" s="116"/>
-      <c r="N94" s="116"/>
-      <c r="O94" s="116"/>
+      <c r="G94" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I94" s="41"/>
+      <c r="J94" s="121">
+        <v>50</v>
+      </c>
+      <c r="K94" s="121">
+        <v>7</v>
+      </c>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14">
+        <v>2</v>
+      </c>
+      <c r="O94" s="14">
+        <v>2</v>
+      </c>
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
       <c r="R94" s="15"/>
@@ -23988,24 +24018,24 @@
       <c r="GU94" s="13"/>
       <c r="GV94" s="13"/>
     </row>
-    <row r="95" spans="1:204" ht="27" customHeight="1">
+    <row r="95" spans="2:204" ht="47.25" customHeight="1">
       <c r="B95" s="97"/>
       <c r="C95" s="98"/>
-      <c r="D95" s="144" t="s">
-        <v>317</v>
-      </c>
-      <c r="E95" s="145"/>
+      <c r="D95" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="E95" s="152"/>
       <c r="F95" s="114"/>
       <c r="G95" s="46"/>
       <c r="H95" s="115" t="s">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="I95" s="117"/>
       <c r="J95" s="14">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="K95" s="14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L95" s="116"/>
       <c r="M95" s="116"/>
@@ -24201,33 +24231,32 @@
       <c r="GU95" s="13"/>
       <c r="GV95" s="13"/>
     </row>
-    <row r="96" spans="1:204" ht="31.5" customHeight="1">
-      <c r="A96" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B96" s="172" t="s">
-        <v>319</v>
-      </c>
-      <c r="C96" s="173"/>
-      <c r="D96" s="173"/>
-      <c r="E96" s="173"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="118">
-        <v>57</v>
-      </c>
-      <c r="K96" s="118">
-        <v>68</v>
-      </c>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="9"/>
-      <c r="Q96" s="9"/>
-      <c r="R96" s="10"/>
+    <row r="96" spans="2:204" ht="27" customHeight="1">
+      <c r="B96" s="97"/>
+      <c r="C96" s="98"/>
+      <c r="D96" s="151" t="s">
+        <v>312</v>
+      </c>
+      <c r="E96" s="152"/>
+      <c r="F96" s="114"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="115" t="s">
+        <v>282</v>
+      </c>
+      <c r="I96" s="117"/>
+      <c r="J96" s="14">
+        <v>50</v>
+      </c>
+      <c r="K96" s="14">
+        <v>7</v>
+      </c>
+      <c r="L96" s="116"/>
+      <c r="M96" s="116"/>
+      <c r="N96" s="116"/>
+      <c r="O96" s="116"/>
+      <c r="P96" s="14"/>
+      <c r="Q96" s="14"/>
+      <c r="R96" s="15"/>
       <c r="S96" s="12"/>
       <c r="T96" s="12"/>
       <c r="U96" s="12"/>
@@ -24415,40 +24444,33 @@
       <c r="GU96" s="13"/>
       <c r="GV96" s="13"/>
     </row>
-    <row r="97" spans="2:204" ht="26.25">
-      <c r="B97" s="143" t="s">
-        <v>49</v>
-      </c>
-      <c r="C97" s="144"/>
-      <c r="D97" s="144"/>
-      <c r="E97" s="145"/>
-      <c r="F97" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H97" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I97" s="41"/>
-      <c r="J97" s="120">
+    <row r="97" spans="1:204" ht="31.5" customHeight="1">
+      <c r="A97" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="155" t="s">
+        <v>314</v>
+      </c>
+      <c r="C97" s="156"/>
+      <c r="D97" s="156"/>
+      <c r="E97" s="156"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="118">
         <v>57</v>
       </c>
-      <c r="K97" s="14">
-        <v>17</v>
-      </c>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-      <c r="N97" s="14">
-        <v>2</v>
-      </c>
-      <c r="O97" s="14">
-        <v>2</v>
-      </c>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
-      <c r="R97" s="15"/>
+      <c r="K97" s="118">
+        <v>68</v>
+      </c>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="10"/>
       <c r="S97" s="12"/>
       <c r="T97" s="12"/>
       <c r="U97" s="12"/>
@@ -24636,16 +24658,20 @@
       <c r="GU97" s="13"/>
       <c r="GV97" s="13"/>
     </row>
-    <row r="98" spans="2:204" ht="48" customHeight="1">
-      <c r="B98" s="97"/>
-      <c r="C98" s="144" t="s">
-        <v>303</v>
-      </c>
-      <c r="D98" s="144"/>
-      <c r="E98" s="145"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="119" t="s">
+    <row r="98" spans="1:204" ht="26.25">
+      <c r="B98" s="153" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="151"/>
+      <c r="D98" s="151"/>
+      <c r="E98" s="152"/>
+      <c r="F98" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" s="14" t="s">
         <v>77</v>
       </c>
       <c r="I98" s="41"/>
@@ -24653,12 +24679,16 @@
         <v>57</v>
       </c>
       <c r="K98" s="14">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
-      <c r="N98" s="14"/>
-      <c r="O98" s="14"/>
+      <c r="N98" s="14">
+        <v>2</v>
+      </c>
+      <c r="O98" s="14">
+        <v>2</v>
+      </c>
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
       <c r="R98" s="15"/>
@@ -24849,13 +24879,13 @@
       <c r="GU98" s="13"/>
       <c r="GV98" s="13"/>
     </row>
-    <row r="99" spans="2:204" ht="26.25">
+    <row r="99" spans="1:204" ht="48" customHeight="1">
       <c r="B99" s="97"/>
-      <c r="C99" s="144" t="s">
-        <v>305</v>
-      </c>
-      <c r="D99" s="144"/>
-      <c r="E99" s="145"/>
+      <c r="C99" s="151" t="s">
+        <v>298</v>
+      </c>
+      <c r="D99" s="151"/>
+      <c r="E99" s="152"/>
       <c r="F99" s="23"/>
       <c r="G99" s="16"/>
       <c r="H99" s="119" t="s">
@@ -24863,10 +24893,10 @@
       </c>
       <c r="I99" s="41"/>
       <c r="J99" s="120">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K99" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
@@ -25062,13 +25092,13 @@
       <c r="GU99" s="13"/>
       <c r="GV99" s="13"/>
     </row>
-    <row r="100" spans="2:204" ht="26.25">
+    <row r="100" spans="1:204" ht="26.25">
       <c r="B100" s="97"/>
-      <c r="C100" s="144" t="s">
-        <v>306</v>
-      </c>
-      <c r="D100" s="144"/>
-      <c r="E100" s="145"/>
+      <c r="C100" s="151" t="s">
+        <v>300</v>
+      </c>
+      <c r="D100" s="151"/>
+      <c r="E100" s="152"/>
       <c r="F100" s="23"/>
       <c r="G100" s="16"/>
       <c r="H100" s="119" t="s">
@@ -25076,10 +25106,10 @@
       </c>
       <c r="I100" s="41"/>
       <c r="J100" s="120">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K100" s="14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
@@ -25275,13 +25305,13 @@
       <c r="GU100" s="13"/>
       <c r="GV100" s="13"/>
     </row>
-    <row r="101" spans="2:204" ht="26.25">
+    <row r="101" spans="1:204" ht="26.25">
       <c r="B101" s="97"/>
-      <c r="C101" s="144" t="s">
-        <v>283</v>
-      </c>
-      <c r="D101" s="144"/>
-      <c r="E101" s="145"/>
+      <c r="C101" s="151" t="s">
+        <v>301</v>
+      </c>
+      <c r="D101" s="151"/>
+      <c r="E101" s="152"/>
       <c r="F101" s="23"/>
       <c r="G101" s="16"/>
       <c r="H101" s="119" t="s">
@@ -25289,10 +25319,10 @@
       </c>
       <c r="I101" s="41"/>
       <c r="J101" s="120">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K101" s="14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
@@ -25488,21 +25518,21 @@
       <c r="GU101" s="13"/>
       <c r="GV101" s="13"/>
     </row>
-    <row r="102" spans="2:204" ht="26.25">
+    <row r="102" spans="1:204" ht="26.25">
       <c r="B102" s="97"/>
-      <c r="C102" s="144" t="s">
-        <v>318</v>
-      </c>
-      <c r="D102" s="144"/>
-      <c r="E102" s="145"/>
+      <c r="C102" s="151" t="s">
+        <v>278</v>
+      </c>
+      <c r="D102" s="151"/>
+      <c r="E102" s="152"/>
       <c r="F102" s="23"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="14" t="s">
+      <c r="G102" s="16"/>
+      <c r="H102" s="119" t="s">
         <v>77</v>
       </c>
       <c r="I102" s="41"/>
-      <c r="J102" s="119">
-        <v>72</v>
+      <c r="J102" s="120">
+        <v>71</v>
       </c>
       <c r="K102" s="14">
         <v>1</v>
@@ -25701,35 +25731,29 @@
       <c r="GU102" s="13"/>
       <c r="GV102" s="13"/>
     </row>
-    <row r="103" spans="2:204" ht="26.25">
-      <c r="B103" s="143" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" s="144"/>
-      <c r="D103" s="144"/>
-      <c r="E103" s="145"/>
-      <c r="F103" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G103" s="14"/>
+    <row r="103" spans="1:204" ht="26.25">
+      <c r="B103" s="97"/>
+      <c r="C103" s="151" t="s">
+        <v>313</v>
+      </c>
+      <c r="D103" s="151"/>
+      <c r="E103" s="152"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="26"/>
       <c r="H103" s="14" t="s">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="I103" s="41"/>
-      <c r="J103" s="14">
-        <v>73</v>
+      <c r="J103" s="119">
+        <v>72</v>
       </c>
       <c r="K103" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L103" s="14"/>
       <c r="M103" s="14"/>
-      <c r="N103" s="14">
-        <v>2</v>
-      </c>
-      <c r="O103" s="14">
-        <v>2</v>
-      </c>
+      <c r="N103" s="14"/>
+      <c r="O103" s="14"/>
       <c r="P103" s="14"/>
       <c r="Q103" s="14"/>
       <c r="R103" s="15"/>
@@ -25920,29 +25944,35 @@
       <c r="GU103" s="13"/>
       <c r="GV103" s="13"/>
     </row>
-    <row r="104" spans="2:204" ht="48.75" customHeight="1">
-      <c r="B104" s="97"/>
-      <c r="C104" s="144" t="s">
-        <v>285</v>
-      </c>
-      <c r="D104" s="144"/>
-      <c r="E104" s="145"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="119" t="s">
-        <v>315</v>
+    <row r="104" spans="1:204" ht="26.25">
+      <c r="B104" s="153" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" s="151"/>
+      <c r="D104" s="151"/>
+      <c r="E104" s="152"/>
+      <c r="F104" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14" t="s">
+        <v>310</v>
       </c>
       <c r="I104" s="41"/>
       <c r="J104" s="14">
         <v>73</v>
       </c>
       <c r="K104" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
-      <c r="N104" s="14"/>
-      <c r="O104" s="14"/>
+      <c r="N104" s="14">
+        <v>2</v>
+      </c>
+      <c r="O104" s="14">
+        <v>2</v>
+      </c>
       <c r="P104" s="14"/>
       <c r="Q104" s="14"/>
       <c r="R104" s="15"/>
@@ -26133,24 +26163,24 @@
       <c r="GU104" s="13"/>
       <c r="GV104" s="13"/>
     </row>
-    <row r="105" spans="2:204" ht="26.25">
+    <row r="105" spans="1:204" ht="48.75" customHeight="1">
       <c r="B105" s="97"/>
-      <c r="C105" s="144" t="s">
-        <v>311</v>
-      </c>
-      <c r="D105" s="144"/>
-      <c r="E105" s="145"/>
+      <c r="C105" s="151" t="s">
+        <v>280</v>
+      </c>
+      <c r="D105" s="151"/>
+      <c r="E105" s="152"/>
       <c r="F105" s="23"/>
       <c r="G105" s="26"/>
       <c r="H105" s="119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I105" s="41"/>
       <c r="J105" s="14">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K105" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L105" s="14"/>
       <c r="M105" s="14"/>
@@ -26346,35 +26376,29 @@
       <c r="GU105" s="13"/>
       <c r="GV105" s="13"/>
     </row>
-    <row r="106" spans="2:204" ht="26.25">
-      <c r="B106" s="143" t="s">
-        <v>299</v>
-      </c>
-      <c r="C106" s="144"/>
-      <c r="D106" s="144"/>
-      <c r="E106" s="145"/>
-      <c r="F106" s="47" t="s">
-        <v>39</v>
-      </c>
+    <row r="106" spans="1:204" ht="26.25">
+      <c r="B106" s="97"/>
+      <c r="C106" s="151" t="s">
+        <v>306</v>
+      </c>
+      <c r="D106" s="151"/>
+      <c r="E106" s="152"/>
+      <c r="F106" s="23"/>
       <c r="G106" s="26"/>
-      <c r="H106" s="14" t="s">
-        <v>41</v>
+      <c r="H106" s="119" t="s">
+        <v>310</v>
       </c>
       <c r="I106" s="41"/>
-      <c r="J106" s="121">
-        <v>57</v>
-      </c>
-      <c r="K106" s="121">
-        <v>14</v>
+      <c r="J106" s="14">
+        <v>74</v>
+      </c>
+      <c r="K106" s="14">
+        <v>2</v>
       </c>
       <c r="L106" s="14"/>
       <c r="M106" s="14"/>
-      <c r="N106" s="14">
-        <v>1</v>
-      </c>
-      <c r="O106" s="14">
-        <v>2</v>
-      </c>
+      <c r="N106" s="14"/>
+      <c r="O106" s="14"/>
       <c r="P106" s="14"/>
       <c r="Q106" s="14"/>
       <c r="R106" s="15"/>
@@ -26565,36 +26589,34 @@
       <c r="GU106" s="13"/>
       <c r="GV106" s="13"/>
     </row>
-    <row r="107" spans="2:204" ht="32.25">
-      <c r="B107" s="143" t="s">
-        <v>300</v>
-      </c>
-      <c r="C107" s="144"/>
-      <c r="D107" s="144"/>
-      <c r="E107" s="145"/>
-      <c r="F107" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G107" s="46" t="s">
-        <v>46</v>
-      </c>
+    <row r="107" spans="1:204" ht="26.25">
+      <c r="B107" s="153" t="s">
+        <v>294</v>
+      </c>
+      <c r="C107" s="151"/>
+      <c r="D107" s="151"/>
+      <c r="E107" s="152"/>
+      <c r="F107" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" s="26"/>
       <c r="H107" s="14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I107" s="41"/>
-      <c r="J107" s="14">
-        <v>76</v>
-      </c>
-      <c r="K107" s="14">
-        <v>16</v>
+      <c r="J107" s="121">
+        <v>57</v>
+      </c>
+      <c r="K107" s="121">
+        <v>14</v>
       </c>
       <c r="L107" s="14"/>
       <c r="M107" s="14"/>
       <c r="N107" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O107" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P107" s="14"/>
       <c r="Q107" s="14"/>
@@ -26786,29 +26808,37 @@
       <c r="GU107" s="13"/>
       <c r="GV107" s="13"/>
     </row>
-    <row r="108" spans="2:204" ht="26.25">
-      <c r="B108" s="97"/>
-      <c r="C108" s="144" t="s">
-        <v>307</v>
-      </c>
-      <c r="D108" s="144"/>
-      <c r="E108" s="145"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="46"/>
+    <row r="108" spans="1:204" ht="32.25">
+      <c r="B108" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C108" s="151"/>
+      <c r="D108" s="151"/>
+      <c r="E108" s="152"/>
+      <c r="F108" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G108" s="46" t="s">
+        <v>46</v>
+      </c>
       <c r="H108" s="14" t="s">
-        <v>315</v>
+        <v>37</v>
       </c>
       <c r="I108" s="41"/>
       <c r="J108" s="14">
         <v>76</v>
       </c>
       <c r="K108" s="14">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="L108" s="14"/>
       <c r="M108" s="14"/>
-      <c r="N108" s="14"/>
-      <c r="O108" s="14"/>
+      <c r="N108" s="14">
+        <v>3</v>
+      </c>
+      <c r="O108" s="14">
+        <v>3</v>
+      </c>
       <c r="P108" s="14"/>
       <c r="Q108" s="14"/>
       <c r="R108" s="15"/>
@@ -26999,24 +27029,24 @@
       <c r="GU108" s="13"/>
       <c r="GV108" s="13"/>
     </row>
-    <row r="109" spans="2:204" ht="26.25">
+    <row r="109" spans="1:204" ht="26.25">
       <c r="B109" s="97"/>
-      <c r="C109" s="144" t="s">
-        <v>308</v>
-      </c>
-      <c r="D109" s="144"/>
-      <c r="E109" s="145"/>
+      <c r="C109" s="151" t="s">
+        <v>302</v>
+      </c>
+      <c r="D109" s="151"/>
+      <c r="E109" s="152"/>
       <c r="F109" s="23"/>
       <c r="G109" s="46"/>
       <c r="H109" s="14" t="s">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="I109" s="41"/>
       <c r="J109" s="14">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K109" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L109" s="14"/>
       <c r="M109" s="14"/>
@@ -27212,24 +27242,24 @@
       <c r="GU109" s="13"/>
       <c r="GV109" s="13"/>
     </row>
-    <row r="110" spans="2:204" ht="26.25">
+    <row r="110" spans="1:204" ht="26.25">
       <c r="B110" s="97"/>
-      <c r="C110" s="144" t="s">
-        <v>309</v>
-      </c>
-      <c r="D110" s="144"/>
-      <c r="E110" s="145"/>
+      <c r="C110" s="151" t="s">
+        <v>303</v>
+      </c>
+      <c r="D110" s="151"/>
+      <c r="E110" s="152"/>
       <c r="F110" s="23"/>
       <c r="G110" s="46"/>
       <c r="H110" s="14" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I110" s="41"/>
       <c r="J110" s="14">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K110" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L110" s="14"/>
       <c r="M110" s="14"/>
@@ -27425,24 +27455,24 @@
       <c r="GU110" s="13"/>
       <c r="GV110" s="13"/>
     </row>
-    <row r="111" spans="2:204" ht="26.25">
+    <row r="111" spans="1:204" ht="26.25">
       <c r="B111" s="97"/>
-      <c r="C111" s="144" t="s">
-        <v>310</v>
-      </c>
-      <c r="D111" s="144"/>
-      <c r="E111" s="145"/>
+      <c r="C111" s="151" t="s">
+        <v>304</v>
+      </c>
+      <c r="D111" s="151"/>
+      <c r="E111" s="152"/>
       <c r="F111" s="23"/>
       <c r="G111" s="46"/>
       <c r="H111" s="14" t="s">
-        <v>315</v>
+        <v>35</v>
       </c>
       <c r="I111" s="41"/>
       <c r="J111" s="14">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K111" s="14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L111" s="14"/>
       <c r="M111" s="14"/>
@@ -27638,33 +27668,29 @@
       <c r="GU111" s="13"/>
       <c r="GV111" s="13"/>
     </row>
-    <row r="112" spans="2:204" ht="26.25">
-      <c r="B112" s="166" t="s">
-        <v>301</v>
-      </c>
-      <c r="C112" s="142"/>
-      <c r="D112" s="142"/>
-      <c r="E112" s="167"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I112" s="43"/>
-      <c r="J112" s="17">
-        <v>95</v>
-      </c>
-      <c r="K112" s="17">
-        <v>23</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17">
-        <v>3</v>
-      </c>
-      <c r="O112" s="17">
-        <v>6</v>
-      </c>
+    <row r="112" spans="1:204" ht="26.25">
+      <c r="B112" s="97"/>
+      <c r="C112" s="151" t="s">
+        <v>305</v>
+      </c>
+      <c r="D112" s="151"/>
+      <c r="E112" s="152"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I112" s="41"/>
+      <c r="J112" s="14">
+        <v>88</v>
+      </c>
+      <c r="K112" s="14">
+        <v>7</v>
+      </c>
+      <c r="L112" s="14"/>
+      <c r="M112" s="14"/>
+      <c r="N112" s="14"/>
+      <c r="O112" s="14"/>
       <c r="P112" s="14"/>
       <c r="Q112" s="14"/>
       <c r="R112" s="15"/>
@@ -27855,32 +27881,32 @@
       <c r="GU112" s="13"/>
       <c r="GV112" s="13"/>
     </row>
-    <row r="113" spans="2:204" ht="32.25">
-      <c r="B113" s="166" t="s">
-        <v>302</v>
-      </c>
-      <c r="C113" s="142"/>
-      <c r="D113" s="142"/>
-      <c r="E113" s="167"/>
+    <row r="113" spans="2:204" ht="26.25">
+      <c r="B113" s="168" t="s">
+        <v>296</v>
+      </c>
+      <c r="C113" s="169"/>
+      <c r="D113" s="169"/>
+      <c r="E113" s="170"/>
       <c r="F113" s="24"/>
       <c r="G113" s="17"/>
       <c r="H113" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I113" s="43"/>
       <c r="J113" s="17">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="K113" s="17">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>
       <c r="N113" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O113" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P113" s="14"/>
       <c r="Q113" s="14"/>
@@ -28072,27 +28098,36 @@
       <c r="GU113" s="13"/>
       <c r="GV113" s="13"/>
     </row>
-    <row r="114" spans="2:204" ht="30" customHeight="1">
-      <c r="B114" s="168"/>
+    <row r="114" spans="2:204" ht="32.25">
+      <c r="B114" s="168" t="s">
+        <v>297</v>
+      </c>
       <c r="C114" s="169"/>
       <c r="D114" s="169"/>
       <c r="E114" s="170"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="12"/>
-      <c r="N114" s="12"/>
-      <c r="O114" s="19">
-        <f>SUM(O10:O113)</f>
-        <v>46</v>
-      </c>
-      <c r="P114" s="12"/>
-      <c r="Q114" s="12"/>
-      <c r="R114" s="20"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I114" s="43"/>
+      <c r="J114" s="17">
+        <v>118</v>
+      </c>
+      <c r="K114" s="17">
+        <v>7</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17">
+        <v>4</v>
+      </c>
+      <c r="O114" s="17">
+        <v>2</v>
+      </c>
+      <c r="P114" s="14"/>
+      <c r="Q114" s="14"/>
+      <c r="R114" s="15"/>
       <c r="S114" s="12"/>
       <c r="T114" s="12"/>
       <c r="U114" s="12"/>
@@ -28280,119 +28315,221 @@
       <c r="GU114" s="13"/>
       <c r="GV114" s="13"/>
     </row>
+    <row r="115" spans="2:204" ht="30" customHeight="1">
+      <c r="B115" s="148"/>
+      <c r="C115" s="149"/>
+      <c r="D115" s="149"/>
+      <c r="E115" s="150"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="19">
+        <f>SUM(O10:O114)</f>
+        <v>46</v>
+      </c>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="20"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="12"/>
+      <c r="U115" s="12"/>
+      <c r="V115" s="12"/>
+      <c r="W115" s="13"/>
+      <c r="X115" s="12"/>
+      <c r="Y115" s="13"/>
+      <c r="Z115" s="13"/>
+      <c r="AA115" s="13"/>
+      <c r="AB115" s="11"/>
+      <c r="AC115" s="12"/>
+      <c r="AD115" s="12"/>
+      <c r="AE115" s="12"/>
+      <c r="AF115" s="12"/>
+      <c r="AG115" s="12"/>
+      <c r="AH115" s="12"/>
+      <c r="AI115" s="12"/>
+      <c r="AJ115" s="12"/>
+      <c r="AK115" s="12"/>
+      <c r="AL115" s="12"/>
+      <c r="AM115" s="12"/>
+      <c r="AN115" s="12"/>
+      <c r="AO115" s="12"/>
+      <c r="AP115" s="12"/>
+      <c r="AQ115" s="12"/>
+      <c r="AR115" s="12"/>
+      <c r="AS115" s="12"/>
+      <c r="AT115" s="12"/>
+      <c r="AU115" s="12"/>
+      <c r="AV115" s="13"/>
+      <c r="AW115" s="13"/>
+      <c r="AX115" s="13"/>
+      <c r="AY115" s="13"/>
+      <c r="AZ115" s="13"/>
+      <c r="BA115" s="13"/>
+      <c r="BB115" s="13"/>
+      <c r="BC115" s="13"/>
+      <c r="BD115" s="13"/>
+      <c r="BE115" s="13"/>
+      <c r="BF115" s="13"/>
+      <c r="BG115" s="13"/>
+      <c r="BH115" s="13"/>
+      <c r="BI115" s="13"/>
+      <c r="BJ115" s="13"/>
+      <c r="BK115" s="13"/>
+      <c r="BL115" s="13"/>
+      <c r="BM115" s="13"/>
+      <c r="BN115" s="13"/>
+      <c r="BO115" s="13"/>
+      <c r="BP115" s="13"/>
+      <c r="BQ115" s="13"/>
+      <c r="BR115" s="13"/>
+      <c r="BS115" s="13"/>
+      <c r="BT115" s="13"/>
+      <c r="BU115" s="13"/>
+      <c r="BV115" s="13"/>
+      <c r="BW115" s="13"/>
+      <c r="BX115" s="13"/>
+      <c r="BY115" s="13"/>
+      <c r="BZ115" s="13"/>
+      <c r="CA115" s="13"/>
+      <c r="CB115" s="13"/>
+      <c r="CC115" s="13"/>
+      <c r="CD115" s="13"/>
+      <c r="CE115" s="13"/>
+      <c r="CF115" s="13"/>
+      <c r="CG115" s="13"/>
+      <c r="CH115" s="13"/>
+      <c r="CI115" s="13"/>
+      <c r="CJ115" s="13"/>
+      <c r="CK115" s="13"/>
+      <c r="CL115" s="13"/>
+      <c r="CM115" s="13"/>
+      <c r="CN115" s="13"/>
+      <c r="CO115" s="13"/>
+      <c r="CP115" s="13"/>
+      <c r="CQ115" s="13"/>
+      <c r="CR115" s="13"/>
+      <c r="CS115" s="13"/>
+      <c r="CT115" s="13"/>
+      <c r="CU115" s="13"/>
+      <c r="CV115" s="13"/>
+      <c r="CW115" s="13"/>
+      <c r="CX115" s="13"/>
+      <c r="CY115" s="13"/>
+      <c r="CZ115" s="13"/>
+      <c r="DA115" s="13"/>
+      <c r="DB115" s="13"/>
+      <c r="DC115" s="13"/>
+      <c r="DD115" s="13"/>
+      <c r="DE115" s="13"/>
+      <c r="DF115" s="13"/>
+      <c r="DG115" s="13"/>
+      <c r="DH115" s="13"/>
+      <c r="DI115" s="13"/>
+      <c r="DJ115" s="13"/>
+      <c r="DK115" s="13"/>
+      <c r="DL115" s="13"/>
+      <c r="DM115" s="13"/>
+      <c r="DN115" s="13"/>
+      <c r="DO115" s="13"/>
+      <c r="DP115" s="13"/>
+      <c r="DQ115" s="13"/>
+      <c r="DR115" s="13"/>
+      <c r="DS115" s="13"/>
+      <c r="DT115" s="13"/>
+      <c r="DU115" s="13"/>
+      <c r="DV115" s="13"/>
+      <c r="DW115" s="13"/>
+      <c r="DX115" s="13"/>
+      <c r="DY115" s="13"/>
+      <c r="DZ115" s="13"/>
+      <c r="EA115" s="13"/>
+      <c r="EB115" s="13"/>
+      <c r="EC115" s="13"/>
+      <c r="ED115" s="13"/>
+      <c r="EE115" s="13"/>
+      <c r="EF115" s="13"/>
+      <c r="EG115" s="13"/>
+      <c r="EH115" s="13"/>
+      <c r="EI115" s="13"/>
+      <c r="EJ115" s="13"/>
+      <c r="EK115" s="13"/>
+      <c r="EL115" s="13"/>
+      <c r="EM115" s="13"/>
+      <c r="EN115" s="13"/>
+      <c r="EO115" s="13"/>
+      <c r="EP115" s="13"/>
+      <c r="EQ115" s="13"/>
+      <c r="ER115" s="13"/>
+      <c r="ES115" s="13"/>
+      <c r="ET115" s="13"/>
+      <c r="EU115" s="13"/>
+      <c r="EV115" s="13"/>
+      <c r="EW115" s="13"/>
+      <c r="EX115" s="13"/>
+      <c r="EY115" s="13"/>
+      <c r="EZ115" s="13"/>
+      <c r="FA115" s="13"/>
+      <c r="FB115" s="13"/>
+      <c r="FC115" s="13"/>
+      <c r="FD115" s="13"/>
+      <c r="FE115" s="13"/>
+      <c r="FF115" s="13"/>
+      <c r="FG115" s="13"/>
+      <c r="FH115" s="13"/>
+      <c r="FI115" s="13"/>
+      <c r="FJ115" s="13"/>
+      <c r="FK115" s="13"/>
+      <c r="FL115" s="13"/>
+      <c r="FM115" s="13"/>
+      <c r="FN115" s="13"/>
+      <c r="FO115" s="13"/>
+      <c r="FP115" s="13"/>
+      <c r="FQ115" s="13"/>
+      <c r="FR115" s="13"/>
+      <c r="FS115" s="13"/>
+      <c r="FT115" s="13"/>
+      <c r="FU115" s="13"/>
+      <c r="FV115" s="13"/>
+      <c r="FW115" s="13"/>
+      <c r="FX115" s="13"/>
+      <c r="FY115" s="13"/>
+      <c r="FZ115" s="13"/>
+      <c r="GA115" s="13"/>
+      <c r="GB115" s="13"/>
+      <c r="GC115" s="13"/>
+      <c r="GD115" s="13"/>
+      <c r="GE115" s="13"/>
+      <c r="GF115" s="13"/>
+      <c r="GG115" s="13"/>
+      <c r="GH115" s="13"/>
+      <c r="GI115" s="13"/>
+      <c r="GJ115" s="13"/>
+      <c r="GK115" s="13"/>
+      <c r="GL115" s="13"/>
+      <c r="GM115" s="13"/>
+      <c r="GN115" s="13"/>
+      <c r="GO115" s="13"/>
+      <c r="GP115" s="13"/>
+      <c r="GQ115" s="13"/>
+      <c r="GR115" s="13"/>
+      <c r="GS115" s="13"/>
+      <c r="GT115" s="13"/>
+      <c r="GU115" s="13"/>
+      <c r="GV115" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:K113" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A9:K114" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
-  <mergeCells count="125">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="B52:B72"/>
-    <mergeCell ref="C60:C72"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="B88:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B11:E11"/>
+  <mergeCells count="126">
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="AK1:AN1"/>
     <mergeCell ref="AP1:AS1"/>
@@ -28411,10 +28548,117 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="R6:R7"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B89:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="B53:B73"/>
+    <mergeCell ref="C61:C73"/>
+    <mergeCell ref="D63:D70"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="AA106:GV113 S9:GV31 S32:X32 Z32:AB32 AD32:GV32 S33:GV105">
+  <conditionalFormatting sqref="AA107:GV114 S9:GV31 S32:X32 Z32:AB32 AD32:GV32 S33:GV106">
     <cfRule type="expression" dxfId="64" priority="774">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28445,7 +28689,7 @@
       <formula>S$7=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S107:W113">
+  <conditionalFormatting sqref="S108:W114">
     <cfRule type="expression" dxfId="55" priority="757">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28471,7 +28715,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S106:W106">
+  <conditionalFormatting sqref="S107:W107">
     <cfRule type="expression" dxfId="47" priority="749">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28497,7 +28741,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X107:Y113">
+  <conditionalFormatting sqref="X108:Y114">
     <cfRule type="expression" dxfId="39" priority="538">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28523,7 +28767,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X106:Y106">
+  <conditionalFormatting sqref="X107:Y107">
     <cfRule type="expression" dxfId="31" priority="530">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28549,7 +28793,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z107:Z113">
+  <conditionalFormatting sqref="Z108:Z114">
     <cfRule type="expression" dxfId="23" priority="385">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28575,7 +28819,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z106">
+  <conditionalFormatting sqref="Z107">
     <cfRule type="expression" dxfId="15" priority="377">
       <formula>PercentComplete</formula>
     </cfRule>

--- a/220329 HTK UV LED Controller Project sheet.xlsx
+++ b/220329 HTK UV LED Controller Project sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f734f300cb83d8b/HTK DAIAN/MORITEX/UV LED CONTROLLER/HTK LED UV Project Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="369" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FF58EB4-C1B2-42D4-B50B-E6BB9DCC66B4}"/>
+  <xr:revisionPtr revIDLastSave="374" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FB5816D-913E-4FD3-82FE-8087D9BCE935}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="330">
   <si>
     <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
   </si>
@@ -3698,10 +3698,10 @@
   <dimension ref="A1:GV115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="I2" s="40">
         <f ca="1">TODAY()</f>
-        <v>44672</v>
+        <v>44676</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6880,7 +6880,7 @@
         <v>77</v>
       </c>
       <c r="I15" s="131">
-        <v>44674</v>
+        <v>44677</v>
       </c>
       <c r="J15" s="14">
         <v>6</v>
@@ -7097,7 +7097,7 @@
         <v>77</v>
       </c>
       <c r="I16" s="131">
-        <v>44674</v>
+        <v>44677</v>
       </c>
       <c r="J16" s="14">
         <v>6</v>
@@ -7312,7 +7312,7 @@
         <v>77</v>
       </c>
       <c r="I17" s="131">
-        <v>44674</v>
+        <v>44677</v>
       </c>
       <c r="J17" s="14">
         <v>7</v>
@@ -16291,7 +16291,7 @@
       <c r="GU58" s="13"/>
       <c r="GV58" s="13"/>
     </row>
-    <row r="59" spans="2:204" ht="33.75" customHeight="1">
+    <row r="59" spans="2:204" ht="33.75" hidden="1" customHeight="1">
       <c r="B59" s="144"/>
       <c r="C59" s="136" t="s">
         <v>97</v>
@@ -16303,7 +16303,9 @@
       <c r="H59" s="119" t="s">
         <v>310</v>
       </c>
-      <c r="I59" s="41"/>
+      <c r="I59" s="41" t="s">
+        <v>145</v>
+      </c>
       <c r="J59" s="14">
         <v>22</v>
       </c>

--- a/220329 HTK UV LED Controller Project sheet.xlsx
+++ b/220329 HTK UV LED Controller Project sheet.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f734f300cb83d8b/HTK DAIAN/MORITEX/UV LED CONTROLLER/HTK LED UV Project Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="374" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FB5816D-913E-4FD3-82FE-8087D9BCE935}"/>
+  <xr:revisionPtr revIDLastSave="375" documentId="8_{5226F4C7-42C1-4648-860A-165D07E2F74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{416AE48F-C66F-4B6E-93F2-AA9D11CD7013}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Project Planner'!$A$9:$K$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Project Planner'!$A$9:$K$113</definedName>
     <definedName name="Actual">(PeriodInActual*('Project Planner'!$L1&gt;0))*PeriodInPlan</definedName>
     <definedName name="ActualBeyond">PeriodInActual*('Project Planner'!$L1&gt;0)</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="329">
   <si>
     <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
   </si>
@@ -334,12 +334,6 @@
     <t>1.3.3 Solder HMI PCB with part</t>
   </si>
   <si>
-    <t>1.3.4 Make test case of HMI PCB</t>
-  </si>
-  <si>
-    <t>1.3.5 Test HMI PCB</t>
-  </si>
-  <si>
     <t>1.4 Design full functions circuit V1</t>
   </si>
   <si>
@@ -1133,6 +1127,9 @@
   </si>
   <si>
     <t>co trong BOM chinh</t>
+  </si>
+  <si>
+    <t>1.3.4 Test HMI PCB</t>
   </si>
 </sst>
 </file>
@@ -3695,13 +3692,13 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:GV115"/>
+  <dimension ref="A1:GV114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="AM61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
@@ -3811,7 +3808,7 @@
       </c>
       <c r="I2" s="40">
         <f ca="1">TODAY()</f>
-        <v>44676</v>
+        <v>44680</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -3824,7 +3821,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="70"/>
       <c r="T2" s="70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U2" s="53"/>
       <c r="V2" s="70"/>
@@ -3862,7 +3859,7 @@
       <c r="AZ2" s="84"/>
       <c r="BA2" s="83"/>
       <c r="BB2" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BC2" s="50"/>
       <c r="BD2" s="50"/>
@@ -3896,7 +3893,7 @@
       <c r="CF2" s="50"/>
       <c r="CG2" s="50"/>
       <c r="CH2" s="50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CI2" s="50"/>
       <c r="CJ2" s="50"/>
@@ -3928,7 +3925,7 @@
       <c r="DJ2" s="50"/>
       <c r="DK2" s="50"/>
       <c r="DL2" s="50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="DM2" s="50"/>
       <c r="DN2" s="50"/>
@@ -3961,7 +3958,7 @@
       <c r="EO2" s="50"/>
       <c r="EP2" s="50"/>
       <c r="EQ2" s="50" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="ER2" s="50"/>
       <c r="ES2" s="50"/>
@@ -3994,7 +3991,7 @@
       <c r="FT2" s="85"/>
       <c r="FU2" s="85"/>
       <c r="FV2" s="85" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="FW2" s="85"/>
       <c r="FX2" s="85"/>
@@ -4302,7 +4299,7 @@
       <c r="AG6" s="77"/>
       <c r="AH6" s="80"/>
       <c r="AI6" s="79" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AJ6" s="77"/>
       <c r="AK6" s="77"/>
@@ -4356,7 +4353,7 @@
       <c r="CG6" s="106"/>
       <c r="CH6" s="106"/>
       <c r="CI6" s="109" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="CJ6" s="106"/>
       <c r="CK6" s="106"/>
@@ -4400,7 +4397,7 @@
       <c r="DW6" s="111"/>
       <c r="DX6" s="111"/>
       <c r="DY6" s="112" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="DZ6" s="111"/>
       <c r="EA6" s="111"/>
@@ -5048,7 +5045,7 @@
         <v>4.09</v>
       </c>
       <c r="AE8" s="81" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF8" s="82">
         <v>4.1100000000000003</v>
@@ -5108,466 +5105,466 @@
         <v>4.29</v>
       </c>
       <c r="AY8" s="81" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AZ8" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA8" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB8" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="BA8" s="82" t="s">
+      <c r="BC8" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="BB8" s="82" t="s">
+      <c r="BD8" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="BC8" s="82" t="s">
+      <c r="BE8" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="BD8" s="82" t="s">
+      <c r="BF8" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="BE8" s="82" t="s">
+      <c r="BG8" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="BF8" s="82" t="s">
+      <c r="BH8" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="BG8" s="82" t="s">
+      <c r="BI8" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="BH8" s="82" t="s">
+      <c r="BJ8" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="BI8" s="82" t="s">
+      <c r="BK8" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="BJ8" s="82" t="s">
+      <c r="BL8" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="BK8" s="82" t="s">
+      <c r="BM8" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="BL8" s="82" t="s">
+      <c r="BN8" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="BM8" s="82" t="s">
+      <c r="BO8" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="BN8" s="82" t="s">
+      <c r="BP8" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="BO8" s="82" t="s">
+      <c r="BQ8" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="BP8" s="82" t="s">
+      <c r="BR8" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="BQ8" s="82" t="s">
+      <c r="BS8" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="BR8" s="82" t="s">
+      <c r="BT8" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="BS8" s="82" t="s">
+      <c r="BU8" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="BT8" s="82" t="s">
+      <c r="BV8" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="BU8" s="82" t="s">
+      <c r="BW8" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="BV8" s="82" t="s">
+      <c r="BX8" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="BW8" s="82" t="s">
+      <c r="BY8" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="BX8" s="82" t="s">
+      <c r="BZ8" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="BY8" s="82" t="s">
+      <c r="CA8" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="BZ8" s="82" t="s">
+      <c r="CB8" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="CA8" s="82" t="s">
+      <c r="CC8" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="CB8" s="82" t="s">
+      <c r="CD8" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="CC8" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="CD8" s="82" t="s">
-        <v>144</v>
-      </c>
       <c r="CE8" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="CF8" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="CG8" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="CF8" s="82" t="s">
+      <c r="CH8" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="CG8" s="82" t="s">
+      <c r="CI8" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="CH8" s="82" t="s">
+      <c r="CJ8" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="CI8" s="82" t="s">
+      <c r="CK8" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="CJ8" s="82" t="s">
+      <c r="CL8" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="CK8" s="82" t="s">
+      <c r="CM8" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="CL8" s="82" t="s">
+      <c r="CN8" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="CM8" s="82" t="s">
+      <c r="CO8" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="CN8" s="82" t="s">
+      <c r="CP8" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="CO8" s="82" t="s">
+      <c r="CQ8" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="CP8" s="82" t="s">
+      <c r="CR8" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="CQ8" s="82" t="s">
+      <c r="CS8" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="CR8" s="82" t="s">
+      <c r="CT8" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="CS8" s="82" t="s">
+      <c r="CU8" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="CT8" s="82" t="s">
+      <c r="CV8" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="CU8" s="82" t="s">
+      <c r="CW8" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="CV8" s="82" t="s">
+      <c r="CX8" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="CW8" s="82" t="s">
+      <c r="CY8" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="CX8" s="82" t="s">
+      <c r="CZ8" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="CY8" s="82" t="s">
+      <c r="DA8" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="CZ8" s="82" t="s">
+      <c r="DB8" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="DA8" s="82" t="s">
+      <c r="DC8" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="DB8" s="82" t="s">
+      <c r="DD8" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="DC8" s="82" t="s">
+      <c r="DE8" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="DD8" s="82" t="s">
+      <c r="DF8" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="DE8" s="82" t="s">
+      <c r="DG8" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="DF8" s="82" t="s">
+      <c r="DH8" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="DG8" s="82" t="s">
+      <c r="DI8" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="DH8" s="82" t="s">
+      <c r="DJ8" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="DI8" s="82" t="s">
+      <c r="DK8" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="DJ8" s="82" t="s">
+      <c r="DL8" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="DK8" s="82" t="s">
+      <c r="DM8" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="DL8" s="82" t="s">
+      <c r="DN8" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="DM8" s="82" t="s">
+      <c r="DO8" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="DN8" s="82" t="s">
+      <c r="DP8" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="DO8" s="82" t="s">
+      <c r="DQ8" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="DP8" s="82" t="s">
+      <c r="DR8" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="DQ8" s="82" t="s">
+      <c r="DS8" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="DR8" s="82" t="s">
+      <c r="DT8" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="DS8" s="82" t="s">
+      <c r="DU8" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="DT8" s="82" t="s">
+      <c r="DV8" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="DU8" s="82" t="s">
+      <c r="DW8" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="DV8" s="82" t="s">
+      <c r="DX8" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="DW8" s="82" t="s">
+      <c r="DY8" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="DX8" s="82" t="s">
+      <c r="DZ8" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="DY8" s="82" t="s">
+      <c r="EA8" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="DZ8" s="82" t="s">
+      <c r="EB8" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="EA8" s="82" t="s">
+      <c r="EC8" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="EB8" s="82" t="s">
+      <c r="ED8" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="EC8" s="82" t="s">
+      <c r="EE8" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="ED8" s="82" t="s">
+      <c r="EF8" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="EE8" s="82" t="s">
+      <c r="EG8" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="EF8" s="82" t="s">
+      <c r="EH8" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="EG8" s="82" t="s">
+      <c r="EI8" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="EH8" s="82" t="s">
+      <c r="EJ8" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="EI8" s="82" t="s">
+      <c r="EK8" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="EJ8" s="82" t="s">
+      <c r="EL8" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="EK8" s="82" t="s">
+      <c r="EM8" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="EL8" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="EM8" s="82" t="s">
+      <c r="EN8" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="EN8" s="82" t="s">
+      <c r="EO8" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="EP8" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="EO8" s="82" t="s">
+      <c r="EQ8" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="EP8" s="82" t="s">
+      <c r="ER8" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="EQ8" s="82" t="s">
+      <c r="ES8" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="ER8" s="82" t="s">
+      <c r="ET8" s="82" t="s">
         <v>214</v>
       </c>
-      <c r="ES8" s="82" t="s">
+      <c r="EU8" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="ET8" s="82" t="s">
+      <c r="EV8" s="82" t="s">
         <v>216</v>
       </c>
-      <c r="EU8" s="82" t="s">
+      <c r="EW8" s="82" t="s">
         <v>217</v>
       </c>
-      <c r="EV8" s="82" t="s">
+      <c r="EX8" s="82" t="s">
         <v>218</v>
       </c>
-      <c r="EW8" s="82" t="s">
+      <c r="EY8" s="82" t="s">
         <v>219</v>
       </c>
-      <c r="EX8" s="82" t="s">
+      <c r="EZ8" s="82" t="s">
         <v>220</v>
       </c>
-      <c r="EY8" s="82" t="s">
+      <c r="FA8" s="82" t="s">
         <v>221</v>
       </c>
-      <c r="EZ8" s="82" t="s">
+      <c r="FB8" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="FA8" s="82" t="s">
+      <c r="FC8" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="FB8" s="82" t="s">
+      <c r="FD8" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="FC8" s="82" t="s">
+      <c r="FE8" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="FD8" s="82" t="s">
+      <c r="FF8" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="FE8" s="82" t="s">
+      <c r="FG8" s="82" t="s">
         <v>227</v>
       </c>
-      <c r="FF8" s="82" t="s">
+      <c r="FH8" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="FG8" s="82" t="s">
+      <c r="FI8" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="FH8" s="82" t="s">
+      <c r="FJ8" s="82" t="s">
         <v>230</v>
       </c>
-      <c r="FI8" s="82" t="s">
+      <c r="FK8" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="FJ8" s="82" t="s">
+      <c r="FL8" s="82" t="s">
         <v>232</v>
       </c>
-      <c r="FK8" s="82" t="s">
+      <c r="FM8" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="FL8" s="82" t="s">
+      <c r="FN8" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="FM8" s="82" t="s">
+      <c r="FO8" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="FN8" s="82" t="s">
+      <c r="FP8" s="82" t="s">
         <v>236</v>
       </c>
-      <c r="FO8" s="82" t="s">
+      <c r="FQ8" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="FP8" s="82" t="s">
-        <v>238</v>
-      </c>
-      <c r="FQ8" s="82" t="s">
-        <v>239</v>
-      </c>
       <c r="FR8" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="FS8" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="FT8" s="82" t="s">
+        <v>241</v>
+      </c>
+      <c r="FU8" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="FT8" s="82" t="s">
+      <c r="FV8" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="FU8" s="82" t="s">
+      <c r="FW8" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="FV8" s="82" t="s">
+      <c r="FX8" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="FW8" s="82" t="s">
+      <c r="FY8" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="FX8" s="82" t="s">
+      <c r="FZ8" s="82" t="s">
         <v>247</v>
       </c>
-      <c r="FY8" s="82" t="s">
+      <c r="GA8" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="FZ8" s="82" t="s">
+      <c r="GB8" s="82" t="s">
         <v>249</v>
       </c>
-      <c r="GA8" s="82" t="s">
+      <c r="GC8" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="GB8" s="82" t="s">
+      <c r="GD8" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="GC8" s="82" t="s">
+      <c r="GE8" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="GD8" s="82" t="s">
+      <c r="GF8" s="82" t="s">
         <v>253</v>
       </c>
-      <c r="GE8" s="82" t="s">
+      <c r="GG8" s="82" t="s">
         <v>254</v>
       </c>
-      <c r="GF8" s="82" t="s">
+      <c r="GH8" s="82" t="s">
         <v>255</v>
       </c>
-      <c r="GG8" s="82" t="s">
+      <c r="GI8" s="82" t="s">
         <v>256</v>
       </c>
-      <c r="GH8" s="82" t="s">
+      <c r="GJ8" s="82" t="s">
         <v>257</v>
       </c>
-      <c r="GI8" s="82" t="s">
+      <c r="GK8" s="82" t="s">
         <v>258</v>
       </c>
-      <c r="GJ8" s="82" t="s">
+      <c r="GL8" s="82" t="s">
         <v>259</v>
       </c>
-      <c r="GK8" s="82" t="s">
+      <c r="GM8" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="GL8" s="82" t="s">
+      <c r="GN8" s="82" t="s">
         <v>261</v>
       </c>
-      <c r="GM8" s="82" t="s">
+      <c r="GO8" s="82" t="s">
         <v>262</v>
       </c>
-      <c r="GN8" s="82" t="s">
+      <c r="GP8" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="GO8" s="82" t="s">
+      <c r="GQ8" s="82" t="s">
         <v>264</v>
       </c>
-      <c r="GP8" s="82" t="s">
+      <c r="GR8" s="82" t="s">
         <v>265</v>
       </c>
-      <c r="GQ8" s="82" t="s">
+      <c r="GS8" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="GR8" s="82" t="s">
+      <c r="GT8" s="82" t="s">
         <v>267</v>
       </c>
-      <c r="GS8" s="82" t="s">
+      <c r="GU8" s="82" t="s">
         <v>268</v>
       </c>
-      <c r="GT8" s="82" t="s">
+      <c r="GV8" s="82" t="s">
         <v>269</v>
-      </c>
-      <c r="GU8" s="82" t="s">
-        <v>270</v>
-      </c>
-      <c r="GV8" s="82" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:204" ht="36" customHeight="1">
@@ -5575,7 +5572,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="171" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C9" s="169"/>
       <c r="D9" s="169"/>
@@ -5800,7 +5797,7 @@
         <v>32</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I10" s="41"/>
       <c r="J10" s="14">
@@ -6016,10 +6013,10 @@
       <c r="E11" s="138"/>
       <c r="F11" s="23"/>
       <c r="G11" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I11" s="41"/>
       <c r="J11" s="14"/>
@@ -6227,10 +6224,10 @@
       <c r="E12" s="138"/>
       <c r="F12" s="23"/>
       <c r="G12" s="130" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I12" s="131">
         <v>44671</v>
@@ -6438,17 +6435,17 @@
     <row r="13" spans="1:204" ht="37.5" hidden="1" customHeight="1">
       <c r="B13" s="140"/>
       <c r="C13" s="136" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="137"/>
       <c r="E13" s="138"/>
       <c r="F13" s="23"/>
       <c r="G13" s="26"/>
       <c r="H13" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J13" s="14">
         <v>1</v>
@@ -6662,10 +6659,10 @@
       <c r="F14" s="23"/>
       <c r="G14" s="26"/>
       <c r="H14" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J14" s="14">
         <v>5</v>
@@ -6877,10 +6874,10 @@
       <c r="F15" s="23"/>
       <c r="G15" s="26"/>
       <c r="H15" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I15" s="131">
-        <v>44677</v>
+        <v>44691</v>
       </c>
       <c r="J15" s="14">
         <v>6</v>
@@ -7082,7 +7079,7 @@
       <c r="GU15" s="13"/>
       <c r="GV15" s="13"/>
     </row>
-    <row r="16" spans="1:204" ht="26.25">
+    <row r="16" spans="1:204" ht="26.25" hidden="1">
       <c r="B16" s="140"/>
       <c r="C16" s="136" t="s">
         <v>55</v>
@@ -7091,13 +7088,13 @@
       <c r="E16" s="138"/>
       <c r="F16" s="23"/>
       <c r="G16" s="130" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="131">
-        <v>44677</v>
+        <v>75</v>
+      </c>
+      <c r="I16" s="131" t="s">
+        <v>143</v>
       </c>
       <c r="J16" s="14">
         <v>6</v>
@@ -7302,17 +7299,17 @@
     <row r="17" spans="2:204" ht="34.5" customHeight="1">
       <c r="B17" s="141"/>
       <c r="C17" s="136" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" s="137"/>
       <c r="E17" s="138"/>
       <c r="F17" s="23"/>
       <c r="G17" s="26"/>
       <c r="H17" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I17" s="131">
-        <v>44677</v>
+        <v>44691</v>
       </c>
       <c r="J17" s="14">
         <v>7</v>
@@ -7514,7 +7511,7 @@
       <c r="GU17" s="13"/>
       <c r="GV17" s="13"/>
     </row>
-    <row r="18" spans="2:204" ht="26.25">
+    <row r="18" spans="2:204" ht="26.25" hidden="1">
       <c r="B18" s="136" t="s">
         <v>60</v>
       </c>
@@ -7523,12 +7520,14 @@
       <c r="E18" s="138"/>
       <c r="F18" s="23"/>
       <c r="G18" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="41"/>
+        <v>75</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>143</v>
+      </c>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -7734,13 +7733,13 @@
       <c r="E19" s="138"/>
       <c r="F19" s="23"/>
       <c r="G19" s="134" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I19" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J19" s="14">
         <v>1</v>
@@ -7945,17 +7944,17 @@
     <row r="20" spans="2:204" ht="34.5" hidden="1" customHeight="1">
       <c r="B20" s="140"/>
       <c r="C20" s="136" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" s="137"/>
       <c r="E20" s="138"/>
       <c r="F20" s="23"/>
       <c r="G20" s="26"/>
       <c r="H20" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J20" s="14">
         <v>8</v>
@@ -8157,7 +8156,7 @@
       <c r="GU20" s="13"/>
       <c r="GV20" s="13"/>
     </row>
-    <row r="21" spans="2:204" ht="34.5" customHeight="1">
+    <row r="21" spans="2:204" ht="34.5" hidden="1" customHeight="1">
       <c r="B21" s="140"/>
       <c r="C21" s="136" t="s">
         <v>57</v>
@@ -8167,9 +8166,11 @@
       <c r="F21" s="23"/>
       <c r="G21" s="26"/>
       <c r="H21" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="41"/>
+        <v>75</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>143</v>
+      </c>
       <c r="J21" s="14">
         <v>14</v>
       </c>
@@ -8370,19 +8371,21 @@
       <c r="GU21" s="13"/>
       <c r="GV21" s="13"/>
     </row>
-    <row r="22" spans="2:204" ht="37.5" customHeight="1">
+    <row r="22" spans="2:204" ht="37.5" hidden="1" customHeight="1">
       <c r="B22" s="141"/>
       <c r="C22" s="136" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="137"/>
       <c r="E22" s="138"/>
       <c r="F22" s="23"/>
       <c r="G22" s="26"/>
       <c r="H22" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="41"/>
+        <v>75</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>143</v>
+      </c>
       <c r="J22" s="14">
         <v>14</v>
       </c>
@@ -8592,10 +8595,10 @@
       <c r="E23" s="138"/>
       <c r="F23" s="23"/>
       <c r="G23" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="I23" s="41"/>
       <c r="J23" s="14"/>
@@ -8803,7 +8806,7 @@
       <c r="E24" s="138"/>
       <c r="F24" s="23"/>
       <c r="G24" s="130" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>35</v>
@@ -9014,16 +9017,18 @@
     <row r="25" spans="2:204" ht="36.75" customHeight="1">
       <c r="B25" s="140"/>
       <c r="C25" s="136" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="137"/>
       <c r="E25" s="138"/>
       <c r="F25" s="23"/>
       <c r="G25" s="26"/>
       <c r="H25" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="41"/>
+        <v>75</v>
+      </c>
+      <c r="I25" s="41">
+        <v>44685</v>
+      </c>
       <c r="J25" s="14">
         <v>15</v>
       </c>
@@ -9234,9 +9239,11 @@
       <c r="F26" s="23"/>
       <c r="G26" s="26"/>
       <c r="H26" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="41"/>
+        <v>75</v>
+      </c>
+      <c r="I26" s="41">
+        <v>44687</v>
+      </c>
       <c r="J26" s="14">
         <v>21</v>
       </c>
@@ -9438,18 +9445,20 @@
       <c r="GV26" s="13"/>
     </row>
     <row r="27" spans="2:204" ht="26.25">
-      <c r="B27" s="140"/>
+      <c r="B27" s="141"/>
       <c r="C27" s="136" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="D27" s="137"/>
       <c r="E27" s="138"/>
       <c r="F27" s="23"/>
       <c r="G27" s="26"/>
       <c r="H27" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="41"/>
+        <v>75</v>
+      </c>
+      <c r="I27" s="41">
+        <v>44687</v>
+      </c>
       <c r="J27" s="14">
         <v>21</v>
       </c>
@@ -9651,24 +9660,22 @@
       <c r="GV27" s="13"/>
     </row>
     <row r="28" spans="2:204" ht="26.25">
-      <c r="B28" s="141"/>
-      <c r="C28" s="136" t="s">
-        <v>64</v>
-      </c>
+      <c r="B28" s="136" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="137"/>
       <c r="D28" s="137"/>
       <c r="E28" s="138"/>
       <c r="F28" s="23"/>
-      <c r="G28" s="26"/>
+      <c r="G28" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="H28" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I28" s="41"/>
-      <c r="J28" s="14">
-        <v>21</v>
-      </c>
-      <c r="K28" s="14">
-        <v>1</v>
-      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
@@ -9863,23 +9870,29 @@
       <c r="GU28" s="13"/>
       <c r="GV28" s="13"/>
     </row>
-    <row r="29" spans="2:204" ht="26.25">
-      <c r="B29" s="136" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="137"/>
+    <row r="29" spans="2:204" ht="33.75" customHeight="1">
+      <c r="B29" s="139"/>
+      <c r="C29" s="136" t="s">
+        <v>64</v>
+      </c>
       <c r="D29" s="137"/>
       <c r="E29" s="138"/>
       <c r="F29" s="23"/>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="130" t="s">
+        <v>318</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
+      <c r="I29" s="131">
+        <v>44687</v>
+      </c>
+      <c r="J29" s="14">
+        <v>1</v>
+      </c>
+      <c r="K29" s="14">
+        <v>1</v>
+      </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
@@ -10074,28 +10087,26 @@
       <c r="GU29" s="13"/>
       <c r="GV29" s="13"/>
     </row>
-    <row r="30" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B30" s="139"/>
+    <row r="30" spans="2:204" ht="36.75" hidden="1" customHeight="1">
+      <c r="B30" s="140"/>
       <c r="C30" s="136" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D30" s="137"/>
       <c r="E30" s="138"/>
       <c r="F30" s="23"/>
-      <c r="G30" s="130" t="s">
-        <v>320</v>
-      </c>
+      <c r="G30" s="26"/>
       <c r="H30" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I30" s="131">
-        <v>44677</v>
+        <v>75</v>
+      </c>
+      <c r="I30" s="41" t="s">
+        <v>143</v>
       </c>
       <c r="J30" s="14">
-        <v>1</v>
-      </c>
-      <c r="K30" s="14">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K30" s="100">
+        <v>10</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
@@ -10110,7 +10121,7 @@
       <c r="V30" s="12"/>
       <c r="W30" s="13"/>
       <c r="X30" s="12"/>
-      <c r="Y30" s="13"/>
+      <c r="Y30" s="127"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
       <c r="AB30" s="11"/>
@@ -10291,24 +10302,26 @@
       <c r="GU30" s="13"/>
       <c r="GV30" s="13"/>
     </row>
-    <row r="31" spans="2:204" ht="36.75" customHeight="1">
+    <row r="31" spans="2:204" ht="26.25" hidden="1">
       <c r="B31" s="140"/>
       <c r="C31" s="136" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D31" s="137"/>
       <c r="E31" s="138"/>
       <c r="F31" s="23"/>
       <c r="G31" s="26"/>
       <c r="H31" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="41"/>
+        <v>75</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>143</v>
+      </c>
       <c r="J31" s="14">
-        <v>7</v>
-      </c>
-      <c r="K31" s="100">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="K31" s="14">
+        <v>2</v>
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
@@ -10321,13 +10334,13 @@
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="127"/>
-      <c r="Z31" s="13"/>
+      <c r="W31" s="124"/>
+      <c r="X31" s="126"/>
+      <c r="Y31" s="129"/>
+      <c r="Z31" s="90"/>
       <c r="AA31" s="13"/>
       <c r="AB31" s="11"/>
-      <c r="AC31" s="12"/>
+      <c r="AC31" s="13"/>
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
       <c r="AF31" s="12"/>
@@ -10507,21 +10520,21 @@
     <row r="32" spans="2:204" ht="26.25">
       <c r="B32" s="140"/>
       <c r="C32" s="136" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" s="137"/>
       <c r="E32" s="138"/>
       <c r="F32" s="23"/>
       <c r="G32" s="26"/>
       <c r="H32" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I32" s="41"/>
       <c r="J32" s="14">
         <v>17</v>
       </c>
       <c r="K32" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
@@ -10534,13 +10547,13 @@
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
-      <c r="W32" s="124"/>
-      <c r="X32" s="126"/>
-      <c r="Y32" s="129"/>
-      <c r="Z32" s="90"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="125"/>
+      <c r="Y32" s="128"/>
+      <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
       <c r="AB32" s="11"/>
-      <c r="AC32" s="13"/>
+      <c r="AC32" s="12"/>
       <c r="AD32" s="12"/>
       <c r="AE32" s="12"/>
       <c r="AF32" s="12"/>
@@ -10720,20 +10733,22 @@
     <row r="33" spans="2:204" ht="26.25">
       <c r="B33" s="140"/>
       <c r="C33" s="136" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D33" s="137"/>
       <c r="E33" s="138"/>
       <c r="F33" s="23"/>
-      <c r="G33" s="26"/>
+      <c r="G33" s="26" t="s">
+        <v>144</v>
+      </c>
       <c r="H33" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I33" s="41"/>
       <c r="J33" s="14">
-        <v>17</v>
-      </c>
-      <c r="K33" s="14">
+        <v>18</v>
+      </c>
+      <c r="K33" s="100">
         <v>1</v>
       </c>
       <c r="L33" s="14"/>
@@ -10748,8 +10763,8 @@
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
       <c r="W33" s="13"/>
-      <c r="X33" s="125"/>
-      <c r="Y33" s="128"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
       <c r="AB33" s="11"/>
@@ -10930,26 +10945,24 @@
       <c r="GU33" s="13"/>
       <c r="GV33" s="13"/>
     </row>
-    <row r="34" spans="2:204" ht="26.25">
-      <c r="B34" s="140"/>
+    <row r="34" spans="2:204" ht="35.25" customHeight="1">
+      <c r="B34" s="141"/>
       <c r="C34" s="136" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="137"/>
       <c r="E34" s="138"/>
       <c r="F34" s="23"/>
-      <c r="G34" s="26" t="s">
-        <v>146</v>
-      </c>
+      <c r="G34" s="26"/>
       <c r="H34" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I34" s="41"/>
       <c r="J34" s="14">
-        <v>18</v>
-      </c>
-      <c r="K34" s="100">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K34" s="14">
+        <v>2</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
@@ -11146,23 +11159,25 @@
       <c r="GV34" s="13"/>
     </row>
     <row r="35" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B35" s="141"/>
-      <c r="C35" s="136" t="s">
-        <v>72</v>
-      </c>
+      <c r="B35" s="136" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" s="137"/>
       <c r="D35" s="137"/>
       <c r="E35" s="138"/>
       <c r="F35" s="23"/>
-      <c r="G35" s="26"/>
+      <c r="G35" s="26" t="s">
+        <v>287</v>
+      </c>
       <c r="H35" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I35" s="41"/>
       <c r="J35" s="14">
         <v>17</v>
       </c>
       <c r="K35" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
@@ -11359,18 +11374,16 @@
       <c r="GV35" s="13"/>
     </row>
     <row r="36" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B36" s="136" t="s">
+      <c r="B36" s="143"/>
+      <c r="C36" s="137" t="s">
         <v>288</v>
       </c>
-      <c r="C36" s="137"/>
       <c r="D36" s="137"/>
       <c r="E36" s="138"/>
       <c r="F36" s="23"/>
-      <c r="G36" s="26" t="s">
-        <v>289</v>
-      </c>
+      <c r="G36" s="26"/>
       <c r="H36" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I36" s="41"/>
       <c r="J36" s="14">
@@ -11574,16 +11587,16 @@
       <c r="GV36" s="13"/>
     </row>
     <row r="37" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B37" s="143"/>
+      <c r="B37" s="145"/>
       <c r="C37" s="137" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D37" s="137"/>
       <c r="E37" s="138"/>
       <c r="F37" s="23"/>
       <c r="G37" s="26"/>
       <c r="H37" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I37" s="41"/>
       <c r="J37" s="14">
@@ -11786,29 +11799,37 @@
       <c r="GU37" s="13"/>
       <c r="GV37" s="13"/>
     </row>
-    <row r="38" spans="2:204" ht="35.25" customHeight="1">
-      <c r="B38" s="145"/>
-      <c r="C38" s="137" t="s">
-        <v>291</v>
-      </c>
-      <c r="D38" s="137"/>
-      <c r="E38" s="138"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="26"/>
+    <row r="38" spans="2:204" ht="26.25">
+      <c r="B38" s="153" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="151"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>34</v>
+      </c>
       <c r="H38" s="14" t="s">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="I38" s="41"/>
       <c r="J38" s="14">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K38" s="14">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
+      <c r="N38" s="14">
+        <v>2</v>
+      </c>
+      <c r="O38" s="14">
+        <v>4</v>
+      </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="15"/>
@@ -12000,36 +12021,28 @@
       <c r="GV38" s="13"/>
     </row>
     <row r="39" spans="2:204" ht="26.25">
-      <c r="B39" s="153" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="151"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>310</v>
+      <c r="B39" s="136" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="119" t="s">
+        <v>308</v>
       </c>
       <c r="I39" s="41"/>
       <c r="J39" s="14">
         <v>4</v>
       </c>
       <c r="K39" s="14">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
-      <c r="N39" s="14">
-        <v>2</v>
-      </c>
-      <c r="O39" s="14">
-        <v>4</v>
-      </c>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="15"/>
@@ -12220,24 +12233,26 @@
       <c r="GU39" s="13"/>
       <c r="GV39" s="13"/>
     </row>
-    <row r="40" spans="2:204" ht="26.25">
-      <c r="B40" s="136" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="137"/>
+    <row r="40" spans="2:204" ht="26.25" hidden="1">
+      <c r="B40" s="139"/>
+      <c r="C40" s="136" t="s">
+        <v>81</v>
+      </c>
       <c r="D40" s="137"/>
       <c r="E40" s="138"/>
       <c r="F40" s="64"/>
       <c r="G40" s="26"/>
       <c r="H40" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="I40" s="41"/>
+        <v>308</v>
+      </c>
+      <c r="I40" s="132" t="s">
+        <v>143</v>
+      </c>
       <c r="J40" s="14">
         <v>4</v>
       </c>
       <c r="K40" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
@@ -12434,22 +12449,22 @@
       <c r="GV40" s="13"/>
     </row>
     <row r="41" spans="2:204" ht="26.25" hidden="1">
-      <c r="B41" s="139"/>
+      <c r="B41" s="140"/>
       <c r="C41" s="136" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="137"/>
       <c r="E41" s="138"/>
       <c r="F41" s="64"/>
       <c r="G41" s="26"/>
       <c r="H41" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I41" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J41" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K41" s="14">
         <v>1</v>
@@ -12651,20 +12666,20 @@
     <row r="42" spans="2:204" ht="26.25" hidden="1">
       <c r="B42" s="140"/>
       <c r="C42" s="136" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" s="137"/>
       <c r="E42" s="138"/>
       <c r="F42" s="64"/>
       <c r="G42" s="26"/>
       <c r="H42" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I42" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J42" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K42" s="14">
         <v>1</v>
@@ -12863,23 +12878,23 @@
       <c r="GU42" s="13"/>
       <c r="GV42" s="13"/>
     </row>
-    <row r="43" spans="2:204" ht="26.25" hidden="1">
+    <row r="43" spans="2:204" ht="30" hidden="1" customHeight="1">
       <c r="B43" s="140"/>
       <c r="C43" s="136" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="137"/>
       <c r="E43" s="138"/>
       <c r="F43" s="64"/>
       <c r="G43" s="26"/>
       <c r="H43" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I43" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J43" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K43" s="14">
         <v>1</v>
@@ -13078,23 +13093,23 @@
       <c r="GU43" s="13"/>
       <c r="GV43" s="13"/>
     </row>
-    <row r="44" spans="2:204" ht="30" hidden="1" customHeight="1">
+    <row r="44" spans="2:204" ht="26.25" hidden="1">
       <c r="B44" s="140"/>
       <c r="C44" s="136" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D44" s="137"/>
       <c r="E44" s="138"/>
       <c r="F44" s="64"/>
       <c r="G44" s="26"/>
       <c r="H44" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I44" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J44" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K44" s="14">
         <v>1</v>
@@ -13293,23 +13308,23 @@
       <c r="GU44" s="13"/>
       <c r="GV44" s="13"/>
     </row>
-    <row r="45" spans="2:204" ht="26.25" hidden="1">
-      <c r="B45" s="140"/>
+    <row r="45" spans="2:204" ht="37.5" hidden="1" customHeight="1">
+      <c r="B45" s="141"/>
       <c r="C45" s="136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D45" s="137"/>
       <c r="E45" s="138"/>
       <c r="F45" s="64"/>
       <c r="G45" s="26"/>
       <c r="H45" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I45" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J45" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K45" s="14">
         <v>1</v>
@@ -13508,33 +13523,33 @@
       <c r="GU45" s="13"/>
       <c r="GV45" s="13"/>
     </row>
-    <row r="46" spans="2:204" ht="37.5" hidden="1" customHeight="1">
-      <c r="B46" s="141"/>
+    <row r="46" spans="2:204" ht="26.25" hidden="1">
+      <c r="B46" s="133"/>
       <c r="C46" s="136" t="s">
-        <v>88</v>
+        <v>315</v>
       </c>
       <c r="D46" s="137"/>
       <c r="E46" s="138"/>
       <c r="F46" s="64"/>
       <c r="G46" s="26"/>
       <c r="H46" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I46" s="132" t="s">
-        <v>145</v>
-      </c>
-      <c r="J46" s="14">
+        <v>143</v>
+      </c>
+      <c r="J46" s="119">
         <v>9</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K46" s="119">
         <v>1</v>
       </c>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
+      <c r="L46" s="119"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="119"/>
+      <c r="O46" s="119"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="119"/>
       <c r="R46" s="15"/>
       <c r="S46" s="12"/>
       <c r="T46" s="12"/>
@@ -13726,17 +13741,17 @@
     <row r="47" spans="2:204" ht="26.25" hidden="1">
       <c r="B47" s="133"/>
       <c r="C47" s="136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D47" s="137"/>
       <c r="E47" s="138"/>
       <c r="F47" s="64"/>
       <c r="G47" s="26"/>
       <c r="H47" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I47" s="132" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J47" s="119">
         <v>9</v>
@@ -13938,33 +13953,31 @@
       <c r="GU47" s="13"/>
       <c r="GV47" s="13"/>
     </row>
-    <row r="48" spans="2:204" ht="26.25" hidden="1">
-      <c r="B48" s="133"/>
-      <c r="C48" s="136" t="s">
-        <v>318</v>
-      </c>
+    <row r="48" spans="2:204" ht="26.25">
+      <c r="B48" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="137"/>
       <c r="D48" s="137"/>
       <c r="E48" s="138"/>
       <c r="F48" s="64"/>
       <c r="G48" s="26"/>
       <c r="H48" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="I48" s="132" t="s">
-        <v>145</v>
-      </c>
-      <c r="J48" s="119">
-        <v>9</v>
-      </c>
-      <c r="K48" s="119">
+        <v>308</v>
+      </c>
+      <c r="I48" s="41"/>
+      <c r="J48" s="14">
+        <v>15</v>
+      </c>
+      <c r="K48" s="14">
         <v>1</v>
       </c>
-      <c r="L48" s="119"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="119"/>
-      <c r="O48" s="119"/>
-      <c r="P48" s="119"/>
-      <c r="Q48" s="119"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
       <c r="R48" s="15"/>
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
@@ -14153,19 +14166,21 @@
       <c r="GU48" s="13"/>
       <c r="GV48" s="13"/>
     </row>
-    <row r="49" spans="2:204" ht="26.25">
-      <c r="B49" s="136" t="s">
+    <row r="49" spans="2:204" ht="39" hidden="1" customHeight="1">
+      <c r="B49" s="65"/>
+      <c r="C49" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="137"/>
       <c r="D49" s="137"/>
       <c r="E49" s="138"/>
       <c r="F49" s="64"/>
       <c r="G49" s="26"/>
       <c r="H49" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="I49" s="41"/>
+        <v>308</v>
+      </c>
+      <c r="I49" s="41" t="s">
+        <v>143</v>
+      </c>
       <c r="J49" s="14">
         <v>15</v>
       </c>
@@ -14366,26 +14381,26 @@
       <c r="GU49" s="13"/>
       <c r="GV49" s="13"/>
     </row>
-    <row r="50" spans="2:204" ht="39" hidden="1" customHeight="1">
-      <c r="B50" s="65"/>
-      <c r="C50" s="136" t="s">
-        <v>92</v>
-      </c>
+    <row r="50" spans="2:204" ht="26.25">
+      <c r="B50" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="137"/>
       <c r="D50" s="137"/>
       <c r="E50" s="138"/>
       <c r="F50" s="64"/>
       <c r="G50" s="26"/>
       <c r="H50" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="I50" s="41" t="s">
-        <v>145</v>
+        <v>308</v>
+      </c>
+      <c r="I50" s="131">
+        <v>44701</v>
       </c>
       <c r="J50" s="14">
-        <v>15</v>
-      </c>
-      <c r="K50" s="14">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K50" s="100">
+        <v>28</v>
       </c>
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
@@ -14581,31 +14596,33 @@
       <c r="GU50" s="13"/>
       <c r="GV50" s="13"/>
     </row>
-    <row r="51" spans="2:204" ht="26.25">
-      <c r="B51" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="137"/>
+    <row r="51" spans="2:204" ht="24" hidden="1" customHeight="1">
+      <c r="B51" s="135"/>
+      <c r="C51" s="136" t="s">
+        <v>325</v>
+      </c>
       <c r="D51" s="137"/>
       <c r="E51" s="138"/>
       <c r="F51" s="64"/>
       <c r="G51" s="26"/>
       <c r="H51" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="I51" s="41"/>
-      <c r="J51" s="14">
-        <v>10</v>
-      </c>
-      <c r="K51" s="100">
-        <v>28</v>
-      </c>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
+        <v>308</v>
+      </c>
+      <c r="I51" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="J51" s="119">
+        <v>19</v>
+      </c>
+      <c r="K51" s="119">
+        <v>1</v>
+      </c>
+      <c r="L51" s="119"/>
+      <c r="M51" s="119"/>
+      <c r="N51" s="119"/>
+      <c r="O51" s="119"/>
+      <c r="P51" s="119"/>
+      <c r="Q51" s="119"/>
       <c r="R51" s="15"/>
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
@@ -14794,33 +14811,31 @@
       <c r="GU51" s="13"/>
       <c r="GV51" s="13"/>
     </row>
-    <row r="52" spans="2:204" ht="24" hidden="1" customHeight="1">
-      <c r="B52" s="135"/>
+    <row r="52" spans="2:204" ht="33.75" customHeight="1">
+      <c r="B52" s="143"/>
       <c r="C52" s="136" t="s">
-        <v>327</v>
+        <v>91</v>
       </c>
       <c r="D52" s="137"/>
       <c r="E52" s="138"/>
       <c r="F52" s="64"/>
       <c r="G52" s="26"/>
       <c r="H52" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="I52" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="J52" s="119">
-        <v>19</v>
-      </c>
-      <c r="K52" s="119">
+        <v>308</v>
+      </c>
+      <c r="I52" s="41"/>
+      <c r="J52" s="14">
+        <v>10</v>
+      </c>
+      <c r="K52" s="14">
         <v>1</v>
       </c>
-      <c r="L52" s="119"/>
-      <c r="M52" s="119"/>
-      <c r="N52" s="119"/>
-      <c r="O52" s="119"/>
-      <c r="P52" s="119"/>
-      <c r="Q52" s="119"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
       <c r="R52" s="15"/>
       <c r="S52" s="12"/>
       <c r="T52" s="12"/>
@@ -15009,21 +15024,23 @@
       <c r="GU52" s="13"/>
       <c r="GV52" s="13"/>
     </row>
-    <row r="53" spans="2:204" ht="33.75" customHeight="1">
-      <c r="B53" s="143"/>
+    <row r="53" spans="2:204" ht="26.25" hidden="1">
+      <c r="B53" s="144"/>
       <c r="C53" s="136" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="137"/>
       <c r="E53" s="138"/>
       <c r="F53" s="64"/>
       <c r="G53" s="26"/>
       <c r="H53" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="I53" s="41"/>
+        <v>308</v>
+      </c>
+      <c r="I53" s="41" t="s">
+        <v>143</v>
+      </c>
       <c r="J53" s="14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K53" s="14">
         <v>1</v>
@@ -15225,20 +15242,20 @@
     <row r="54" spans="2:204" ht="26.25" hidden="1">
       <c r="B54" s="144"/>
       <c r="C54" s="136" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D54" s="137"/>
       <c r="E54" s="138"/>
       <c r="F54" s="64"/>
       <c r="G54" s="26"/>
       <c r="H54" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I54" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J54" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K54" s="14">
         <v>1</v>
@@ -15437,23 +15454,21 @@
       <c r="GU54" s="13"/>
       <c r="GV54" s="13"/>
     </row>
-    <row r="55" spans="2:204" ht="26.25" hidden="1">
+    <row r="55" spans="2:204" ht="32.25" customHeight="1">
       <c r="B55" s="144"/>
       <c r="C55" s="136" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D55" s="137"/>
       <c r="E55" s="138"/>
       <c r="F55" s="64"/>
       <c r="G55" s="26"/>
       <c r="H55" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="I55" s="41" t="s">
-        <v>145</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="I55" s="41"/>
       <c r="J55" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K55" s="14">
         <v>1</v>
@@ -15652,21 +15667,21 @@
       <c r="GU55" s="13"/>
       <c r="GV55" s="13"/>
     </row>
-    <row r="56" spans="2:204" ht="32.25" customHeight="1">
+    <row r="56" spans="2:204" ht="43.5" customHeight="1">
       <c r="B56" s="144"/>
       <c r="C56" s="136" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D56" s="137"/>
       <c r="E56" s="138"/>
       <c r="F56" s="64"/>
       <c r="G56" s="26"/>
       <c r="H56" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I56" s="41"/>
       <c r="J56" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K56" s="14">
         <v>1</v>
@@ -15868,18 +15883,18 @@
     <row r="57" spans="2:204" ht="43.5" customHeight="1">
       <c r="B57" s="144"/>
       <c r="C57" s="136" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D57" s="137"/>
       <c r="E57" s="138"/>
       <c r="F57" s="64"/>
       <c r="G57" s="26"/>
       <c r="H57" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I57" s="41"/>
       <c r="J57" s="14">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K57" s="14">
         <v>1</v>
@@ -16078,21 +16093,23 @@
       <c r="GU57" s="13"/>
       <c r="GV57" s="13"/>
     </row>
-    <row r="58" spans="2:204" ht="43.5" customHeight="1">
+    <row r="58" spans="2:204" ht="33.75" hidden="1" customHeight="1">
       <c r="B58" s="144"/>
       <c r="C58" s="136" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D58" s="137"/>
       <c r="E58" s="138"/>
       <c r="F58" s="64"/>
       <c r="G58" s="26"/>
       <c r="H58" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="I58" s="41"/>
+        <v>308</v>
+      </c>
+      <c r="I58" s="41" t="s">
+        <v>143</v>
+      </c>
       <c r="J58" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K58" s="14">
         <v>1</v>
@@ -16291,26 +16308,24 @@
       <c r="GU58" s="13"/>
       <c r="GV58" s="13"/>
     </row>
-    <row r="59" spans="2:204" ht="33.75" hidden="1" customHeight="1">
+    <row r="59" spans="2:204" ht="26.25">
       <c r="B59" s="144"/>
       <c r="C59" s="136" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D59" s="137"/>
       <c r="E59" s="138"/>
       <c r="F59" s="64"/>
       <c r="G59" s="26"/>
       <c r="H59" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="I59" s="41" t="s">
-        <v>145</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="I59" s="41"/>
       <c r="J59" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K59" s="14">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
@@ -16508,22 +16523,22 @@
     </row>
     <row r="60" spans="2:204" ht="26.25">
       <c r="B60" s="144"/>
-      <c r="C60" s="136" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="137"/>
-      <c r="E60" s="138"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="146" t="s">
+        <v>320</v>
+      </c>
+      <c r="E60" s="147"/>
       <c r="F60" s="64"/>
       <c r="G60" s="26"/>
       <c r="H60" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I60" s="41"/>
       <c r="J60" s="14">
         <v>23</v>
       </c>
       <c r="K60" s="14">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
@@ -16721,22 +16736,22 @@
     </row>
     <row r="61" spans="2:204" ht="26.25">
       <c r="B61" s="144"/>
-      <c r="C61" s="143"/>
+      <c r="C61" s="144"/>
       <c r="D61" s="146" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E61" s="147"/>
       <c r="F61" s="64"/>
       <c r="G61" s="26"/>
       <c r="H61" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I61" s="41"/>
       <c r="J61" s="14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K61" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
@@ -16932,24 +16947,26 @@
       <c r="GU61" s="13"/>
       <c r="GV61" s="13"/>
     </row>
-    <row r="62" spans="2:204" ht="26.25">
+    <row r="62" spans="2:204" ht="36" hidden="1" customHeight="1">
       <c r="B62" s="144"/>
       <c r="C62" s="144"/>
-      <c r="D62" s="146" t="s">
-        <v>323</v>
-      </c>
-      <c r="E62" s="147"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="65" t="s">
+        <v>98</v>
+      </c>
       <c r="F62" s="64"/>
       <c r="G62" s="26"/>
       <c r="H62" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="I62" s="41"/>
+        <v>308</v>
+      </c>
+      <c r="I62" s="41" t="s">
+        <v>143</v>
+      </c>
       <c r="J62" s="14">
         <v>24</v>
       </c>
       <c r="K62" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
@@ -17145,20 +17162,20 @@
       <c r="GU62" s="13"/>
       <c r="GV62" s="13"/>
     </row>
-    <row r="63" spans="2:204" ht="36" hidden="1" customHeight="1">
+    <row r="63" spans="2:204" ht="35.25" hidden="1" customHeight="1">
       <c r="B63" s="144"/>
       <c r="C63" s="144"/>
-      <c r="D63" s="143"/>
+      <c r="D63" s="144"/>
       <c r="E63" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F63" s="64"/>
       <c r="G63" s="26"/>
       <c r="H63" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I63" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J63" s="14">
         <v>24</v>
@@ -17370,13 +17387,13 @@
       <c r="F64" s="64"/>
       <c r="G64" s="26"/>
       <c r="H64" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I64" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J64" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K64" s="14">
         <v>1</v>
@@ -17575,20 +17592,20 @@
       <c r="GU64" s="13"/>
       <c r="GV64" s="13"/>
     </row>
-    <row r="65" spans="1:204" ht="35.25" hidden="1" customHeight="1">
+    <row r="65" spans="1:204" ht="33.75" hidden="1" customHeight="1">
       <c r="B65" s="144"/>
       <c r="C65" s="144"/>
       <c r="D65" s="144"/>
       <c r="E65" s="65" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F65" s="64"/>
       <c r="G65" s="26"/>
       <c r="H65" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I65" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J65" s="14">
         <v>25</v>
@@ -17790,23 +17807,23 @@
       <c r="GU65" s="13"/>
       <c r="GV65" s="13"/>
     </row>
-    <row r="66" spans="1:204" ht="33.75" hidden="1" customHeight="1">
+    <row r="66" spans="1:204" ht="26.25" hidden="1">
       <c r="B66" s="144"/>
       <c r="C66" s="144"/>
       <c r="D66" s="144"/>
       <c r="E66" s="65" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F66" s="64"/>
       <c r="G66" s="26"/>
       <c r="H66" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I66" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J66" s="14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K66" s="14">
         <v>1</v>
@@ -18015,10 +18032,10 @@
       <c r="F67" s="64"/>
       <c r="G67" s="26"/>
       <c r="H67" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I67" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J67" s="14">
         <v>26</v>
@@ -18225,18 +18242,18 @@
       <c r="C68" s="144"/>
       <c r="D68" s="144"/>
       <c r="E68" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F68" s="64"/>
       <c r="G68" s="26"/>
       <c r="H68" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I68" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J68" s="14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K68" s="14">
         <v>1</v>
@@ -18435,20 +18452,20 @@
       <c r="GU68" s="13"/>
       <c r="GV68" s="13"/>
     </row>
-    <row r="69" spans="1:204" ht="26.25" hidden="1">
+    <row r="69" spans="1:204" ht="37.5" hidden="1" customHeight="1">
       <c r="B69" s="144"/>
       <c r="C69" s="144"/>
-      <c r="D69" s="144"/>
+      <c r="D69" s="145"/>
       <c r="E69" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F69" s="64"/>
       <c r="G69" s="26"/>
       <c r="H69" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I69" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J69" s="14">
         <v>27</v>
@@ -18650,23 +18667,21 @@
       <c r="GU69" s="13"/>
       <c r="GV69" s="13"/>
     </row>
-    <row r="70" spans="1:204" ht="37.5" hidden="1" customHeight="1">
+    <row r="70" spans="1:204" ht="33" customHeight="1">
       <c r="B70" s="144"/>
       <c r="C70" s="144"/>
-      <c r="D70" s="145"/>
-      <c r="E70" s="65" t="s">
-        <v>106</v>
-      </c>
+      <c r="D70" s="136" t="s">
+        <v>322</v>
+      </c>
+      <c r="E70" s="138"/>
       <c r="F70" s="64"/>
       <c r="G70" s="26"/>
       <c r="H70" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="I70" s="41" t="s">
-        <v>145</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="I70" s="41"/>
       <c r="J70" s="14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K70" s="14">
         <v>1</v>
@@ -18865,24 +18880,24 @@
       <c r="GU70" s="13"/>
       <c r="GV70" s="13"/>
     </row>
-    <row r="71" spans="1:204" ht="33" customHeight="1">
+    <row r="71" spans="1:204" ht="26.25">
       <c r="B71" s="144"/>
       <c r="C71" s="144"/>
       <c r="D71" s="136" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E71" s="138"/>
       <c r="F71" s="64"/>
       <c r="G71" s="26"/>
       <c r="H71" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I71" s="41"/>
       <c r="J71" s="14">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K71" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
@@ -19078,24 +19093,24 @@
       <c r="GU71" s="13"/>
       <c r="GV71" s="13"/>
     </row>
-    <row r="72" spans="1:204" ht="26.25">
-      <c r="B72" s="144"/>
-      <c r="C72" s="144"/>
+    <row r="72" spans="1:204" ht="34.5" customHeight="1">
+      <c r="B72" s="145"/>
+      <c r="C72" s="145"/>
       <c r="D72" s="136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E72" s="138"/>
       <c r="F72" s="64"/>
       <c r="G72" s="26"/>
       <c r="H72" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I72" s="41"/>
       <c r="J72" s="14">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K72" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
@@ -19291,29 +19306,39 @@
       <c r="GU72" s="13"/>
       <c r="GV72" s="13"/>
     </row>
-    <row r="73" spans="1:204" ht="34.5" customHeight="1">
-      <c r="B73" s="145"/>
-      <c r="C73" s="145"/>
-      <c r="D73" s="136" t="s">
-        <v>326</v>
-      </c>
-      <c r="E73" s="138"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="I73" s="41"/>
+    <row r="73" spans="1:204" ht="26.25">
+      <c r="B73" s="153" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="151"/>
+      <c r="D73" s="151"/>
+      <c r="E73" s="152"/>
+      <c r="F73" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73" s="131">
+        <v>44711</v>
+      </c>
       <c r="J73" s="14">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K73" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
+      <c r="N73" s="14">
+        <v>2</v>
+      </c>
+      <c r="O73" s="14">
+        <v>6</v>
+      </c>
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
       <c r="R73" s="15"/>
@@ -19504,37 +19529,29 @@
       <c r="GU73" s="13"/>
       <c r="GV73" s="13"/>
     </row>
-    <row r="74" spans="1:204" ht="26.25">
-      <c r="B74" s="153" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="151"/>
-      <c r="D74" s="151"/>
-      <c r="E74" s="152"/>
-      <c r="F74" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H74" s="14" t="s">
-        <v>77</v>
+    <row r="74" spans="1:204" ht="45" customHeight="1">
+      <c r="B74" s="97"/>
+      <c r="C74" s="98"/>
+      <c r="D74" s="142" t="s">
+        <v>305</v>
+      </c>
+      <c r="E74" s="142"/>
+      <c r="F74" s="114"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="119" t="s">
+        <v>75</v>
       </c>
       <c r="I74" s="41"/>
       <c r="J74" s="14">
         <v>38</v>
       </c>
       <c r="K74" s="14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
-      <c r="N74" s="14">
-        <v>2</v>
-      </c>
-      <c r="O74" s="14">
-        <v>6</v>
-      </c>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
       <c r="R74" s="15"/>
@@ -19725,24 +19742,24 @@
       <c r="GU74" s="13"/>
       <c r="GV74" s="13"/>
     </row>
-    <row r="75" spans="1:204" ht="45" customHeight="1">
+    <row r="75" spans="1:204" ht="47.25" customHeight="1">
       <c r="B75" s="97"/>
       <c r="C75" s="98"/>
       <c r="D75" s="142" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E75" s="142"/>
-      <c r="F75" s="114"/>
+      <c r="F75" s="64"/>
       <c r="G75" s="26"/>
       <c r="H75" s="119" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I75" s="41"/>
       <c r="J75" s="14">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K75" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L75" s="14"/>
       <c r="M75" s="14"/>
@@ -19938,24 +19955,24 @@
       <c r="GU75" s="13"/>
       <c r="GV75" s="13"/>
     </row>
-    <row r="76" spans="1:204" ht="47.25" customHeight="1">
+    <row r="76" spans="1:204" ht="26.25">
       <c r="B76" s="97"/>
       <c r="C76" s="98"/>
       <c r="D76" s="142" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E76" s="142"/>
       <c r="F76" s="64"/>
       <c r="G76" s="26"/>
       <c r="H76" s="119" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I76" s="41"/>
       <c r="J76" s="14">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K76" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
@@ -20151,32 +20168,29 @@
       <c r="GU76" s="13"/>
       <c r="GV76" s="13"/>
     </row>
-    <row r="77" spans="1:204" ht="26.25">
-      <c r="B77" s="97"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="142" t="s">
-        <v>309</v>
-      </c>
-      <c r="E77" s="142"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="I77" s="41"/>
-      <c r="J77" s="14">
-        <v>45</v>
-      </c>
-      <c r="K77" s="14">
-        <v>1</v>
-      </c>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="14"/>
-      <c r="R77" s="15"/>
+    <row r="77" spans="1:204" ht="32.25" customHeight="1">
+      <c r="A77" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="171" t="s">
+        <v>313</v>
+      </c>
+      <c r="C77" s="169"/>
+      <c r="D77" s="169"/>
+      <c r="E77" s="169"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="10"/>
       <c r="S77" s="12"/>
       <c r="T77" s="12"/>
       <c r="U77" s="12"/>
@@ -20364,29 +20378,42 @@
       <c r="GU77" s="13"/>
       <c r="GV77" s="13"/>
     </row>
-    <row r="78" spans="1:204" ht="32.25" customHeight="1">
-      <c r="A78" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" s="171" t="s">
-        <v>315</v>
-      </c>
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
-      <c r="E78" s="169"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="10"/>
+    <row r="78" spans="1:204" ht="26.25">
+      <c r="B78" s="153" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="151"/>
+      <c r="D78" s="151"/>
+      <c r="E78" s="152"/>
+      <c r="F78" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I78" s="131">
+        <v>44701</v>
+      </c>
+      <c r="J78" s="14">
+        <v>22</v>
+      </c>
+      <c r="K78" s="14">
+        <v>7</v>
+      </c>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14">
+        <v>2</v>
+      </c>
+      <c r="O78" s="14">
+        <v>4</v>
+      </c>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="15"/>
       <c r="S78" s="12"/>
       <c r="T78" s="12"/>
       <c r="U78" s="12"/>
@@ -20574,37 +20601,29 @@
       <c r="GU78" s="13"/>
       <c r="GV78" s="13"/>
     </row>
-    <row r="79" spans="1:204" ht="26.25">
-      <c r="B79" s="153" t="s">
-        <v>49</v>
-      </c>
-      <c r="C79" s="151"/>
+    <row r="79" spans="1:204" ht="44.25" customHeight="1">
+      <c r="B79" s="97"/>
+      <c r="C79" s="151" t="s">
+        <v>291</v>
+      </c>
       <c r="D79" s="151"/>
       <c r="E79" s="152"/>
-      <c r="F79" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G79" s="26" t="s">
-        <v>292</v>
-      </c>
+      <c r="F79" s="23"/>
+      <c r="G79" s="26"/>
       <c r="H79" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I79" s="41"/>
       <c r="J79" s="14">
         <v>22</v>
       </c>
       <c r="K79" s="14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
-      <c r="N79" s="14">
-        <v>2</v>
-      </c>
-      <c r="O79" s="14">
-        <v>4</v>
-      </c>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
       <c r="R79" s="15"/>
@@ -20795,24 +20814,24 @@
       <c r="GU79" s="13"/>
       <c r="GV79" s="13"/>
     </row>
-    <row r="80" spans="1:204" ht="44.25" customHeight="1">
+    <row r="80" spans="1:204" ht="60.75" customHeight="1">
       <c r="B80" s="97"/>
       <c r="C80" s="151" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D80" s="151"/>
       <c r="E80" s="152"/>
       <c r="F80" s="23"/>
       <c r="G80" s="26"/>
       <c r="H80" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I80" s="41"/>
       <c r="J80" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K80" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
@@ -21008,24 +21027,24 @@
       <c r="GU80" s="13"/>
       <c r="GV80" s="13"/>
     </row>
-    <row r="81" spans="2:204" ht="60.75" customHeight="1">
+    <row r="81" spans="1:204" ht="26.25">
       <c r="B81" s="97"/>
       <c r="C81" s="151" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="D81" s="151"/>
       <c r="E81" s="152"/>
       <c r="F81" s="23"/>
       <c r="G81" s="26"/>
       <c r="H81" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I81" s="41"/>
       <c r="J81" s="14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K81" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
@@ -21221,21 +21240,21 @@
       <c r="GU81" s="13"/>
       <c r="GV81" s="13"/>
     </row>
-    <row r="82" spans="2:204" ht="26.25">
+    <row r="82" spans="1:204" ht="26.25">
       <c r="B82" s="97"/>
       <c r="C82" s="151" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D82" s="151"/>
       <c r="E82" s="152"/>
       <c r="F82" s="23"/>
       <c r="G82" s="26"/>
       <c r="H82" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I82" s="41"/>
       <c r="J82" s="14">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K82" s="14">
         <v>1</v>
@@ -21434,29 +21453,37 @@
       <c r="GU82" s="13"/>
       <c r="GV82" s="13"/>
     </row>
-    <row r="83" spans="2:204" ht="26.25">
-      <c r="B83" s="97"/>
-      <c r="C83" s="151" t="s">
-        <v>279</v>
-      </c>
+    <row r="83" spans="1:204" ht="26.25">
+      <c r="B83" s="153" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="151"/>
       <c r="D83" s="151"/>
       <c r="E83" s="152"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="26"/>
+      <c r="F83" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="H83" s="14" t="s">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="I83" s="41"/>
       <c r="J83" s="14">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K83" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="14"/>
+      <c r="N83" s="14">
+        <v>2</v>
+      </c>
+      <c r="O83" s="14">
+        <v>4</v>
+      </c>
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
       <c r="R83" s="15"/>
@@ -21647,37 +21674,29 @@
       <c r="GU83" s="13"/>
       <c r="GV83" s="13"/>
     </row>
-    <row r="84" spans="2:204" ht="26.25">
-      <c r="B84" s="153" t="s">
-        <v>50</v>
-      </c>
-      <c r="C84" s="151"/>
+    <row r="84" spans="1:204" ht="48.75" customHeight="1">
+      <c r="B84" s="97"/>
+      <c r="C84" s="151" t="s">
+        <v>278</v>
+      </c>
       <c r="D84" s="151"/>
       <c r="E84" s="152"/>
-      <c r="F84" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G84" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H84" s="14" t="s">
-        <v>310</v>
+      <c r="F84" s="23"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="119" t="s">
+        <v>308</v>
       </c>
       <c r="I84" s="41"/>
       <c r="J84" s="14">
         <v>46</v>
       </c>
       <c r="K84" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
-      <c r="N84" s="14">
-        <v>2</v>
-      </c>
-      <c r="O84" s="14">
-        <v>4</v>
-      </c>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
       <c r="R84" s="15"/>
@@ -21868,24 +21887,24 @@
       <c r="GU84" s="13"/>
       <c r="GV84" s="13"/>
     </row>
-    <row r="85" spans="2:204" ht="48.75" customHeight="1">
+    <row r="85" spans="1:204" ht="26.25">
       <c r="B85" s="97"/>
       <c r="C85" s="151" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D85" s="151"/>
       <c r="E85" s="152"/>
       <c r="F85" s="23"/>
       <c r="G85" s="26"/>
       <c r="H85" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I85" s="41"/>
       <c r="J85" s="14">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
@@ -22081,29 +22100,37 @@
       <c r="GU85" s="13"/>
       <c r="GV85" s="13"/>
     </row>
-    <row r="86" spans="2:204" ht="26.25">
-      <c r="B86" s="97"/>
-      <c r="C86" s="151" t="s">
-        <v>281</v>
-      </c>
+    <row r="86" spans="1:204" ht="26.25">
+      <c r="B86" s="153" t="s">
+        <v>273</v>
+      </c>
+      <c r="C86" s="151"/>
       <c r="D86" s="151"/>
       <c r="E86" s="152"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="119" t="s">
-        <v>310</v>
+      <c r="F86" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="I86" s="41"/>
-      <c r="J86" s="14">
-        <v>47</v>
-      </c>
-      <c r="K86" s="14">
-        <v>3</v>
+      <c r="J86" s="100">
+        <v>17</v>
+      </c>
+      <c r="K86" s="100">
+        <v>14</v>
       </c>
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="14"/>
+      <c r="N86" s="14">
+        <v>1</v>
+      </c>
+      <c r="O86" s="14">
+        <v>2</v>
+      </c>
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
       <c r="R86" s="15"/>
@@ -22294,36 +22321,36 @@
       <c r="GU86" s="13"/>
       <c r="GV86" s="13"/>
     </row>
-    <row r="87" spans="2:204" ht="26.25">
+    <row r="87" spans="1:204" ht="26.25">
       <c r="B87" s="153" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C87" s="151"/>
       <c r="D87" s="151"/>
       <c r="E87" s="152"/>
-      <c r="F87" s="47" t="s">
-        <v>39</v>
+      <c r="F87" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I87" s="41"/>
-      <c r="J87" s="100">
-        <v>17</v>
-      </c>
-      <c r="K87" s="100">
-        <v>14</v>
+      <c r="J87" s="14">
+        <v>46</v>
+      </c>
+      <c r="K87" s="14">
+        <v>11</v>
       </c>
       <c r="L87" s="14"/>
       <c r="M87" s="14"/>
       <c r="N87" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O87" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
@@ -22515,37 +22542,29 @@
       <c r="GU87" s="13"/>
       <c r="GV87" s="13"/>
     </row>
-    <row r="88" spans="2:204" ht="26.25">
-      <c r="B88" s="153" t="s">
-        <v>276</v>
-      </c>
-      <c r="C88" s="151"/>
-      <c r="D88" s="151"/>
+    <row r="88" spans="1:204" ht="26.25">
+      <c r="B88" s="159"/>
+      <c r="C88" s="160"/>
+      <c r="D88" s="157" t="s">
+        <v>284</v>
+      </c>
       <c r="E88" s="152"/>
-      <c r="F88" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G88" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H88" s="14" t="s">
-        <v>33</v>
+      <c r="F88" s="23"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="122" t="s">
+        <v>75</v>
       </c>
       <c r="I88" s="41"/>
       <c r="J88" s="14">
         <v>46</v>
       </c>
       <c r="K88" s="14">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L88" s="14"/>
       <c r="M88" s="14"/>
-      <c r="N88" s="14">
-        <v>3</v>
-      </c>
-      <c r="O88" s="14">
-        <v>3</v>
-      </c>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
       <c r="R88" s="15"/>
@@ -22736,17 +22755,17 @@
       <c r="GU88" s="13"/>
       <c r="GV88" s="13"/>
     </row>
-    <row r="89" spans="2:204" ht="26.25">
-      <c r="B89" s="159"/>
-      <c r="C89" s="160"/>
-      <c r="D89" s="157" t="s">
-        <v>286</v>
-      </c>
-      <c r="E89" s="152"/>
+    <row r="89" spans="1:204" ht="30" customHeight="1">
+      <c r="B89" s="161"/>
+      <c r="C89" s="162"/>
+      <c r="D89" s="123"/>
+      <c r="E89" s="99" t="s">
+        <v>285</v>
+      </c>
       <c r="F89" s="23"/>
       <c r="G89" s="26"/>
       <c r="H89" s="122" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I89" s="41"/>
       <c r="J89" s="14">
@@ -22949,24 +22968,22 @@
       <c r="GU89" s="13"/>
       <c r="GV89" s="13"/>
     </row>
-    <row r="90" spans="2:204" ht="30" customHeight="1">
+    <row r="90" spans="1:204" ht="26.25">
       <c r="B90" s="161"/>
-      <c r="C90" s="162"/>
-      <c r="D90" s="123"/>
-      <c r="E90" s="99" t="s">
-        <v>287</v>
-      </c>
+      <c r="C90" s="163"/>
+      <c r="D90" s="158" t="s">
+        <v>283</v>
+      </c>
+      <c r="E90" s="152"/>
       <c r="F90" s="23"/>
       <c r="G90" s="26"/>
-      <c r="H90" s="122" t="s">
-        <v>77</v>
-      </c>
+      <c r="H90" s="14"/>
       <c r="I90" s="41"/>
       <c r="J90" s="14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K90" s="14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L90" s="14"/>
       <c r="M90" s="14"/>
@@ -23162,22 +23179,24 @@
       <c r="GU90" s="13"/>
       <c r="GV90" s="13"/>
     </row>
-    <row r="91" spans="2:204" ht="26.25">
+    <row r="91" spans="1:204" ht="49.5" customHeight="1">
       <c r="B91" s="161"/>
-      <c r="C91" s="163"/>
-      <c r="D91" s="158" t="s">
-        <v>285</v>
-      </c>
-      <c r="E91" s="152"/>
+      <c r="C91" s="162"/>
+      <c r="D91" s="166"/>
+      <c r="E91" s="99" t="s">
+        <v>281</v>
+      </c>
       <c r="F91" s="23"/>
       <c r="G91" s="26"/>
-      <c r="H91" s="14"/>
+      <c r="H91" s="122" t="s">
+        <v>75</v>
+      </c>
       <c r="I91" s="41"/>
       <c r="J91" s="14">
         <v>49</v>
       </c>
       <c r="K91" s="14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L91" s="14"/>
       <c r="M91" s="14"/>
@@ -23373,24 +23392,24 @@
       <c r="GU91" s="13"/>
       <c r="GV91" s="13"/>
     </row>
-    <row r="92" spans="2:204" ht="49.5" customHeight="1">
-      <c r="B92" s="161"/>
-      <c r="C92" s="162"/>
-      <c r="D92" s="166"/>
+    <row r="92" spans="1:204" ht="28.5" customHeight="1">
+      <c r="B92" s="164"/>
+      <c r="C92" s="165"/>
+      <c r="D92" s="167"/>
       <c r="E92" s="99" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F92" s="23"/>
       <c r="G92" s="26"/>
       <c r="H92" s="122" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I92" s="41"/>
       <c r="J92" s="14">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K92" s="14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L92" s="14"/>
       <c r="M92" s="14"/>
@@ -23586,29 +23605,37 @@
       <c r="GU92" s="13"/>
       <c r="GV92" s="13"/>
     </row>
-    <row r="93" spans="2:204" ht="28.5" customHeight="1">
-      <c r="B93" s="164"/>
-      <c r="C93" s="165"/>
-      <c r="D93" s="167"/>
-      <c r="E93" s="99" t="s">
-        <v>284</v>
-      </c>
-      <c r="F93" s="23"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="122" t="s">
-        <v>77</v>
+    <row r="93" spans="1:204" ht="26.25">
+      <c r="B93" s="153" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" s="151"/>
+      <c r="D93" s="154"/>
+      <c r="E93" s="152"/>
+      <c r="F93" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="I93" s="41"/>
-      <c r="J93" s="14">
+      <c r="J93" s="121">
         <v>50</v>
       </c>
-      <c r="K93" s="14">
+      <c r="K93" s="121">
         <v>7</v>
       </c>
       <c r="L93" s="14"/>
       <c r="M93" s="14"/>
-      <c r="N93" s="14"/>
-      <c r="O93" s="14"/>
+      <c r="N93" s="14">
+        <v>2</v>
+      </c>
+      <c r="O93" s="14">
+        <v>2</v>
+      </c>
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
       <c r="R93" s="15"/>
@@ -23799,37 +23826,29 @@
       <c r="GU93" s="13"/>
       <c r="GV93" s="13"/>
     </row>
-    <row r="94" spans="2:204" ht="26.25">
-      <c r="B94" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="C94" s="151"/>
-      <c r="D94" s="154"/>
+    <row r="94" spans="1:204" ht="47.25" customHeight="1">
+      <c r="B94" s="97"/>
+      <c r="C94" s="98"/>
+      <c r="D94" s="151" t="s">
+        <v>309</v>
+      </c>
       <c r="E94" s="152"/>
-      <c r="F94" s="23" t="s">
+      <c r="F94" s="114"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="I94" s="117"/>
+      <c r="J94" s="14">
         <v>29</v>
       </c>
-      <c r="G94" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="H94" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I94" s="41"/>
-      <c r="J94" s="121">
-        <v>50</v>
-      </c>
-      <c r="K94" s="121">
-        <v>7</v>
-      </c>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="14">
-        <v>2</v>
-      </c>
-      <c r="O94" s="14">
-        <v>2</v>
-      </c>
+      <c r="K94" s="14">
+        <v>1</v>
+      </c>
+      <c r="L94" s="116"/>
+      <c r="M94" s="116"/>
+      <c r="N94" s="116"/>
+      <c r="O94" s="116"/>
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
       <c r="R94" s="15"/>
@@ -24020,24 +24039,24 @@
       <c r="GU94" s="13"/>
       <c r="GV94" s="13"/>
     </row>
-    <row r="95" spans="2:204" ht="47.25" customHeight="1">
+    <row r="95" spans="1:204" ht="27" customHeight="1">
       <c r="B95" s="97"/>
       <c r="C95" s="98"/>
       <c r="D95" s="151" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E95" s="152"/>
       <c r="F95" s="114"/>
       <c r="G95" s="46"/>
       <c r="H95" s="115" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="I95" s="117"/>
       <c r="J95" s="14">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="K95" s="14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L95" s="116"/>
       <c r="M95" s="116"/>
@@ -24233,32 +24252,33 @@
       <c r="GU95" s="13"/>
       <c r="GV95" s="13"/>
     </row>
-    <row r="96" spans="2:204" ht="27" customHeight="1">
-      <c r="B96" s="97"/>
-      <c r="C96" s="98"/>
-      <c r="D96" s="151" t="s">
+    <row r="96" spans="1:204" ht="31.5" customHeight="1">
+      <c r="A96" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="155" t="s">
         <v>312</v>
       </c>
-      <c r="E96" s="152"/>
-      <c r="F96" s="114"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="115" t="s">
-        <v>282</v>
-      </c>
-      <c r="I96" s="117"/>
-      <c r="J96" s="14">
-        <v>50</v>
-      </c>
-      <c r="K96" s="14">
-        <v>7</v>
-      </c>
-      <c r="L96" s="116"/>
-      <c r="M96" s="116"/>
-      <c r="N96" s="116"/>
-      <c r="O96" s="116"/>
-      <c r="P96" s="14"/>
-      <c r="Q96" s="14"/>
-      <c r="R96" s="15"/>
+      <c r="C96" s="156"/>
+      <c r="D96" s="156"/>
+      <c r="E96" s="156"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="118">
+        <v>57</v>
+      </c>
+      <c r="K96" s="118">
+        <v>68</v>
+      </c>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="10"/>
       <c r="S96" s="12"/>
       <c r="T96" s="12"/>
       <c r="U96" s="12"/>
@@ -24446,33 +24466,40 @@
       <c r="GU96" s="13"/>
       <c r="GV96" s="13"/>
     </row>
-    <row r="97" spans="1:204" ht="31.5" customHeight="1">
-      <c r="A97" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97" s="155" t="s">
-        <v>314</v>
-      </c>
-      <c r="C97" s="156"/>
-      <c r="D97" s="156"/>
-      <c r="E97" s="156"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="118">
+    <row r="97" spans="2:204" ht="26.25">
+      <c r="B97" s="153" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="151"/>
+      <c r="D97" s="151"/>
+      <c r="E97" s="152"/>
+      <c r="F97" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I97" s="41"/>
+      <c r="J97" s="120">
         <v>57</v>
       </c>
-      <c r="K97" s="118">
-        <v>68</v>
-      </c>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="9"/>
-      <c r="Q97" s="9"/>
-      <c r="R97" s="10"/>
+      <c r="K97" s="14">
+        <v>17</v>
+      </c>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="14">
+        <v>2</v>
+      </c>
+      <c r="O97" s="14">
+        <v>2</v>
+      </c>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="14"/>
+      <c r="R97" s="15"/>
       <c r="S97" s="12"/>
       <c r="T97" s="12"/>
       <c r="U97" s="12"/>
@@ -24660,37 +24687,29 @@
       <c r="GU97" s="13"/>
       <c r="GV97" s="13"/>
     </row>
-    <row r="98" spans="1:204" ht="26.25">
-      <c r="B98" s="153" t="s">
-        <v>49</v>
-      </c>
-      <c r="C98" s="151"/>
+    <row r="98" spans="2:204" ht="48" customHeight="1">
+      <c r="B98" s="97"/>
+      <c r="C98" s="151" t="s">
+        <v>296</v>
+      </c>
       <c r="D98" s="151"/>
       <c r="E98" s="152"/>
-      <c r="F98" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G98" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H98" s="14" t="s">
-        <v>77</v>
+      <c r="F98" s="23"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="119" t="s">
+        <v>75</v>
       </c>
       <c r="I98" s="41"/>
       <c r="J98" s="120">
         <v>57</v>
       </c>
       <c r="K98" s="14">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
-      <c r="N98" s="14">
-        <v>2</v>
-      </c>
-      <c r="O98" s="14">
-        <v>2</v>
-      </c>
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
       <c r="R98" s="15"/>
@@ -24881,7 +24900,7 @@
       <c r="GU98" s="13"/>
       <c r="GV98" s="13"/>
     </row>
-    <row r="99" spans="1:204" ht="48" customHeight="1">
+    <row r="99" spans="2:204" ht="26.25">
       <c r="B99" s="97"/>
       <c r="C99" s="151" t="s">
         <v>298</v>
@@ -24891,14 +24910,14 @@
       <c r="F99" s="23"/>
       <c r="G99" s="16"/>
       <c r="H99" s="119" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I99" s="41"/>
       <c r="J99" s="120">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K99" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
@@ -25094,24 +25113,24 @@
       <c r="GU99" s="13"/>
       <c r="GV99" s="13"/>
     </row>
-    <row r="100" spans="1:204" ht="26.25">
+    <row r="100" spans="2:204" ht="26.25">
       <c r="B100" s="97"/>
       <c r="C100" s="151" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D100" s="151"/>
       <c r="E100" s="152"/>
       <c r="F100" s="23"/>
       <c r="G100" s="16"/>
       <c r="H100" s="119" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I100" s="41"/>
       <c r="J100" s="120">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K100" s="14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
@@ -25307,24 +25326,24 @@
       <c r="GU100" s="13"/>
       <c r="GV100" s="13"/>
     </row>
-    <row r="101" spans="1:204" ht="26.25">
+    <row r="101" spans="2:204" ht="26.25">
       <c r="B101" s="97"/>
       <c r="C101" s="151" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="D101" s="151"/>
       <c r="E101" s="152"/>
       <c r="F101" s="23"/>
       <c r="G101" s="16"/>
       <c r="H101" s="119" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I101" s="41"/>
       <c r="J101" s="120">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K101" s="14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
@@ -25520,21 +25539,21 @@
       <c r="GU101" s="13"/>
       <c r="GV101" s="13"/>
     </row>
-    <row r="102" spans="1:204" ht="26.25">
+    <row r="102" spans="2:204" ht="26.25">
       <c r="B102" s="97"/>
       <c r="C102" s="151" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="D102" s="151"/>
       <c r="E102" s="152"/>
       <c r="F102" s="23"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="119" t="s">
-        <v>77</v>
+      <c r="G102" s="26"/>
+      <c r="H102" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="I102" s="41"/>
-      <c r="J102" s="120">
-        <v>71</v>
+      <c r="J102" s="119">
+        <v>72</v>
       </c>
       <c r="K102" s="14">
         <v>1</v>
@@ -25733,29 +25752,35 @@
       <c r="GU102" s="13"/>
       <c r="GV102" s="13"/>
     </row>
-    <row r="103" spans="1:204" ht="26.25">
-      <c r="B103" s="97"/>
-      <c r="C103" s="151" t="s">
-        <v>313</v>
-      </c>
+    <row r="103" spans="2:204" ht="26.25">
+      <c r="B103" s="153" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="151"/>
       <c r="D103" s="151"/>
       <c r="E103" s="152"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="26"/>
+      <c r="F103" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" s="14"/>
       <c r="H103" s="14" t="s">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="I103" s="41"/>
-      <c r="J103" s="119">
-        <v>72</v>
+      <c r="J103" s="14">
+        <v>73</v>
       </c>
       <c r="K103" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L103" s="14"/>
       <c r="M103" s="14"/>
-      <c r="N103" s="14"/>
-      <c r="O103" s="14"/>
+      <c r="N103" s="14">
+        <v>2</v>
+      </c>
+      <c r="O103" s="14">
+        <v>2</v>
+      </c>
       <c r="P103" s="14"/>
       <c r="Q103" s="14"/>
       <c r="R103" s="15"/>
@@ -25946,35 +25971,29 @@
       <c r="GU103" s="13"/>
       <c r="GV103" s="13"/>
     </row>
-    <row r="104" spans="1:204" ht="26.25">
-      <c r="B104" s="153" t="s">
-        <v>50</v>
-      </c>
-      <c r="C104" s="151"/>
+    <row r="104" spans="2:204" ht="48.75" customHeight="1">
+      <c r="B104" s="97"/>
+      <c r="C104" s="151" t="s">
+        <v>278</v>
+      </c>
       <c r="D104" s="151"/>
       <c r="E104" s="152"/>
-      <c r="F104" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14" t="s">
-        <v>310</v>
+      <c r="F104" s="23"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="119" t="s">
+        <v>308</v>
       </c>
       <c r="I104" s="41"/>
       <c r="J104" s="14">
         <v>73</v>
       </c>
       <c r="K104" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
-      <c r="N104" s="14">
-        <v>2</v>
-      </c>
-      <c r="O104" s="14">
-        <v>2</v>
-      </c>
+      <c r="N104" s="14"/>
+      <c r="O104" s="14"/>
       <c r="P104" s="14"/>
       <c r="Q104" s="14"/>
       <c r="R104" s="15"/>
@@ -26165,24 +26184,24 @@
       <c r="GU104" s="13"/>
       <c r="GV104" s="13"/>
     </row>
-    <row r="105" spans="1:204" ht="48.75" customHeight="1">
+    <row r="105" spans="2:204" ht="26.25">
       <c r="B105" s="97"/>
       <c r="C105" s="151" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="D105" s="151"/>
       <c r="E105" s="152"/>
       <c r="F105" s="23"/>
       <c r="G105" s="26"/>
       <c r="H105" s="119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I105" s="41"/>
       <c r="J105" s="14">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K105" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L105" s="14"/>
       <c r="M105" s="14"/>
@@ -26378,29 +26397,35 @@
       <c r="GU105" s="13"/>
       <c r="GV105" s="13"/>
     </row>
-    <row r="106" spans="1:204" ht="26.25">
-      <c r="B106" s="97"/>
-      <c r="C106" s="151" t="s">
-        <v>306</v>
-      </c>
+    <row r="106" spans="2:204" ht="26.25">
+      <c r="B106" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C106" s="151"/>
       <c r="D106" s="151"/>
       <c r="E106" s="152"/>
-      <c r="F106" s="23"/>
+      <c r="F106" s="47" t="s">
+        <v>39</v>
+      </c>
       <c r="G106" s="26"/>
-      <c r="H106" s="119" t="s">
-        <v>310</v>
+      <c r="H106" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="I106" s="41"/>
-      <c r="J106" s="14">
-        <v>74</v>
-      </c>
-      <c r="K106" s="14">
-        <v>2</v>
+      <c r="J106" s="121">
+        <v>57</v>
+      </c>
+      <c r="K106" s="121">
+        <v>14</v>
       </c>
       <c r="L106" s="14"/>
       <c r="M106" s="14"/>
-      <c r="N106" s="14"/>
-      <c r="O106" s="14"/>
+      <c r="N106" s="14">
+        <v>1</v>
+      </c>
+      <c r="O106" s="14">
+        <v>2</v>
+      </c>
       <c r="P106" s="14"/>
       <c r="Q106" s="14"/>
       <c r="R106" s="15"/>
@@ -26591,34 +26616,36 @@
       <c r="GU106" s="13"/>
       <c r="GV106" s="13"/>
     </row>
-    <row r="107" spans="1:204" ht="26.25">
+    <row r="107" spans="2:204" ht="32.25">
       <c r="B107" s="153" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C107" s="151"/>
       <c r="D107" s="151"/>
       <c r="E107" s="152"/>
-      <c r="F107" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G107" s="26"/>
+      <c r="F107" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G107" s="46" t="s">
+        <v>46</v>
+      </c>
       <c r="H107" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I107" s="41"/>
-      <c r="J107" s="121">
-        <v>57</v>
-      </c>
-      <c r="K107" s="121">
-        <v>14</v>
+      <c r="J107" s="14">
+        <v>76</v>
+      </c>
+      <c r="K107" s="14">
+        <v>16</v>
       </c>
       <c r="L107" s="14"/>
       <c r="M107" s="14"/>
       <c r="N107" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O107" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P107" s="14"/>
       <c r="Q107" s="14"/>
@@ -26810,37 +26837,29 @@
       <c r="GU107" s="13"/>
       <c r="GV107" s="13"/>
     </row>
-    <row r="108" spans="1:204" ht="32.25">
-      <c r="B108" s="153" t="s">
-        <v>295</v>
-      </c>
-      <c r="C108" s="151"/>
+    <row r="108" spans="2:204" ht="26.25">
+      <c r="B108" s="97"/>
+      <c r="C108" s="151" t="s">
+        <v>300</v>
+      </c>
       <c r="D108" s="151"/>
       <c r="E108" s="152"/>
-      <c r="F108" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G108" s="46" t="s">
-        <v>46</v>
-      </c>
+      <c r="F108" s="23"/>
+      <c r="G108" s="46"/>
       <c r="H108" s="14" t="s">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="I108" s="41"/>
       <c r="J108" s="14">
         <v>76</v>
       </c>
       <c r="K108" s="14">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L108" s="14"/>
       <c r="M108" s="14"/>
-      <c r="N108" s="14">
-        <v>3</v>
-      </c>
-      <c r="O108" s="14">
-        <v>3</v>
-      </c>
+      <c r="N108" s="14"/>
+      <c r="O108" s="14"/>
       <c r="P108" s="14"/>
       <c r="Q108" s="14"/>
       <c r="R108" s="15"/>
@@ -27031,24 +27050,24 @@
       <c r="GU108" s="13"/>
       <c r="GV108" s="13"/>
     </row>
-    <row r="109" spans="1:204" ht="26.25">
+    <row r="109" spans="2:204" ht="26.25">
       <c r="B109" s="97"/>
       <c r="C109" s="151" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D109" s="151"/>
       <c r="E109" s="152"/>
       <c r="F109" s="23"/>
       <c r="G109" s="46"/>
       <c r="H109" s="14" t="s">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="I109" s="41"/>
       <c r="J109" s="14">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K109" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L109" s="14"/>
       <c r="M109" s="14"/>
@@ -27244,24 +27263,24 @@
       <c r="GU109" s="13"/>
       <c r="GV109" s="13"/>
     </row>
-    <row r="110" spans="1:204" ht="26.25">
+    <row r="110" spans="2:204" ht="26.25">
       <c r="B110" s="97"/>
       <c r="C110" s="151" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D110" s="151"/>
       <c r="E110" s="152"/>
       <c r="F110" s="23"/>
       <c r="G110" s="46"/>
       <c r="H110" s="14" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I110" s="41"/>
       <c r="J110" s="14">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K110" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L110" s="14"/>
       <c r="M110" s="14"/>
@@ -27457,24 +27476,24 @@
       <c r="GU110" s="13"/>
       <c r="GV110" s="13"/>
     </row>
-    <row r="111" spans="1:204" ht="26.25">
+    <row r="111" spans="2:204" ht="26.25">
       <c r="B111" s="97"/>
       <c r="C111" s="151" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D111" s="151"/>
       <c r="E111" s="152"/>
       <c r="F111" s="23"/>
       <c r="G111" s="46"/>
       <c r="H111" s="14" t="s">
-        <v>35</v>
+        <v>308</v>
       </c>
       <c r="I111" s="41"/>
       <c r="J111" s="14">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K111" s="14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L111" s="14"/>
       <c r="M111" s="14"/>
@@ -27670,29 +27689,33 @@
       <c r="GU111" s="13"/>
       <c r="GV111" s="13"/>
     </row>
-    <row r="112" spans="1:204" ht="26.25">
-      <c r="B112" s="97"/>
-      <c r="C112" s="151" t="s">
-        <v>305</v>
-      </c>
-      <c r="D112" s="151"/>
-      <c r="E112" s="152"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="46"/>
-      <c r="H112" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="I112" s="41"/>
-      <c r="J112" s="14">
-        <v>88</v>
-      </c>
-      <c r="K112" s="14">
-        <v>7</v>
-      </c>
-      <c r="L112" s="14"/>
-      <c r="M112" s="14"/>
-      <c r="N112" s="14"/>
-      <c r="O112" s="14"/>
+    <row r="112" spans="2:204" ht="26.25">
+      <c r="B112" s="168" t="s">
+        <v>294</v>
+      </c>
+      <c r="C112" s="169"/>
+      <c r="D112" s="169"/>
+      <c r="E112" s="170"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" s="43"/>
+      <c r="J112" s="17">
+        <v>95</v>
+      </c>
+      <c r="K112" s="17">
+        <v>23</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17">
+        <v>3</v>
+      </c>
+      <c r="O112" s="17">
+        <v>6</v>
+      </c>
       <c r="P112" s="14"/>
       <c r="Q112" s="14"/>
       <c r="R112" s="15"/>
@@ -27883,9 +27906,9 @@
       <c r="GU112" s="13"/>
       <c r="GV112" s="13"/>
     </row>
-    <row r="113" spans="2:204" ht="26.25">
+    <row r="113" spans="2:204" ht="32.25">
       <c r="B113" s="168" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C113" s="169"/>
       <c r="D113" s="169"/>
@@ -27893,22 +27916,22 @@
       <c r="F113" s="24"/>
       <c r="G113" s="17"/>
       <c r="H113" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" s="43"/>
       <c r="J113" s="17">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K113" s="17">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>
       <c r="N113" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O113" s="17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P113" s="14"/>
       <c r="Q113" s="14"/>
@@ -28100,36 +28123,27 @@
       <c r="GU113" s="13"/>
       <c r="GV113" s="13"/>
     </row>
-    <row r="114" spans="2:204" ht="32.25">
-      <c r="B114" s="168" t="s">
-        <v>297</v>
-      </c>
-      <c r="C114" s="169"/>
-      <c r="D114" s="169"/>
-      <c r="E114" s="170"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I114" s="43"/>
-      <c r="J114" s="17">
-        <v>118</v>
-      </c>
-      <c r="K114" s="17">
-        <v>7</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17">
-        <v>4</v>
-      </c>
-      <c r="O114" s="17">
-        <v>2</v>
-      </c>
-      <c r="P114" s="14"/>
-      <c r="Q114" s="14"/>
-      <c r="R114" s="15"/>
+    <row r="114" spans="2:204" ht="30" customHeight="1">
+      <c r="B114" s="148"/>
+      <c r="C114" s="149"/>
+      <c r="D114" s="149"/>
+      <c r="E114" s="150"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="19">
+        <f>SUM(O10:O113)</f>
+        <v>46</v>
+      </c>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="20"/>
       <c r="S114" s="12"/>
       <c r="T114" s="12"/>
       <c r="U114" s="12"/>
@@ -28317,221 +28331,13 @@
       <c r="GU114" s="13"/>
       <c r="GV114" s="13"/>
     </row>
-    <row r="115" spans="2:204" ht="30" customHeight="1">
-      <c r="B115" s="148"/>
-      <c r="C115" s="149"/>
-      <c r="D115" s="149"/>
-      <c r="E115" s="150"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="12"/>
-      <c r="M115" s="12"/>
-      <c r="N115" s="12"/>
-      <c r="O115" s="19">
-        <f>SUM(O10:O114)</f>
-        <v>46</v>
-      </c>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="12"/>
-      <c r="R115" s="20"/>
-      <c r="S115" s="12"/>
-      <c r="T115" s="12"/>
-      <c r="U115" s="12"/>
-      <c r="V115" s="12"/>
-      <c r="W115" s="13"/>
-      <c r="X115" s="12"/>
-      <c r="Y115" s="13"/>
-      <c r="Z115" s="13"/>
-      <c r="AA115" s="13"/>
-      <c r="AB115" s="11"/>
-      <c r="AC115" s="12"/>
-      <c r="AD115" s="12"/>
-      <c r="AE115" s="12"/>
-      <c r="AF115" s="12"/>
-      <c r="AG115" s="12"/>
-      <c r="AH115" s="12"/>
-      <c r="AI115" s="12"/>
-      <c r="AJ115" s="12"/>
-      <c r="AK115" s="12"/>
-      <c r="AL115" s="12"/>
-      <c r="AM115" s="12"/>
-      <c r="AN115" s="12"/>
-      <c r="AO115" s="12"/>
-      <c r="AP115" s="12"/>
-      <c r="AQ115" s="12"/>
-      <c r="AR115" s="12"/>
-      <c r="AS115" s="12"/>
-      <c r="AT115" s="12"/>
-      <c r="AU115" s="12"/>
-      <c r="AV115" s="13"/>
-      <c r="AW115" s="13"/>
-      <c r="AX115" s="13"/>
-      <c r="AY115" s="13"/>
-      <c r="AZ115" s="13"/>
-      <c r="BA115" s="13"/>
-      <c r="BB115" s="13"/>
-      <c r="BC115" s="13"/>
-      <c r="BD115" s="13"/>
-      <c r="BE115" s="13"/>
-      <c r="BF115" s="13"/>
-      <c r="BG115" s="13"/>
-      <c r="BH115" s="13"/>
-      <c r="BI115" s="13"/>
-      <c r="BJ115" s="13"/>
-      <c r="BK115" s="13"/>
-      <c r="BL115" s="13"/>
-      <c r="BM115" s="13"/>
-      <c r="BN115" s="13"/>
-      <c r="BO115" s="13"/>
-      <c r="BP115" s="13"/>
-      <c r="BQ115" s="13"/>
-      <c r="BR115" s="13"/>
-      <c r="BS115" s="13"/>
-      <c r="BT115" s="13"/>
-      <c r="BU115" s="13"/>
-      <c r="BV115" s="13"/>
-      <c r="BW115" s="13"/>
-      <c r="BX115" s="13"/>
-      <c r="BY115" s="13"/>
-      <c r="BZ115" s="13"/>
-      <c r="CA115" s="13"/>
-      <c r="CB115" s="13"/>
-      <c r="CC115" s="13"/>
-      <c r="CD115" s="13"/>
-      <c r="CE115" s="13"/>
-      <c r="CF115" s="13"/>
-      <c r="CG115" s="13"/>
-      <c r="CH115" s="13"/>
-      <c r="CI115" s="13"/>
-      <c r="CJ115" s="13"/>
-      <c r="CK115" s="13"/>
-      <c r="CL115" s="13"/>
-      <c r="CM115" s="13"/>
-      <c r="CN115" s="13"/>
-      <c r="CO115" s="13"/>
-      <c r="CP115" s="13"/>
-      <c r="CQ115" s="13"/>
-      <c r="CR115" s="13"/>
-      <c r="CS115" s="13"/>
-      <c r="CT115" s="13"/>
-      <c r="CU115" s="13"/>
-      <c r="CV115" s="13"/>
-      <c r="CW115" s="13"/>
-      <c r="CX115" s="13"/>
-      <c r="CY115" s="13"/>
-      <c r="CZ115" s="13"/>
-      <c r="DA115" s="13"/>
-      <c r="DB115" s="13"/>
-      <c r="DC115" s="13"/>
-      <c r="DD115" s="13"/>
-      <c r="DE115" s="13"/>
-      <c r="DF115" s="13"/>
-      <c r="DG115" s="13"/>
-      <c r="DH115" s="13"/>
-      <c r="DI115" s="13"/>
-      <c r="DJ115" s="13"/>
-      <c r="DK115" s="13"/>
-      <c r="DL115" s="13"/>
-      <c r="DM115" s="13"/>
-      <c r="DN115" s="13"/>
-      <c r="DO115" s="13"/>
-      <c r="DP115" s="13"/>
-      <c r="DQ115" s="13"/>
-      <c r="DR115" s="13"/>
-      <c r="DS115" s="13"/>
-      <c r="DT115" s="13"/>
-      <c r="DU115" s="13"/>
-      <c r="DV115" s="13"/>
-      <c r="DW115" s="13"/>
-      <c r="DX115" s="13"/>
-      <c r="DY115" s="13"/>
-      <c r="DZ115" s="13"/>
-      <c r="EA115" s="13"/>
-      <c r="EB115" s="13"/>
-      <c r="EC115" s="13"/>
-      <c r="ED115" s="13"/>
-      <c r="EE115" s="13"/>
-      <c r="EF115" s="13"/>
-      <c r="EG115" s="13"/>
-      <c r="EH115" s="13"/>
-      <c r="EI115" s="13"/>
-      <c r="EJ115" s="13"/>
-      <c r="EK115" s="13"/>
-      <c r="EL115" s="13"/>
-      <c r="EM115" s="13"/>
-      <c r="EN115" s="13"/>
-      <c r="EO115" s="13"/>
-      <c r="EP115" s="13"/>
-      <c r="EQ115" s="13"/>
-      <c r="ER115" s="13"/>
-      <c r="ES115" s="13"/>
-      <c r="ET115" s="13"/>
-      <c r="EU115" s="13"/>
-      <c r="EV115" s="13"/>
-      <c r="EW115" s="13"/>
-      <c r="EX115" s="13"/>
-      <c r="EY115" s="13"/>
-      <c r="EZ115" s="13"/>
-      <c r="FA115" s="13"/>
-      <c r="FB115" s="13"/>
-      <c r="FC115" s="13"/>
-      <c r="FD115" s="13"/>
-      <c r="FE115" s="13"/>
-      <c r="FF115" s="13"/>
-      <c r="FG115" s="13"/>
-      <c r="FH115" s="13"/>
-      <c r="FI115" s="13"/>
-      <c r="FJ115" s="13"/>
-      <c r="FK115" s="13"/>
-      <c r="FL115" s="13"/>
-      <c r="FM115" s="13"/>
-      <c r="FN115" s="13"/>
-      <c r="FO115" s="13"/>
-      <c r="FP115" s="13"/>
-      <c r="FQ115" s="13"/>
-      <c r="FR115" s="13"/>
-      <c r="FS115" s="13"/>
-      <c r="FT115" s="13"/>
-      <c r="FU115" s="13"/>
-      <c r="FV115" s="13"/>
-      <c r="FW115" s="13"/>
-      <c r="FX115" s="13"/>
-      <c r="FY115" s="13"/>
-      <c r="FZ115" s="13"/>
-      <c r="GA115" s="13"/>
-      <c r="GB115" s="13"/>
-      <c r="GC115" s="13"/>
-      <c r="GD115" s="13"/>
-      <c r="GE115" s="13"/>
-      <c r="GF115" s="13"/>
-      <c r="GG115" s="13"/>
-      <c r="GH115" s="13"/>
-      <c r="GI115" s="13"/>
-      <c r="GJ115" s="13"/>
-      <c r="GK115" s="13"/>
-      <c r="GL115" s="13"/>
-      <c r="GM115" s="13"/>
-      <c r="GN115" s="13"/>
-      <c r="GO115" s="13"/>
-      <c r="GP115" s="13"/>
-      <c r="GQ115" s="13"/>
-      <c r="GR115" s="13"/>
-      <c r="GS115" s="13"/>
-      <c r="GT115" s="13"/>
-      <c r="GU115" s="13"/>
-      <c r="GV115" s="13"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A9:K114" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A9:K113" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
-  <mergeCells count="126">
+  <mergeCells count="125">
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="AK1:AN1"/>
     <mergeCell ref="AP1:AS1"/>
@@ -28550,101 +28356,101 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="R6:R7"/>
+    <mergeCell ref="D74:E74"/>
     <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="C101:E101"/>
     <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="B113:E113"/>
     <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B106:E106"/>
     <mergeCell ref="B6:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B38:E38"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="C81:E81"/>
     <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
     <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C104:E104"/>
     <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C79:E79"/>
     <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C46:E46"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
     <mergeCell ref="C24:E24"/>
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="C109:E109"/>
     <mergeCell ref="C110:E110"/>
     <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B96:E96"/>
     <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D94:E94"/>
     <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B89:C93"/>
-    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="B88:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="C98:E98"/>
     <mergeCell ref="C99:E99"/>
     <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B50:E50"/>
     <mergeCell ref="C41:E41"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B51:E51"/>
     <mergeCell ref="C42:E42"/>
     <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="D70:E70"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="B53:B73"/>
-    <mergeCell ref="C61:C73"/>
-    <mergeCell ref="D63:D70"/>
-    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="B52:B72"/>
+    <mergeCell ref="C60:C72"/>
+    <mergeCell ref="D62:D69"/>
     <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C34:E34"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B28:E28"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
@@ -28652,15 +28458,14 @@
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C44:E44"/>
     <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="AA107:GV114 S9:GV31 S32:X32 Z32:AB32 AD32:GV32 S33:GV106">
+  <conditionalFormatting sqref="AA106:GV113 S31:X31 Z31:AB31 AD31:GV31 S32:GV105 S9:GV30">
     <cfRule type="expression" dxfId="64" priority="774">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28691,7 +28496,7 @@
       <formula>S$7=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S108:W114">
+  <conditionalFormatting sqref="S107:W113">
     <cfRule type="expression" dxfId="55" priority="757">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28717,7 +28522,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S107:W107">
+  <conditionalFormatting sqref="S106:W106">
     <cfRule type="expression" dxfId="47" priority="749">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28743,7 +28548,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X108:Y114">
+  <conditionalFormatting sqref="X107:Y113">
     <cfRule type="expression" dxfId="39" priority="538">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28769,7 +28574,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X107:Y107">
+  <conditionalFormatting sqref="X106:Y106">
     <cfRule type="expression" dxfId="31" priority="530">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28795,7 +28600,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z108:Z114">
+  <conditionalFormatting sqref="Z107:Z113">
     <cfRule type="expression" dxfId="23" priority="385">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28821,7 +28626,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z107">
+  <conditionalFormatting sqref="Z106">
     <cfRule type="expression" dxfId="15" priority="377">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -28847,7 +28652,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC32">
+  <conditionalFormatting sqref="AC31">
     <cfRule type="expression" dxfId="7" priority="791">
       <formula>PercentComplete</formula>
     </cfRule>
